--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E663E-3F21-46AB-84D3-E6AD58D3534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE3676F-4BA7-4E78-97D0-853D19F6CE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -69,9 +80,6 @@
     <t>Total Frames</t>
   </si>
   <si>
-    <t>Total Frame Time (Seconds)</t>
-  </si>
-  <si>
     <t>Constant Memory (Bytes)</t>
   </si>
   <si>
@@ -81,10 +89,40 @@
     <t>Global Memory (Bytes)</t>
   </si>
   <si>
-    <t>Maximum Frame Time (Seconds)</t>
+    <t>NVIDIA GeForce GTX 1660 Ti</t>
   </si>
   <si>
-    <t>Minimum Frame Time (Seconds)</t>
+    <t>Average FPS</t>
+  </si>
+  <si>
+    <t>Minimum Frame Time (s)</t>
+  </si>
+  <si>
+    <t>Maximum Frame Time (s)</t>
+  </si>
+  <si>
+    <t>Average Frame Time (s)</t>
+  </si>
+  <si>
+    <t>Minimum FPS</t>
+  </si>
+  <si>
+    <t>Maximum FPS</t>
+  </si>
+  <si>
+    <t>Total Number of Pixels</t>
+  </si>
+  <si>
+    <t>Total Duration (s)</t>
+  </si>
+  <si>
+    <t>Global Memory (GB)</t>
+  </si>
+  <si>
+    <t>Local Memory (KB)</t>
+  </si>
+  <si>
+    <t>Constant Memory (KB)</t>
   </si>
 </sst>
 </file>
@@ -100,12 +138,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,8 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +190,2263 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernels/mandelbulb.cl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trend (mandelbulb.cl)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Data'!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Data'!$V$3:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.272155382760111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0831454261480165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8079667742205725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07D7-42A5-AD8B-83991A3A7B18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="691998384"/>
+        <c:axId val="691998800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="691998384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Parallel Compute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Units</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691998800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="691998800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Frames per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691998384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernels/mandelbulb.cl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trend (mandelbulb.cl)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Data'!$R$3:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5894103039999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4419921919999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2949672960000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Data'!$V$3:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.272155382760111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0831454261480165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8079667742205725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCB4-4915-979C-493C200EF667}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="691998384"/>
+        <c:axId val="691998800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="691998384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Available GPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Memory (GB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691998800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="691998800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Frames per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691998384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B79A8E-4D06-475F-820B-3B559431C4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD301833-3083-4061-B9B2-896D687455D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O4"/>
+  <dimension ref="A2:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,67 +2723,100 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>19</v>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -519,8 +2862,40 @@
       <c r="O3">
         <v>1.9734499999999999E-2</v>
       </c>
+      <c r="Q3">
+        <f>B3*C3</f>
+        <v>2073600</v>
+      </c>
+      <c r="R3" s="3">
+        <f>I3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="S3" s="3">
+        <f>J3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T3" s="3">
+        <f>K3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U3">
+        <f>L3/M3</f>
+        <v>4.1199472573839664E-2</v>
+      </c>
+      <c r="V3">
+        <f>1/U3</f>
+        <v>24.272155382760111</v>
+      </c>
+      <c r="W3">
+        <f>1/O3</f>
+        <v>50.672679824672528</v>
+      </c>
+      <c r="X3">
+        <f>1/N3</f>
+        <v>15.657808000826732</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -531,22 +2906,22 @@
         <v>1080</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>256</v>
       </c>
       <c r="G4">
-        <v>1253</v>
+        <v>1770</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>4294967296</v>
+        <v>6441992192</v>
       </c>
       <c r="J4">
         <v>49152</v>
@@ -555,19 +2930,145 @@
         <v>65536</v>
       </c>
       <c r="L4">
+        <v>39.248100000000001</v>
+      </c>
+      <c r="M4">
+        <v>278</v>
+      </c>
+      <c r="N4">
+        <v>0.235572</v>
+      </c>
+      <c r="O4">
+        <v>6.2359900000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q5" si="0">B4*C4</f>
+        <v>2073600</v>
+      </c>
+      <c r="R4" s="3">
+        <f>I4/1000000000</f>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" ref="S4:S5" si="1">J4/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" ref="T4:T5" si="2">K4/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U4">
+        <f>L4/M4</f>
+        <v>0.14118021582733814</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V5" si="3">1/U4</f>
+        <v>7.0831454261480165</v>
+      </c>
+      <c r="W4">
+        <f>1/O4</f>
+        <v>16.035946176950251</v>
+      </c>
+      <c r="X4">
+        <f>1/N4</f>
+        <v>4.244986670741854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1920</v>
+      </c>
+      <c r="C5">
+        <v>1080</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>256</v>
+      </c>
+      <c r="G5">
+        <v>1253</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>4294967296</v>
+      </c>
+      <c r="J5">
+        <v>49152</v>
+      </c>
+      <c r="K5">
+        <v>65536</v>
+      </c>
+      <c r="L5">
         <v>39.391100000000002</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>150</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.43477199999999999</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>0.117463</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="R5" s="3">
+        <f>I5/1000000000</f>
+        <v>4.2949672960000003</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="1"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U5">
+        <f>L5/M5</f>
+        <v>0.26260733333333336</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>3.8079667742205725</v>
+      </c>
+      <c r="W5">
+        <f>1/O5</f>
+        <v>8.5133190877127269</v>
+      </c>
+      <c r="X5">
+        <f>1/N5</f>
+        <v>2.3000561213693613</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE3676F-4BA7-4E78-97D0-853D19F6CE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03964781-25D8-4C7A-AB68-F68A44A3C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Constant Memory (KB)</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080</t>
+  </si>
+  <si>
+    <t>../../../../FractalGeometryRenderer/kernels/mandelbulb.cl</t>
   </si>
 </sst>
 </file>
@@ -314,8 +320,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -351,10 +356,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Raw Data'!$H$3:$H$5</c:f>
+              <c:f>'Raw Data'!$H$3:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -364,15 +369,18 @@
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Raw Data'!$V$3:$V$5</c:f>
+              <c:f>'Raw Data'!$V$3:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.272155382760111</c:v>
                 </c:pt>
@@ -381,6 +389,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8079667742205725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.809831824062101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,13 +456,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of Parallel Compute</a:t>
+                  <a:t>Number of Parallel Compute Units</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Units</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -884,10 +890,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Raw Data'!$R$3:$R$5</c:f>
+              <c:f>'Raw Data'!$R$3:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8.5894103039999994</c:v>
                 </c:pt>
@@ -897,15 +903,18 @@
                 <c:pt idx="2">
                   <c:v>4.2949672960000003</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.736762880000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Raw Data'!$V$3:$V$5</c:f>
+              <c:f>'Raw Data'!$V$3:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.272155382760111</c:v>
                 </c:pt>
@@ -914,6 +923,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8079667742205725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.809831824062101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,6 +1270,538 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Data'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>../../../../FractalGeometryRenderer/kernels/mandelbulb.cl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trend (mandelbulb.cl)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Data'!$Q$15:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3686400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Data'!$V$15:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.095343340000461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.878609962651588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.29351390899928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07D7-42A5-AD8B-83991A3A7B18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="691998384"/>
+        <c:axId val="691998800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="691998384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Pixels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691998800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="691998800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Frames per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691998384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1338,6 +1882,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1855,6 +2439,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2441,6 +3541,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB003A2-9286-43FA-B8C6-5A8D09031E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2712,15 +3848,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X5"/>
+  <dimension ref="A2:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
@@ -3053,6 +4189,382 @@
         <v>2.3000561213693613</v>
       </c>
     </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1920</v>
+      </c>
+      <c r="C6">
+        <v>1080</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>1845</v>
+      </c>
+      <c r="H6">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>10736762880</v>
+      </c>
+      <c r="J6">
+        <v>49152</v>
+      </c>
+      <c r="K6">
+        <v>65536</v>
+      </c>
+      <c r="L6">
+        <v>39.036499999999997</v>
+      </c>
+      <c r="M6">
+        <v>1515</v>
+      </c>
+      <c r="N6">
+        <v>3.9475999999999997E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.31985E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q17" si="4">B6*C6</f>
+        <v>2073600</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R16" si="5">I6/1000000000</f>
+        <v>10.736762880000001</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S17" si="6">J6/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T17" si="7">K6/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U16" si="8">L6/M6</f>
+        <v>2.5766666666666663E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V17" si="9">1/U6</f>
+        <v>38.809831824062101</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W16" si="10">1/O6</f>
+        <v>75.766185551388418</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X16" si="11">1/N6</f>
+        <v>25.331847198297702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1920</v>
+      </c>
+      <c r="C15">
+        <v>1080</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15">
+        <v>1665</v>
+      </c>
+      <c r="H15">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>8589410304</v>
+      </c>
+      <c r="J15">
+        <v>49152</v>
+      </c>
+      <c r="K15">
+        <v>65536</v>
+      </c>
+      <c r="L15">
+        <v>39.0473</v>
+      </c>
+      <c r="M15">
+        <v>1058</v>
+      </c>
+      <c r="N15">
+        <v>5.4805300000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.9339800000000001E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15" si="12">B15*C15</f>
+        <v>2073600</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" ref="R15" si="13">I15/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" ref="S15" si="14">J15/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" ref="T15" si="15">K15/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15" si="16">L15/M15</f>
+        <v>3.6906710775047258E-2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15" si="17">1/U15</f>
+        <v>27.095343340000461</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15" si="18">1/O15</f>
+        <v>51.706842883587214</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15" si="19">1/N15</f>
+        <v>18.246410474899324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1366</v>
+      </c>
+      <c r="C16">
+        <v>768</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>256</v>
+      </c>
+      <c r="G16">
+        <v>1665</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>8589410304</v>
+      </c>
+      <c r="J16">
+        <v>49152</v>
+      </c>
+      <c r="K16">
+        <v>65536</v>
+      </c>
+      <c r="L16">
+        <v>39.037799999999997</v>
+      </c>
+      <c r="M16">
+        <v>1791</v>
+      </c>
+      <c r="N16">
+        <v>3.2864999999999998E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.11924E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q17" si="20">B16*C16</f>
+        <v>1049088</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" ref="R16:R17" si="21">I16/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" ref="S16:S17" si="22">J16/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" ref="T16:T17" si="23">K16/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U17" si="24">L16/M16</f>
+        <v>2.1796649916247905E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V17" si="25">1/U16</f>
+        <v>45.878609962651588</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16:W17" si="26">1/O16</f>
+        <v>89.346342160751945</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:X17" si="27">1/N16</f>
+        <v>30.427506465845127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>2560</v>
+      </c>
+      <c r="C17">
+        <v>1440</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>256</v>
+      </c>
+      <c r="G17">
+        <v>1665</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>8589410304</v>
+      </c>
+      <c r="J17">
+        <v>49152</v>
+      </c>
+      <c r="K17">
+        <v>65536</v>
+      </c>
+      <c r="L17">
+        <v>39.089799999999997</v>
+      </c>
+      <c r="M17">
+        <v>676</v>
+      </c>
+      <c r="N17">
+        <v>8.3523399999999998E-2</v>
+      </c>
+      <c r="O17">
+        <v>3.0041700000000001E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="20"/>
+        <v>3686400</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="21"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="22"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="23"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="24"/>
+        <v>5.7825147928994076E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="25"/>
+        <v>17.29351390899928</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="26"/>
+        <v>33.287064313936959</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="27"/>
+        <v>11.972692682529686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3062,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03964781-25D8-4C7A-AB68-F68A44A3C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281B3B2-1C10-4400-A026-33EE6DDF5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Mandelbulb" sheetId="3" r:id="rId3"/>
+    <sheet name="Sierpinski" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -129,6 +131,90 @@
   </si>
   <si>
     <t>../../../../FractalGeometryRenderer/kernels/mandelbulb.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_ALL.cl</t>
+  </si>
+  <si>
+    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_base.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_hard_shadows.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_linear_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_phong.cl</t>
+  </si>
+  <si>
+    <t>Build Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>Scene Description</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>All features</t>
+  </si>
+  <si>
+    <t>Bounding volume optimisation</t>
+  </si>
+  <si>
+    <t>Hard shadows</t>
+  </si>
+  <si>
+    <t>Linear epsilon optimisation</t>
+  </si>
+  <si>
+    <t>Phong shading</t>
+  </si>
+  <si>
+    <t>Fast maths optimisation</t>
+  </si>
+  <si>
+    <t>Max - Mean</t>
+  </si>
+  <si>
+    <t>Mean - Min</t>
+  </si>
+  <si>
+    <t>Mean FPS</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_ALL.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_base.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_linear_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_phong.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_soft_shadows.cl</t>
+  </si>
+  <si>
+    <t>Soft shadows</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_hard_shadows.cl</t>
   </si>
 </sst>
 </file>
@@ -1802,6 +1888,1240 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mandelbulb</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Scene Optimisations and Features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Mandelbulb!$Y$2:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.778236962841035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.155767334866908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.3106783497785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.776749220504371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.490045218330295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.099766965388888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.923762584458089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A41-466A-83EC-AC49AAF1A0F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mandelbulb!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bounding volume optimisation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear epsilon optimisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fast maths optimisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mandelbulb!$X$2:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.341186198139987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.543624023457525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.794210669304867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.069473662632632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.723713262603546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.662417102765676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.35935776035307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A41-466A-83EC-AC49AAF1A0F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Min FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Mandelbulb!$Z$2:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18.84062339854701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.651253592030105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.706024538881699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2095543226276995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.04135786764293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.420849239993444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.199233682453283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A41-466A-83EC-AC49AAF1A0F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="229290624"/>
+        <c:axId val="228701984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229290624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Optimisations/Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228701984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228701984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frames Per Second (FPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229290624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sierpinski Collection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Scene Optimisations and Features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sierpinski!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bounding volume optimisation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear epsilon optimisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fast maths optimisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soft shadows</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sierpinski!$Y$2:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>121.56872279899827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.8093875495843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.71346296032067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.03059315363672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.433074123795777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.181984684790976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.840489317509167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.100667036931071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55E6-482B-9FAA-335A91CBB004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sierpinski!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bounding volume optimisation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear epsilon optimisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fast maths optimisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soft shadows</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sierpinski!$X$2:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>107.2054015541454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.3929594542378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.00912347997496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.42156862745097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.863538877565972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.68949689676505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.51311454679773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.24600375334407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55E6-482B-9FAA-335A91CBB004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Min FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sierpinski!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bounding volume optimisation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear epsilon optimisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fast maths optimisation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soft shadows</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sierpinski!$Z$2:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>58.215689128220063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.784730875604048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.942036151859796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.508180588018199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.276061831979995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.253688812836707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.896583973394847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.496236697806999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55E6-482B-9FAA-335A91CBB004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="229290624"/>
+        <c:axId val="228701984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229290624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Optimisations/Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228701984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228701984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frames Per Second (FPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229290624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1922,6 +3242,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3451,6 +4851,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3577,6 +5983,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9059A0-53E4-41DE-A929-9763D7AF9A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8369D432-BF6E-4F4D-B680-D50F7DBE2797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3847,11 +6327,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X21"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="Q3" sqref="Q3:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,35 +6731,35 @@
         <v>1.31985E-2</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q17" si="4">B6*C6</f>
+        <f t="shared" ref="Q6" si="4">B6*C6</f>
         <v>2073600</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R16" si="5">I6/1000000000</f>
+        <f t="shared" ref="R6" si="5">I6/1000000000</f>
         <v>10.736762880000001</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S17" si="6">J6/1000</f>
+        <f t="shared" ref="S6" si="6">J6/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T17" si="7">K6/1000</f>
+        <f t="shared" ref="T6" si="7">K6/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U16" si="8">L6/M6</f>
+        <f t="shared" ref="U6" si="8">L6/M6</f>
         <v>2.5766666666666663E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V17" si="9">1/U6</f>
+        <f t="shared" ref="V6" si="9">1/U6</f>
         <v>38.809831824062101</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W16" si="10">1/O6</f>
+        <f t="shared" ref="W6" si="10">1/O6</f>
         <v>75.766185551388418</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X16" si="11">1/N6</f>
+        <f t="shared" ref="X6" si="11">1/N6</f>
         <v>25.331847198297702</v>
       </c>
     </row>
@@ -4570,17 +7065,1637 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>39.064300000000003</v>
+      </c>
+      <c r="O2">
+        <v>1029</v>
+      </c>
+      <c r="P2">
+        <v>5.30768E-2</v>
+      </c>
+      <c r="Q2">
+        <v>2.2842399999999999E-2</v>
+      </c>
+      <c r="S2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="T2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W2">
+        <f>N2/O2</f>
+        <v>3.7963362487852287E-2</v>
+      </c>
+      <c r="X2">
+        <f>1/W2</f>
+        <v>26.341186198139987</v>
+      </c>
+      <c r="Y2">
+        <f>1/Q2</f>
+        <v>43.778236962841035</v>
+      </c>
+      <c r="Z2">
+        <f>1/P2</f>
+        <v>18.84062339854701</v>
+      </c>
+      <c r="AA2">
+        <f>Y2-X2</f>
+        <v>17.437050764701048</v>
+      </c>
+      <c r="AB2">
+        <f>X2-Z2</f>
+        <v>7.5005627995929771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>39.0152</v>
+      </c>
+      <c r="O3">
+        <v>2050</v>
+      </c>
+      <c r="P3">
+        <v>5.6653200000000001E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.2172000000000001E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="0">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T8" si="1">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U8" si="2">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V8" si="3">M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" si="4">N3/O3</f>
+        <v>1.9031804878048779E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X8" si="5">1/W3</f>
+        <v>52.543624023457525</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y8" si="6">1/Q3</f>
+        <v>82.155767334866908</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z8" si="7">1/P3</f>
+        <v>17.651253592030105</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA8" si="8">Y3-X3</f>
+        <v>29.612143311409383</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB8" si="9">X3-Z3</f>
+        <v>34.892370431427423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>39.016599999999997</v>
+      </c>
+      <c r="O4">
+        <v>2411</v>
+      </c>
+      <c r="P4">
+        <v>2.34159E-2</v>
+      </c>
+      <c r="Q4">
+        <v>9.2326999999999999E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="4"/>
+        <v>1.618274574865201E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="5"/>
+        <v>61.794210669304867</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="6"/>
+        <v>108.3106783497785</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="7"/>
+        <v>42.706024538881699</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="8"/>
+        <v>46.516467680473632</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="9"/>
+        <v>19.088186130423168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>39.026299999999999</v>
+      </c>
+      <c r="O5">
+        <v>1915</v>
+      </c>
+      <c r="P5">
+        <v>0.19195499999999999</v>
+      </c>
+      <c r="Q5">
+        <v>1.23798E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>2.0379268929503917E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>49.069473662632632</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>80.776749220504371</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>5.2095543226276995</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="8"/>
+        <v>31.707275557871739</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>43.859919340004936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>39.040599999999998</v>
+      </c>
+      <c r="O6">
+        <v>1707</v>
+      </c>
+      <c r="P6">
+        <v>3.02651E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.4817E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>2.2870884592852959E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>43.723713262603546</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>67.490045218330295</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>33.04135786764293</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>23.766331955726749</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>10.682355394960616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>39.039299999999997</v>
+      </c>
+      <c r="O7">
+        <v>1158</v>
+      </c>
+      <c r="P7">
+        <v>4.2696999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>2.55756E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>3.3712694300518133E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>29.662417102765676</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>39.099766965388888</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>23.420849239993444</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>9.4373498626232113</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
+        <v>6.2415678627722322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>39.063299999999998</v>
+      </c>
+      <c r="O8">
+        <v>1225</v>
+      </c>
+      <c r="P8">
+        <v>4.5046599999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.8544700000000001E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>3.1888408163265304E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>31.35935776035307</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>53.923762584458089</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>22.199233682453283</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="8"/>
+        <v>22.564404824105019</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="9"/>
+        <v>9.1601240778997877</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F5E1FA-4FA3-4867-B8E6-04C4F7C4055D}">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>15.017899999999999</v>
+      </c>
+      <c r="O2">
+        <v>1610</v>
+      </c>
+      <c r="P2">
+        <v>1.7177499999999998E-2</v>
+      </c>
+      <c r="Q2">
+        <v>8.2258000000000001E-3</v>
+      </c>
+      <c r="S2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="T2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W2">
+        <f>N2/O2</f>
+        <v>9.3278881987577632E-3</v>
+      </c>
+      <c r="X2">
+        <f>1/W2</f>
+        <v>107.2054015541454</v>
+      </c>
+      <c r="Y2">
+        <f>1/Q2</f>
+        <v>121.56872279899827</v>
+      </c>
+      <c r="Z2">
+        <f>1/P2</f>
+        <v>58.215689128220063</v>
+      </c>
+      <c r="AA2">
+        <f>Y2-X2</f>
+        <v>14.36332124485287</v>
+      </c>
+      <c r="AB2">
+        <f>X2-Z2</f>
+        <v>48.989712425925333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>15.010199999999999</v>
+      </c>
+      <c r="O3">
+        <v>1627</v>
+      </c>
+      <c r="P3">
+        <v>1.6451500000000001E-2</v>
+      </c>
+      <c r="Q3">
+        <v>8.1426999999999992E-3</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S9" si="0">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T9" si="1">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U9" si="2">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V9" si="3">M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W9" si="4">N3/O3</f>
+        <v>9.2256914566687144E-3</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X9" si="5">1/W3</f>
+        <v>108.3929594542378</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y9" si="6">1/Q3</f>
+        <v>122.8093875495843</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z9" si="7">1/P3</f>
+        <v>60.784730875604048</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA9" si="8">Y3-X3</f>
+        <v>14.416428095346504</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB9" si="9">X3-Z3</f>
+        <v>47.608228578633749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>15.0162</v>
+      </c>
+      <c r="O4">
+        <v>1727</v>
+      </c>
+      <c r="P4">
+        <v>1.8200999999999998E-2</v>
+      </c>
+      <c r="Q4">
+        <v>7.7092999999999997E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="4"/>
+        <v>8.6949623624782858E-3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="5"/>
+        <v>115.00912347997496</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="6"/>
+        <v>129.71346296032067</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="7"/>
+        <v>54.942036151859796</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="8"/>
+        <v>14.704339480345709</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="9"/>
+        <v>60.067087328115164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>15.0144</v>
+      </c>
+      <c r="O5">
+        <v>1748</v>
+      </c>
+      <c r="P5">
+        <v>1.6258000000000002E-2</v>
+      </c>
+      <c r="Q5">
+        <v>7.7501000000000002E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>8.589473684210527E-3</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>116.42156862745097</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>129.03059315363672</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>61.508180588018199</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="8"/>
+        <v>12.609024526185749</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>54.913388039432768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>15.0138</v>
+      </c>
+      <c r="O6">
+        <v>1139</v>
+      </c>
+      <c r="P6">
+        <v>2.0714199999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.18437E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>1.3181562774363477E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>75.863538877565972</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>84.433074123795777</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>48.276061831979995</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>8.5695352462298047</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>27.587477045585977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>15.0327</v>
+      </c>
+      <c r="O7">
+        <v>762</v>
+      </c>
+      <c r="P7">
+        <v>2.7583400000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.7799300000000001E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>1.9727952755905512E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>50.68949689676505</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>56.181984684790976</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>36.253688812836707</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>5.492487788025926</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
+        <v>14.435808083928343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>15.0253</v>
+      </c>
+      <c r="O8">
+        <v>774</v>
+      </c>
+      <c r="P8">
+        <v>2.86561E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.6995099999999999E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>1.9412532299741603E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>51.51311454679773</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>58.840489317509167</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>34.896583973394847</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="8"/>
+        <v>7.3273747707114367</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="9"/>
+        <v>16.616530573402883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>15.0266</v>
+      </c>
+      <c r="O9">
+        <v>740</v>
+      </c>
+      <c r="P9">
+        <v>2.9854100000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.78251E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>2.0306216216216217E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>49.24600375334407</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>56.100667036931071</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="7"/>
+        <v>33.496236697806999</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="8"/>
+        <v>6.8546632835870014</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="9"/>
+        <v>15.74976705553707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281B3B2-1C10-4400-A026-33EE6DDF5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AEA04-F34B-4283-A0F5-831EF3F4E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -216,6 +216,9 @@
   <si>
     <t>kernels/benchmarks/sierpinski_hard_shadows.cl</t>
   </si>
+  <si>
+    <t>Mean Frame Time (s)</t>
+  </si>
 </sst>
 </file>
 
@@ -319,8 +322,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>title</a:t>
+              <a:t>Mandelbulb Benchmark</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Various Computers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -659,7 +667,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Average Frames per Second</a:t>
+                  <a:t>Mean Frames per Second (FPS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1391,7 +1399,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>title</a:t>
+              <a:t>Mandelbulb Benchmark using Various Resolutions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1730,7 +1738,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Average Frames per Second</a:t>
+                  <a:t>Mean Frames per Second (FPS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5880,16 +5888,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6330,8 +6338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7069,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7168,7 +7176,7 @@
         <v>28</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
@@ -7846,8 +7854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F5E1FA-4FA3-4867-B8E6-04C4F7C4055D}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7933,7 +7941,7 @@
         <v>28</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AEA04-F34B-4283-A0F5-831EF3F4E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2194E1-9497-40F5-AA54-19540AD5D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -1935,7 +1935,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Scene Optimisations and Features</a:t>
+              <a:t> Scene Optimisations</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1993,12 +1993,32 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mandelbulb!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bounding volume optimisation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear epsilon optimisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fast maths optimisation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$Y$2:$Y$8</c:f>
+              <c:f>Mandelbulb!$Y$2:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43.778236962841035</c:v>
                 </c:pt>
@@ -2010,15 +2030,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>80.776749220504371</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.490045218330295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.099766965388888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.923762584458089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,9 +2058,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$2:$A$8</c:f>
+              <c:f>Mandelbulb!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Basic</c:v>
                 </c:pt>
@@ -2061,25 +2072,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Fast maths optimisation</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Phong shading</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Hard shadows</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>All features</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$X$2:$X$8</c:f>
+              <c:f>Mandelbulb!$X$2:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>26.341186198139987</c:v>
                 </c:pt>
@@ -2091,15 +2093,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49.069473662632632</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.723713262603546</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.662417102765676</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.35935776035307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,12 +2119,32 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mandelbulb!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bounding volume optimisation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear epsilon optimisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fast maths optimisation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$Z$2:$Z$8</c:f>
+              <c:f>Mandelbulb!$Z$2:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>18.84062339854701</c:v>
                 </c:pt>
@@ -2143,15 +2156,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.2095543226276995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.04135786764293</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.420849239993444</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.199233682453283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,6 +2818,571 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-55E6-482B-9FAA-335A91CBB004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="229290624"/>
+        <c:axId val="228701984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229290624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Optimisations/Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228701984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228701984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frames Per Second (FPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229290624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mandelbulb</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mandelbulb!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mandelbulb!$Y$6:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>67.490045218330295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.099766965388888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.923762584458089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEBA-4861-BBAB-4063B4AD157A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mandelbulb!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mandelbulb!$X$6:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43.723713262603546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.662417102765676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.35935776035307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEBA-4861-BBAB-4063B4AD157A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Min FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mandelbulb!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Phong shading</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hard shadows</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>All features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mandelbulb!$Z$6:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.04135786764293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.420849239993444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.199233682453283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEBA-4861-BBAB-4063B4AD157A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3330,6 +3899,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5382,6 +5991,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5999,15 +7111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6034,16 +7146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>115659</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6065,6 +7177,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417B0DF-6127-4924-998B-8E4A8A422382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6338,8 +7488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7077,8 +8227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7854,7 +9004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F5E1FA-4FA3-4867-B8E6-04C4F7C4055D}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2194E1-9497-40F5-AA54-19540AD5D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2A4B4-B0E6-48B9-91ED-5BEC7B6EBF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
     <sheet name="Mandelbulb" sheetId="3" r:id="rId3"/>
-    <sheet name="Sierpinski" sheetId="4" r:id="rId4"/>
+    <sheet name="Mandelbulb Optimisations" sheetId="5" r:id="rId4"/>
+    <sheet name="Sierpinski" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="65">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -218,6 +219,21 @@
   </si>
   <si>
     <t>Mean Frame Time (s)</t>
+  </si>
+  <si>
+    <t>Bounding Volume</t>
+  </si>
+  <si>
+    <t>Linear Epsilon</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-cl-fast-relaxed-math </t>
   </si>
 </sst>
 </file>
@@ -8227,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J77" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9001,6 +9017,608 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B021C-7FB8-4DB3-B867-3D7A2496B207}">
+  <dimension ref="A1:AB8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>39.045099999999998</v>
+      </c>
+      <c r="O2">
+        <v>502</v>
+      </c>
+      <c r="P2">
+        <v>0.101914</v>
+      </c>
+      <c r="Q2">
+        <v>5.12617E-2</v>
+      </c>
+      <c r="S2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="T2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W2">
+        <f>N2/O2</f>
+        <v>7.7779083665338644E-2</v>
+      </c>
+      <c r="X2">
+        <f>1/W2</f>
+        <v>12.856926989558229</v>
+      </c>
+      <c r="Y2">
+        <f>1/Q2</f>
+        <v>19.50774164727272</v>
+      </c>
+      <c r="Z2">
+        <f>1/P2</f>
+        <v>9.8121945954432164</v>
+      </c>
+      <c r="AA2">
+        <f>Y2-X2</f>
+        <v>6.6508146577144913</v>
+      </c>
+      <c r="AB2">
+        <f>X2-Z2</f>
+        <v>3.0447323941150124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>39.079700000000003</v>
+      </c>
+      <c r="O3">
+        <v>468</v>
+      </c>
+      <c r="P3">
+        <v>0.111606</v>
+      </c>
+      <c r="Q3">
+        <v>5.3742900000000003E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="0">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T8" si="1">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:V8" si="2">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" si="3">N3/O3</f>
+        <v>8.3503632478632489E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X8" si="4">1/W3</f>
+        <v>11.975526935979548</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y8" si="5">1/Q3</f>
+        <v>18.607109032076796</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z8" si="6">1/P3</f>
+        <v>8.9600917513395348</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA8" si="7">Y3-X3</f>
+        <v>6.6315820960972474</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB8" si="8">X3-Z3</f>
+        <v>3.0154351846400136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>39.114400000000003</v>
+      </c>
+      <c r="O4">
+        <v>623</v>
+      </c>
+      <c r="P4">
+        <v>9.4061000000000006E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.3295999999999999E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>6.2783948635634038E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>15.927637903176322</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>30.033637674195099</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>10.631398773136581</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="7"/>
+        <v>14.105999771018777</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="8"/>
+        <v>5.2962391300397407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>39.061799999999998</v>
+      </c>
+      <c r="O5">
+        <v>993</v>
+      </c>
+      <c r="P5">
+        <v>5.3898500000000002E-2</v>
+      </c>
+      <c r="Q5">
+        <v>2.75404E-2</v>
+      </c>
+      <c r="S5">
+        <f>D6*E6</f>
+        <v>2073600</v>
+      </c>
+      <c r="T5" s="3">
+        <f>K6/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U5" s="3">
+        <f>L6/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V5" s="3">
+        <f>M6/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W5">
+        <f>N6/O6</f>
+        <v>3.1870938775510206E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>31.376546735686528</v>
+      </c>
+      <c r="Y5">
+        <f>1/Q6</f>
+        <v>53.019739248922377</v>
+      </c>
+      <c r="Z5">
+        <f>1/P6</f>
+        <v>22.338930724741928</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>21.643192513235849</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>9.0376160109445998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>39.041899999999998</v>
+      </c>
+      <c r="O6">
+        <v>1225</v>
+      </c>
+      <c r="P6">
+        <v>4.4764900000000003E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.88609E-2</v>
+      </c>
+      <c r="S6">
+        <f>D5*E5</f>
+        <v>2073600</v>
+      </c>
+      <c r="T6" s="3">
+        <f>K5/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f>L5/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>M5/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W6">
+        <f>N5/O5</f>
+        <v>3.933716012084592E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>25.421255548899438</v>
+      </c>
+      <c r="Y6">
+        <f>1/Q5</f>
+        <v>36.310293241928221</v>
+      </c>
+      <c r="Z6">
+        <f>1/P5</f>
+        <v>18.55339202389677</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>10.889037693028783</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>6.8678635250026687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F5E1FA-4FA3-4867-B8E6-04C4F7C4055D}">
   <dimension ref="A1:AB9"/>
   <sheetViews>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2A4B4-B0E6-48B9-91ED-5BEC7B6EBF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBBEF9-B8F0-47AF-96C0-9532BA988B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="333" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Mandelbulb" sheetId="3" r:id="rId3"/>
-    <sheet name="Mandelbulb Optimisations" sheetId="5" r:id="rId4"/>
-    <sheet name="Sierpinski" sheetId="4" r:id="rId5"/>
+    <sheet name="Mandelbulb Optimisations" sheetId="5" r:id="rId3"/>
+    <sheet name="Mandelbulb Features" sheetId="3" r:id="rId4"/>
+    <sheet name="Sierpinski Optimisations" sheetId="7" r:id="rId5"/>
+    <sheet name="Sierpinski Features" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -134,55 +135,10 @@
     <t>../../../../FractalGeometryRenderer/kernels/mandelbulb.cl</t>
   </si>
   <si>
-    <t>kernels/benchmarks/mandelbulb_ALL.cl</t>
-  </si>
-  <si>
-    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_base.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_bounding_volume.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_hard_shadows.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_linear_epsilon.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_phong.cl</t>
-  </si>
-  <si>
     <t>Build Options</t>
   </si>
   <si>
-    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\include" -I "kernels/include" </t>
-  </si>
-  <si>
     <t>Scene Description</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>All features</t>
-  </si>
-  <si>
-    <t>Bounding volume optimisation</t>
-  </si>
-  <si>
-    <t>Hard shadows</t>
-  </si>
-  <si>
-    <t>Linear epsilon optimisation</t>
-  </si>
-  <si>
-    <t>Phong shading</t>
-  </si>
-  <si>
-    <t>Fast maths optimisation</t>
   </si>
   <si>
     <t>Max - Mean</t>
@@ -192,30 +148,6 @@
   </si>
   <si>
     <t>Mean FPS</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_ALL.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_base.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_bounding_volume.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_linear_epsilon.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_phong.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_soft_shadows.cl</t>
-  </si>
-  <si>
-    <t>Soft shadows</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_hard_shadows.cl</t>
   </si>
   <si>
     <t>Mean Frame Time (s)</t>
@@ -234,6 +166,66 @@
   </si>
   <si>
     <t xml:space="preserve">-cl-fast-relaxed-math </t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_features/no_features.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_features/hard_shadows.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_features/phong.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_features/all_features.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_optimisations/no_optimisations.cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_optimisations/linear_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_optimisations/all_optimisations.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_features/no_features.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_features/hard_shadows.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_features/phong.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_features/all_features.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_optimisations/no_optimisations.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_optimisations/linear_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_optimisations/all_optimisations.cl</t>
+  </si>
+  <si>
+    <t>Hard Shadows</t>
+  </si>
+  <si>
+    <t>Phong</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_optimisations/bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski_optimisations/bounding_volume.cl</t>
   </si>
 </sst>
 </file>
@@ -2011,41 +2003,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$2:$A$5</c:f>
+              <c:f>'Mandelbulb Optimisations'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bounding volume optimisation</c:v>
+                  <c:v>Linear Epsilon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Linear epsilon optimisation</c:v>
+                  <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast maths optimisation</c:v>
+                  <c:v>-cl-fast-relaxed-math </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$Y$2:$Y$5</c:f>
+              <c:f>'Mandelbulb Optimisations'!$Y$2:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43.778236962841035</c:v>
+                  <c:v>20.043655080765909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.155767334866908</c:v>
+                  <c:v>30.280365907941633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.3106783497785</c:v>
+                  <c:v>19.301516713183322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.776749220504371</c:v>
+                  <c:v>53.194601811808134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.548906091240688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,41 +2072,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$2:$A$5</c:f>
+              <c:f>'Mandelbulb Optimisations'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bounding volume optimisation</c:v>
+                  <c:v>Linear Epsilon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Linear epsilon optimisation</c:v>
+                  <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast maths optimisation</c:v>
+                  <c:v>-cl-fast-relaxed-math </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$X$2:$X$5</c:f>
+              <c:f>'Mandelbulb Optimisations'!$X$2:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.341186198139987</c:v>
+                  <c:v>12.392531567293691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.543624023457525</c:v>
+                  <c:v>16.138150538062874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.794210669304867</c:v>
+                  <c:v>12.303891167848487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.069473662632632</c:v>
+                  <c:v>33.036842446973743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.880646932561273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,41 +2141,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$2:$A$5</c:f>
+              <c:f>'Mandelbulb Optimisations'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bounding volume optimisation</c:v>
+                  <c:v>Linear Epsilon</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Linear epsilon optimisation</c:v>
+                  <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast maths optimisation</c:v>
+                  <c:v>-cl-fast-relaxed-math </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$Z$2:$Z$5</c:f>
+              <c:f>'Mandelbulb Optimisations'!$Z$2:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.84062339854701</c:v>
+                  <c:v>1.359924388204016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.651253592030105</c:v>
+                  <c:v>3.0995545940048417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.706024538881699</c:v>
+                  <c:v>6.4957420410920639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2095543226276995</c:v>
+                  <c:v>23.800626908512768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.430047537567708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,11 +2540,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Sierpinski Collection</a:t>
+              <a:t>Mandelbulb</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Scene Optimisations and Features</a:t>
+              <a:t> Features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2594,72 +2604,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sierpinski!$A$2:$A$9</c:f>
+              <c:f>'Mandelbulb Features'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bounding volume optimisation</c:v>
+                  <c:v>Hard Shadows</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Linear epsilon optimisation</c:v>
+                  <c:v>Phong</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast maths optimisation</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Phong shading</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soft shadows</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Hard shadows</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>All features</c:v>
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sierpinski!$Y$2:$Y$9</c:f>
+              <c:f>'Mandelbulb Features'!$Y$2:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>121.56872279899827</c:v>
+                  <c:v>117.72739045466318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122.8093875495843</c:v>
+                  <c:v>56.797528171573973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.71346296032067</c:v>
+                  <c:v>104.23615743829218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.03059315363672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.433074123795777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56.181984684790976</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.840489317509167</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56.100667036931071</c:v>
+                  <c:v>52.656798782574811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55E6-482B-9FAA-335A91CBB004}"/>
+              <c16:uniqueId val="{00000000-AEBA-4861-BBAB-4063B4AD157A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2681,72 +2667,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sierpinski!$A$2:$A$9</c:f>
+              <c:f>'Mandelbulb Features'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bounding volume optimisation</c:v>
+                  <c:v>Hard Shadows</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Linear epsilon optimisation</c:v>
+                  <c:v>Phong</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast maths optimisation</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Phong shading</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soft shadows</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Hard shadows</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>All features</c:v>
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sierpinski!$X$2:$X$9</c:f>
+              <c:f>'Mandelbulb Features'!$X$2:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>107.2054015541454</c:v>
+                  <c:v>63.898880895283781</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.3929594542378</c:v>
+                  <c:v>36.526055086184506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.00912347997496</c:v>
+                  <c:v>54.491557804254931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.42156862745097</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.863538877565972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.68949689676505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51.51311454679773</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.24600375334407</c:v>
+                  <c:v>32.961846662488171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-55E6-482B-9FAA-335A91CBB004}"/>
+              <c16:uniqueId val="{00000001-AEBA-4861-BBAB-4063B4AD157A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2768,72 +2730,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sierpinski!$A$2:$A$9</c:f>
+              <c:f>'Mandelbulb Features'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bounding volume optimisation</c:v>
+                  <c:v>Hard Shadows</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Linear epsilon optimisation</c:v>
+                  <c:v>Phong</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast maths optimisation</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Phong shading</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soft shadows</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Hard shadows</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>All features</c:v>
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sierpinski!$Z$2:$Z$9</c:f>
+              <c:f>'Mandelbulb Features'!$Z$2:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>58.215689128220063</c:v>
+                  <c:v>41.880431368443098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.784730875604048</c:v>
+                  <c:v>27.045666608067723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.942036151859796</c:v>
+                  <c:v>34.855593277053167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.508180588018199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.276061831979995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.253688812836707</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.896583973394847</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.496236697806999</c:v>
+                  <c:v>23.779346686229143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-55E6-482B-9FAA-335A91CBB004}"/>
+              <c16:uniqueId val="{00000002-AEBA-4861-BBAB-4063B4AD157A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3189,6 +3127,607 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Scene Optimisations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sierpinski Optimisations'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear Epsilon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bounding Volume</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-cl-fast-relaxed-math </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sierpinski Optimisations'!$Y$2:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>194.41636208103273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194.5525291828794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.32037061448938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212.43600365389926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214.81815643058152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7283-4EF9-8E65-DC39ADAED72E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sierpinski Optimisations'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear Epsilon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bounding Volume</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-cl-fast-relaxed-math </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sierpinski Optimisations'!$X$2:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47.242795473690258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.36630631756546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.0901110766739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.140347983013271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.239413526091887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7283-4EF9-8E65-DC39ADAED72E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Min FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sierpinski Optimisations'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear Epsilon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bounding Volume</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-cl-fast-relaxed-math </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sierpinski Optimisations'!$Z$2:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3363803766497675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1039881789636699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2687624931855348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.006884736698849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7487740916579746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7283-4EF9-8E65-DC39ADAED72E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="229290624"/>
+        <c:axId val="228701984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229290624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Optimisations/Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228701984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228701984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frames Per Second (FPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229290624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mandelbulb</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
               <a:t> Features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
@@ -3249,42 +3788,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$6:$A$8</c:f>
+              <c:f>'Sierpinski Features'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Phong shading</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hard shadows</c:v>
+                  <c:v>Hard Shadows</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>All features</c:v>
+                  <c:v>Phong</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$Y$6:$Y$8</c:f>
+              <c:f>'Sierpinski Features'!$Y$2:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>67.490045218330295</c:v>
+                  <c:v>215.84752530812236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.099766965388888</c:v>
+                  <c:v>215.85684374123082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.923762584458089</c:v>
+                  <c:v>215.27598381124599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.04451421444239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEBA-4861-BBAB-4063B4AD157A}"/>
+              <c16:uniqueId val="{00000000-F8F2-4A01-8A47-01301FA2C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3306,42 +3851,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$6:$A$8</c:f>
+              <c:f>'Sierpinski Features'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Phong shading</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hard shadows</c:v>
+                  <c:v>Hard Shadows</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>All features</c:v>
+                  <c:v>Phong</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$X$6:$X$8</c:f>
+              <c:f>'Sierpinski Features'!$X$2:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43.723713262603546</c:v>
+                  <c:v>101.73779146502419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.662417102765676</c:v>
+                  <c:v>54.865535695092589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.35935776035307</c:v>
+                  <c:v>77.288793124996872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.888755586215176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AEBA-4861-BBAB-4063B4AD157A}"/>
+              <c16:uniqueId val="{00000001-F8F2-4A01-8A47-01301FA2C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3363,42 +3914,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Mandelbulb!$A$6:$A$8</c:f>
+              <c:f>'Sierpinski Features'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Phong shading</c:v>
+                  <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hard shadows</c:v>
+                  <c:v>Hard Shadows</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>All features</c:v>
+                  <c:v>Phong</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Mandelbulb!$Z$6:$Z$8</c:f>
+              <c:f>'Sierpinski Features'!$Z$2:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>33.04135786764293</c:v>
+                  <c:v>41.935402705672182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.420849239993444</c:v>
+                  <c:v>11.229621045208209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.199233682453283</c:v>
+                  <c:v>24.458010487594894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7594300492851218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AEBA-4861-BBAB-4063B4AD157A}"/>
+              <c16:uniqueId val="{00000002-F8F2-4A01-8A47-01301FA2C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3955,6 +4512,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6510,6 +7107,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7127,15 +8227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>487135</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>151039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7155,44 +8255,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>115659</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8369D432-BF6E-4F4D-B680-D50F7DBE2797}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7230,7 +8292,83 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>425903</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16122D30-AF72-4D50-83FF-A22A2DE95CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D664492-F76C-474A-819C-6ACF9737E534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7504,8 +8642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8240,11 +9378,613 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B021C-7FB8-4DB3-B867-3D7A2496B207}">
+  <dimension ref="A1:AB8"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>40.104799999999997</v>
+      </c>
+      <c r="O2">
+        <v>497</v>
+      </c>
+      <c r="P2">
+        <v>0.73533499999999996</v>
+      </c>
+      <c r="Q2">
+        <v>4.9891100000000001E-2</v>
+      </c>
+      <c r="S2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="T2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W2">
+        <f>N2/O2</f>
+        <v>8.0693762575452715E-2</v>
+      </c>
+      <c r="X2">
+        <f>1/W2</f>
+        <v>12.392531567293691</v>
+      </c>
+      <c r="Y2">
+        <f>1/Q2</f>
+        <v>20.043655080765909</v>
+      </c>
+      <c r="Z2">
+        <f>1/P2</f>
+        <v>1.359924388204016</v>
+      </c>
+      <c r="AA2">
+        <f>Y2-X2</f>
+        <v>7.6511235134722178</v>
+      </c>
+      <c r="AB2">
+        <f>X2-Z2</f>
+        <v>11.032607179089675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>40.153300000000002</v>
+      </c>
+      <c r="O3">
+        <v>648</v>
+      </c>
+      <c r="P3">
+        <v>0.322627</v>
+      </c>
+      <c r="Q3">
+        <v>3.3024699999999997E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="0">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T4" si="1">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:V4" si="2">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W4" si="3">N3/O3</f>
+        <v>6.1964969135802468E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X6" si="4">1/W3</f>
+        <v>16.138150538062874</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y4" si="5">1/Q3</f>
+        <v>30.280365907941633</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z4" si="6">1/P3</f>
+        <v>3.0995545940048417</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA6" si="7">Y3-X3</f>
+        <v>14.142215369878759</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB6" si="8">X3-Z3</f>
+        <v>13.038595944058033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>40.149900000000002</v>
+      </c>
+      <c r="O4">
+        <v>494</v>
+      </c>
+      <c r="P4">
+        <v>0.153947</v>
+      </c>
+      <c r="Q4">
+        <v>5.1809399999999999E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>8.1275101214574902E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>12.303891167848487</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>19.301516713183322</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>6.4957420410920639</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="7"/>
+        <v>6.9976255453348344</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="8"/>
+        <v>5.8081491267564234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>40.066000000000003</v>
+      </c>
+      <c r="O5">
+        <v>1077</v>
+      </c>
+      <c r="P5">
+        <v>8.7488700000000003E-2</v>
+      </c>
+      <c r="Q5">
+        <v>2.7360599999999999E-2</v>
+      </c>
+      <c r="S5">
+        <f>D6*E6</f>
+        <v>2073600</v>
+      </c>
+      <c r="T5" s="3">
+        <f>K6/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U5" s="3">
+        <f>L6/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V5" s="3">
+        <f>M6/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W5">
+        <f>N6/O6</f>
+        <v>3.0269236583522298E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>33.036842446973743</v>
+      </c>
+      <c r="Y5">
+        <f>1/Q6</f>
+        <v>53.194601811808134</v>
+      </c>
+      <c r="Z5">
+        <f>1/P6</f>
+        <v>23.800626908512768</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>20.157759364834391</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>9.236215538460975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>40.046199999999999</v>
+      </c>
+      <c r="O6">
+        <v>1323</v>
+      </c>
+      <c r="P6">
+        <v>4.2015700000000003E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.87989E-2</v>
+      </c>
+      <c r="S6">
+        <f>D5*E5</f>
+        <v>2073600</v>
+      </c>
+      <c r="T6" s="3">
+        <f>K5/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f>L5/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>M5/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W6">
+        <f>N5/O5</f>
+        <v>3.7201485608170846E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>26.880646932561273</v>
+      </c>
+      <c r="Y6">
+        <f>1/Q5</f>
+        <v>36.548906091240688</v>
+      </c>
+      <c r="Z6">
+        <f>1/P5</f>
+        <v>11.430047537567708</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>9.6682591586794153</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>15.450599394993565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J77" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8279,13 +10019,13 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -8342,10 +10082,10 @@
         <v>28</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>23</v>
@@ -8354,21 +10094,21 @@
         <v>22</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -8401,16 +10141,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>39.064300000000003</v>
+        <v>40.031999999999996</v>
       </c>
       <c r="O2">
-        <v>1029</v>
+        <v>2558</v>
       </c>
       <c r="P2">
-        <v>5.30768E-2</v>
+        <v>2.3877499999999999E-2</v>
       </c>
       <c r="Q2">
-        <v>2.2842399999999999E-2</v>
+        <v>8.4942000000000004E-3</v>
       </c>
       <c r="S2">
         <f>D2*E2</f>
@@ -8430,38 +10170,38 @@
       </c>
       <c r="W2">
         <f>N2/O2</f>
-        <v>3.7963362487852287E-2</v>
+        <v>1.5649726348709928E-2</v>
       </c>
       <c r="X2">
         <f>1/W2</f>
-        <v>26.341186198139987</v>
+        <v>63.898880895283781</v>
       </c>
       <c r="Y2">
         <f>1/Q2</f>
-        <v>43.778236962841035</v>
+        <v>117.72739045466318</v>
       </c>
       <c r="Z2">
         <f>1/P2</f>
-        <v>18.84062339854701</v>
+        <v>41.880431368443098</v>
       </c>
       <c r="AA2">
         <f>Y2-X2</f>
-        <v>17.437050764701048</v>
+        <v>53.828509559379398</v>
       </c>
       <c r="AB2">
         <f>X2-Z2</f>
-        <v>7.5005627995929771</v>
+        <v>22.018449526840683</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -8494,67 +10234,67 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>39.0152</v>
+        <v>40.053600000000003</v>
       </c>
       <c r="O3">
-        <v>2050</v>
+        <v>1463</v>
       </c>
       <c r="P3">
-        <v>5.6653200000000001E-2</v>
+        <v>3.69745E-2</v>
       </c>
       <c r="Q3">
-        <v>1.2172000000000001E-2</v>
+        <v>1.7606400000000001E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S8" si="0">D3*E3</f>
+        <f t="shared" ref="S3:S5" si="0">D3*E3</f>
         <v>2073600</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T8" si="1">K3/1000000000</f>
+        <f t="shared" ref="T3:T5" si="1">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:U8" si="2">L3/1000</f>
+        <f t="shared" ref="U3:U5" si="2">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V8" si="3">M3/1000</f>
+        <f t="shared" ref="V3:V5" si="3">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W8" si="4">N3/O3</f>
-        <v>1.9031804878048779E-2</v>
+        <f t="shared" ref="W3:W5" si="4">N3/O3</f>
+        <v>2.7377717019822286E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X8" si="5">1/W3</f>
-        <v>52.543624023457525</v>
+        <f t="shared" ref="X3:X5" si="5">1/W3</f>
+        <v>36.526055086184506</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y8" si="6">1/Q3</f>
-        <v>82.155767334866908</v>
+        <f t="shared" ref="Y3:Y5" si="6">1/Q3</f>
+        <v>56.797528171573973</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z8" si="7">1/P3</f>
-        <v>17.651253592030105</v>
+        <f t="shared" ref="Z3:Z5" si="7">1/P3</f>
+        <v>27.045666608067723</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA8" si="8">Y3-X3</f>
-        <v>29.612143311409383</v>
+        <f t="shared" ref="AA3:AA5" si="8">Y3-X3</f>
+        <v>20.271473085389466</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB8" si="9">X3-Z3</f>
-        <v>34.892370431427423</v>
+        <f t="shared" ref="AB3:AB5" si="9">X3-Z3</f>
+        <v>9.4803884781167831</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -8587,16 +10327,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>39.016599999999997</v>
+        <v>40.042900000000003</v>
       </c>
       <c r="O4">
-        <v>2411</v>
+        <v>2182</v>
       </c>
       <c r="P4">
-        <v>2.34159E-2</v>
+        <v>2.8689800000000001E-2</v>
       </c>
       <c r="Q4">
-        <v>9.2326999999999999E-3</v>
+        <v>9.5936000000000007E-3</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -8616,38 +10356,38 @@
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>1.618274574865201E-2</v>
+        <v>1.8351466544454631E-2</v>
       </c>
       <c r="X4">
         <f t="shared" si="5"/>
-        <v>61.794210669304867</v>
+        <v>54.491557804254931</v>
       </c>
       <c r="Y4">
         <f t="shared" si="6"/>
-        <v>108.3106783497785</v>
+        <v>104.23615743829218</v>
       </c>
       <c r="Z4">
         <f t="shared" si="7"/>
-        <v>42.706024538881699</v>
+        <v>34.855593277053167</v>
       </c>
       <c r="AA4">
         <f t="shared" si="8"/>
-        <v>46.516467680473632</v>
+        <v>49.74459963403725</v>
       </c>
       <c r="AB4">
         <f t="shared" si="9"/>
-        <v>19.088186130423168</v>
+        <v>19.635964527201764</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -8680,16 +10420,16 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>39.026299999999999</v>
+        <v>40.046300000000002</v>
       </c>
       <c r="O5">
-        <v>1915</v>
+        <v>1320</v>
       </c>
       <c r="P5">
-        <v>0.19195499999999999</v>
+        <v>4.2053300000000002E-2</v>
       </c>
       <c r="Q5">
-        <v>1.23798E-2</v>
+        <v>1.8990900000000002E-2</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -8709,898 +10449,33 @@
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
-        <v>2.0379268929503917E-2</v>
+        <v>3.0338106060606062E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="5"/>
-        <v>49.069473662632632</v>
+        <v>32.961846662488171</v>
       </c>
       <c r="Y5">
         <f t="shared" si="6"/>
-        <v>80.776749220504371</v>
+        <v>52.656798782574811</v>
       </c>
       <c r="Z5">
         <f t="shared" si="7"/>
-        <v>5.2095543226276995</v>
+        <v>23.779346686229143</v>
       </c>
       <c r="AA5">
         <f t="shared" si="8"/>
-        <v>31.707275557871739</v>
+        <v>19.69495212008664</v>
       </c>
       <c r="AB5">
         <f t="shared" si="9"/>
-        <v>43.859919340004936</v>
+        <v>9.1824999762590274</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>1920</v>
-      </c>
-      <c r="E6">
-        <v>1080</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>256</v>
-      </c>
-      <c r="I6">
-        <v>1665</v>
-      </c>
-      <c r="J6">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>8589410304</v>
-      </c>
-      <c r="L6">
-        <v>49152</v>
-      </c>
-      <c r="M6">
-        <v>65536</v>
-      </c>
-      <c r="N6">
-        <v>39.040599999999998</v>
-      </c>
-      <c r="O6">
-        <v>1707</v>
-      </c>
-      <c r="P6">
-        <v>3.02651E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.4817E-2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>2.2870884592852959E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
-        <v>43.723713262603546</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="6"/>
-        <v>67.490045218330295</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>33.04135786764293</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>23.766331955726749</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
-        <v>10.682355394960616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>1920</v>
-      </c>
-      <c r="E7">
-        <v>1080</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>256</v>
-      </c>
-      <c r="I7">
-        <v>1665</v>
-      </c>
-      <c r="J7">
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <v>8589410304</v>
-      </c>
-      <c r="L7">
-        <v>49152</v>
-      </c>
-      <c r="M7">
-        <v>65536</v>
-      </c>
-      <c r="N7">
-        <v>39.039299999999997</v>
-      </c>
-      <c r="O7">
-        <v>1158</v>
-      </c>
-      <c r="P7">
-        <v>4.2696999999999999E-2</v>
-      </c>
-      <c r="Q7">
-        <v>2.55756E-2</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="4"/>
-        <v>3.3712694300518133E-2</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="5"/>
-        <v>29.662417102765676</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="6"/>
-        <v>39.099766965388888</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="7"/>
-        <v>23.420849239993444</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="8"/>
-        <v>9.4373498626232113</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="9"/>
-        <v>6.2415678627722322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>1920</v>
-      </c>
-      <c r="E8">
-        <v>1080</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>256</v>
-      </c>
-      <c r="I8">
-        <v>1665</v>
-      </c>
-      <c r="J8">
-        <v>38</v>
-      </c>
-      <c r="K8">
-        <v>8589410304</v>
-      </c>
-      <c r="L8">
-        <v>49152</v>
-      </c>
-      <c r="M8">
-        <v>65536</v>
-      </c>
-      <c r="N8">
-        <v>39.063299999999998</v>
-      </c>
-      <c r="O8">
-        <v>1225</v>
-      </c>
-      <c r="P8">
-        <v>4.5046599999999999E-2</v>
-      </c>
-      <c r="Q8">
-        <v>1.8544700000000001E-2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="4"/>
-        <v>3.1888408163265304E-2</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="5"/>
-        <v>31.35935776035307</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="6"/>
-        <v>53.923762584458089</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="7"/>
-        <v>22.199233682453283</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="8"/>
-        <v>22.564404824105019</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="9"/>
-        <v>9.1601240778997877</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B021C-7FB8-4DB3-B867-3D7A2496B207}">
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>1920</v>
-      </c>
-      <c r="E2">
-        <v>1080</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>256</v>
-      </c>
-      <c r="I2">
-        <v>1665</v>
-      </c>
-      <c r="J2">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>8589410304</v>
-      </c>
-      <c r="L2">
-        <v>49152</v>
-      </c>
-      <c r="M2">
-        <v>65536</v>
-      </c>
-      <c r="N2">
-        <v>39.045099999999998</v>
-      </c>
-      <c r="O2">
-        <v>502</v>
-      </c>
-      <c r="P2">
-        <v>0.101914</v>
-      </c>
-      <c r="Q2">
-        <v>5.12617E-2</v>
-      </c>
-      <c r="S2">
-        <f>D2*E2</f>
-        <v>2073600</v>
-      </c>
-      <c r="T2" s="3">
-        <f>K2/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U2" s="3">
-        <f>L2/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V2" s="3">
-        <f>M2/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W2">
-        <f>N2/O2</f>
-        <v>7.7779083665338644E-2</v>
-      </c>
-      <c r="X2">
-        <f>1/W2</f>
-        <v>12.856926989558229</v>
-      </c>
-      <c r="Y2">
-        <f>1/Q2</f>
-        <v>19.50774164727272</v>
-      </c>
-      <c r="Z2">
-        <f>1/P2</f>
-        <v>9.8121945954432164</v>
-      </c>
-      <c r="AA2">
-        <f>Y2-X2</f>
-        <v>6.6508146577144913</v>
-      </c>
-      <c r="AB2">
-        <f>X2-Z2</f>
-        <v>3.0447323941150124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>1920</v>
-      </c>
-      <c r="E3">
-        <v>1080</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>256</v>
-      </c>
-      <c r="I3">
-        <v>1665</v>
-      </c>
-      <c r="J3">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>8589410304</v>
-      </c>
-      <c r="L3">
-        <v>49152</v>
-      </c>
-      <c r="M3">
-        <v>65536</v>
-      </c>
-      <c r="N3">
-        <v>39.079700000000003</v>
-      </c>
-      <c r="O3">
-        <v>468</v>
-      </c>
-      <c r="P3">
-        <v>0.111606</v>
-      </c>
-      <c r="Q3">
-        <v>5.3742900000000003E-2</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S8" si="0">D3*E3</f>
-        <v>2073600</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T8" si="1">K3/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:V8" si="2">L3/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" si="2"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W8" si="3">N3/O3</f>
-        <v>8.3503632478632489E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X8" si="4">1/W3</f>
-        <v>11.975526935979548</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y8" si="5">1/Q3</f>
-        <v>18.607109032076796</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z8" si="6">1/P3</f>
-        <v>8.9600917513395348</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA8" si="7">Y3-X3</f>
-        <v>6.6315820960972474</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB8" si="8">X3-Z3</f>
-        <v>3.0154351846400136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>1920</v>
-      </c>
-      <c r="E4">
-        <v>1080</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>256</v>
-      </c>
-      <c r="I4">
-        <v>1665</v>
-      </c>
-      <c r="J4">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>8589410304</v>
-      </c>
-      <c r="L4">
-        <v>49152</v>
-      </c>
-      <c r="M4">
-        <v>65536</v>
-      </c>
-      <c r="N4">
-        <v>39.114400000000003</v>
-      </c>
-      <c r="O4">
-        <v>623</v>
-      </c>
-      <c r="P4">
-        <v>9.4061000000000006E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3.3295999999999999E-2</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="2"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="3"/>
-        <v>6.2783948635634038E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="4"/>
-        <v>15.927637903176322</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="5"/>
-        <v>30.033637674195099</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="6"/>
-        <v>10.631398773136581</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="7"/>
-        <v>14.105999771018777</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="8"/>
-        <v>5.2962391300397407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>1920</v>
-      </c>
-      <c r="E5">
-        <v>1080</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>256</v>
-      </c>
-      <c r="I5">
-        <v>1665</v>
-      </c>
-      <c r="J5">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>8589410304</v>
-      </c>
-      <c r="L5">
-        <v>49152</v>
-      </c>
-      <c r="M5">
-        <v>65536</v>
-      </c>
-      <c r="N5">
-        <v>39.061799999999998</v>
-      </c>
-      <c r="O5">
-        <v>993</v>
-      </c>
-      <c r="P5">
-        <v>5.3898500000000002E-2</v>
-      </c>
-      <c r="Q5">
-        <v>2.75404E-2</v>
-      </c>
-      <c r="S5">
-        <f>D6*E6</f>
-        <v>2073600</v>
-      </c>
-      <c r="T5" s="3">
-        <f>K6/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U5" s="3">
-        <f>L6/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V5" s="3">
-        <f>M6/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W5">
-        <f>N6/O6</f>
-        <v>3.1870938775510206E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="4"/>
-        <v>31.376546735686528</v>
-      </c>
-      <c r="Y5">
-        <f>1/Q6</f>
-        <v>53.019739248922377</v>
-      </c>
-      <c r="Z5">
-        <f>1/P6</f>
-        <v>22.338930724741928</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="7"/>
-        <v>21.643192513235849</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="8"/>
-        <v>9.0376160109445998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>1920</v>
-      </c>
-      <c r="E6">
-        <v>1080</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>256</v>
-      </c>
-      <c r="I6">
-        <v>1665</v>
-      </c>
-      <c r="J6">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>8589410304</v>
-      </c>
-      <c r="L6">
-        <v>49152</v>
-      </c>
-      <c r="M6">
-        <v>65536</v>
-      </c>
-      <c r="N6">
-        <v>39.041899999999998</v>
-      </c>
-      <c r="O6">
-        <v>1225</v>
-      </c>
-      <c r="P6">
-        <v>4.4764900000000003E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.88609E-2</v>
-      </c>
-      <c r="S6">
-        <f>D5*E5</f>
-        <v>2073600</v>
-      </c>
-      <c r="T6" s="3">
-        <f>K5/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U6" s="3">
-        <f>L5/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V6" s="3">
-        <f>M5/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W6">
-        <f>N5/O5</f>
-        <v>3.933716012084592E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="4"/>
-        <v>25.421255548899438</v>
-      </c>
-      <c r="Y6">
-        <f>1/Q5</f>
-        <v>36.310293241928221</v>
-      </c>
-      <c r="Z6">
-        <f>1/P5</f>
-        <v>18.55339202389677</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="7"/>
-        <v>10.889037693028783</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="8"/>
-        <v>6.8678635250026687</v>
-      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T7" s="3"/>
@@ -9614,45 +10489,52 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F5E1FA-4FA3-4867-B8E6-04C4F7C4055D}">
-  <dimension ref="A1:AB9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF20F60E-5AC0-4D7C-8092-06DDEBA89CA5}">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -9709,10 +10591,10 @@
         <v>28</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>23</v>
@@ -9721,21 +10603,21 @@
         <v>22</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -9768,16 +10650,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>15.017899999999999</v>
+        <v>40.006100000000004</v>
       </c>
       <c r="O2">
-        <v>1610</v>
+        <v>1890</v>
       </c>
       <c r="P2">
-        <v>1.7177499999999998E-2</v>
+        <v>0.13630700000000001</v>
       </c>
       <c r="Q2">
-        <v>8.2258000000000001E-3</v>
+        <v>5.1435999999999999E-3</v>
       </c>
       <c r="S2">
         <f>D2*E2</f>
@@ -9797,38 +10679,38 @@
       </c>
       <c r="W2">
         <f>N2/O2</f>
-        <v>9.3278881987577632E-3</v>
+        <v>2.116724867724868E-2</v>
       </c>
       <c r="X2">
         <f>1/W2</f>
-        <v>107.2054015541454</v>
+        <v>47.242795473690258</v>
       </c>
       <c r="Y2">
         <f>1/Q2</f>
-        <v>121.56872279899827</v>
+        <v>194.41636208103273</v>
       </c>
       <c r="Z2">
         <f>1/P2</f>
-        <v>58.215689128220063</v>
+        <v>7.3363803766497675</v>
       </c>
       <c r="AA2">
         <f>Y2-X2</f>
-        <v>14.36332124485287</v>
+        <v>147.17356660734248</v>
       </c>
       <c r="AB2">
         <f>X2-Z2</f>
-        <v>48.989712425925333</v>
+        <v>39.906415097040494</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -9861,67 +10743,67 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>15.010199999999999</v>
+        <v>40.0075</v>
       </c>
       <c r="O3">
-        <v>1627</v>
+        <v>1855</v>
       </c>
       <c r="P3">
-        <v>1.6451500000000001E-2</v>
+        <v>0.140766</v>
       </c>
       <c r="Q3">
-        <v>8.1426999999999992E-3</v>
+        <v>5.1399999999999996E-3</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S9" si="0">D3*E3</f>
+        <f t="shared" ref="S3:S6" si="0">D3*E3</f>
         <v>2073600</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T9" si="1">K3/1000000000</f>
+        <f t="shared" ref="T3:T6" si="1">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:U9" si="2">L3/1000</f>
+        <f t="shared" ref="U3:U6" si="2">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V9" si="3">M3/1000</f>
+        <f t="shared" ref="V3:V6" si="3">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W9" si="4">N3/O3</f>
-        <v>9.2256914566687144E-3</v>
+        <f t="shared" ref="W3:W6" si="4">N3/O3</f>
+        <v>2.1567385444743934E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X9" si="5">1/W3</f>
-        <v>108.3929594542378</v>
+        <f t="shared" ref="X3:X6" si="5">1/W3</f>
+        <v>46.36630631756546</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y9" si="6">1/Q3</f>
-        <v>122.8093875495843</v>
+        <f t="shared" ref="Y3:Y6" si="6">1/Q3</f>
+        <v>194.5525291828794</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z9" si="7">1/P3</f>
-        <v>60.784730875604048</v>
+        <f t="shared" ref="Z3:Z6" si="7">1/P3</f>
+        <v>7.1039881789636699</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA9" si="8">Y3-X3</f>
-        <v>14.416428095346504</v>
+        <f t="shared" ref="AA3:AA6" si="8">Y3-X3</f>
+        <v>148.18622286531394</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB9" si="9">X3-Z3</f>
-        <v>47.608228578633749</v>
+        <f t="shared" ref="AB3:AB6" si="9">X3-Z3</f>
+        <v>39.262318138601792</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -9954,16 +10836,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>15.0162</v>
+        <v>40.008400000000002</v>
       </c>
       <c r="O4">
-        <v>1727</v>
+        <v>1884</v>
       </c>
       <c r="P4">
-        <v>1.8200999999999998E-2</v>
+        <v>0.137575</v>
       </c>
       <c r="Q4">
-        <v>7.7092999999999997E-3</v>
+        <v>5.3100999999999999E-3</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -9983,38 +10865,38 @@
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>8.6949623624782858E-3</v>
+        <v>2.1235881104033971E-2</v>
       </c>
       <c r="X4">
         <f t="shared" si="5"/>
-        <v>115.00912347997496</v>
+        <v>47.0901110766739</v>
       </c>
       <c r="Y4">
         <f t="shared" si="6"/>
-        <v>129.71346296032067</v>
+        <v>188.32037061448938</v>
       </c>
       <c r="Z4">
         <f t="shared" si="7"/>
-        <v>54.942036151859796</v>
+        <v>7.2687624931855348</v>
       </c>
       <c r="AA4">
         <f t="shared" si="8"/>
-        <v>14.704339480345709</v>
+        <v>141.23025953781547</v>
       </c>
       <c r="AB4">
         <f t="shared" si="9"/>
-        <v>60.067087328115164</v>
+        <v>39.821348583488366</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -10047,16 +10929,16 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>15.0144</v>
+        <v>40.0077</v>
       </c>
       <c r="O5">
-        <v>1748</v>
+        <v>2006</v>
       </c>
       <c r="P5">
-        <v>1.6258000000000002E-2</v>
+        <v>9.9931199999999998E-2</v>
       </c>
       <c r="Q5">
-        <v>7.7501000000000002E-3</v>
+        <v>4.7073000000000002E-3</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -10076,38 +10958,38 @@
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
-        <v>8.589473684210527E-3</v>
+        <v>1.9944017946161515E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="5"/>
-        <v>116.42156862745097</v>
+        <v>50.140347983013271</v>
       </c>
       <c r="Y5">
         <f t="shared" si="6"/>
-        <v>129.03059315363672</v>
+        <v>212.43600365389926</v>
       </c>
       <c r="Z5">
         <f t="shared" si="7"/>
-        <v>61.508180588018199</v>
+        <v>10.006884736698849</v>
       </c>
       <c r="AA5">
         <f t="shared" si="8"/>
-        <v>12.609024526185749</v>
+        <v>162.29565567088599</v>
       </c>
       <c r="AB5">
         <f t="shared" si="9"/>
-        <v>54.913388039432768</v>
+        <v>40.13346324631442</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -10140,16 +11022,16 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>15.0138</v>
+        <v>40.008600000000001</v>
       </c>
       <c r="O6">
-        <v>1139</v>
+        <v>1970</v>
       </c>
       <c r="P6">
-        <v>2.0714199999999999E-2</v>
+        <v>0.102577</v>
       </c>
       <c r="Q6">
-        <v>1.18437E-2</v>
+        <v>4.6550999999999997E-3</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
@@ -10169,306 +11051,524 @@
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
-        <v>1.3181562774363477E-2</v>
+        <v>2.0308934010152286E-2</v>
       </c>
       <c r="X6">
         <f t="shared" si="5"/>
-        <v>75.863538877565972</v>
+        <v>49.239413526091887</v>
       </c>
       <c r="Y6">
         <f t="shared" si="6"/>
-        <v>84.433074123795777</v>
+        <v>214.81815643058152</v>
       </c>
       <c r="Z6">
         <f t="shared" si="7"/>
-        <v>48.276061831979995</v>
+        <v>9.7487740916579746</v>
       </c>
       <c r="AA6">
         <f t="shared" si="8"/>
-        <v>8.5695352462298047</v>
+        <v>165.57874290448964</v>
       </c>
       <c r="AB6">
         <f t="shared" si="9"/>
-        <v>27.587477045585977</v>
+        <v>39.490639434433916</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBE981F-7A17-4204-9BDB-78294BCDCCDC}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB2" sqref="S2:AB5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
         <v>1920</v>
       </c>
-      <c r="E7">
+      <c r="E2">
         <v>1080</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="H2">
         <v>256</v>
       </c>
-      <c r="I7">
+      <c r="I2">
         <v>1665</v>
       </c>
-      <c r="J7">
+      <c r="J2">
         <v>38</v>
       </c>
-      <c r="K7">
+      <c r="K2">
         <v>8589410304</v>
       </c>
-      <c r="L7">
+      <c r="L2">
         <v>49152</v>
       </c>
-      <c r="M7">
+      <c r="M2">
         <v>65536</v>
       </c>
-      <c r="N7">
-        <v>15.0327</v>
-      </c>
-      <c r="O7">
-        <v>762</v>
-      </c>
-      <c r="P7">
-        <v>2.7583400000000001E-2</v>
-      </c>
-      <c r="Q7">
-        <v>1.7799300000000001E-2</v>
-      </c>
-      <c r="S7">
+      <c r="N2">
+        <v>40.004800000000003</v>
+      </c>
+      <c r="O2">
+        <v>4070</v>
+      </c>
+      <c r="P2">
+        <v>2.3846200000000001E-2</v>
+      </c>
+      <c r="Q2">
+        <v>4.6328999999999997E-3</v>
+      </c>
+      <c r="S2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="T2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W2">
+        <f>N2/O2</f>
+        <v>9.8291891891891907E-3</v>
+      </c>
+      <c r="X2">
+        <f>1/W2</f>
+        <v>101.73779146502419</v>
+      </c>
+      <c r="Y2">
+        <f>1/Q2</f>
+        <v>215.84752530812236</v>
+      </c>
+      <c r="Z2">
+        <f>1/P2</f>
+        <v>41.935402705672182</v>
+      </c>
+      <c r="AA2">
+        <f>Y2-X2</f>
+        <v>114.10973384309817</v>
+      </c>
+      <c r="AB2">
+        <f>X2-Z2</f>
+        <v>59.802388759352006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>40.006900000000002</v>
+      </c>
+      <c r="O3">
+        <v>2195</v>
+      </c>
+      <c r="P3">
+        <v>8.9050199999999996E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.6327E-3</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S5" si="0">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T5" si="1">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U5" si="2">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V5" si="3">M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W5" si="4">N3/O3</f>
+        <v>1.8226378132118453E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X5" si="5">1/W3</f>
+        <v>54.865535695092589</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y5" si="6">1/Q3</f>
+        <v>215.85684374123082</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z5" si="7">1/P3</f>
+        <v>11.229621045208209</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA5" si="8">Y3-X3</f>
+        <v>160.99130804613822</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB5" si="9">X3-Z3</f>
+        <v>43.635914649884384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>40.005800000000001</v>
+      </c>
+      <c r="O4">
+        <v>3092</v>
+      </c>
+      <c r="P4">
+        <v>4.0886400000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>4.6452000000000004E-3</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>2073600</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T4" s="3">
         <f t="shared" si="1"/>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U4" s="3">
         <f t="shared" si="2"/>
         <v>49.152000000000001</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V4" s="3">
         <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W7">
+      <c r="W4">
         <f t="shared" si="4"/>
-        <v>1.9727952755905512E-2</v>
-      </c>
-      <c r="X7">
+        <v>1.2938486416558861E-2</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="5"/>
-        <v>50.68949689676505</v>
-      </c>
-      <c r="Y7">
+        <v>77.288793124996872</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="6"/>
-        <v>56.181984684790976</v>
-      </c>
-      <c r="Z7">
+        <v>215.27598381124599</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="7"/>
-        <v>36.253688812836707</v>
-      </c>
-      <c r="AA7">
+        <v>24.458010487594894</v>
+      </c>
+      <c r="AA4">
         <f t="shared" si="8"/>
-        <v>5.492487788025926</v>
-      </c>
-      <c r="AB7">
+        <v>137.98719068624911</v>
+      </c>
+      <c r="AB4">
         <f t="shared" si="9"/>
-        <v>14.435808083928343</v>
+        <v>52.830782637401981</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>1920</v>
       </c>
-      <c r="E8">
+      <c r="E5">
         <v>1080</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H5">
         <v>256</v>
       </c>
-      <c r="I8">
+      <c r="I5">
         <v>1665</v>
       </c>
-      <c r="J8">
+      <c r="J5">
         <v>38</v>
       </c>
-      <c r="K8">
+      <c r="K5">
         <v>8589410304</v>
       </c>
-      <c r="L8">
+      <c r="L5">
         <v>49152</v>
       </c>
-      <c r="M8">
+      <c r="M5">
         <v>65536</v>
       </c>
-      <c r="N8">
-        <v>15.0253</v>
-      </c>
-      <c r="O8">
-        <v>774</v>
-      </c>
-      <c r="P8">
-        <v>2.86561E-2</v>
-      </c>
-      <c r="Q8">
-        <v>1.6995099999999999E-2</v>
-      </c>
-      <c r="S8">
+      <c r="N5">
+        <v>40.0092</v>
+      </c>
+      <c r="O5">
+        <v>1956</v>
+      </c>
+      <c r="P5">
+        <v>0.102465</v>
+      </c>
+      <c r="Q5">
+        <v>4.6502000000000002E-3</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>2073600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T5" s="3">
         <f t="shared" si="1"/>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U5" s="3">
         <f t="shared" si="2"/>
         <v>49.152000000000001</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V5" s="3">
         <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W8">
+      <c r="W5">
         <f t="shared" si="4"/>
-        <v>1.9412532299741603E-2</v>
-      </c>
-      <c r="X8">
+        <v>2.0454601226993864E-2</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="5"/>
-        <v>51.51311454679773</v>
-      </c>
-      <c r="Y8">
+        <v>48.888755586215176</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="6"/>
-        <v>58.840489317509167</v>
-      </c>
-      <c r="Z8">
+        <v>215.04451421444239</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="7"/>
-        <v>34.896583973394847</v>
-      </c>
-      <c r="AA8">
+        <v>9.7594300492851218</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="8"/>
-        <v>7.3273747707114367</v>
-      </c>
-      <c r="AB8">
+        <v>166.1557586282272</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="9"/>
-        <v>16.616530573402883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>1920</v>
-      </c>
-      <c r="E9">
-        <v>1080</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>256</v>
-      </c>
-      <c r="I9">
-        <v>1665</v>
-      </c>
-      <c r="J9">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>8589410304</v>
-      </c>
-      <c r="L9">
-        <v>49152</v>
-      </c>
-      <c r="M9">
-        <v>65536</v>
-      </c>
-      <c r="N9">
-        <v>15.0266</v>
-      </c>
-      <c r="O9">
-        <v>740</v>
-      </c>
-      <c r="P9">
-        <v>2.9854100000000001E-2</v>
-      </c>
-      <c r="Q9">
-        <v>1.78251E-2</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="4"/>
-        <v>2.0306216216216217E-2</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="5"/>
-        <v>49.24600375334407</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="6"/>
-        <v>56.100667036931071</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>33.496236697806999</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="8"/>
-        <v>6.8546632835870014</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="9"/>
-        <v>15.74976705553707</v>
+        <v>39.129325536930054</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBBEF9-B8F0-47AF-96C0-9532BA988B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41C91F-7A58-43C1-92DE-27DC02020770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -3123,7 +3123,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Mandelbulb</a:t>
+              <a:t>Sierpinski</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -3723,8 +3723,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Mandelbulb</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sierpinski</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -8153,13 +8155,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
@@ -8191,15 +8193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8642,7 +8644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
@@ -9379,20 +9381,643 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B021C-7FB8-4DB3-B867-3D7A2496B207}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>40.104799999999997</v>
+      </c>
+      <c r="O2">
+        <v>497</v>
+      </c>
+      <c r="P2">
+        <v>0.73533499999999996</v>
+      </c>
+      <c r="Q2">
+        <v>4.9891100000000001E-2</v>
+      </c>
+      <c r="S2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="T2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W2">
+        <f>N2/O2</f>
+        <v>8.0693762575452715E-2</v>
+      </c>
+      <c r="X2">
+        <f>1/W2</f>
+        <v>12.392531567293691</v>
+      </c>
+      <c r="Y2">
+        <f>1/Q2</f>
+        <v>20.043655080765909</v>
+      </c>
+      <c r="Z2">
+        <f>1/P2</f>
+        <v>1.359924388204016</v>
+      </c>
+      <c r="AA2">
+        <f>Y2-X2</f>
+        <v>7.6511235134722178</v>
+      </c>
+      <c r="AB2">
+        <f>X2-Z2</f>
+        <v>11.032607179089675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>40.153300000000002</v>
+      </c>
+      <c r="O3">
+        <v>648</v>
+      </c>
+      <c r="P3">
+        <v>0.322627</v>
+      </c>
+      <c r="Q3">
+        <v>3.3024699999999997E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="0">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T4" si="1">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:V4" si="2">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W4" si="3">N3/O3</f>
+        <v>6.1964969135802468E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X6" si="4">1/W3</f>
+        <v>16.138150538062874</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y4" si="5">1/Q3</f>
+        <v>30.280365907941633</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z4" si="6">1/P3</f>
+        <v>3.0995545940048417</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA6" si="7">Y3-X3</f>
+        <v>14.142215369878759</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB6" si="8">X3-Z3</f>
+        <v>13.038595944058033</v>
+      </c>
+      <c r="AD3">
+        <f>(X3-$X$2)/ABS($X$2)*100</f>
+        <v>30.224808792536002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>40.149900000000002</v>
+      </c>
+      <c r="O4">
+        <v>494</v>
+      </c>
+      <c r="P4">
+        <v>0.153947</v>
+      </c>
+      <c r="Q4">
+        <v>5.1809399999999999E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>8.1275101214574902E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>12.303891167848487</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>19.301516713183322</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>6.4957420410920639</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="7"/>
+        <v>6.9976255453348344</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="8"/>
+        <v>5.8081491267564234</v>
+      </c>
+      <c r="AD4">
+        <f>(X4-$X$2)/ABS($X$2)*100</f>
+        <v>-0.71527273474245701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>40.066000000000003</v>
+      </c>
+      <c r="O5">
+        <v>1077</v>
+      </c>
+      <c r="P5">
+        <v>8.7488700000000003E-2</v>
+      </c>
+      <c r="Q5">
+        <v>2.7360599999999999E-2</v>
+      </c>
+      <c r="S5">
+        <f>D6*E6</f>
+        <v>2073600</v>
+      </c>
+      <c r="T5" s="3">
+        <f>K6/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U5" s="3">
+        <f>L6/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V5" s="3">
+        <f>M6/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W5">
+        <f>N6/O6</f>
+        <v>3.0269236583522298E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>33.036842446973743</v>
+      </c>
+      <c r="Y5">
+        <f>1/Q6</f>
+        <v>53.194601811808134</v>
+      </c>
+      <c r="Z5">
+        <f>1/P6</f>
+        <v>23.800626908512768</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>20.157759364834391</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>9.236215538460975</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD4:AD6" si="9">(X5-$X$2)/ABS($X$2)*100</f>
+        <v>166.58671206587374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>40.046199999999999</v>
+      </c>
+      <c r="O6">
+        <v>1323</v>
+      </c>
+      <c r="P6">
+        <v>4.2015700000000003E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.87989E-2</v>
+      </c>
+      <c r="S6">
+        <f>D5*E5</f>
+        <v>2073600</v>
+      </c>
+      <c r="T6" s="3">
+        <f>K5/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f>L5/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>M5/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W6">
+        <f>N5/O5</f>
+        <v>3.7201485608170846E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>26.880646932561273</v>
+      </c>
+      <c r="Y6">
+        <f>1/Q5</f>
+        <v>36.548906091240688</v>
+      </c>
+      <c r="Z6">
+        <f>1/P5</f>
+        <v>11.430047537567708</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>9.6682591586794153</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>15.450599394993565</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="9"/>
+        <v>116.91005414506705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="AD7">
+        <f>SUM(AD3:AD5)</f>
+        <v>196.09624812366729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
+  <dimension ref="A1:AD8"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD3:AD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -9415,7 +10040,7 @@
     <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -9498,15 +10123,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -9539,16 +10164,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>40.104799999999997</v>
+        <v>40.031999999999996</v>
       </c>
       <c r="O2">
-        <v>497</v>
+        <v>2558</v>
       </c>
       <c r="P2">
-        <v>0.73533499999999996</v>
+        <v>2.3877499999999999E-2</v>
       </c>
       <c r="Q2">
-        <v>4.9891100000000001E-2</v>
+        <v>8.4942000000000004E-3</v>
       </c>
       <c r="S2">
         <f>D2*E2</f>
@@ -9568,38 +10193,38 @@
       </c>
       <c r="W2">
         <f>N2/O2</f>
-        <v>8.0693762575452715E-2</v>
+        <v>1.5649726348709928E-2</v>
       </c>
       <c r="X2">
         <f>1/W2</f>
-        <v>12.392531567293691</v>
+        <v>63.898880895283781</v>
       </c>
       <c r="Y2">
         <f>1/Q2</f>
-        <v>20.043655080765909</v>
+        <v>117.72739045466318</v>
       </c>
       <c r="Z2">
         <f>1/P2</f>
-        <v>1.359924388204016</v>
+        <v>41.880431368443098</v>
       </c>
       <c r="AA2">
         <f>Y2-X2</f>
-        <v>7.6511235134722178</v>
+        <v>53.828509559379398</v>
       </c>
       <c r="AB2">
         <f>X2-Z2</f>
-        <v>11.032607179089675</v>
+        <v>22.018449526840683</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -9632,67 +10257,71 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>40.153300000000002</v>
+        <v>40.053600000000003</v>
       </c>
       <c r="O3">
-        <v>648</v>
+        <v>1463</v>
       </c>
       <c r="P3">
-        <v>0.322627</v>
+        <v>3.69745E-2</v>
       </c>
       <c r="Q3">
-        <v>3.3024699999999997E-2</v>
+        <v>1.7606400000000001E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S4" si="0">D3*E3</f>
+        <f t="shared" ref="S3:S5" si="0">D3*E3</f>
         <v>2073600</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T4" si="1">K3/1000000000</f>
+        <f t="shared" ref="T3:T5" si="1">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:V4" si="2">L3/1000</f>
+        <f t="shared" ref="U3:U5" si="2">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V3:V5" si="3">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W4" si="3">N3/O3</f>
-        <v>6.1964969135802468E-2</v>
+        <f t="shared" ref="W3:W5" si="4">N3/O3</f>
+        <v>2.7377717019822286E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X6" si="4">1/W3</f>
-        <v>16.138150538062874</v>
+        <f t="shared" ref="X3:X5" si="5">1/W3</f>
+        <v>36.526055086184506</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y4" si="5">1/Q3</f>
-        <v>30.280365907941633</v>
+        <f t="shared" ref="Y3:Y5" si="6">1/Q3</f>
+        <v>56.797528171573973</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z4" si="6">1/P3</f>
-        <v>3.0995545940048417</v>
+        <f t="shared" ref="Z3:Z5" si="7">1/P3</f>
+        <v>27.045666608067723</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA6" si="7">Y3-X3</f>
-        <v>14.142215369878759</v>
+        <f t="shared" ref="AA3:AA5" si="8">Y3-X3</f>
+        <v>20.271473085389466</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB6" si="8">X3-Z3</f>
-        <v>13.038595944058033</v>
+        <f t="shared" ref="AB3:AB5" si="9">X3-Z3</f>
+        <v>9.4803884781167831</v>
+      </c>
+      <c r="AD3">
+        <f>(X3-$X$2)/ABS($X$2)*100</f>
+        <v>-42.83772333033081</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -9725,16 +10354,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>40.149900000000002</v>
+        <v>40.042900000000003</v>
       </c>
       <c r="O4">
-        <v>494</v>
+        <v>2182</v>
       </c>
       <c r="P4">
-        <v>0.153947</v>
+        <v>2.8689800000000001E-2</v>
       </c>
       <c r="Q4">
-        <v>5.1809399999999999E-2</v>
+        <v>9.5936000000000007E-3</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -9749,608 +10378,6 @@
         <v>49.152000000000001</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="2"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="3"/>
-        <v>8.1275101214574902E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="4"/>
-        <v>12.303891167848487</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="5"/>
-        <v>19.301516713183322</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="6"/>
-        <v>6.4957420410920639</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="7"/>
-        <v>6.9976255453348344</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="8"/>
-        <v>5.8081491267564234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>1920</v>
-      </c>
-      <c r="E5">
-        <v>1080</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>256</v>
-      </c>
-      <c r="I5">
-        <v>1665</v>
-      </c>
-      <c r="J5">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>8589410304</v>
-      </c>
-      <c r="L5">
-        <v>49152</v>
-      </c>
-      <c r="M5">
-        <v>65536</v>
-      </c>
-      <c r="N5">
-        <v>40.066000000000003</v>
-      </c>
-      <c r="O5">
-        <v>1077</v>
-      </c>
-      <c r="P5">
-        <v>8.7488700000000003E-2</v>
-      </c>
-      <c r="Q5">
-        <v>2.7360599999999999E-2</v>
-      </c>
-      <c r="S5">
-        <f>D6*E6</f>
-        <v>2073600</v>
-      </c>
-      <c r="T5" s="3">
-        <f>K6/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U5" s="3">
-        <f>L6/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V5" s="3">
-        <f>M6/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W5">
-        <f>N6/O6</f>
-        <v>3.0269236583522298E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="4"/>
-        <v>33.036842446973743</v>
-      </c>
-      <c r="Y5">
-        <f>1/Q6</f>
-        <v>53.194601811808134</v>
-      </c>
-      <c r="Z5">
-        <f>1/P6</f>
-        <v>23.800626908512768</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="7"/>
-        <v>20.157759364834391</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="8"/>
-        <v>9.236215538460975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>1920</v>
-      </c>
-      <c r="E6">
-        <v>1080</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>256</v>
-      </c>
-      <c r="I6">
-        <v>1665</v>
-      </c>
-      <c r="J6">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>8589410304</v>
-      </c>
-      <c r="L6">
-        <v>49152</v>
-      </c>
-      <c r="M6">
-        <v>65536</v>
-      </c>
-      <c r="N6">
-        <v>40.046199999999999</v>
-      </c>
-      <c r="O6">
-        <v>1323</v>
-      </c>
-      <c r="P6">
-        <v>4.2015700000000003E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.87989E-2</v>
-      </c>
-      <c r="S6">
-        <f>D5*E5</f>
-        <v>2073600</v>
-      </c>
-      <c r="T6" s="3">
-        <f>K5/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U6" s="3">
-        <f>L5/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V6" s="3">
-        <f>M5/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W6">
-        <f>N5/O5</f>
-        <v>3.7201485608170846E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="4"/>
-        <v>26.880646932561273</v>
-      </c>
-      <c r="Y6">
-        <f>1/Q5</f>
-        <v>36.548906091240688</v>
-      </c>
-      <c r="Z6">
-        <f>1/P5</f>
-        <v>11.430047537567708</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="7"/>
-        <v>9.6682591586794153</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="8"/>
-        <v>15.450599394993565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>1920</v>
-      </c>
-      <c r="E2">
-        <v>1080</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>256</v>
-      </c>
-      <c r="I2">
-        <v>1665</v>
-      </c>
-      <c r="J2">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>8589410304</v>
-      </c>
-      <c r="L2">
-        <v>49152</v>
-      </c>
-      <c r="M2">
-        <v>65536</v>
-      </c>
-      <c r="N2">
-        <v>40.031999999999996</v>
-      </c>
-      <c r="O2">
-        <v>2558</v>
-      </c>
-      <c r="P2">
-        <v>2.3877499999999999E-2</v>
-      </c>
-      <c r="Q2">
-        <v>8.4942000000000004E-3</v>
-      </c>
-      <c r="S2">
-        <f>D2*E2</f>
-        <v>2073600</v>
-      </c>
-      <c r="T2" s="3">
-        <f>K2/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U2" s="3">
-        <f>L2/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V2" s="3">
-        <f>M2/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W2">
-        <f>N2/O2</f>
-        <v>1.5649726348709928E-2</v>
-      </c>
-      <c r="X2">
-        <f>1/W2</f>
-        <v>63.898880895283781</v>
-      </c>
-      <c r="Y2">
-        <f>1/Q2</f>
-        <v>117.72739045466318</v>
-      </c>
-      <c r="Z2">
-        <f>1/P2</f>
-        <v>41.880431368443098</v>
-      </c>
-      <c r="AA2">
-        <f>Y2-X2</f>
-        <v>53.828509559379398</v>
-      </c>
-      <c r="AB2">
-        <f>X2-Z2</f>
-        <v>22.018449526840683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>1920</v>
-      </c>
-      <c r="E3">
-        <v>1080</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>256</v>
-      </c>
-      <c r="I3">
-        <v>1665</v>
-      </c>
-      <c r="J3">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>8589410304</v>
-      </c>
-      <c r="L3">
-        <v>49152</v>
-      </c>
-      <c r="M3">
-        <v>65536</v>
-      </c>
-      <c r="N3">
-        <v>40.053600000000003</v>
-      </c>
-      <c r="O3">
-        <v>1463</v>
-      </c>
-      <c r="P3">
-        <v>3.69745E-2</v>
-      </c>
-      <c r="Q3">
-        <v>1.7606400000000001E-2</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S5" si="0">D3*E3</f>
-        <v>2073600</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T5" si="1">K3/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U5" si="2">L3/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V5" si="3">M3/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W5" si="4">N3/O3</f>
-        <v>2.7377717019822286E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X5" si="5">1/W3</f>
-        <v>36.526055086184506</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y5" si="6">1/Q3</f>
-        <v>56.797528171573973</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z5" si="7">1/P3</f>
-        <v>27.045666608067723</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA5" si="8">Y3-X3</f>
-        <v>20.271473085389466</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB5" si="9">X3-Z3</f>
-        <v>9.4803884781167831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>1920</v>
-      </c>
-      <c r="E4">
-        <v>1080</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>256</v>
-      </c>
-      <c r="I4">
-        <v>1665</v>
-      </c>
-      <c r="J4">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>8589410304</v>
-      </c>
-      <c r="L4">
-        <v>49152</v>
-      </c>
-      <c r="M4">
-        <v>65536</v>
-      </c>
-      <c r="N4">
-        <v>40.042900000000003</v>
-      </c>
-      <c r="O4">
-        <v>2182</v>
-      </c>
-      <c r="P4">
-        <v>2.8689800000000001E-2</v>
-      </c>
-      <c r="Q4">
-        <v>9.5936000000000007E-3</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V4" s="3">
         <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
@@ -10378,8 +10405,12 @@
         <f t="shared" si="9"/>
         <v>19.635964527201764</v>
       </c>
+      <c r="AD4">
+        <f>(X4-$X$2)/ABS($X$2)*100</f>
+        <v>-14.722203204850151</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -10471,18 +10502,26 @@
         <f t="shared" si="9"/>
         <v>9.1824999762590274</v>
       </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD7" si="10">(X5-$X$2)/ABS($X$2)*100</f>
+        <v>-48.415611978392249</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
+      <c r="AD7">
+        <f>SUM(AD3:AD4)</f>
+        <v>-57.559926535180963</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41C91F-7A58-43C1-92DE-27DC02020770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC56D8C7-2EBC-4852-B46E-023791F47487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="68">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -168,18 +168,6 @@
     <t xml:space="preserve">-cl-fast-relaxed-math </t>
   </si>
   <si>
-    <t>kernels/benchmarks/mandelbulb_features/no_features.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_features/hard_shadows.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_features/phong.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_features/all_features.cl</t>
-  </si>
-  <si>
     <t>kernels/benchmarks/sierpinski_optimisations/no_optimisations.cl</t>
   </si>
   <si>
@@ -207,25 +195,55 @@
     <t>kernels/benchmarks/sierpinski_features/all_features.cl</t>
   </si>
   <si>
-    <t>kernels/benchmarks/mandelbulb_optimisations/no_optimisations.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_optimisations/linear_epsilon.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/mandelbulb_optimisations/all_optimisations.cl</t>
-  </si>
-  <si>
     <t>Hard Shadows</t>
   </si>
   <si>
     <t>Phong</t>
   </si>
   <si>
-    <t>kernels/benchmarks/mandelbulb_optimisations/bounding_volume.cl</t>
+    <t>kernels/benchmarks/sierpinski_optimisations/bounding_volume.cl</t>
   </si>
   <si>
-    <t>kernels/benchmarks/sierpinski_optimisations/bounding_volume.cl</t>
+    <t>kernels/benchmarks/mandelbulb/optimisations_none.cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/optimisations_intersection_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/optimisations_bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/optimisations_all.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/features_none.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/features_phong.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/features_glow.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/features_hard_shadows.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/features_soft_shadows.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb/features_all.cl</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>Soft Shadows</t>
   </si>
 </sst>
 </file>
@@ -2031,19 +2049,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.043655080765909</c:v>
+                  <c:v>20.278916213601878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.280365907941633</c:v>
+                  <c:v>25.026528119806994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.301516713183322</c:v>
+                  <c:v>19.584188509564918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.194601811808134</c:v>
+                  <c:v>41.699678912472379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.548906091240688</c:v>
+                  <c:v>45.611906532081136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,19 +2118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.392531567293691</c:v>
+                  <c:v>11.754344140707776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.138150538062874</c:v>
+                  <c:v>13.479990328852148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.303891167848487</c:v>
+                  <c:v>11.219544579433046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.036842446973743</c:v>
+                  <c:v>23.656865648301263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.880646932561273</c:v>
+                  <c:v>26.038635615399709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,19 +2187,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.359924388204016</c:v>
+                  <c:v>7.7761102341386801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0995545940048417</c:v>
+                  <c:v>7.7054068840105101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4957420410920639</c:v>
+                  <c:v>7.550874013667082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.800626908512768</c:v>
+                  <c:v>16.485599828549763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.430047537567708</c:v>
+                  <c:v>16.29521719080233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,19 +2622,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$A$2:$A$5</c:f>
+              <c:f>'Mandelbulb Features'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Phong</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Glow</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Hard Shadows</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Phong</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Soft Shadows</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
@@ -2624,21 +2648,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$Y$2:$Y$5</c:f>
+              <c:f>'Mandelbulb Features'!$Y$2:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>117.72739045466318</c:v>
+                  <c:v>111.76306230790723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.797528171573973</c:v>
+                  <c:v>95.721259691777547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.23615743829218</c:v>
+                  <c:v>108.22042335829619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.656798782574811</c:v>
+                  <c:v>47.894096573656334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.543147578015414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.933506655765115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,19 +2697,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$A$2:$A$5</c:f>
+              <c:f>'Mandelbulb Features'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Phong</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Glow</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Hard Shadows</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Phong</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Soft Shadows</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
@@ -2687,21 +2723,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$X$2:$X$5</c:f>
+              <c:f>'Mandelbulb Features'!$X$2:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>63.898880895283781</c:v>
+                  <c:v>64.022319585569505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.526055086184506</c:v>
+                  <c:v>54.436074214070864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.491557804254931</c:v>
+                  <c:v>63.875206895058831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.961846662488171</c:v>
+                  <c:v>28.087460029383809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.968066925128181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.828455179153746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,19 +2772,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$A$2:$A$5</c:f>
+              <c:f>'Mandelbulb Features'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Phong</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Glow</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Hard Shadows</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Phong</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Soft Shadows</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
@@ -2750,21 +2798,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$Z$2:$Z$5</c:f>
+              <c:f>'Mandelbulb Features'!$Z$2:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41.880431368443098</c:v>
+                  <c:v>37.646491911651211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.045666608067723</c:v>
+                  <c:v>30.422507788161994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.855593277053167</c:v>
+                  <c:v>37.85684811453968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.779346686229143</c:v>
+                  <c:v>17.99911084392431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.367174649210529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.321547543851917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8645,7 +8699,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA46" sqref="AA46"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9381,10 +9435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B021C-7FB8-4DB3-B867-3D7A2496B207}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9505,10 +9559,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -9541,16 +9595,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>40.104799999999997</v>
+        <v>30.201599999999999</v>
       </c>
       <c r="O2">
-        <v>497</v>
+        <v>355</v>
       </c>
       <c r="P2">
-        <v>0.73533499999999996</v>
+        <v>0.12859899999999999</v>
       </c>
       <c r="Q2">
-        <v>4.9891100000000001E-2</v>
+        <v>4.9312300000000003E-2</v>
       </c>
       <c r="S2">
         <f>D2*E2</f>
@@ -9570,27 +9624,27 @@
       </c>
       <c r="W2">
         <f>N2/O2</f>
-        <v>8.0693762575452715E-2</v>
+        <v>8.5074929577464792E-2</v>
       </c>
       <c r="X2">
         <f>1/W2</f>
-        <v>12.392531567293691</v>
+        <v>11.754344140707776</v>
       </c>
       <c r="Y2">
         <f>1/Q2</f>
-        <v>20.043655080765909</v>
+        <v>20.278916213601878</v>
       </c>
       <c r="Z2">
         <f>1/P2</f>
-        <v>1.359924388204016</v>
+        <v>7.7761102341386801</v>
       </c>
       <c r="AA2">
         <f>Y2-X2</f>
-        <v>7.6511235134722178</v>
+        <v>8.5245720728941023</v>
       </c>
       <c r="AB2">
         <f>X2-Z2</f>
-        <v>11.032607179089675</v>
+        <v>3.9782339065690957</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -9601,7 +9655,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -9634,60 +9688,60 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>40.153300000000002</v>
+        <v>30.192900000000002</v>
       </c>
       <c r="O3">
-        <v>648</v>
+        <v>407</v>
       </c>
       <c r="P3">
-        <v>0.322627</v>
+        <v>0.12977900000000001</v>
       </c>
       <c r="Q3">
-        <v>3.3024699999999997E-2</v>
+        <v>3.9957600000000003E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S4" si="0">D3*E3</f>
+        <f t="shared" ref="S3:S6" si="0">D3*E3</f>
         <v>2073600</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T4" si="1">K3/1000000000</f>
+        <f t="shared" ref="T3:T6" si="1">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:V4" si="2">L3/1000</f>
+        <f t="shared" ref="U3:U6" si="2">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V3:V6" si="3">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W4" si="3">N3/O3</f>
-        <v>6.1964969135802468E-2</v>
+        <f t="shared" ref="W3:W6" si="4">N3/O3</f>
+        <v>7.4184029484029482E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X6" si="4">1/W3</f>
-        <v>16.138150538062874</v>
+        <f t="shared" ref="X3:X6" si="5">1/W3</f>
+        <v>13.479990328852148</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y4" si="5">1/Q3</f>
-        <v>30.280365907941633</v>
+        <f t="shared" ref="Y3:Y6" si="6">1/Q3</f>
+        <v>25.026528119806994</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z4" si="6">1/P3</f>
-        <v>3.0995545940048417</v>
+        <f t="shared" ref="Z3:Z6" si="7">1/P3</f>
+        <v>7.7054068840105101</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA6" si="7">Y3-X3</f>
-        <v>14.142215369878759</v>
+        <f t="shared" ref="AA3:AA6" si="8">Y3-X3</f>
+        <v>11.546537790954845</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB6" si="8">X3-Z3</f>
-        <v>13.038595944058033</v>
+        <f t="shared" ref="AB3:AB6" si="9">X3-Z3</f>
+        <v>5.774583444841638</v>
       </c>
       <c r="AD3">
         <f>(X3-$X$2)/ABS($X$2)*100</f>
-        <v>30.224808792536002</v>
+        <v>14.680922793200304</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -9695,10 +9749,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -9731,16 +9785,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>40.149900000000002</v>
+        <v>30.126000000000001</v>
       </c>
       <c r="O4">
-        <v>494</v>
+        <v>338</v>
       </c>
       <c r="P4">
-        <v>0.153947</v>
+        <v>0.132435</v>
       </c>
       <c r="Q4">
-        <v>5.1809399999999999E-2</v>
+        <v>5.1061599999999999E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -9755,36 +9809,36 @@
         <v>49.152000000000001</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
-        <v>8.1275101214574902E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.9130177514792908E-2</v>
       </c>
       <c r="X4">
-        <f t="shared" si="4"/>
-        <v>12.303891167848487</v>
+        <f t="shared" si="5"/>
+        <v>11.219544579433046</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="5"/>
-        <v>19.301516713183322</v>
+        <f t="shared" si="6"/>
+        <v>19.584188509564918</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="6"/>
-        <v>6.4957420410920639</v>
+        <f t="shared" si="7"/>
+        <v>7.550874013667082</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="7"/>
-        <v>6.9976255453348344</v>
+        <f t="shared" si="8"/>
+        <v>8.3646439301318711</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="8"/>
-        <v>5.8081491267564234</v>
+        <f t="shared" si="9"/>
+        <v>3.6686705657659644</v>
       </c>
       <c r="AD4">
         <f>(X4-$X$2)/ABS($X$2)*100</f>
-        <v>-0.71527273474245701</v>
+        <v>-4.5498035013506675</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9792,10 +9846,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -9828,60 +9882,60 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>40.066000000000003</v>
+        <v>30.0547</v>
       </c>
       <c r="O5">
-        <v>1077</v>
+        <v>711</v>
       </c>
       <c r="P5">
-        <v>8.7488700000000003E-2</v>
+        <v>6.0658999999999998E-2</v>
       </c>
       <c r="Q5">
-        <v>2.7360599999999999E-2</v>
+        <v>2.3980999999999999E-2</v>
       </c>
       <c r="S5">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>2073600</v>
       </c>
       <c r="T5" s="3">
-        <f>K6/1000000000</f>
+        <f t="shared" si="1"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="U5" s="3">
-        <f>L6/1000</f>
+        <f t="shared" si="2"/>
         <v>49.152000000000001</v>
       </c>
       <c r="V5" s="3">
-        <f>M6/1000</f>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="W5">
-        <f>N6/O6</f>
-        <v>3.0269236583522298E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.2271026722925459E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="4"/>
-        <v>33.036842446973743</v>
+        <f t="shared" si="5"/>
+        <v>23.656865648301263</v>
       </c>
       <c r="Y5">
-        <f>1/Q6</f>
-        <v>53.194601811808134</v>
+        <f t="shared" si="6"/>
+        <v>41.699678912472379</v>
       </c>
       <c r="Z5">
-        <f>1/P6</f>
-        <v>23.800626908512768</v>
+        <f t="shared" si="7"/>
+        <v>16.485599828549763</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="7"/>
-        <v>20.157759364834391</v>
+        <f t="shared" si="8"/>
+        <v>18.042813264171116</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="8"/>
-        <v>9.236215538460975</v>
+        <f t="shared" si="9"/>
+        <v>7.1712658197515005</v>
       </c>
       <c r="AD5">
-        <f t="shared" ref="AD4:AD6" si="9">(X5-$X$2)/ABS($X$2)*100</f>
-        <v>166.58671206587374</v>
+        <f t="shared" ref="AD4:AD6" si="10">(X5-$X$2)/ABS($X$2)*100</f>
+        <v>101.2606179052776</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -9889,10 +9943,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -9925,60 +9979,60 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>40.046199999999999</v>
+        <v>30.070699999999999</v>
       </c>
       <c r="O6">
-        <v>1323</v>
+        <v>783</v>
       </c>
       <c r="P6">
-        <v>4.2015700000000003E-2</v>
+        <v>6.1367699999999997E-2</v>
       </c>
       <c r="Q6">
-        <v>1.87989E-2</v>
+        <v>2.1924099999999998E-2</v>
       </c>
       <c r="S6">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>2073600</v>
       </c>
       <c r="T6" s="3">
-        <f>K5/1000000000</f>
+        <f t="shared" si="1"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="U6" s="3">
-        <f>L5/1000</f>
+        <f t="shared" si="2"/>
         <v>49.152000000000001</v>
       </c>
       <c r="V6" s="3">
-        <f>M5/1000</f>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="W6">
-        <f>N5/O5</f>
-        <v>3.7201485608170846E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.8404469987228608E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="4"/>
-        <v>26.880646932561273</v>
+        <f t="shared" si="5"/>
+        <v>26.038635615399709</v>
       </c>
       <c r="Y6">
-        <f>1/Q5</f>
-        <v>36.548906091240688</v>
+        <f t="shared" si="6"/>
+        <v>45.611906532081136</v>
       </c>
       <c r="Z6">
-        <f>1/P5</f>
-        <v>11.430047537567708</v>
+        <f t="shared" si="7"/>
+        <v>16.29521719080233</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="7"/>
-        <v>9.6682591586794153</v>
+        <f t="shared" si="8"/>
+        <v>19.573270916681427</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="8"/>
-        <v>15.450599394993565</v>
+        <f t="shared" si="9"/>
+        <v>9.7434184245973796</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="9"/>
-        <v>116.91005414506705</v>
+        <f t="shared" si="10"/>
+        <v>121.52350912733971</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -9987,13 +10041,23 @@
       <c r="V7" s="3"/>
       <c r="AD7">
         <f>SUM(AD3:AD5)</f>
-        <v>196.09624812366729</v>
+        <v>111.39173719712724</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10003,16 +10067,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD3:AD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -10128,10 +10192,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -10164,16 +10228,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>40.031999999999996</v>
+        <v>30.0364</v>
       </c>
       <c r="O2">
-        <v>2558</v>
+        <v>1923</v>
       </c>
       <c r="P2">
-        <v>2.3877499999999999E-2</v>
+        <v>2.65629E-2</v>
       </c>
       <c r="Q2">
-        <v>8.4942000000000004E-3</v>
+        <v>8.9475000000000006E-3</v>
       </c>
       <c r="S2">
         <f>D2*E2</f>
@@ -10193,38 +10257,38 @@
       </c>
       <c r="W2">
         <f>N2/O2</f>
-        <v>1.5649726348709928E-2</v>
+        <v>1.5619552782111284E-2</v>
       </c>
       <c r="X2">
         <f>1/W2</f>
-        <v>63.898880895283781</v>
+        <v>64.022319585569505</v>
       </c>
       <c r="Y2">
         <f>1/Q2</f>
-        <v>117.72739045466318</v>
+        <v>111.76306230790723</v>
       </c>
       <c r="Z2">
         <f>1/P2</f>
-        <v>41.880431368443098</v>
+        <v>37.646491911651211</v>
       </c>
       <c r="AA2">
         <f>Y2-X2</f>
-        <v>53.828509559379398</v>
+        <v>47.740742722337728</v>
       </c>
       <c r="AB2">
         <f>X2-Z2</f>
-        <v>22.018449526840683</v>
+        <v>26.375827673918295</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -10257,71 +10321,71 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>40.053600000000003</v>
+        <v>30.053599999999999</v>
       </c>
       <c r="O3">
-        <v>1463</v>
+        <v>1636</v>
       </c>
       <c r="P3">
-        <v>3.69745E-2</v>
+        <v>3.2870400000000001E-2</v>
       </c>
       <c r="Q3">
-        <v>1.7606400000000001E-2</v>
+        <v>1.0447E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S5" si="0">D3*E3</f>
+        <f t="shared" ref="S3:S7" si="0">D3*E3</f>
         <v>2073600</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T5" si="1">K3/1000000000</f>
+        <f t="shared" ref="T3:T7" si="1">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:U5" si="2">L3/1000</f>
+        <f t="shared" ref="U3:U7" si="2">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V5" si="3">M3/1000</f>
+        <f t="shared" ref="V3:V7" si="3">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W5" si="4">N3/O3</f>
-        <v>2.7377717019822286E-2</v>
+        <f t="shared" ref="W3:W7" si="4">N3/O3</f>
+        <v>1.8370171149144254E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X5" si="5">1/W3</f>
-        <v>36.526055086184506</v>
+        <f t="shared" ref="X3:X7" si="5">1/W3</f>
+        <v>54.436074214070864</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y5" si="6">1/Q3</f>
-        <v>56.797528171573973</v>
+        <f t="shared" ref="Y3:Y7" si="6">1/Q3</f>
+        <v>95.721259691777547</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z5" si="7">1/P3</f>
-        <v>27.045666608067723</v>
+        <f t="shared" ref="Z3:Z7" si="7">1/P3</f>
+        <v>30.422507788161994</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA5" si="8">Y3-X3</f>
-        <v>20.271473085389466</v>
+        <f t="shared" ref="AA3:AA7" si="8">Y3-X3</f>
+        <v>41.285185477706683</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB5" si="9">X3-Z3</f>
-        <v>9.4803884781167831</v>
+        <f t="shared" ref="AB3:AB7" si="9">X3-Z3</f>
+        <v>24.01356642590887</v>
       </c>
       <c r="AD3">
         <f>(X3-$X$2)/ABS($X$2)*100</f>
-        <v>-42.83772333033081</v>
+        <v>-14.973286556239303</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -10354,16 +10418,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>40.042900000000003</v>
+        <v>30.0273</v>
       </c>
       <c r="O4">
-        <v>2182</v>
+        <v>1918</v>
       </c>
       <c r="P4">
-        <v>2.8689800000000001E-2</v>
+        <v>2.6415299999999999E-2</v>
       </c>
       <c r="Q4">
-        <v>9.5936000000000007E-3</v>
+        <v>9.2403999999999993E-3</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -10383,42 +10447,42 @@
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>1.8351466544454631E-2</v>
+        <v>1.5655526590198122E-2</v>
       </c>
       <c r="X4">
         <f t="shared" si="5"/>
-        <v>54.491557804254931</v>
+        <v>63.875206895058831</v>
       </c>
       <c r="Y4">
         <f t="shared" si="6"/>
-        <v>104.23615743829218</v>
+        <v>108.22042335829619</v>
       </c>
       <c r="Z4">
         <f t="shared" si="7"/>
-        <v>34.855593277053167</v>
+        <v>37.85684811453968</v>
       </c>
       <c r="AA4">
         <f t="shared" si="8"/>
-        <v>49.74459963403725</v>
+        <v>44.345216463237357</v>
       </c>
       <c r="AB4">
         <f t="shared" si="9"/>
-        <v>19.635964527201764</v>
+        <v>26.018358780519151</v>
       </c>
       <c r="AD4">
         <f>(X4-$X$2)/ABS($X$2)*100</f>
-        <v>-14.722203204850151</v>
+        <v>-0.22978344343498797</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -10451,16 +10515,16 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>40.046300000000002</v>
+        <v>30.084599999999998</v>
       </c>
       <c r="O5">
-        <v>1320</v>
+        <v>845</v>
       </c>
       <c r="P5">
-        <v>4.2053300000000002E-2</v>
+        <v>5.5558299999999998E-2</v>
       </c>
       <c r="Q5">
-        <v>1.8990900000000002E-2</v>
+        <v>2.0879399999999999E-2</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -10480,51 +10544,237 @@
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
-        <v>3.0338106060606062E-2</v>
+        <v>3.5603076923076918E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="5"/>
-        <v>32.961846662488171</v>
+        <v>28.087460029383809</v>
       </c>
       <c r="Y5">
         <f t="shared" si="6"/>
-        <v>52.656798782574811</v>
+        <v>47.894096573656334</v>
       </c>
       <c r="Z5">
         <f t="shared" si="7"/>
-        <v>23.779346686229143</v>
+        <v>17.99911084392431</v>
       </c>
       <c r="AA5">
         <f t="shared" si="8"/>
-        <v>19.69495212008664</v>
+        <v>19.806636544272525</v>
       </c>
       <c r="AB5">
         <f t="shared" si="9"/>
-        <v>9.1824999762590274</v>
+        <v>10.088349185459499</v>
       </c>
       <c r="AD5">
         <f t="shared" ref="AD5:AD7" si="10">(X5-$X$2)/ABS($X$2)*100</f>
-        <v>-48.415611978392249</v>
+        <v>-56.128643555559862</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>30.075399999999998</v>
+      </c>
+      <c r="O6">
+        <v>781</v>
+      </c>
+      <c r="P6">
+        <v>6.1097899999999997E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.19572E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>3.8508834827144685E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>25.968066925128181</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>45.543147578015414</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>16.367174649210529</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>19.575080652887234</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>9.6008922759176514</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="10"/>
+        <v>-59.439040801356199</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.083100000000002</v>
+      </c>
+      <c r="O7">
+        <v>777</v>
+      </c>
+      <c r="P7">
+        <v>6.1268700000000002E-2</v>
+      </c>
+      <c r="Q7">
+        <v>2.1770600000000001E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="3"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>3.8716988416988417E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>25.828455179153746</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>45.933506655765115</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>16.321547543851917</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>20.105051476611369</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
+        <v>9.5069076353018289</v>
+      </c>
       <c r="AD7">
-        <f>SUM(AD3:AD4)</f>
-        <v>-57.559926535180963</v>
+        <f t="shared" si="10"/>
+        <v>-59.657108104881239</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <f>SUM(AD3:AD7)</f>
+        <v>-190.42786246147162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10536,7 +10786,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:AB6"/>
+      <selection activeCell="AB2" sqref="S2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10653,10 +10903,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -10746,10 +10996,10 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -10839,10 +11089,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -10932,10 +11182,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -11025,10 +11275,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -11243,10 +11493,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -11333,13 +11583,13 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -11426,13 +11676,13 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -11522,10 +11772,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>1920</v>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC56D8C7-2EBC-4852-B46E-023791F47487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFE0F1-5A27-417F-B9A0-4000696E8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Mandelbulb Optimisations" sheetId="5" r:id="rId3"/>
-    <sheet name="Mandelbulb Features" sheetId="3" r:id="rId4"/>
+    <sheet name="Mandelbulb Optimisations" sheetId="8" r:id="rId3"/>
+    <sheet name="Mandelbulb Features" sheetId="9" r:id="rId4"/>
     <sheet name="Sierpinski Optimisations" sheetId="7" r:id="rId5"/>
     <sheet name="Sierpinski Features" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="77">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -207,9 +207,6 @@
     <t>kernels/benchmarks/mandelbulb/optimisations_none.cl</t>
   </si>
   <si>
-    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" </t>
-  </si>
-  <si>
     <t>kernels/benchmarks/mandelbulb/optimisations_intersection_epsilon.cl</t>
   </si>
   <si>
@@ -245,12 +242,42 @@
   <si>
     <t>Soft Shadows</t>
   </si>
+  <si>
+    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisation</t>
+  </si>
+  <si>
+    <t>Rows per Run</t>
+  </si>
+  <si>
+    <t>Run Name</t>
+  </si>
+  <si>
+    <t>Total Runtime</t>
+  </si>
+  <si>
+    <t>Max-Mean</t>
+  </si>
+  <si>
+    <t>Mean-Min</t>
+  </si>
+  <si>
+    <t>Min FPS</t>
+  </si>
+  <si>
+    <t>Max FPS</t>
+  </si>
+  <si>
+    <t>Digits to Round</t>
+  </si>
+  <si>
+    <t>Mean FPS % Difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +285,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0A0101"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +312,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -291,11 +331,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2021,7 +2064,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Optimisations'!$A$2:$A$6</c:f>
+              <c:f>'Mandelbulb Optimisations'!$V$2:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2044,24 +2087,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Optimisations'!$Y$2:$Y$6</c:f>
+              <c:f>'Mandelbulb Optimisations'!$AD$2:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.278916213601878</c:v>
+                  <c:v>20.484960965906879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.026528119806994</c:v>
+                  <c:v>25.380882442520761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.584188509564918</c:v>
+                  <c:v>18.691751828364861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.699678912472379</c:v>
+                  <c:v>39.097321051561551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.611906532081136</c:v>
+                  <c:v>43.463080286450676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,7 +2133,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Optimisations'!$A$2:$A$6</c:f>
+              <c:f>'Mandelbulb Optimisations'!$V$2:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2113,24 +2156,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Optimisations'!$X$2:$X$6</c:f>
+              <c:f>'Mandelbulb Optimisations'!$AC$2:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11.754344140707776</c:v>
+                  <c:v>11.521947540860342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.479990328852148</c:v>
+                  <c:v>13.388359638735221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.219544579433046</c:v>
+                  <c:v>10.199137047040761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.656865648301263</c:v>
+                  <c:v>21.124778056830753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.038635615399709</c:v>
+                  <c:v>23.450218709861172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,7 +2202,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Optimisations'!$A$2:$A$6</c:f>
+              <c:f>'Mandelbulb Optimisations'!$V$2:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2182,24 +2225,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Optimisations'!$Z$2:$Z$6</c:f>
+              <c:f>'Mandelbulb Optimisations'!$AE$2:$AE$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.7761102341386801</c:v>
+                  <c:v>7.673890355454601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7054068840105101</c:v>
+                  <c:v>7.6032907042167848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.550874013667082</c:v>
+                  <c:v>6.3961929859347713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.485599828549763</c:v>
+                  <c:v>14.183947837113433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.29521719080233</c:v>
+                  <c:v>13.559934912312421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,9 +2665,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$A$2:$A$7</c:f>
+              <c:f>'Mandelbulb Features'!$V$2:$V$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
@@ -2639,36 +2682,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Soft Shadows</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$Y$2:$Y$7</c:f>
+              <c:f>'Mandelbulb Features'!$AD$2:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>111.76306230790723</c:v>
+                  <c:v>108.48732506418834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.721259691777547</c:v>
+                  <c:v>94.172599540437716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.22042335829619</c:v>
+                  <c:v>108.09291667117056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.894096573656334</c:v>
+                  <c:v>47.676486433655789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.543147578015414</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.933506655765115</c:v>
+                  <c:v>44.372331189163674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,9 +2734,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$A$2:$A$7</c:f>
+              <c:f>'Mandelbulb Features'!$V$2:$V$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
@@ -2714,36 +2751,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Soft Shadows</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$X$2:$X$7</c:f>
+              <c:f>'Mandelbulb Features'!$AC$2:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>64.022319585569505</c:v>
+                  <c:v>60.074855000338431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.436074214070864</c:v>
+                  <c:v>50.817055273115336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.875206895058831</c:v>
+                  <c:v>59.581002425401707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.087460029383809</c:v>
+                  <c:v>25.880760158696919</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.968066925128181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.828455179153746</c:v>
+                  <c:v>23.606093939182458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2772,9 +2803,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$A$2:$A$7</c:f>
+              <c:f>'Mandelbulb Features'!$V$2:$V$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
@@ -2789,36 +2820,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Soft Shadows</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$Z$2:$Z$7</c:f>
+              <c:f>'Mandelbulb Features'!$AE$2:$AE$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.646491911651211</c:v>
+                  <c:v>31.438269386146835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.422507788161994</c:v>
+                  <c:v>25.264859948459687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.85684811453968</c:v>
+                  <c:v>31.147505240567753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.99911084392431</c:v>
+                  <c:v>15.112596399474285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.367174649210529</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.321547543851917</c:v>
+                  <c:v>13.334886106737763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8319,15 +8344,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8698,8 +8723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9434,11 +9459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B021C-7FB8-4DB3-B867-3D7A2496B207}">
-  <dimension ref="A1:AD10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF3B349-2272-4985-8475-8A40B0359212}">
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9460,18 +9485,22 @@
     <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -9523,38 +9552,58 @@
       <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -9562,7 +9611,7 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -9595,67 +9644,85 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.201599999999999</v>
+        <v>30.145399999999999</v>
       </c>
       <c r="O2">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="P2">
-        <v>0.12859899999999999</v>
+        <v>0.13549700000000001</v>
       </c>
       <c r="Q2">
-        <v>4.9312300000000003E-2</v>
+        <v>5.2447399999999998E-2</v>
       </c>
       <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>None</v>
+      </c>
+      <c r="W2">
         <f>D2*E2</f>
         <v>2073600</v>
       </c>
-      <c r="T2" s="3">
+      <c r="X2" s="3">
         <f>K2/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U2" s="3">
+      <c r="Y2" s="3">
         <f>L2/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V2" s="3">
+      <c r="Z2" s="3">
         <f>M2/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W2">
-        <f>N2/O2</f>
-        <v>8.5074929577464792E-2</v>
-      </c>
-      <c r="X2">
-        <f>1/W2</f>
-        <v>11.754344140707776</v>
-      </c>
-      <c r="Y2">
-        <f>1/Q2</f>
-        <v>20.278916213601878</v>
-      </c>
-      <c r="Z2">
-        <f>1/P2</f>
-        <v>7.7761102341386801</v>
-      </c>
-      <c r="AA2">
-        <f>Y2-X2</f>
-        <v>8.5245720728941023</v>
-      </c>
-      <c r="AB2">
-        <f>X2-Z2</f>
-        <v>3.9782339065690957</v>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.436099999999996</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>1042</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>11.521947540860342</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>20.484960965906879</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>7.673890355454601</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">AD2-AC2</f>
+        <v>8.9630134250465368</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AD2-AE2</f>
+        <v>12.811070610452278</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AG2-$AG$2)/ABS($AG$2)*100, $T$2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -9688,71 +9755,79 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.192900000000002</v>
+        <v>30.169699999999999</v>
       </c>
       <c r="O3">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="P3">
-        <v>0.12977900000000001</v>
+        <v>0.12263499999999999</v>
       </c>
       <c r="Q3">
-        <v>3.9957600000000003E-2</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S6" si="0">D3*E3</f>
+        <v>4.60109E-2</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Linear Epsilon</v>
+      </c>
+      <c r="W3">
+        <f>D3*E3</f>
         <v>2073600</v>
       </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T6" si="1">K3/1000000000</f>
+      <c r="X3" s="3">
+        <f>K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U6" si="2">L3/1000</f>
+      <c r="Y3" s="3">
+        <f>L3/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V6" si="3">M3/1000</f>
+      <c r="Z3" s="3">
+        <f>M3/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W6" si="4">N3/O3</f>
-        <v>7.4184029484029482E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X6" si="5">1/W3</f>
-        <v>13.479990328852148</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y6" si="6">1/Q3</f>
-        <v>25.026528119806994</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z6" si="7">1/P3</f>
-        <v>7.7054068840105101</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA6" si="8">Y3-X3</f>
-        <v>11.546537790954845</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB6" si="9">X3-Z3</f>
-        <v>5.774583444841638</v>
-      </c>
-      <c r="AD3">
-        <f>(X3-$X$2)/ABS($X$2)*100</f>
-        <v>14.680922793200304</v>
+      <c r="AA3" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.526399999999995</v>
+      </c>
+      <c r="AB3" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>1212</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC6" ca="1" si="0">AB3/AA3</f>
+        <v>13.388359638735221</v>
+      </c>
+      <c r="AD3" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>25.380882442520761</v>
+      </c>
+      <c r="AE3" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>7.6032907042167848</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF6" ca="1" si="1">AD3-AC3</f>
+        <v>11.99252280378554</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG6" ca="1" si="2">AD3-AE3</f>
+        <v>17.777591738303975</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH6" ca="1" si="3">ROUND((AG3-$AG$2)/ABS($AG$2)*100, $T$2)</f>
+        <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -9785,71 +9860,79 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.126000000000001</v>
+        <v>30.120999999999999</v>
       </c>
       <c r="O4">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P4">
-        <v>0.132435</v>
+        <v>0.13280400000000001</v>
       </c>
       <c r="Q4">
-        <v>5.1061599999999999E-2</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
+        <v>4.7990600000000001E-2</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Bounding Volume</v>
+      </c>
+      <c r="W4">
+        <f>D4*E4</f>
         <v>2073600</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
+      <c r="X4" s="3">
+        <f>K4/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y4" s="3">
+        <f>L4/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V4" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z4" s="3">
+        <f>M4/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W4">
-        <f t="shared" si="4"/>
-        <v>8.9130177514792908E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
-        <v>11.219544579433046</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="6"/>
-        <v>19.584188509564918</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
-        <v>7.550874013667082</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="8"/>
-        <v>8.3646439301318711</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="9"/>
-        <v>3.6686705657659644</v>
-      </c>
-      <c r="AD4">
-        <f>(X4-$X$2)/ABS($X$2)*100</f>
-        <v>-4.5498035013506675</v>
+      <c r="AA4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.5959</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>924</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.199137047040761</v>
+      </c>
+      <c r="AD4" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>18.691751828364861</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>6.3961929859347713</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4926147813241002</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.29555884243009</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -9882,71 +9965,79 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>30.0547</v>
+        <v>30.1462</v>
       </c>
       <c r="O5">
-        <v>711</v>
+        <v>402</v>
       </c>
       <c r="P5">
-        <v>6.0658999999999998E-2</v>
+        <v>0.13134899999999999</v>
       </c>
       <c r="Q5">
-        <v>2.3980999999999999E-2</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
+        <v>3.9464399999999997E-2</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v xml:space="preserve">-cl-fast-relaxed-math </v>
+      </c>
+      <c r="W5">
+        <f>D5*E5</f>
         <v>2073600</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" si="1"/>
+      <c r="X5" s="3">
+        <f>K5/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y5" s="3">
+        <f>L5/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z5" s="3">
+        <f>M5/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>4.2271026722925459E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
-        <v>23.656865648301263</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="6"/>
-        <v>41.699678912472379</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="7"/>
-        <v>16.485599828549763</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="8"/>
-        <v>18.042813264171116</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
-        <v>7.1712658197515005</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" ref="AD4:AD6" si="10">(X5-$X$2)/ABS($X$2)*100</f>
-        <v>101.2606179052776</v>
+      <c r="AA5" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.225799999999992</v>
+      </c>
+      <c r="AB5" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>1906</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.124778056830753</v>
+      </c>
+      <c r="AD5" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>39.097321051561551</v>
+      </c>
+      <c r="AE5" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>14.183947837113433</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.972542994730798</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.913373214448118</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="3"/>
+        <v>94.5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -9979,85 +10070,613 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>30.070699999999999</v>
+        <v>30.187799999999999</v>
       </c>
       <c r="O6">
-        <v>783</v>
+        <v>406</v>
       </c>
       <c r="P6">
-        <v>6.1367699999999997E-2</v>
+        <v>0.129001</v>
       </c>
       <c r="Q6">
-        <v>2.1924099999999998E-2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
+        <v>3.9331600000000001E-2</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>All</v>
+      </c>
+      <c r="W6">
+        <f>D6*E6</f>
         <v>2073600</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" si="1"/>
+      <c r="X6" s="3">
+        <f>K6/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y6" s="3">
+        <f>L6/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="3">
+        <f>M6/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>3.8404469987228608E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
-        <v>26.038635615399709</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="6"/>
-        <v>45.611906532081136</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>16.29521719080233</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>19.573270916681427</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
-        <v>9.7434184245973796</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="10"/>
-        <v>121.52350912733971</v>
+      <c r="AA6" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.233699999999999</v>
+      </c>
+      <c r="AB6" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>2116</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.450218709861172</v>
+      </c>
+      <c r="AD6" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>43.463080286450676</v>
+      </c>
+      <c r="AE6" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>13.559934912312421</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.012861576589504</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.903145374138255</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="3"/>
+        <v>133.4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="AD7">
-        <f>SUM(AD3:AD5)</f>
-        <v>111.39173719712724</v>
-      </c>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.192399999999999</v>
+      </c>
+      <c r="O7">
+        <v>404</v>
+      </c>
+      <c r="P7">
+        <v>0.134216</v>
+      </c>
+      <c r="Q7">
+        <v>3.9403199999999999E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.166599999999999</v>
+      </c>
+      <c r="O8">
+        <v>325</v>
+      </c>
+      <c r="P8">
+        <v>0.15042700000000001</v>
+      </c>
+      <c r="Q8">
+        <v>5.1217699999999998E-2</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T9" s="3"/>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.1694</v>
+      </c>
+      <c r="O9">
+        <v>305</v>
+      </c>
+      <c r="P9">
+        <v>0.154006</v>
+      </c>
+      <c r="Q9">
+        <v>5.2926500000000001E-2</v>
+      </c>
+      <c r="T9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T10" s="3"/>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>30.259899999999998</v>
+      </c>
+      <c r="O10">
+        <v>294</v>
+      </c>
+      <c r="P10">
+        <v>0.16459599999999999</v>
+      </c>
+      <c r="Q10">
+        <v>5.6354399999999999E-2</v>
+      </c>
+      <c r="T10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>30.065799999999999</v>
+      </c>
+      <c r="O11">
+        <v>626</v>
+      </c>
+      <c r="P11">
+        <v>6.9179699999999997E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.59302E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>30.066700000000001</v>
+      </c>
+      <c r="O12">
+        <v>631</v>
+      </c>
+      <c r="P12">
+        <v>7.1003800000000006E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.5944200000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>30.093299999999999</v>
+      </c>
+      <c r="O13">
+        <v>649</v>
+      </c>
+      <c r="P13">
+        <v>7.1323200000000003E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.4857199999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>1920</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>30.065100000000001</v>
+      </c>
+      <c r="O14">
+        <v>710</v>
+      </c>
+      <c r="P14">
+        <v>7.3797000000000001E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.2601199999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15">
+        <v>1920</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>30.0656</v>
+      </c>
+      <c r="O15">
+        <v>698</v>
+      </c>
+      <c r="P15">
+        <v>7.3424500000000004E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.2685899999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>30.103000000000002</v>
+      </c>
+      <c r="O16">
+        <v>708</v>
+      </c>
+      <c r="P16">
+        <v>7.4018500000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>2.3737000000000001E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10066,45 +10685,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2244C4-2775-4810-AA43-487CC5A15D7E}">
-  <dimension ref="A1:AD9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C353841-ECB5-4572-A470-D93688F263BB}">
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -10156,46 +10778,66 @@
       <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -10228,67 +10870,85 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.0364</v>
+        <v>30.035399999999999</v>
       </c>
       <c r="O2">
-        <v>1923</v>
+        <v>1803</v>
       </c>
       <c r="P2">
-        <v>2.65629E-2</v>
+        <v>3.2285099999999997E-2</v>
       </c>
       <c r="Q2">
-        <v>8.9475000000000006E-3</v>
+        <v>9.1024999999999995E-3</v>
       </c>
       <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>None</v>
+      </c>
+      <c r="W2">
         <f>D2*E2</f>
         <v>2073600</v>
       </c>
-      <c r="T2" s="3">
+      <c r="X2" s="3">
         <f>K2/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U2" s="3">
+      <c r="Y2" s="3">
         <f>L2/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V2" s="3">
+      <c r="Z2" s="3">
         <f>M2/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W2">
-        <f>N2/O2</f>
-        <v>1.5619552782111284E-2</v>
-      </c>
-      <c r="X2">
-        <f>1/W2</f>
-        <v>64.022319585569505</v>
-      </c>
-      <c r="Y2">
-        <f>1/Q2</f>
-        <v>111.76306230790723</v>
-      </c>
-      <c r="Z2">
-        <f>1/P2</f>
-        <v>37.646491911651211</v>
-      </c>
-      <c r="AA2">
-        <f>Y2-X2</f>
-        <v>47.740742722337728</v>
-      </c>
-      <c r="AB2">
-        <f>X2-Z2</f>
-        <v>26.375827673918295</v>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.120900000000006</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>5414</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>60.074855000338431</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>108.48732506418834</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>31.438269386146835</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">AD2-AC2</f>
+        <v>48.412470063849909</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AD2-AE2</f>
+        <v>77.049055678041498</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AG2-$AG$2)/ABS($AG$2)*100, $T$2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -10321,71 +10981,79 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.053599999999999</v>
+        <v>30.044799999999999</v>
       </c>
       <c r="O3">
-        <v>1636</v>
+        <v>1803</v>
       </c>
       <c r="P3">
-        <v>3.2870400000000001E-2</v>
+        <v>3.1681500000000001E-2</v>
       </c>
       <c r="Q3">
-        <v>1.0447E-2</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S7" si="0">D3*E3</f>
+        <v>9.2894999999999991E-3</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Phong</v>
+      </c>
+      <c r="W3">
+        <f>D3*E3</f>
         <v>2073600</v>
       </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T7" si="1">K3/1000000000</f>
+      <c r="X3" s="3">
+        <f>K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U7" si="2">L3/1000</f>
+      <c r="Y3" s="3">
+        <f>L3/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V7" si="3">M3/1000</f>
+      <c r="Z3" s="3">
+        <f>M3/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W7" si="4">N3/O3</f>
-        <v>1.8370171149144254E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X7" si="5">1/W3</f>
-        <v>54.436074214070864</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y7" si="6">1/Q3</f>
-        <v>95.721259691777547</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="7">1/P3</f>
-        <v>30.422507788161994</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA7" si="8">Y3-X3</f>
-        <v>41.285185477706683</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB7" si="9">X3-Z3</f>
-        <v>24.01356642590887</v>
-      </c>
-      <c r="AD3">
-        <f>(X3-$X$2)/ABS($X$2)*100</f>
-        <v>-14.973286556239303</v>
+      <c r="AA3" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.146899999999988</v>
+      </c>
+      <c r="AB3" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>4581</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC6" ca="1" si="0">AB3/AA3</f>
+        <v>50.817055273115336</v>
+      </c>
+      <c r="AD3" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>94.172599540437716</v>
+      </c>
+      <c r="AE3" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>25.264859948459687</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF6" ca="1" si="1">AD3-AC3</f>
+        <v>43.355544267322379</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG6" ca="1" si="2">AD3-AE3</f>
+        <v>68.907739591978029</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH6" ca="1" si="3">ROUND((AG3-$AG$2)/ABS($AG$2)*100, $T$2)</f>
+        <v>-10.6</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -10418,71 +11086,79 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.0273</v>
+        <v>30.040700000000001</v>
       </c>
       <c r="O4">
-        <v>1918</v>
+        <v>1808</v>
       </c>
       <c r="P4">
-        <v>2.6415299999999999E-2</v>
+        <v>3.14585E-2</v>
       </c>
       <c r="Q4">
-        <v>9.2403999999999993E-3</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
+        <v>9.2610000000000001E-3</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Glow</v>
+      </c>
+      <c r="W4">
+        <f>D4*E4</f>
         <v>2073600</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
+      <c r="X4" s="3">
+        <f>K4/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y4" s="3">
+        <f>L4/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V4" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z4" s="3">
+        <f>M4/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W4">
-        <f t="shared" si="4"/>
-        <v>1.5655526590198122E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
-        <v>63.875206895058831</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="6"/>
-        <v>108.22042335829619</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
-        <v>37.85684811453968</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="8"/>
-        <v>44.345216463237357</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="9"/>
-        <v>26.018358780519151</v>
-      </c>
-      <c r="AD4">
-        <f>(X4-$X$2)/ABS($X$2)*100</f>
-        <v>-0.22978344343498797</v>
+      <c r="AA4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.12939999999999</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>5370</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.581002425401707</v>
+      </c>
+      <c r="AD4" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>108.09291667117056</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>31.147505240567753</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="1"/>
+        <v>48.51191424576885</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="2"/>
+        <v>76.945411430602803</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -10515,71 +11191,79 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>30.084599999999998</v>
+        <v>30.049199999999999</v>
       </c>
       <c r="O5">
-        <v>845</v>
+        <v>1519</v>
       </c>
       <c r="P5">
-        <v>5.5558299999999998E-2</v>
+        <v>3.9985300000000001E-2</v>
       </c>
       <c r="Q5">
-        <v>2.0879399999999999E-2</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
+        <v>1.06426E-2</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Hard Shadows</v>
+      </c>
+      <c r="W5">
+        <f>D5*E5</f>
         <v>2073600</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" si="1"/>
+      <c r="X5" s="3">
+        <f>K5/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y5" s="3">
+        <f>L5/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z5" s="3">
+        <f>M5/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>3.5603076923076918E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
-        <v>28.087460029383809</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="6"/>
-        <v>47.894096573656334</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="7"/>
-        <v>17.99911084392431</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="8"/>
-        <v>19.806636544272525</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
-        <v>10.088349185459499</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5:AD7" si="10">(X5-$X$2)/ABS($X$2)*100</f>
-        <v>-56.128643555559862</v>
+      <c r="AA5" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.260100000000008</v>
+      </c>
+      <c r="AB5" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>2336</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.880760158696919</v>
+      </c>
+      <c r="AD5" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>47.676486433655789</v>
+      </c>
+      <c r="AE5" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>15.112596399474285</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.79572627495887</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="2"/>
+        <v>32.563890034181505</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="3"/>
+        <v>-57.7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -10612,71 +11296,79 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>30.075399999999998</v>
+        <v>30.059799999999999</v>
       </c>
       <c r="O6">
-        <v>781</v>
+        <v>1541</v>
       </c>
       <c r="P6">
-        <v>6.1097899999999997E-2</v>
+        <v>3.8622299999999998E-2</v>
       </c>
       <c r="Q6">
-        <v>2.19572E-2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
+        <v>1.05901E-2</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Soft Shadows</v>
+      </c>
+      <c r="W6">
+        <f>D6*E6</f>
         <v>2073600</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" si="1"/>
+      <c r="X6" s="3">
+        <f>K6/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y6" s="3">
+        <f>L6/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="3">
+        <f>M6/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>3.8508834827144685E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
-        <v>25.968066925128181</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="6"/>
-        <v>45.543147578015414</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>16.367174649210529</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>19.575080652887234</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
-        <v>9.6008922759176514</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="10"/>
-        <v>-59.439040801356199</v>
+      <c r="AA6" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.273300000000006</v>
+      </c>
+      <c r="AB6" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>2131</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.606093939182458</v>
+      </c>
+      <c r="AD6" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>44.372331189163674</v>
+      </c>
+      <c r="AE6" s="4">
+        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>13.334886106737763</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.766237249981216</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.037445082425911</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-59.7</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>1920</v>
@@ -10709,75 +11401,671 @@
         <v>65536</v>
       </c>
       <c r="N7">
-        <v>30.083100000000002</v>
+        <v>30.0379</v>
       </c>
       <c r="O7">
-        <v>777</v>
+        <v>1521</v>
       </c>
       <c r="P7">
-        <v>6.1268700000000002E-2</v>
+        <v>4.0134400000000001E-2</v>
       </c>
       <c r="Q7">
-        <v>2.1770600000000001E-2</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="4"/>
-        <v>3.8716988416988417E-2</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="5"/>
-        <v>25.828455179153746</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="6"/>
-        <v>45.933506655765115</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="7"/>
-        <v>16.321547543851917</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="8"/>
-        <v>20.105051476611369</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="9"/>
-        <v>9.5069076353018289</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="10"/>
-        <v>-59.657108104881239</v>
-      </c>
+        <v>1.06237E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.042899999999999</v>
+      </c>
+      <c r="O8">
+        <v>1783</v>
+      </c>
+      <c r="P8">
+        <v>3.21923E-2</v>
+      </c>
+      <c r="Q8">
+        <v>9.0740999999999999E-3</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD9">
-        <f>SUM(AD3:AD7)</f>
-        <v>-190.42786246147162</v>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.049399999999999</v>
+      </c>
+      <c r="O9">
+        <v>1798</v>
+      </c>
+      <c r="P9">
+        <v>3.2246900000000002E-2</v>
+      </c>
+      <c r="Q9">
+        <v>9.3591999999999998E-3</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>30.037099999999999</v>
+      </c>
+      <c r="O10">
+        <v>1789</v>
+      </c>
+      <c r="P10">
+        <v>3.1876700000000001E-2</v>
+      </c>
+      <c r="Q10">
+        <v>9.3206000000000001E-3</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>30.1052</v>
+      </c>
+      <c r="O11">
+        <v>776</v>
+      </c>
+      <c r="P11">
+        <v>6.5769599999999998E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.09325E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>30.067</v>
+      </c>
+      <c r="O12">
+        <v>780</v>
+      </c>
+      <c r="P12">
+        <v>6.6216499999999998E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.0718199999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>30.087900000000001</v>
+      </c>
+      <c r="O13">
+        <v>780</v>
+      </c>
+      <c r="P13">
+        <v>6.6523799999999994E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.1273400000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>1920</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>30.1065</v>
+      </c>
+      <c r="O14">
+        <v>714</v>
+      </c>
+      <c r="P14">
+        <v>7.4393399999999998E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.2490400000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>1920</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>30.070699999999999</v>
+      </c>
+      <c r="O15">
+        <v>711</v>
+      </c>
+      <c r="P15">
+        <v>7.5998599999999999E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.2796500000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>30.0961</v>
+      </c>
+      <c r="O16">
+        <v>706</v>
+      </c>
+      <c r="P16">
+        <v>7.4581800000000004E-2</v>
+      </c>
+      <c r="Q16">
+        <v>2.23228E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>1920</v>
+      </c>
+      <c r="E17">
+        <v>1080</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>256</v>
+      </c>
+      <c r="I17">
+        <v>1665</v>
+      </c>
+      <c r="J17">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>8589410304</v>
+      </c>
+      <c r="L17">
+        <v>49152</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17">
+        <v>30.0932</v>
+      </c>
+      <c r="O17">
+        <v>714</v>
+      </c>
+      <c r="P17">
+        <v>7.5032100000000004E-2</v>
+      </c>
+      <c r="Q17">
+        <v>2.2432799999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>1920</v>
+      </c>
+      <c r="E18">
+        <v>1080</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>256</v>
+      </c>
+      <c r="I18">
+        <v>1665</v>
+      </c>
+      <c r="J18">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>8589410304</v>
+      </c>
+      <c r="L18">
+        <v>49152</v>
+      </c>
+      <c r="M18">
+        <v>65536</v>
+      </c>
+      <c r="N18">
+        <v>30.1021</v>
+      </c>
+      <c r="O18">
+        <v>710</v>
+      </c>
+      <c r="P18">
+        <v>7.5647199999999998E-2</v>
+      </c>
+      <c r="Q18">
+        <v>2.2732499999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>1920</v>
+      </c>
+      <c r="E19">
+        <v>1080</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>256</v>
+      </c>
+      <c r="I19">
+        <v>1665</v>
+      </c>
+      <c r="J19">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>8589410304</v>
+      </c>
+      <c r="L19">
+        <v>49152</v>
+      </c>
+      <c r="M19">
+        <v>65536</v>
+      </c>
+      <c r="N19">
+        <v>30.071000000000002</v>
+      </c>
+      <c r="O19">
+        <v>705</v>
+      </c>
+      <c r="P19">
+        <v>7.4440300000000001E-2</v>
+      </c>
+      <c r="Q19">
+        <v>2.2864300000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFE0F1-5A27-417F-B9A0-4000696E8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A9C71-7EAB-4E10-B034-41C25E38110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="512" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="78">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Mean FPS % Difference</t>
+  </si>
+  <si>
+    <t>Fast Maths</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2080,7 @@
                   <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-cl-fast-relaxed-math </c:v>
+                  <c:v>Fast Maths</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>All</c:v>
@@ -2092,19 +2095,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.484960965906879</c:v>
+                  <c:v>19.066722087272201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.380882442520761</c:v>
+                  <c:v>25.339293135078705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.691751828364861</c:v>
+                  <c:v>17.74484334852292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.097321051561551</c:v>
+                  <c:v>38.544260374187679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.463080286450676</c:v>
+                  <c:v>42.128322871466487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,7 +2149,7 @@
                   <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-cl-fast-relaxed-math </c:v>
+                  <c:v>Fast Maths</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>All</c:v>
@@ -2215,7 +2218,7 @@
                   <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-cl-fast-relaxed-math </c:v>
+                  <c:v>Fast Maths</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>All</c:v>
@@ -2230,19 +2233,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.673890355454601</c:v>
+                  <c:v>8.1542789578831503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6032907042167848</c:v>
+                  <c:v>7.7518778924194383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3961929859347713</c:v>
+                  <c:v>6.6477427589461993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.183947837113433</c:v>
+                  <c:v>14.455107495406891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.559934912312421</c:v>
+                  <c:v>13.619432205871336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,9 +2668,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$V$2:$V$6</c:f>
+              <c:f>'Mandelbulb Features'!$V$2:$V$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
@@ -2682,30 +2685,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Soft Shadows</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$AD$2:$AD$6</c:f>
+              <c:f>'Mandelbulb Features'!$AD$2:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>108.48732506418834</c:v>
+                  <c:v>107.6484202594327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.172599540437716</c:v>
+                  <c:v>93.962001766485628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.09291667117056</c:v>
+                  <c:v>106.84673903752457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.676486433655789</c:v>
+                  <c:v>47.007060460481163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.372331189163674</c:v>
+                  <c:v>43.866382997389948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.736305069475122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,9 +2743,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$V$2:$V$6</c:f>
+              <c:f>'Mandelbulb Features'!$V$2:$V$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
@@ -2751,16 +2760,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Soft Shadows</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$AC$2:$AC$6</c:f>
+              <c:f>'Mandelbulb Features'!$AC$2:$AC$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>60.074855000338431</c:v>
                 </c:pt>
@@ -2775,6 +2787,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23.606093939182458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.585767889012843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2803,9 +2818,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mandelbulb Features'!$V$2:$V$6</c:f>
+              <c:f>'Mandelbulb Features'!$V$2:$V$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>None</c:v>
                 </c:pt>
@@ -2820,30 +2835,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Soft Shadows</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mandelbulb Features'!$AE$2:$AE$6</c:f>
+              <c:f>'Mandelbulb Features'!$AE$2:$AE$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31.438269386146835</c:v>
+                  <c:v>31.787911057424861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.264859948459687</c:v>
+                  <c:v>25.891777548204018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.147505240567753</c:v>
+                  <c:v>31.370875906226178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.112596399474285</c:v>
+                  <c:v>15.204593003454484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.334886106737763</c:v>
+                  <c:v>13.442052655208661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.433583690554713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8346,13 +8367,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8723,8 +8744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+    <sheetView topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9463,7 +9484,7 @@
   <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AK17"/>
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9674,11 +9695,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y2" s="3">
-        <f>L2/1000</f>
+        <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z2" s="3">
-        <f>M2/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA2" s="4">
@@ -9694,23 +9715,23 @@
         <v>11.521947540860342</v>
       </c>
       <c r="AD2" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>20.484960965906879</v>
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>19.066722087272201</v>
       </c>
       <c r="AE2" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>7.673890355454601</v>
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>8.1542789578831503</v>
       </c>
       <c r="AF2">
         <f ca="1">AD2-AC2</f>
-        <v>8.9630134250465368</v>
+        <v>7.5447745464118583</v>
       </c>
       <c r="AG2">
         <f ca="1">AD2-AE2</f>
-        <v>12.811070610452278</v>
+        <v>10.91244312938905</v>
       </c>
       <c r="AH2">
-        <f ca="1">ROUND((AG2-$AG$2)/ABS($AG$2)*100, $T$2)</f>
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -9779,11 +9800,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y3" s="3">
-        <f>L3/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z3" s="3">
-        <f>M3/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA3" s="4">
@@ -9795,28 +9816,28 @@
         <v>1212</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC6" ca="1" si="0">AB3/AA3</f>
+        <f t="shared" ref="AC3:AC6" ca="1" si="1">AB3/AA3</f>
         <v>13.388359638735221</v>
       </c>
       <c r="AD3" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>25.380882442520761</v>
+        <f t="shared" ref="AD3:AD6" ca="1" si="2">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>25.339293135078705</v>
       </c>
       <c r="AE3" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>7.6032907042167848</v>
+        <f t="shared" ref="AE3:AE6" ca="1" si="3">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>7.7518778924194383</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF6" ca="1" si="1">AD3-AC3</f>
-        <v>11.99252280378554</v>
+        <f t="shared" ref="AF3:AF6" ca="1" si="4">AD3-AC3</f>
+        <v>11.950933496343485</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG6" ca="1" si="2">AD3-AE3</f>
-        <v>17.777591738303975</v>
+        <f t="shared" ref="AG3:AG6" ca="1" si="5">AD3-AE3</f>
+        <v>17.587415242659269</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH6" ca="1" si="3">ROUND((AG3-$AG$2)/ABS($AG$2)*100, $T$2)</f>
-        <v>38.799999999999997</v>
+        <f t="shared" ref="AH3:AH6" ca="1" si="6">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -9884,11 +9905,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y4" s="3">
-        <f>L4/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z4" s="3">
-        <f>M4/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA4" s="4">
@@ -9900,28 +9921,28 @@
         <v>924</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10.199137047040761</v>
       </c>
       <c r="AD4" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>18.691751828364861</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17.74484334852292</v>
       </c>
       <c r="AE4" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>6.3961929859347713</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6477427589461993</v>
       </c>
       <c r="AF4">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4926147813241002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.5457063014821593</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.29555884243009</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11.097100589576721</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -9978,7 +9999,7 @@
       </c>
       <c r="V5" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v xml:space="preserve">-cl-fast-relaxed-math </v>
+        <v>Fast Maths</v>
       </c>
       <c r="W5">
         <f>D5*E5</f>
@@ -9989,11 +10010,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y5" s="3">
-        <f>L5/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z5" s="3">
-        <f>M5/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA5" s="4">
@@ -10005,28 +10026,32 @@
         <v>1906</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21.124778056830753</v>
       </c>
       <c r="AD5" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>39.097321051561551</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38.544260374187679</v>
       </c>
       <c r="AE5" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>14.183947837113433</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.455107495406891</v>
       </c>
       <c r="AF5">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.972542994730798</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.419482317356927</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="2"/>
-        <v>24.913373214448118</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.089152878780787</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="3"/>
-        <v>94.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>83.3</v>
+      </c>
+      <c r="AI5">
+        <f ca="1">SUM(AH3:AH5)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -10094,11 +10119,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y6" s="3">
-        <f>L6/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z6" s="3">
-        <f>M6/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA6" s="4">
@@ -10110,28 +10135,32 @@
         <v>2116</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>23.450218709861172</v>
       </c>
       <c r="AD6" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>43.463080286450676</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42.128322871466487</v>
       </c>
       <c r="AE6" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>13.559934912312421</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.619432205871336</v>
       </c>
       <c r="AF6">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.012861576589504</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.678104161605315</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="2"/>
-        <v>29.903145374138255</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>28.508890665595153</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="3"/>
-        <v>133.4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>103.5</v>
+      </c>
+      <c r="AI6">
+        <f ca="1">AH6-AI5</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -10362,7 +10391,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -10415,7 +10444,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -10468,7 +10497,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -10688,8 +10717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C353841-ECB5-4572-A470-D93688F263BB}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10900,11 +10929,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y2" s="3">
-        <f>L2/1000</f>
+        <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z2" s="3">
-        <f>M2/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA2" s="4">
@@ -10920,23 +10949,23 @@
         <v>60.074855000338431</v>
       </c>
       <c r="AD2" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>108.48732506418834</v>
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>107.6484202594327</v>
       </c>
       <c r="AE2" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>31.438269386146835</v>
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>31.787911057424861</v>
       </c>
       <c r="AF2">
         <f ca="1">AD2-AC2</f>
-        <v>48.412470063849909</v>
+        <v>47.573565259094266</v>
       </c>
       <c r="AG2">
         <f ca="1">AD2-AE2</f>
-        <v>77.049055678041498</v>
+        <v>75.860509202007833</v>
       </c>
       <c r="AH2">
-        <f ca="1">ROUND((AG2-$AG$2)/ABS($AG$2)*100, $T$2)</f>
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -11005,11 +11034,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y3" s="3">
-        <f>L3/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z3" s="3">
-        <f>M3/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA3" s="4">
@@ -11021,28 +11050,28 @@
         <v>4581</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC6" ca="1" si="0">AB3/AA3</f>
+        <f t="shared" ref="AC3:AC6" ca="1" si="1">AB3/AA3</f>
         <v>50.817055273115336</v>
       </c>
       <c r="AD3" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>94.172599540437716</v>
+        <f t="shared" ref="AD3:AD7" ca="1" si="2">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>93.962001766485628</v>
       </c>
       <c r="AE3" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>25.264859948459687</v>
+        <f t="shared" ref="AE3:AE7" ca="1" si="3">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>25.891777548204018</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF6" ca="1" si="1">AD3-AC3</f>
-        <v>43.355544267322379</v>
+        <f t="shared" ref="AF3:AF6" ca="1" si="4">AD3-AC3</f>
+        <v>43.144946493370291</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG6" ca="1" si="2">AD3-AE3</f>
-        <v>68.907739591978029</v>
+        <f t="shared" ref="AG3:AG6" ca="1" si="5">AD3-AE3</f>
+        <v>68.070224218281609</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH6" ca="1" si="3">ROUND((AG3-$AG$2)/ABS($AG$2)*100, $T$2)</f>
-        <v>-10.6</v>
+        <f t="shared" ref="AH3:AH7" ca="1" si="6">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11110,11 +11139,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y4" s="3">
-        <f>L4/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z4" s="3">
-        <f>M4/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA4" s="4">
@@ -11126,28 +11155,28 @@
         <v>5370</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>59.581002425401707</v>
       </c>
       <c r="AD4" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>108.09291667117056</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>106.84673903752457</v>
       </c>
       <c r="AE4" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>31.147505240567753</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>31.370875906226178</v>
       </c>
       <c r="AF4">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.51191424576885</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47.265736612122865</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="2"/>
-        <v>76.945411430602803</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>75.475863131298397</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11215,11 +11244,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y5" s="3">
-        <f>L5/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z5" s="3">
-        <f>M5/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA5" s="4">
@@ -11231,28 +11260,28 @@
         <v>2336</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>25.880760158696919</v>
       </c>
       <c r="AD5" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>47.676486433655789</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>47.007060460481163</v>
       </c>
       <c r="AE5" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>15.112596399474285</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15.204593003454484</v>
       </c>
       <c r="AF5">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.79572627495887</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21.126300301784244</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="2"/>
-        <v>32.563890034181505</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31.80246745702668</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="3"/>
-        <v>-57.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-56.9</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11320,11 +11349,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y6" s="3">
-        <f>L6/1000</f>
+        <f t="shared" si="0"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z6" s="3">
-        <f>M6/1000</f>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA6" s="4">
@@ -11336,28 +11365,32 @@
         <v>2131</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>23.606093939182458</v>
       </c>
       <c r="AD6" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>44.372331189163674</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43.866382997389948</v>
       </c>
       <c r="AE6" s="4">
-        <f ca="1">1/AVERAGE(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>13.334886106737763</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13.442052655208661</v>
       </c>
       <c r="AF6">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.766237249981216</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.260289058207491</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.037445082425911</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30.424330342181285</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-59.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-60.7</v>
+      </c>
+      <c r="AI6">
+        <f ca="1">ABS(AH6)-ABS(AH5)</f>
+        <v>3.8000000000000043</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11414,9 +11447,58 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
+      <c r="V7" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>All</v>
+      </c>
+      <c r="W7">
+        <f>D7*E7</f>
+        <v>2073600</v>
+      </c>
+      <c r="X7" s="3">
+        <f>K7/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" ref="Y7" si="7">L7/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" ref="Z7" si="8">M7/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA7" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.266300000000001</v>
+      </c>
+      <c r="AB7" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>2129</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" ref="AC7" ca="1" si="9">AB7/AA7</f>
+        <v>23.585767889012843</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.736305069475122</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.433583690554713</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" ref="AF7" ca="1" si="10">AD7-AC7</f>
+        <v>20.15053718046228</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ref="AG7" ca="1" si="11">AD7-AE7</f>
+        <v>30.30272137892041</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="6"/>
+        <v>-60.7</v>
+      </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A9C71-7EAB-4E10-B034-41C25E38110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576574C-8526-4EA7-97D4-D99B769A243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="512" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Mandelbulb Features" sheetId="9" r:id="rId4"/>
     <sheet name="Sierpinski Optimisations" sheetId="7" r:id="rId5"/>
     <sheet name="Sierpinski Features" sheetId="6" r:id="rId6"/>
+    <sheet name="Stationary Optimisations" sheetId="10" r:id="rId7"/>
+    <sheet name="Planet Optimisations" sheetId="11" r:id="rId8"/>
+    <sheet name="Devices" sheetId="12" r:id="rId9"/>
+    <sheet name="Resolutions" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="83">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -275,12 +279,27 @@
   <si>
     <t>Fast Maths</t>
   </si>
+  <si>
+    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\b</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/planet/optimisations_all.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski/optimisations_all.cl</t>
+  </si>
+  <si>
+    <t>Compute Units</t>
+  </si>
+  <si>
+    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\benchmarks\spheres" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +313,12 @@
       <color rgb="FF0A0101"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1471,7 +1496,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mandelbulb Benchmark using Various Resolutions</a:t>
+              <a:t>Mandelbulb Benchmark at Various Resolutions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1516,11 +1541,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Raw Data'!$A$15</c:f>
+              <c:f>Resolutions!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>../../../../FractalGeometryRenderer/kernels/mandelbulb.cl</c:v>
+                  <c:v>NVIDIA GeForce RTX 3060 Ti</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1594,36 +1619,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Raw Data'!$Q$15:$Q$17</c:f>
+              <c:f>Resolutions!$W$2:$W$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2073600</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1049088</c:v>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3686400</c:v>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Raw Data'!$V$15:$V$17</c:f>
+              <c:f>Resolutions!$AD$2:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>27.095343340000461</c:v>
+                  <c:v>59.508357130019775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.878609962651588</c:v>
+                  <c:v>44.459974375613569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.29351390899928</c:v>
+                  <c:v>31.286156956099635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.751388824206455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.810302881651429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3548810007364178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8293,15 +8336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8744,8 +8787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA52" sqref="AA52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8755,12 +8798,2000 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D811C00-07CB-4F03-B932-655B80B938E4}">
+  <dimension ref="A1:AM63"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2">
+        <v>1024</v>
+      </c>
+      <c r="E2">
+        <v>576</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>30.046199999999999</v>
+      </c>
+      <c r="O2">
+        <v>1788</v>
+      </c>
+      <c r="P2">
+        <v>4.0318899999999998E-2</v>
+      </c>
+      <c r="Q2">
+        <v>9.0217000000000006E-3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>589824</v>
+      </c>
+      <c r="X2">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.138599999999997</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>5364</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">AC2/AB2</f>
+        <v>59.508357130019775</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>110.84385426250041</v>
+      </c>
+      <c r="AF2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>24.802263950653415</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AE2-AD2</f>
+        <v>51.33549713248064</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">AE2-AF2</f>
+        <v>86.041590311847003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <v>1024</v>
+      </c>
+      <c r="E3">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>30.046199999999999</v>
+      </c>
+      <c r="O3">
+        <v>1788</v>
+      </c>
+      <c r="P3">
+        <v>4.0318899999999998E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.0217000000000006E-3</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V8" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>921600</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X8" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y8" si="3">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z8" si="4">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AA8" si="5">M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB8" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.148499999999999</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC8" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>4008</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD8" ca="1" si="8">AC3/AB3</f>
+        <v>44.459974375613569</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE8" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>76.833831472674049</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" ref="AF3:AF8" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>13.963340645469385</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG8" ca="1" si="11">AE3-AD3</f>
+        <v>32.37385709706048</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH8" ca="1" si="12">AE3-AF3</f>
+        <v>62.870490827204662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>1024</v>
+      </c>
+      <c r="E4">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>30.046199999999999</v>
+      </c>
+      <c r="O4">
+        <v>1788</v>
+      </c>
+      <c r="P4">
+        <v>4.0318899999999998E-2</v>
+      </c>
+      <c r="Q4">
+        <v>9.0217000000000006E-3</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.2316</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>2823</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.286156956099635</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>58.620426873948503</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.7322029429129913</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="11"/>
+        <v>27.334269917848868</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="12"/>
+        <v>52.888223931035512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>1280</v>
+      </c>
+      <c r="E5">
+        <v>720</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>30.049499999999998</v>
+      </c>
+      <c r="O5">
+        <v>1336</v>
+      </c>
+      <c r="P5">
+        <v>7.1616100000000002E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.30151E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.184200000000004</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>2142</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.751388824206455</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>45.750258488960462</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.2855921656379241</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="11"/>
+        <v>21.998869664754007</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="12"/>
+        <v>39.46466632332254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>1280</v>
+      </c>
+      <c r="E6">
+        <v>720</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>30.049499999999998</v>
+      </c>
+      <c r="O6">
+        <v>1336</v>
+      </c>
+      <c r="P6">
+        <v>7.1616100000000002E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.30151E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3686400</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.510600000000011</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>1431</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>15.810302881651429</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.538080986990781</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.048025777828153</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="11"/>
+        <v>14.727778105339352</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="12"/>
+        <v>26.490055209162627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>1280</v>
+      </c>
+      <c r="E7">
+        <v>720</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.049499999999998</v>
+      </c>
+      <c r="O7">
+        <v>1336</v>
+      </c>
+      <c r="P7">
+        <v>7.1616100000000002E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.30151E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8294400</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.845100000000002</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>759</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.3548810007364178</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>16.252630894626069</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.176018104470629</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.8977498938896513</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="12"/>
+        <v>14.076612790155441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.077200000000001</v>
+      </c>
+      <c r="O8">
+        <v>941</v>
+      </c>
+      <c r="P8">
+        <v>0.174453</v>
+      </c>
+      <c r="Q8">
+        <v>1.7058899999999998E-2</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>1600</v>
+      </c>
+      <c r="E9">
+        <v>900</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.077200000000001</v>
+      </c>
+      <c r="O9">
+        <v>941</v>
+      </c>
+      <c r="P9">
+        <v>0.174453</v>
+      </c>
+      <c r="Q9">
+        <v>1.7058899999999998E-2</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>30.077200000000001</v>
+      </c>
+      <c r="O10">
+        <v>941</v>
+      </c>
+      <c r="P10">
+        <v>0.174453</v>
+      </c>
+      <c r="Q10">
+        <v>1.7058899999999998E-2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>30.061399999999999</v>
+      </c>
+      <c r="O11">
+        <v>714</v>
+      </c>
+      <c r="P11">
+        <v>0.15909400000000001</v>
+      </c>
+      <c r="Q11">
+        <v>2.18578E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>30.061399999999999</v>
+      </c>
+      <c r="O12">
+        <v>714</v>
+      </c>
+      <c r="P12">
+        <v>0.15909400000000001</v>
+      </c>
+      <c r="Q12">
+        <v>2.18578E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>30.061399999999999</v>
+      </c>
+      <c r="O13">
+        <v>714</v>
+      </c>
+      <c r="P13">
+        <v>0.15909400000000001</v>
+      </c>
+      <c r="Q13">
+        <v>2.18578E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>2560</v>
+      </c>
+      <c r="E14">
+        <v>1440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>30.170200000000001</v>
+      </c>
+      <c r="O14">
+        <v>477</v>
+      </c>
+      <c r="P14">
+        <v>0.247034</v>
+      </c>
+      <c r="Q14">
+        <v>3.2745999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>2560</v>
+      </c>
+      <c r="E15">
+        <v>1440</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>30.170200000000001</v>
+      </c>
+      <c r="O15">
+        <v>477</v>
+      </c>
+      <c r="P15">
+        <v>0.247034</v>
+      </c>
+      <c r="Q15">
+        <v>3.2745999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>2560</v>
+      </c>
+      <c r="E16">
+        <v>1440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>30.170200000000001</v>
+      </c>
+      <c r="O16">
+        <v>477</v>
+      </c>
+      <c r="P16">
+        <v>0.247034</v>
+      </c>
+      <c r="Q16">
+        <v>3.2745999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>3840</v>
+      </c>
+      <c r="E17">
+        <v>2160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>256</v>
+      </c>
+      <c r="I17">
+        <v>1665</v>
+      </c>
+      <c r="J17">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>8589410304</v>
+      </c>
+      <c r="L17">
+        <v>49152</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17">
+        <v>30.281700000000001</v>
+      </c>
+      <c r="O17">
+        <v>253</v>
+      </c>
+      <c r="P17">
+        <v>0.45955499999999999</v>
+      </c>
+      <c r="Q17">
+        <v>6.15285E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18">
+        <v>3840</v>
+      </c>
+      <c r="E18">
+        <v>2160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>256</v>
+      </c>
+      <c r="I18">
+        <v>1665</v>
+      </c>
+      <c r="J18">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>8589410304</v>
+      </c>
+      <c r="L18">
+        <v>49152</v>
+      </c>
+      <c r="M18">
+        <v>65536</v>
+      </c>
+      <c r="N18">
+        <v>30.281700000000001</v>
+      </c>
+      <c r="O18">
+        <v>253</v>
+      </c>
+      <c r="P18">
+        <v>0.45955499999999999</v>
+      </c>
+      <c r="Q18">
+        <v>6.15285E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>3840</v>
+      </c>
+      <c r="E19">
+        <v>2160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>256</v>
+      </c>
+      <c r="I19">
+        <v>1665</v>
+      </c>
+      <c r="J19">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>8589410304</v>
+      </c>
+      <c r="L19">
+        <v>49152</v>
+      </c>
+      <c r="M19">
+        <v>65536</v>
+      </c>
+      <c r="N19">
+        <v>30.281700000000001</v>
+      </c>
+      <c r="O19">
+        <v>253</v>
+      </c>
+      <c r="P19">
+        <v>0.45955499999999999</v>
+      </c>
+      <c r="Q19">
+        <v>6.15285E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <v>1024</v>
+      </c>
+      <c r="E52">
+        <v>576</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>256</v>
+      </c>
+      <c r="I52">
+        <v>1665</v>
+      </c>
+      <c r="J52">
+        <v>38</v>
+      </c>
+      <c r="K52">
+        <v>8589410304</v>
+      </c>
+      <c r="L52">
+        <v>49152</v>
+      </c>
+      <c r="M52">
+        <v>65536</v>
+      </c>
+      <c r="N52">
+        <v>25.008800000000001</v>
+      </c>
+      <c r="O52">
+        <v>3484</v>
+      </c>
+      <c r="P52">
+        <v>1.5697300000000001E-2</v>
+      </c>
+      <c r="Q52">
+        <v>2.7217999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53">
+        <v>1280</v>
+      </c>
+      <c r="E53">
+        <v>720</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>256</v>
+      </c>
+      <c r="I53">
+        <v>1665</v>
+      </c>
+      <c r="J53">
+        <v>38</v>
+      </c>
+      <c r="K53">
+        <v>8589410304</v>
+      </c>
+      <c r="L53">
+        <v>49152</v>
+      </c>
+      <c r="M53">
+        <v>65536</v>
+      </c>
+      <c r="N53">
+        <v>25.017900000000001</v>
+      </c>
+      <c r="O53">
+        <v>2579</v>
+      </c>
+      <c r="P53">
+        <v>9.6659999999999996E-2</v>
+      </c>
+      <c r="Q53">
+        <v>3.5704999999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54">
+        <v>1600</v>
+      </c>
+      <c r="E54">
+        <v>900</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>256</v>
+      </c>
+      <c r="I54">
+        <v>1665</v>
+      </c>
+      <c r="J54">
+        <v>38</v>
+      </c>
+      <c r="K54">
+        <v>8589410304</v>
+      </c>
+      <c r="L54">
+        <v>49152</v>
+      </c>
+      <c r="M54">
+        <v>65536</v>
+      </c>
+      <c r="N54">
+        <v>25.023700000000002</v>
+      </c>
+      <c r="O54">
+        <v>1880</v>
+      </c>
+      <c r="P54">
+        <v>7.8234399999999996E-2</v>
+      </c>
+      <c r="Q54">
+        <v>5.2529999999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55">
+        <v>1920</v>
+      </c>
+      <c r="E55">
+        <v>1080</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>256</v>
+      </c>
+      <c r="I55">
+        <v>1665</v>
+      </c>
+      <c r="J55">
+        <v>38</v>
+      </c>
+      <c r="K55">
+        <v>8589410304</v>
+      </c>
+      <c r="L55">
+        <v>49152</v>
+      </c>
+      <c r="M55">
+        <v>65536</v>
+      </c>
+      <c r="N55">
+        <v>25.029299999999999</v>
+      </c>
+      <c r="O55">
+        <v>1456</v>
+      </c>
+      <c r="P55">
+        <v>4.3044899999999997E-2</v>
+      </c>
+      <c r="Q55">
+        <v>6.6245999999999996E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56">
+        <v>2560</v>
+      </c>
+      <c r="E56">
+        <v>1440</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>256</v>
+      </c>
+      <c r="I56">
+        <v>1665</v>
+      </c>
+      <c r="J56">
+        <v>38</v>
+      </c>
+      <c r="K56">
+        <v>8589410304</v>
+      </c>
+      <c r="L56">
+        <v>49152</v>
+      </c>
+      <c r="M56">
+        <v>65536</v>
+      </c>
+      <c r="N56">
+        <v>25.048500000000001</v>
+      </c>
+      <c r="O56">
+        <v>882</v>
+      </c>
+      <c r="P56">
+        <v>7.2085800000000005E-2</v>
+      </c>
+      <c r="Q56">
+        <v>1.1221099999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>3840</v>
+      </c>
+      <c r="E57">
+        <v>2160</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>256</v>
+      </c>
+      <c r="I57">
+        <v>1665</v>
+      </c>
+      <c r="J57">
+        <v>38</v>
+      </c>
+      <c r="K57">
+        <v>8589410304</v>
+      </c>
+      <c r="L57">
+        <v>49152</v>
+      </c>
+      <c r="M57">
+        <v>65536</v>
+      </c>
+      <c r="N57">
+        <v>25.081900000000001</v>
+      </c>
+      <c r="O57">
+        <v>453</v>
+      </c>
+      <c r="P57">
+        <v>0.145479</v>
+      </c>
+      <c r="Q57">
+        <v>2.1573200000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58">
+        <v>1024</v>
+      </c>
+      <c r="E58">
+        <v>576</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>256</v>
+      </c>
+      <c r="I58">
+        <v>1665</v>
+      </c>
+      <c r="J58">
+        <v>38</v>
+      </c>
+      <c r="K58">
+        <v>8589410304</v>
+      </c>
+      <c r="L58">
+        <v>49152</v>
+      </c>
+      <c r="M58">
+        <v>65536</v>
+      </c>
+      <c r="N58">
+        <v>20.0091</v>
+      </c>
+      <c r="O58">
+        <v>3432</v>
+      </c>
+      <c r="P58">
+        <v>1.04251E-2</v>
+      </c>
+      <c r="Q58">
+        <v>3.7556E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59">
+        <v>1280</v>
+      </c>
+      <c r="E59">
+        <v>720</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>256</v>
+      </c>
+      <c r="I59">
+        <v>1665</v>
+      </c>
+      <c r="J59">
+        <v>38</v>
+      </c>
+      <c r="K59">
+        <v>8589410304</v>
+      </c>
+      <c r="L59">
+        <v>49152</v>
+      </c>
+      <c r="M59">
+        <v>65536</v>
+      </c>
+      <c r="N59">
+        <v>20.023800000000001</v>
+      </c>
+      <c r="O59">
+        <v>2408</v>
+      </c>
+      <c r="P59">
+        <v>1.3851199999999999E-2</v>
+      </c>
+      <c r="Q59">
+        <v>5.6433000000000004E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60">
+        <v>1600</v>
+      </c>
+      <c r="E60">
+        <v>900</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>256</v>
+      </c>
+      <c r="I60">
+        <v>1665</v>
+      </c>
+      <c r="J60">
+        <v>38</v>
+      </c>
+      <c r="K60">
+        <v>8589410304</v>
+      </c>
+      <c r="L60">
+        <v>49152</v>
+      </c>
+      <c r="M60">
+        <v>65536</v>
+      </c>
+      <c r="N60">
+        <v>20.021999999999998</v>
+      </c>
+      <c r="O60">
+        <v>1785</v>
+      </c>
+      <c r="P60">
+        <v>1.89299E-2</v>
+      </c>
+      <c r="Q60">
+        <v>7.4292999999999998E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61">
+        <v>1920</v>
+      </c>
+      <c r="E61">
+        <v>1080</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>256</v>
+      </c>
+      <c r="I61">
+        <v>1665</v>
+      </c>
+      <c r="J61">
+        <v>38</v>
+      </c>
+      <c r="K61">
+        <v>8589410304</v>
+      </c>
+      <c r="L61">
+        <v>49152</v>
+      </c>
+      <c r="M61">
+        <v>65536</v>
+      </c>
+      <c r="N61">
+        <v>20.033300000000001</v>
+      </c>
+      <c r="O61">
+        <v>1410</v>
+      </c>
+      <c r="P61">
+        <v>2.3959299999999999E-2</v>
+      </c>
+      <c r="Q61">
+        <v>9.6208000000000005E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62">
+        <v>2560</v>
+      </c>
+      <c r="E62">
+        <v>1440</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>256</v>
+      </c>
+      <c r="I62">
+        <v>1665</v>
+      </c>
+      <c r="J62">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>8589410304</v>
+      </c>
+      <c r="L62">
+        <v>49152</v>
+      </c>
+      <c r="M62">
+        <v>65536</v>
+      </c>
+      <c r="N62">
+        <v>20.062100000000001</v>
+      </c>
+      <c r="O62">
+        <v>913</v>
+      </c>
+      <c r="P62">
+        <v>3.6383100000000002E-2</v>
+      </c>
+      <c r="Q62">
+        <v>1.5543E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63">
+        <v>3840</v>
+      </c>
+      <c r="E63">
+        <v>2160</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>256</v>
+      </c>
+      <c r="I63">
+        <v>1665</v>
+      </c>
+      <c r="J63">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>8589410304</v>
+      </c>
+      <c r="L63">
+        <v>49152</v>
+      </c>
+      <c r="M63">
+        <v>65536</v>
+      </c>
+      <c r="N63">
+        <v>20.067799999999998</v>
+      </c>
+      <c r="O63">
+        <v>467</v>
+      </c>
+      <c r="P63">
+        <v>6.9384399999999999E-2</v>
+      </c>
+      <c r="Q63">
+        <v>3.11875E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:X3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9484,7 +11515,7 @@
   <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10717,7 +12748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C353841-ECB5-4572-A470-D93688F263BB}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
@@ -10917,31 +12948,31 @@
         <v>1</v>
       </c>
       <c r="V2" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V2:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>None</v>
       </c>
       <c r="W2">
-        <f>D2*E2</f>
+        <f t="shared" ref="W2:W7" si="1">D2*E2</f>
         <v>2073600</v>
       </c>
       <c r="X2" s="3">
-        <f>K2/1000000000</f>
+        <f t="shared" ref="X2:X7" si="2">K2/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
+        <f t="shared" ref="Y2:Z6" si="3">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA2" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AA2:AA7" ca="1" si="4">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
         <v>90.120900000000006</v>
       </c>
       <c r="AB2" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB2:AB7" ca="1" si="5">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
         <v>5414</v>
       </c>
       <c r="AC2" s="4">
@@ -11022,55 +13053,55 @@
         <v>9.2894999999999991E-3</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Phong</v>
       </c>
       <c r="W3">
-        <f>D3*E3</f>
+        <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
       <c r="X3" s="3">
-        <f>K3/1000000000</f>
+        <f t="shared" si="2"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA3" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>90.146899999999988</v>
       </c>
       <c r="AB3" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4581</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC6" ca="1" si="1">AB3/AA3</f>
+        <f t="shared" ref="AC3:AC6" ca="1" si="6">AB3/AA3</f>
         <v>50.817055273115336</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD7" ca="1" si="2">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AD3:AD7" ca="1" si="7">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
         <v>93.962001766485628</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE7" ca="1" si="3">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>25.891777548204018</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF6" ca="1" si="4">AD3-AC3</f>
+        <f t="shared" ref="AF3:AF6" ca="1" si="9">AD3-AC3</f>
         <v>43.144946493370291</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG6" ca="1" si="5">AD3-AE3</f>
+        <f t="shared" ref="AG3:AG6" ca="1" si="10">AD3-AE3</f>
         <v>68.070224218281609</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" ca="1" si="6">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <f t="shared" ref="AH3:AH7" ca="1" si="11">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
         <v>-15.4</v>
       </c>
     </row>
@@ -11127,55 +13158,55 @@
         <v>9.2610000000000001E-3</v>
       </c>
       <c r="V4" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Glow</v>
       </c>
       <c r="W4">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
       <c r="X4" s="3">
-        <f>K4/1000000000</f>
+        <f t="shared" si="2"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA4" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>90.12939999999999</v>
       </c>
       <c r="AB4" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>5370</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>59.581002425401707</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>106.84673903752457</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>31.370875906226178</v>
       </c>
       <c r="AF4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="9"/>
         <v>47.265736612122865</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>75.475863131298397</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-0.8</v>
       </c>
     </row>
@@ -11232,55 +13263,55 @@
         <v>1.06426E-2</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Hard Shadows</v>
       </c>
       <c r="W5">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
       <c r="X5" s="3">
-        <f>K5/1000000000</f>
+        <f t="shared" si="2"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA5" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>90.260100000000008</v>
       </c>
       <c r="AB5" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2336</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>25.880760158696919</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>47.007060460481163</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>15.204593003454484</v>
       </c>
       <c r="AF5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="9"/>
         <v>21.126300301784244</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>31.80246745702668</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-56.9</v>
       </c>
     </row>
@@ -11337,55 +13368,55 @@
         <v>1.05901E-2</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Soft Shadows</v>
       </c>
       <c r="W6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
       <c r="X6" s="3">
-        <f>K6/1000000000</f>
+        <f t="shared" si="2"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA6" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>90.273300000000006</v>
       </c>
       <c r="AB6" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2131</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>23.606093939182458</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>43.866382997389948</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>13.442052655208661</v>
       </c>
       <c r="AF6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="9"/>
         <v>20.260289058207491</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>30.424330342181285</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-60.7</v>
       </c>
       <c r="AI6">
@@ -11448,55 +13479,55 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>All</v>
       </c>
       <c r="W7">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>2073600</v>
       </c>
       <c r="X7" s="3">
-        <f>K7/1000000000</f>
+        <f t="shared" si="2"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" ref="Y7" si="7">L7/1000</f>
+        <f t="shared" ref="Y7" si="12">L7/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" ref="Z7" si="8">M7/1000</f>
+        <f t="shared" ref="Z7" si="13">M7/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AA7" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>90.266300000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2129</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ref="AC7" ca="1" si="9">AB7/AA7</f>
+        <f t="shared" ref="AC7" ca="1" si="14">AB7/AA7</f>
         <v>23.585767889012843</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>43.736305069475122</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>13.433583690554713</v>
       </c>
       <c r="AF7">
-        <f t="shared" ref="AF7" ca="1" si="10">AD7-AC7</f>
+        <f t="shared" ref="AF7" ca="1" si="15">AD7-AC7</f>
         <v>20.15053718046228</v>
       </c>
       <c r="AG7">
-        <f t="shared" ref="AG7" ca="1" si="11">AD7-AE7</f>
+        <f t="shared" ref="AG7" ca="1" si="16">AD7-AE7</f>
         <v>30.30272137892041</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-60.7</v>
       </c>
     </row>
@@ -13233,4 +15264,1353 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF8CC2-18C8-49A6-8CDC-434ADB535DDB}">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <f>K2/1000000000</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4" t="e">
+        <f ca="1">AB2/AA2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD2" s="4" t="e">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE2" s="4" t="e">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF2" t="e">
+        <f ca="1">AD2-AC2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG2" t="e">
+        <f ca="1">AD2-AE2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH2" t="e">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V3" s="4"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V4" s="4"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V5" s="4"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3975F9DE-D528-434B-B805-D6364E417ED6}">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <f>K2/1000000000</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4" t="e">
+        <f ca="1">AB2/AA2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD2" s="4" t="e">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE2" s="4" t="e">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF2" t="e">
+        <f ca="1">AD2-AC2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG2" t="e">
+        <f ca="1">AD2-AE2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH2" t="e">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V3" s="4"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V4" s="4"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V5" s="4"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD0FD4-FA27-4F55-875C-776A875C0DAC}">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>30.0792</v>
+      </c>
+      <c r="O2">
+        <v>741</v>
+      </c>
+      <c r="P2">
+        <v>0.14178199999999999</v>
+      </c>
+      <c r="Q2">
+        <v>2.24361E-2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>2073600</v>
+      </c>
+      <c r="X2">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.2376</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>2223</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">AC2/AB2</f>
+        <v>24.634963695842973</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>44.570628847002403</v>
+      </c>
+      <c r="AF2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>7.0530814913035513</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AE2-AD2</f>
+        <v>19.93566515115943</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">AE2-AF2</f>
+        <v>37.517547355698852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>30.0792</v>
+      </c>
+      <c r="O3">
+        <v>741</v>
+      </c>
+      <c r="P3">
+        <v>0.14178199999999999</v>
+      </c>
+      <c r="Q3">
+        <v>2.24362E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V4" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W4" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>2073600</v>
+      </c>
+      <c r="X3">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>60.0687</v>
+      </c>
+      <c r="AC3" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>4200</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD4" ca="1" si="2">AC3/AB3</f>
+        <v>69.91994166679153</v>
+      </c>
+      <c r="AE3" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>101.33971097914429</v>
+      </c>
+      <c r="AF3" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>32.634732493097751</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG4" ca="1" si="3">AE3-AD3</f>
+        <v>31.419769312352756</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH4" ca="1" si="4">AE3-AF3</f>
+        <v>68.704978486046542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>30.0792</v>
+      </c>
+      <c r="O4">
+        <v>741</v>
+      </c>
+      <c r="P4">
+        <v>0.14178199999999999</v>
+      </c>
+      <c r="Q4">
+        <v>2.2436299999999999E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X3:X4" ca="1" si="5">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>K4/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>L4/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>M4/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>75.093900000000005</v>
+      </c>
+      <c r="AC4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>4311</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>57.408125027465609</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>150.78862450616725</v>
+      </c>
+      <c r="AF4" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>15.5796486166051</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="3"/>
+        <v>93.380499478701637</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="4"/>
+        <v>135.20897588956214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>20.0229</v>
+      </c>
+      <c r="O5">
+        <v>1400</v>
+      </c>
+      <c r="P5">
+        <v>3.0642200000000001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>9.8676000000000007E-3</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>20.0229</v>
+      </c>
+      <c r="O6">
+        <v>1400</v>
+      </c>
+      <c r="P6">
+        <v>3.0642200000000001E-2</v>
+      </c>
+      <c r="Q6">
+        <v>9.8677000000000001E-3</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>20.0229</v>
+      </c>
+      <c r="O7">
+        <v>1400</v>
+      </c>
+      <c r="P7">
+        <v>3.0642200000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>9.8677999999999995E-3</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>25.031300000000002</v>
+      </c>
+      <c r="O8">
+        <v>1437</v>
+      </c>
+      <c r="P8">
+        <v>6.4186300000000002E-2</v>
+      </c>
+      <c r="Q8">
+        <v>6.6315999999999996E-3</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>25.031300000000002</v>
+      </c>
+      <c r="O9">
+        <v>1437</v>
+      </c>
+      <c r="P9">
+        <v>6.4186300000000002E-2</v>
+      </c>
+      <c r="Q9">
+        <v>6.6316999999999999E-3</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>25.031300000000002</v>
+      </c>
+      <c r="O10">
+        <v>1437</v>
+      </c>
+      <c r="P10">
+        <v>6.4186300000000002E-2</v>
+      </c>
+      <c r="Q10">
+        <v>6.6318000000000002E-3</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576574C-8526-4EA7-97D4-D99B769A243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC690A64-F513-4ED7-BC85-70791ABE2F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="87">
   <si>
     <t>kernels/mandelbulb.cl</t>
   </si>
@@ -145,16 +145,7 @@
     <t>Scene Description</t>
   </si>
   <si>
-    <t>Max - Mean</t>
-  </si>
-  <si>
-    <t>Mean - Min</t>
-  </si>
-  <si>
     <t>Mean FPS</t>
-  </si>
-  <si>
-    <t>Mean Frame Time (s)</t>
   </si>
   <si>
     <t>Bounding Volume</t>
@@ -169,22 +160,7 @@
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">-cl-fast-relaxed-math </t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_optimisations/no_optimisations.cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" </t>
-  </si>
-  <si>
     <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_optimisations/linear_epsilon.cl</t>
-  </si>
-  <si>
-    <t>kernels/benchmarks/sierpinski_optimisations/all_optimisations.cl</t>
   </si>
   <si>
     <t>kernels/benchmarks/sierpinski_features/no_features.cl</t>
@@ -205,9 +181,6 @@
     <t>Phong</t>
   </si>
   <si>
-    <t>kernels/benchmarks/sierpinski_optimisations/bounding_volume.cl</t>
-  </si>
-  <si>
     <t>kernels/benchmarks/mandelbulb/optimisations_none.cl</t>
   </si>
   <si>
@@ -215,9 +188,6 @@
   </si>
   <si>
     <t>kernels/benchmarks/mandelbulb/optimisations_bounding_volume.cl</t>
-  </si>
-  <si>
-    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
   </si>
   <si>
     <t>kernels/benchmarks/mandelbulb/optimisations_all.cl</t>
@@ -245,9 +215,6 @@
   </si>
   <si>
     <t>Soft Shadows</t>
-  </si>
-  <si>
-    <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisation</t>
   </si>
   <si>
     <t>Rows per Run</t>
@@ -293,6 +260,51 @@
   </si>
   <si>
     <t>-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\benchmarks\spheres" -I "kernels\include" -I "kernels/include" -cl-fast-relaxed-math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\benchmarks\spheres" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_stationary/optimisations_none.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_stationary/optimisations_intersection_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_stationary/optimisations_bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/mandelbulb_stationary/optimisations_all.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski/optimisations_none.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski/optimisations_intersection_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/sierpinski/optimisations_bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/planet/optimisations_none.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/planet/optimisations_intersection_epsilon.cl</t>
+  </si>
+  <si>
+    <t>kernels/benchmarks/planet/optimisations_bounding_volume.cl</t>
+  </si>
+  <si>
+    <t>Mandelbulb</t>
+  </si>
+  <si>
+    <t>Sierpinski</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Planet</t>
   </si>
 </sst>
 </file>
@@ -2138,19 +2150,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.066722087272201</c:v>
+                  <c:v>20.800918568563986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.339293135078705</c:v>
+                  <c:v>25.215338995017447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.74484334852292</c:v>
+                  <c:v>18.976952491199437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.544260374187679</c:v>
+                  <c:v>41.483620192566967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.128322871466487</c:v>
+                  <c:v>44.980613355643719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,19 +2219,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11.521947540860342</c:v>
+                  <c:v>11.950667291653771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.388359638735221</c:v>
+                  <c:v>13.336277323912563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.199137047040761</c:v>
+                  <c:v>11.096411681294256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.124778056830753</c:v>
+                  <c:v>23.640504729763428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.450218709861172</c:v>
+                  <c:v>25.459212658068047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,19 +2288,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.1542789578831503</c:v>
+                  <c:v>8.26637569024237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7518778924194383</c:v>
+                  <c:v>7.5241147878952042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6477427589461993</c:v>
+                  <c:v>7.4938363196271061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.455107495406891</c:v>
+                  <c:v>16.558703917126998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.619432205871336</c:v>
+                  <c:v>15.809051946963791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,22 +2754,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>107.6484202594327</c:v>
+                  <c:v>107.16046207591248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.962001766485628</c:v>
+                  <c:v>93.560248121778017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.84673903752457</c:v>
+                  <c:v>107.14209184220113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.007060460481163</c:v>
+                  <c:v>47.923016466348457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.866382997389948</c:v>
+                  <c:v>44.961602791216301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.736305069475122</c:v>
+                  <c:v>45.00571572589719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,22 +2829,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60.074855000338431</c:v>
+                  <c:v>63.012112081684997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.817055273115336</c:v>
+                  <c:v>53.288451062385093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.581002425401707</c:v>
+                  <c:v>62.682843457145268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.880760158696919</c:v>
+                  <c:v>27.440575908393932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.606093939182458</c:v>
+                  <c:v>25.448027085475236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.585767889012843</c:v>
+                  <c:v>25.446927590917099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2892,22 +2904,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31.787911057424861</c:v>
+                  <c:v>36.369720025895241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.891777548204018</c:v>
+                  <c:v>29.294672177970995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.370875906226178</c:v>
+                  <c:v>36.17094388078057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.204593003454484</c:v>
+                  <c:v>17.469415420951769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.442052655208661</c:v>
+                  <c:v>15.725743041358706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.433583690554713</c:v>
+                  <c:v>15.788135847436086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,7 +3342,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sierpinski Optimisations'!$A$2:$A$6</c:f>
+              <c:f>'Sierpinski Optimisations'!$V$2:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3343,7 +3355,7 @@
                   <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-cl-fast-relaxed-math </c:v>
+                  <c:v>Fast Maths</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>All</c:v>
@@ -3353,24 +3365,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sierpinski Optimisations'!$Y$2:$Y$6</c:f>
+              <c:f>'Sierpinski Optimisations'!$AD$2:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>194.41636208103273</c:v>
+                  <c:v>88.931576045390671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.5525291828794</c:v>
+                  <c:v>95.506422806933756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.32037061448938</c:v>
+                  <c:v>117.58619067776679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.43600365389926</c:v>
+                  <c:v>99.852218716299873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214.81815643058152</c:v>
+                  <c:v>146.67488045997243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3399,7 +3411,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sierpinski Optimisations'!$A$2:$A$6</c:f>
+              <c:f>'Sierpinski Optimisations'!$V$2:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3412,7 +3424,7 @@
                   <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-cl-fast-relaxed-math </c:v>
+                  <c:v>Fast Maths</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>All</c:v>
@@ -3422,24 +3434,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sierpinski Optimisations'!$X$2:$X$6</c:f>
+              <c:f>'Sierpinski Optimisations'!$AC$2:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>47.242795473690258</c:v>
+                  <c:v>38.468193858399772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.36630631756546</c:v>
+                  <c:v>39.956328970668515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.0901110766739</c:v>
+                  <c:v>45.708488224705214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.140347983013271</c:v>
+                  <c:v>44.485987779335652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.239413526091887</c:v>
+                  <c:v>56.486113552937923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,7 +3480,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sierpinski Optimisations'!$A$2:$A$6</c:f>
+              <c:f>'Sierpinski Optimisations'!$V$2:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3481,7 +3493,7 @@
                   <c:v>Bounding Volume</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-cl-fast-relaxed-math </c:v>
+                  <c:v>Fast Maths</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>All</c:v>
@@ -3491,24 +3503,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sierpinski Optimisations'!$Z$2:$Z$6</c:f>
+              <c:f>'Sierpinski Optimisations'!$AE$2:$AE$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.3363803766497675</c:v>
+                  <c:v>20.689155778998437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1039881789636699</c:v>
+                  <c:v>18.394796479971745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2687624931855348</c:v>
+                  <c:v>20.77412707118047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.006884736698849</c:v>
+                  <c:v>24.336170119563604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7487740916579746</c:v>
+                  <c:v>22.51851584965738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,16 +3878,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Sierpinski</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>Optimisation Improvement for Various Benchmarks</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Features</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3919,7 +3924,15 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Max FPS</c:v>
+            <c:strRef>
+              <c:f>Graphs!$AS$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Epsilon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3933,48 +3946,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sierpinski Features'!$A$2:$A$5</c:f>
+              <c:f>Graphs!$AR$25:$AR$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
+                  <c:v>Mandelbulb</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hard Shadows</c:v>
+                  <c:v>Stationary</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Phong</c:v>
+                  <c:v>Sierpinski</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>All</c:v>
+                  <c:v>Planet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sierpinski Features'!$Y$2:$Y$5</c:f>
+              <c:f>Graphs!$AS$25:$AS$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>215.84752530812236</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.85684374123082</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.27598381124599</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.04451421444239</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8F2-4A01-8A47-01301FA2C4B7}"/>
+              <c16:uniqueId val="{00000000-B6B0-4526-9BA0-E3AB65B4F3DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3982,7 +3995,15 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Mean FPS</c:v>
+            <c:strRef>
+              <c:f>Graphs!$AT$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bounding Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3996,48 +4017,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sierpinski Features'!$A$2:$A$5</c:f>
+              <c:f>Graphs!$AR$25:$AR$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
+                  <c:v>Mandelbulb</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hard Shadows</c:v>
+                  <c:v>Stationary</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Phong</c:v>
+                  <c:v>Sierpinski</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>All</c:v>
+                  <c:v>Planet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sierpinski Features'!$X$2:$X$5</c:f>
+              <c:f>Graphs!$AT$25:$AT$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>101.73779146502419</c:v>
+                  <c:v>-7.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.865535695092589</c:v>
+                  <c:v>-3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.288793124996872</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.888755586215176</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8F2-4A01-8A47-01301FA2C4B7}"/>
+              <c16:uniqueId val="{00000005-B6B0-4526-9BA0-E3AB65B4F3DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4045,7 +4066,15 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Min FPS</c:v>
+            <c:strRef>
+              <c:f>Graphs!$AU$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast Maths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4059,48 +4088,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sierpinski Features'!$A$2:$A$5</c:f>
+              <c:f>Graphs!$AR$25:$AR$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
+                  <c:v>Mandelbulb</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hard Shadows</c:v>
+                  <c:v>Stationary</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Phong</c:v>
+                  <c:v>Sierpinski</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>All</c:v>
+                  <c:v>Planet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sierpinski Features'!$Z$2:$Z$5</c:f>
+              <c:f>Graphs!$AU$25:$AU$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.935402705672182</c:v>
+                  <c:v>97.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.229621045208209</c:v>
+                  <c:v>63.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.458010487594894</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7594300492851218</c:v>
+                  <c:v>-20.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8F2-4A01-8A47-01301FA2C4B7}"/>
+              <c16:uniqueId val="{00000006-B6B0-4526-9BA0-E3AB65B4F3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AV$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AR$25:$AR$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbulb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sierpinski</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Planet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AV$25:$AV$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B6B0-4526-9BA0-E3AB65B4F3DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4145,7 +4245,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Optimisations/Features</a:t>
+                  <a:t>Benchmark Scene</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4265,7 +4365,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Frames Per Second (FPS)</a:t>
+                  <a:t>Mean FPS Percentage Increase (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8445,16 +8545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330653</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>61232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>425903</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>606878</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>118381</xdr:rowOff>
+      <xdr:rowOff>166006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8483,23 +8583,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>53068</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D664492-F76C-474A-819C-6ACF9737E534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EC411D-C7BB-4EE4-A3E8-CD5C93BA2645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8785,14 +8885,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
-  <dimension ref="A1"/>
+  <dimension ref="AR24:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="U16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR33" sqref="AR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="44" max="44" width="22.5703125" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="24" spans="44:48" x14ac:dyDescent="0.25">
+      <c r="AS24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="44:48" x14ac:dyDescent="0.25">
+      <c r="AR25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS25">
+        <f ca="1">'Mandelbulb Optimisations'!$AH$3</f>
+        <v>11.6</v>
+      </c>
+      <c r="AT25">
+        <f ca="1">'Mandelbulb Optimisations'!$AH$4</f>
+        <v>-7.1</v>
+      </c>
+      <c r="AU25">
+        <f ca="1">'Mandelbulb Optimisations'!$AH$5</f>
+        <v>97.8</v>
+      </c>
+      <c r="AV25">
+        <f ca="1">'Mandelbulb Optimisations'!$AH$6</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="44:48" x14ac:dyDescent="0.25">
+      <c r="AR26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS26">
+        <f ca="1">'Stationary Optimisations'!$AH$3</f>
+        <v>31.7</v>
+      </c>
+      <c r="AT26">
+        <f ca="1">'Stationary Optimisations'!$AH$4</f>
+        <v>-3.2</v>
+      </c>
+      <c r="AU26">
+        <f ca="1">'Stationary Optimisations'!$AH$5</f>
+        <v>63.7</v>
+      </c>
+      <c r="AV26">
+        <f ca="1">'Stationary Optimisations'!$AH$6</f>
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="27" spans="44:48" x14ac:dyDescent="0.25">
+      <c r="AR27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS27">
+        <f ca="1">'Sierpinski Optimisations'!$AH$3</f>
+        <v>3.9</v>
+      </c>
+      <c r="AT27">
+        <f ca="1">'Sierpinski Optimisations'!$AH$4</f>
+        <v>18.8</v>
+      </c>
+      <c r="AU27">
+        <f ca="1">'Sierpinski Optimisations'!$AH$5</f>
+        <v>15.6</v>
+      </c>
+      <c r="AV27">
+        <f ca="1">'Sierpinski Optimisations'!$AH$6</f>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="28" spans="44:48" x14ac:dyDescent="0.25">
+      <c r="AR28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS28">
+        <f ca="1">'Planet Optimisations'!$AH$3</f>
+        <v>11</v>
+      </c>
+      <c r="AT28">
+        <f ca="1">'Planet Optimisations'!$AH$4</f>
+        <v>38</v>
+      </c>
+      <c r="AU28">
+        <f ca="1">'Planet Optimisations'!$AH$5</f>
+        <v>-20.6</v>
+      </c>
+      <c r="AV28">
+        <f ca="1">'Planet Optimisations'!$AH$6</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8803,7 +9008,7 @@
   <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8893,19 +9098,19 @@
         <v>19</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>26</v>
@@ -8917,25 +9122,25 @@
         <v>28</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -8945,10 +9150,10 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>1024</v>
@@ -9053,10 +9258,10 @@
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>1024</v>
@@ -9155,10 +9360,10 @@
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>1024</v>
@@ -9257,10 +9462,10 @@
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>1280</v>
@@ -9359,10 +9564,10 @@
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>1280</v>
@@ -9461,10 +9666,10 @@
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>1280</v>
@@ -9565,10 +9770,10 @@
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1600</v>
@@ -9626,10 +9831,10 @@
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>1600</v>
@@ -9679,10 +9884,10 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>1600</v>
@@ -9732,10 +9937,10 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>1920</v>
@@ -9782,10 +9987,10 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>1920</v>
@@ -9832,10 +10037,10 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>1920</v>
@@ -9882,10 +10087,10 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>2560</v>
@@ -9932,10 +10137,10 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>2560</v>
@@ -9982,10 +10187,10 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>2560</v>
@@ -10032,10 +10237,10 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>3840</v>
@@ -10082,10 +10287,10 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>3840</v>
@@ -10132,10 +10337,10 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>3840</v>
@@ -10182,10 +10387,10 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D52">
         <v>1024</v>
@@ -10232,10 +10437,10 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D53">
         <v>1280</v>
@@ -10282,10 +10487,10 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D54">
         <v>1600</v>
@@ -10332,10 +10537,10 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D55">
         <v>1920</v>
@@ -10382,10 +10587,10 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D56">
         <v>2560</v>
@@ -10432,10 +10637,10 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D57">
         <v>3840</v>
@@ -10482,10 +10687,10 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D58">
         <v>1024</v>
@@ -10532,10 +10737,10 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>1280</v>
@@ -10582,10 +10787,10 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D60">
         <v>1600</v>
@@ -10632,10 +10837,10 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D61">
         <v>1920</v>
@@ -10682,10 +10887,10 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D62">
         <v>2560</v>
@@ -10732,10 +10937,10 @@
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>3840</v>
@@ -11514,8 +11719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF3B349-2272-4985-8475-8A40B0359212}">
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11605,13 +11810,13 @@
         <v>19</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>24</v>
@@ -11626,28 +11831,28 @@
         <v>28</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -11657,13 +11862,13 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -11696,16 +11901,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.145399999999999</v>
+        <v>30.139099999999999</v>
       </c>
       <c r="O2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="P2">
-        <v>0.13549700000000001</v>
+        <v>0.122338</v>
       </c>
       <c r="Q2">
-        <v>5.2447399999999998E-2</v>
+        <v>4.8074800000000001E-2</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -11735,31 +11940,31 @@
       </c>
       <c r="AA2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.436099999999996</v>
+        <v>90.455199999999991</v>
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>1042</v>
+        <v>1081</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">AB2/AA2</f>
-        <v>11.521947540860342</v>
+        <v>11.950667291653771</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>19.066722087272201</v>
+        <v>20.800918568563986</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>8.1542789578831503</v>
+        <v>8.26637569024237</v>
       </c>
       <c r="AF2">
         <f ca="1">AD2-AC2</f>
-        <v>7.5447745464118583</v>
+        <v>8.8502512769102157</v>
       </c>
       <c r="AG2">
         <f ca="1">AD2-AE2</f>
-        <v>10.91244312938905</v>
+        <v>12.534542878321616</v>
       </c>
       <c r="AH2">
         <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
@@ -11768,13 +11973,13 @@
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -11807,16 +12012,16 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.169699999999999</v>
+        <v>30.1875</v>
       </c>
       <c r="O3">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P3">
-        <v>0.12263499999999999</v>
+        <v>0.120972</v>
       </c>
       <c r="Q3">
-        <v>4.60109E-2</v>
+        <v>4.7741400000000003E-2</v>
       </c>
       <c r="V3" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -11840,46 +12045,46 @@
       </c>
       <c r="AA3" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.526399999999995</v>
+        <v>90.58</v>
       </c>
       <c r="AB3" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" ref="AC3:AC6" ca="1" si="1">AB3/AA3</f>
-        <v>13.388359638735221</v>
+        <v>13.336277323912563</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD6" ca="1" si="2">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>25.339293135078705</v>
+        <v>25.215338995017447</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" ref="AE3:AE6" ca="1" si="3">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>7.7518778924194383</v>
+        <v>7.5241147878952042</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF6" ca="1" si="4">AD3-AC3</f>
-        <v>11.950933496343485</v>
+        <v>11.879061671104884</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG6" ca="1" si="5">AD3-AE3</f>
-        <v>17.587415242659269</v>
+        <v>17.691224207122243</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH6" ca="1" si="6">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
-        <v>16.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -11912,16 +12117,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.120999999999999</v>
+        <v>30.128599999999999</v>
       </c>
       <c r="O4">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P4">
-        <v>0.13280400000000001</v>
+        <v>0.121068</v>
       </c>
       <c r="Q4">
-        <v>4.7990600000000001E-2</v>
+        <v>4.7470100000000001E-2</v>
       </c>
       <c r="V4" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -11945,46 +12150,46 @@
       </c>
       <c r="AA4" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.5959</v>
+        <v>90.479700000000008</v>
       </c>
       <c r="AB4" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>924</v>
+        <v>1004</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.199137047040761</v>
+        <v>11.096411681294256</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>17.74484334852292</v>
+        <v>18.976952491199437</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6477427589461993</v>
+        <v>7.4938363196271061</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5457063014821593</v>
+        <v>7.880540809905181</v>
       </c>
       <c r="AG4">
         <f t="shared" ca="1" si="5"/>
-        <v>11.097100589576721</v>
+        <v>11.48311617157233</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.5</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -12017,16 +12222,16 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>30.1462</v>
+        <v>30.184000000000001</v>
       </c>
       <c r="O5">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P5">
-        <v>0.13134899999999999</v>
+        <v>0.132906</v>
       </c>
       <c r="Q5">
-        <v>3.9464399999999997E-2</v>
+        <v>3.9449400000000003E-2</v>
       </c>
       <c r="V5" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -12050,50 +12255,50 @@
       </c>
       <c r="AA5" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.225799999999992</v>
+        <v>90.226500000000001</v>
       </c>
       <c r="AB5" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>1906</v>
+        <v>2133</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>21.124778056830753</v>
+        <v>23.640504729763428</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>38.544260374187679</v>
+        <v>41.483620192566967</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>14.455107495406891</v>
+        <v>16.558703917126998</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="4"/>
-        <v>17.419482317356927</v>
+        <v>17.843115462803539</v>
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="5"/>
-        <v>24.089152878780787</v>
+        <v>24.924916275439969</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="6"/>
-        <v>83.3</v>
+        <v>97.8</v>
       </c>
       <c r="AI5">
         <f ca="1">SUM(AH3:AH5)</f>
-        <v>88</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -12126,16 +12331,16 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>30.187799999999999</v>
+        <v>30.206499999999998</v>
       </c>
       <c r="O6">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P6">
-        <v>0.129001</v>
+        <v>0.132906</v>
       </c>
       <c r="Q6">
-        <v>3.9331600000000001E-2</v>
+        <v>3.9496000000000003E-2</v>
       </c>
       <c r="V6" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -12159,50 +12364,50 @@
       </c>
       <c r="AA6" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.233699999999999</v>
+        <v>90.301299999999998</v>
       </c>
       <c r="AB6" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>2116</v>
+        <v>2299</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>23.450218709861172</v>
+        <v>25.459212658068047</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42.128322871466487</v>
+        <v>44.980613355643719</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>13.619432205871336</v>
+        <v>15.809051946963791</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="4"/>
-        <v>18.678104161605315</v>
+        <v>19.521400697575672</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="5"/>
-        <v>28.508890665595153</v>
+        <v>29.171561408679928</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="6"/>
-        <v>103.5</v>
+        <v>113</v>
       </c>
       <c r="AI6">
         <f ca="1">AH6-AI5</f>
-        <v>15.5</v>
+        <v>10.700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1920</v>
@@ -12235,16 +12440,16 @@
         <v>65536</v>
       </c>
       <c r="N7">
-        <v>30.192399999999999</v>
+        <v>30.189499999999999</v>
       </c>
       <c r="O7">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P7">
-        <v>0.134216</v>
+        <v>0.132935</v>
       </c>
       <c r="Q7">
-        <v>3.9403199999999999E-2</v>
+        <v>3.9658400000000003E-2</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -12254,13 +12459,13 @@
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>1920</v>
@@ -12293,16 +12498,16 @@
         <v>65536</v>
       </c>
       <c r="N8">
-        <v>30.166599999999999</v>
+        <v>30.152999999999999</v>
       </c>
       <c r="O8">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P8">
-        <v>0.15042700000000001</v>
+        <v>0.13344300000000001</v>
       </c>
       <c r="Q8">
-        <v>5.1217699999999998E-2</v>
+        <v>5.1631000000000003E-2</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -12310,13 +12515,13 @@
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1920</v>
@@ -12349,16 +12554,16 @@
         <v>65536</v>
       </c>
       <c r="N9">
-        <v>30.1694</v>
+        <v>30.156500000000001</v>
       </c>
       <c r="O9">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="P9">
-        <v>0.154006</v>
+        <v>0.13349800000000001</v>
       </c>
       <c r="Q9">
-        <v>5.2926500000000001E-2</v>
+        <v>5.1440300000000001E-2</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
@@ -12366,13 +12571,13 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>1920</v>
@@ -12405,16 +12610,16 @@
         <v>65536</v>
       </c>
       <c r="N10">
-        <v>30.259899999999998</v>
+        <v>30.170200000000001</v>
       </c>
       <c r="O10">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="P10">
-        <v>0.16459599999999999</v>
+        <v>0.13387399999999999</v>
       </c>
       <c r="Q10">
-        <v>5.6354399999999999E-2</v>
+        <v>5.2695499999999999E-2</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
@@ -12422,13 +12627,13 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>1920</v>
@@ -12461,27 +12666,27 @@
         <v>65536</v>
       </c>
       <c r="N11">
-        <v>30.065799999999999</v>
+        <v>30.084800000000001</v>
       </c>
       <c r="O11">
-        <v>626</v>
+        <v>711</v>
       </c>
       <c r="P11">
-        <v>6.9179699999999997E-2</v>
+        <v>6.0391199999999999E-2</v>
       </c>
       <c r="Q11">
-        <v>2.59302E-2</v>
+        <v>2.4014899999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>1920</v>
@@ -12514,27 +12719,27 @@
         <v>65536</v>
       </c>
       <c r="N12">
-        <v>30.066700000000001</v>
+        <v>30.078800000000001</v>
       </c>
       <c r="O12">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="P12">
-        <v>7.1003800000000006E-2</v>
+        <v>6.0505400000000001E-2</v>
       </c>
       <c r="Q12">
-        <v>2.5944200000000001E-2</v>
+        <v>2.41059E-2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>1920</v>
@@ -12567,27 +12772,27 @@
         <v>65536</v>
       </c>
       <c r="N13">
-        <v>30.093299999999999</v>
+        <v>30.062899999999999</v>
       </c>
       <c r="O13">
-        <v>649</v>
+        <v>711</v>
       </c>
       <c r="P13">
-        <v>7.1323200000000003E-2</v>
+        <v>6.1225300000000003E-2</v>
       </c>
       <c r="Q13">
-        <v>2.4857199999999999E-2</v>
+        <v>2.40631E-2</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>1920</v>
@@ -12620,27 +12825,27 @@
         <v>65536</v>
       </c>
       <c r="N14">
-        <v>30.065100000000001</v>
+        <v>30.118600000000001</v>
       </c>
       <c r="O14">
-        <v>710</v>
+        <v>767</v>
       </c>
       <c r="P14">
-        <v>7.3797000000000001E-2</v>
+        <v>6.3768199999999997E-2</v>
       </c>
       <c r="Q14">
-        <v>2.2601199999999998E-2</v>
+        <v>2.2146800000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>1920</v>
@@ -12673,27 +12878,27 @@
         <v>65536</v>
       </c>
       <c r="N15">
-        <v>30.0656</v>
+        <v>30.114799999999999</v>
       </c>
       <c r="O15">
-        <v>698</v>
+        <v>766</v>
       </c>
       <c r="P15">
-        <v>7.3424500000000004E-2</v>
+        <v>6.3348600000000005E-2</v>
       </c>
       <c r="Q15">
-        <v>2.2685899999999998E-2</v>
+        <v>2.2231799999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>1920</v>
@@ -12726,16 +12931,16 @@
         <v>65536</v>
       </c>
       <c r="N16">
-        <v>30.103000000000002</v>
+        <v>30.067900000000002</v>
       </c>
       <c r="O16">
-        <v>708</v>
+        <v>766</v>
       </c>
       <c r="P16">
-        <v>7.4018500000000001E-2</v>
+        <v>6.3254900000000003E-2</v>
       </c>
       <c r="Q16">
-        <v>2.3737000000000001E-2</v>
+        <v>2.2212599999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12748,8 +12953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C353841-ECB5-4572-A470-D93688F263BB}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12839,13 +13044,13 @@
         <v>19</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>24</v>
@@ -12860,28 +13065,28 @@
         <v>28</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -12891,13 +13096,13 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -12930,16 +13135,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.035399999999999</v>
+        <v>30.047699999999999</v>
       </c>
       <c r="O2">
-        <v>1803</v>
+        <v>1896</v>
       </c>
       <c r="P2">
-        <v>3.2285099999999997E-2</v>
+        <v>2.7557700000000001E-2</v>
       </c>
       <c r="Q2">
-        <v>9.1024999999999995E-3</v>
+        <v>9.2128000000000002E-3</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -12948,52 +13153,52 @@
         <v>1</v>
       </c>
       <c r="V2" s="4" t="str">
-        <f t="shared" ref="V2:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>None</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W7" si="1">D2*E2</f>
+        <f>D2*E2</f>
         <v>2073600</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" ref="X2:X7" si="2">K2/1000000000</f>
+        <f>K2/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" ref="Y2:Z6" si="3">L2/1000</f>
+        <f t="shared" ref="Y2:Z2" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA2" s="4">
-        <f t="shared" ref="AA2:AA7" ca="1" si="4">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.120900000000006</v>
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.141400000000004</v>
       </c>
       <c r="AB2" s="4">
-        <f t="shared" ref="AB2:AB7" ca="1" si="5">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>5414</v>
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>5680</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">AB2/AA2</f>
-        <v>60.074855000338431</v>
+        <v>63.012112081684997</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>107.6484202594327</v>
+        <v>107.16046207591248</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>31.787911057424861</v>
+        <v>36.369720025895241</v>
       </c>
       <c r="AF2">
         <f ca="1">AD2-AC2</f>
-        <v>47.573565259094266</v>
+        <v>44.14834999422748</v>
       </c>
       <c r="AG2">
         <f ca="1">AD2-AE2</f>
-        <v>75.860509202007833</v>
+        <v>70.790742050017229</v>
       </c>
       <c r="AH2">
         <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
@@ -13002,13 +13207,13 @@
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -13041,79 +13246,79 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.044799999999999</v>
+        <v>30.049199999999999</v>
       </c>
       <c r="O3">
-        <v>1803</v>
+        <v>1898</v>
       </c>
       <c r="P3">
-        <v>3.1681500000000001E-2</v>
+        <v>2.7573299999999999E-2</v>
       </c>
       <c r="Q3">
-        <v>9.2894999999999991E-3</v>
+        <v>9.2520999999999992E-3</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="V2:V7" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>Phong</v>
       </c>
       <c r="W3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="W2:W7" si="2">D3*E3</f>
         <v>2073600</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="X2:X7" si="3">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Y2:Z6" si="4">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA3" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>90.146899999999988</v>
+        <f t="shared" ref="AA2:AA7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>90.132100000000008</v>
       </c>
       <c r="AB3" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>4581</v>
+        <f t="shared" ref="AB2:AB7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>4803</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC6" ca="1" si="6">AB3/AA3</f>
-        <v>50.817055273115336</v>
+        <f t="shared" ref="AC3:AC6" ca="1" si="7">AB3/AA3</f>
+        <v>53.288451062385093</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD7" ca="1" si="7">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>93.962001766485628</v>
+        <f t="shared" ref="AD3:AD7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>93.560248121778017</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>25.891777548204018</v>
+        <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>29.294672177970995</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF6" ca="1" si="9">AD3-AC3</f>
-        <v>43.144946493370291</v>
+        <f t="shared" ref="AF3:AF6" ca="1" si="10">AD3-AC3</f>
+        <v>40.271797059392924</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG6" ca="1" si="10">AD3-AE3</f>
-        <v>68.070224218281609</v>
+        <f t="shared" ref="AG3:AG6" ca="1" si="11">AD3-AE3</f>
+        <v>64.265575943807022</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" ca="1" si="11">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <f t="shared" ref="AH3:AH7" ca="1" si="12">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
         <v>-15.4</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -13146,79 +13351,79 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.040700000000001</v>
+        <v>30.044499999999999</v>
       </c>
       <c r="O4">
-        <v>1808</v>
+        <v>1886</v>
       </c>
       <c r="P4">
-        <v>3.14585E-2</v>
+        <v>2.74954E-2</v>
       </c>
       <c r="Q4">
-        <v>9.2610000000000001E-3</v>
+        <v>9.3317999999999995E-3</v>
       </c>
       <c r="V4" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Glow</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA4" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>90.12939999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>90.104399999999998</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>5370</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5648</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="6"/>
-        <v>59.581002425401707</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>62.682843457145268</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>106.84673903752457</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>107.14209184220113</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>31.370875906226178</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>36.17094388078057</v>
       </c>
       <c r="AF4">
-        <f t="shared" ca="1" si="9"/>
-        <v>47.265736612122865</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44.459248385055858</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="10"/>
-        <v>75.475863131298397</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>70.971147961420556</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="11"/>
-        <v>-0.8</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -13251,79 +13456,79 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>30.049199999999999</v>
+        <v>30.036799999999999</v>
       </c>
       <c r="O5">
-        <v>1519</v>
+        <v>1601</v>
       </c>
       <c r="P5">
-        <v>3.9985300000000001E-2</v>
+        <v>3.4507000000000003E-2</v>
       </c>
       <c r="Q5">
-        <v>1.06426E-2</v>
+        <v>1.0633200000000001E-2</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Hard Shadows</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>90.260100000000008</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>90.194900000000004</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>2336</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2475</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="6"/>
-        <v>25.880760158696919</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>27.440575908393932</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>47.007060460481163</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>47.923016466348457</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15.204593003454484</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>17.469415420951769</v>
       </c>
       <c r="AF5">
-        <f t="shared" ca="1" si="9"/>
-        <v>21.126300301784244</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>20.482440557954526</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="10"/>
-        <v>31.80246745702668</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>30.453601045396688</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="11"/>
-        <v>-56.9</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-56.5</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -13356,83 +13561,83 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>30.059799999999999</v>
+        <v>30.045400000000001</v>
       </c>
       <c r="O6">
-        <v>1541</v>
+        <v>1598</v>
       </c>
       <c r="P6">
-        <v>3.8622299999999998E-2</v>
+        <v>3.5934599999999997E-2</v>
       </c>
       <c r="Q6">
-        <v>1.05901E-2</v>
+        <v>1.06883E-2</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Soft Shadows</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.152000000000001</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>90.273300000000006</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>90.2624</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>2131</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2297</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="6"/>
-        <v>23.606093939182458</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>25.448027085475236</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>43.866382997389948</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44.961602791216301</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>13.442052655208661</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>15.725743041358706</v>
       </c>
       <c r="AF6">
-        <f t="shared" ca="1" si="9"/>
-        <v>20.260289058207491</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>19.513575705741065</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="10"/>
-        <v>30.424330342181285</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29.235859749857596</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="11"/>
-        <v>-60.7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-59.6</v>
       </c>
       <c r="AI6">
         <f ca="1">ABS(AH6)-ABS(AH5)</f>
-        <v>3.8000000000000043</v>
+        <v>3.1000000000000014</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>1920</v>
@@ -13465,81 +13670,81 @@
         <v>65536</v>
       </c>
       <c r="N7">
-        <v>30.0379</v>
+        <v>30.049900000000001</v>
       </c>
       <c r="O7">
-        <v>1521</v>
+        <v>1604</v>
       </c>
       <c r="P7">
-        <v>4.0134400000000001E-2</v>
+        <v>3.4135899999999997E-2</v>
       </c>
       <c r="Q7">
-        <v>1.06237E-2</v>
+        <v>1.04352E-2</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>All</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" ref="Y7" si="12">L7/1000</f>
+        <f t="shared" ref="Y7" si="13">L7/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" ref="Z7" si="13">M7/1000</f>
+        <f t="shared" ref="Z7" si="14">M7/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AA7" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>90.266300000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>2129</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2297</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ref="AC7" ca="1" si="14">AB7/AA7</f>
-        <v>23.585767889012843</v>
+        <f t="shared" ref="AC7" ca="1" si="15">AB7/AA7</f>
+        <v>25.446927590917099</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>43.736305069475122</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45.00571572589719</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>13.433583690554713</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>15.788135847436086</v>
       </c>
       <c r="AF7">
-        <f t="shared" ref="AF7" ca="1" si="15">AD7-AC7</f>
-        <v>20.15053718046228</v>
+        <f t="shared" ref="AF7" ca="1" si="16">AD7-AC7</f>
+        <v>19.558788134980091</v>
       </c>
       <c r="AG7">
-        <f t="shared" ref="AG7" ca="1" si="16">AD7-AE7</f>
-        <v>30.30272137892041</v>
+        <f t="shared" ref="AG7" ca="1" si="17">AD7-AE7</f>
+        <v>29.217579878461102</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="11"/>
-        <v>-60.7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-59.6</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1920</v>
@@ -13572,16 +13777,16 @@
         <v>65536</v>
       </c>
       <c r="N8">
-        <v>30.042899999999999</v>
+        <v>30.029</v>
       </c>
       <c r="O8">
-        <v>1783</v>
+        <v>1886</v>
       </c>
       <c r="P8">
-        <v>3.21923E-2</v>
+        <v>2.7680099999999999E-2</v>
       </c>
       <c r="Q8">
-        <v>9.0740999999999999E-3</v>
+        <v>9.3334000000000004E-3</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -13589,13 +13794,13 @@
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>1920</v>
@@ -13628,16 +13833,16 @@
         <v>65536</v>
       </c>
       <c r="N9">
-        <v>30.049399999999999</v>
+        <v>30.0411</v>
       </c>
       <c r="O9">
-        <v>1798</v>
+        <v>1882</v>
       </c>
       <c r="P9">
-        <v>3.2246900000000002E-2</v>
+        <v>2.7928000000000001E-2</v>
       </c>
       <c r="Q9">
-        <v>9.3591999999999998E-3</v>
+        <v>8.7448999999999999E-3</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
@@ -13645,13 +13850,13 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>1920</v>
@@ -13684,16 +13889,16 @@
         <v>65536</v>
       </c>
       <c r="N10">
-        <v>30.037099999999999</v>
+        <v>30.034300000000002</v>
       </c>
       <c r="O10">
-        <v>1789</v>
+        <v>1880</v>
       </c>
       <c r="P10">
-        <v>3.1876700000000001E-2</v>
+        <v>2.7646500000000001E-2</v>
       </c>
       <c r="Q10">
-        <v>9.3206000000000001E-3</v>
+        <v>9.3220000000000004E-3</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
@@ -13701,13 +13906,13 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>1920</v>
@@ -13740,27 +13945,27 @@
         <v>65536</v>
       </c>
       <c r="N11">
-        <v>30.1052</v>
+        <v>30.0838</v>
       </c>
       <c r="O11">
-        <v>776</v>
+        <v>833</v>
       </c>
       <c r="P11">
-        <v>6.5769599999999998E-2</v>
+        <v>5.7242899999999999E-2</v>
       </c>
       <c r="Q11">
-        <v>2.09325E-2</v>
+        <v>2.07894E-2</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>1920</v>
@@ -13793,27 +13998,27 @@
         <v>65536</v>
       </c>
       <c r="N12">
-        <v>30.067</v>
+        <v>30.055900000000001</v>
       </c>
       <c r="O12">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="P12">
-        <v>6.6216499999999998E-2</v>
+        <v>5.9266100000000002E-2</v>
       </c>
       <c r="Q12">
-        <v>2.0718199999999999E-2</v>
+        <v>2.0866800000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>1920</v>
@@ -13846,27 +14051,27 @@
         <v>65536</v>
       </c>
       <c r="N13">
-        <v>30.087900000000001</v>
+        <v>30.055199999999999</v>
       </c>
       <c r="O13">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="P13">
-        <v>6.6523799999999994E-2</v>
+        <v>5.8400899999999999E-2</v>
       </c>
       <c r="Q13">
-        <v>2.1273400000000001E-2</v>
+        <v>2.0643600000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>1920</v>
@@ -13899,27 +14104,27 @@
         <v>65536</v>
       </c>
       <c r="N14">
-        <v>30.1065</v>
+        <v>30.081</v>
       </c>
       <c r="O14">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="P14">
-        <v>7.4393399999999998E-2</v>
+        <v>6.7343E-2</v>
       </c>
       <c r="Q14">
-        <v>2.2490400000000001E-2</v>
+        <v>2.1960500000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>1920</v>
@@ -13952,27 +14157,27 @@
         <v>65536</v>
       </c>
       <c r="N15">
-        <v>30.070699999999999</v>
+        <v>30.115300000000001</v>
       </c>
       <c r="O15">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="P15">
-        <v>7.5998599999999999E-2</v>
+        <v>6.3589999999999994E-2</v>
       </c>
       <c r="Q15">
-        <v>2.2796500000000001E-2</v>
+        <v>2.1828400000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>1920</v>
@@ -14005,27 +14210,27 @@
         <v>65536</v>
       </c>
       <c r="N16">
-        <v>30.0961</v>
+        <v>30.066099999999999</v>
       </c>
       <c r="O16">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="P16">
-        <v>7.4581800000000004E-2</v>
+        <v>6.3647999999999996E-2</v>
       </c>
       <c r="Q16">
-        <v>2.23228E-2</v>
+        <v>2.2241199999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>1920</v>
@@ -14058,27 +14263,27 @@
         <v>65536</v>
       </c>
       <c r="N17">
-        <v>30.0932</v>
+        <v>30.081</v>
       </c>
       <c r="O17">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="P17">
-        <v>7.5032100000000004E-2</v>
+        <v>6.3338699999999998E-2</v>
       </c>
       <c r="Q17">
-        <v>2.2432799999999999E-2</v>
+        <v>2.19209E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>1920</v>
@@ -14111,27 +14316,27 @@
         <v>65536</v>
       </c>
       <c r="N18">
-        <v>30.1021</v>
+        <v>30.066400000000002</v>
       </c>
       <c r="O18">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="P18">
-        <v>7.5647199999999998E-2</v>
+        <v>6.3428899999999996E-2</v>
       </c>
       <c r="Q18">
-        <v>2.2732499999999999E-2</v>
+        <v>2.2172399999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>1920</v>
@@ -14164,16 +14369,16 @@
         <v>65536</v>
       </c>
       <c r="N19">
-        <v>30.071000000000002</v>
+        <v>30.1189</v>
       </c>
       <c r="O19">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="P19">
-        <v>7.4440300000000001E-2</v>
+        <v>6.3523499999999997E-2</v>
       </c>
       <c r="Q19">
-        <v>2.2864300000000001E-2</v>
+        <v>2.22194E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14184,10 +14389,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF20F60E-5AC0-4D7C-8092-06DDEBA89CA5}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB2" sqref="S2:AB2"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14211,12 +14416,19 @@
     <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -14268,46 +14480,61 @@
       <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -14340,67 +14567,85 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>40.006100000000004</v>
+        <v>25.041</v>
       </c>
       <c r="O2">
-        <v>1890</v>
+        <v>964</v>
       </c>
       <c r="P2">
-        <v>0.13630700000000001</v>
+        <v>4.8334500000000002E-2</v>
       </c>
       <c r="Q2">
-        <v>5.1435999999999999E-3</v>
+        <v>1.12446E-2</v>
       </c>
       <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>None</v>
+      </c>
+      <c r="W2">
         <f>D2*E2</f>
         <v>2073600</v>
       </c>
-      <c r="T2" s="3">
+      <c r="X2" s="3">
         <f>K2/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U2" s="3">
-        <f>L2/1000</f>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Z2" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V2" s="3">
-        <f>M2/1000</f>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W2">
-        <f>N2/O2</f>
-        <v>2.116724867724868E-2</v>
-      </c>
-      <c r="X2">
-        <f>1/W2</f>
-        <v>47.242795473690258</v>
-      </c>
-      <c r="Y2">
-        <f>1/Q2</f>
-        <v>194.41636208103273</v>
-      </c>
-      <c r="Z2">
-        <f>1/P2</f>
-        <v>7.3363803766497675</v>
-      </c>
-      <c r="AA2">
-        <f>Y2-X2</f>
-        <v>147.17356660734248</v>
-      </c>
-      <c r="AB2">
-        <f>X2-Z2</f>
-        <v>39.906415097040494</v>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>75.12700000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>2890</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>38.468193858399772</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>88.931576045390671</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>20.689155778998437</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">AD2-AC2</f>
+        <v>50.463382186990899</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AD2-AE2</f>
+        <v>68.24242026639223</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -14433,67 +14678,81 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>40.0075</v>
+        <v>25.046800000000001</v>
       </c>
       <c r="O3">
-        <v>1855</v>
+        <v>966</v>
       </c>
       <c r="P3">
-        <v>0.140766</v>
+        <v>4.8772200000000002E-2</v>
       </c>
       <c r="Q3">
-        <v>5.1399999999999996E-3</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S6" si="0">D3*E3</f>
+        <v>1.09911E-2</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V8" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Linear Epsilon</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" si="2">D3*E3</f>
         <v>2073600</v>
       </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T6" si="1">K3/1000000000</f>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X8" si="3">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U6" si="2">L3/1000</f>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y8" si="4">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V6" si="3">M3/1000</f>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z8" si="5">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W6" si="4">N3/O3</f>
-        <v>2.1567385444743934E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X6" si="5">1/W3</f>
-        <v>46.36630631756546</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y6" si="6">1/Q3</f>
-        <v>194.5525291828794</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z6" si="7">1/P3</f>
-        <v>7.1039881789636699</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA6" si="8">Y3-X3</f>
-        <v>148.18622286531394</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB6" si="9">X3-Z3</f>
-        <v>39.262318138601792</v>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA8" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>75.106999999999999</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB8" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>3001</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC8" ca="1" si="8">AB3/AA3</f>
+        <v>39.956328970668515</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD8" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>95.506422806933756</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE8" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>18.394796479971745</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF8" ca="1" si="11">AD3-AC3</f>
+        <v>55.550093836265241</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG8" ca="1" si="12">AD3-AE3</f>
+        <v>77.111626326962011</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH8" ca="1" si="13">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -14526,67 +14785,81 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>40.008400000000002</v>
+        <v>25.039200000000001</v>
       </c>
       <c r="O4">
-        <v>1884</v>
+        <v>960</v>
       </c>
       <c r="P4">
-        <v>0.137575</v>
+        <v>4.8983699999999998E-2</v>
       </c>
       <c r="Q4">
-        <v>5.3100999999999999E-3</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
+        <v>1.1168600000000001E-2</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bounding Volume</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
+      <c r="X4" s="3">
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y4" s="3">
+        <f t="shared" si="4"/>
         <v>49.152000000000001</v>
       </c>
-      <c r="V4" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z4" s="3">
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W4">
-        <f t="shared" si="4"/>
-        <v>2.1235881104033971E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
-        <v>47.0901110766739</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="6"/>
-        <v>188.32037061448938</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
-        <v>7.2687624931855348</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="8"/>
-        <v>141.23025953781547</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="9"/>
-        <v>39.821348583488366</v>
+      <c r="AA4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.106400000000008</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>3433</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>45.708488224705214</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>117.58619067776679</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>20.77412707118047</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="11"/>
+        <v>71.877702453061573</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="12"/>
+        <v>96.812063606586321</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="13"/>
+        <v>18.8</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -14619,67 +14892,81 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>40.0077</v>
+        <v>25.037700000000001</v>
       </c>
       <c r="O5">
-        <v>2006</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>9.9931199999999998E-2</v>
+        <v>5.43632E-2</v>
       </c>
       <c r="Q5">
-        <v>4.7073000000000002E-3</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
+        <v>1.03249E-2</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Fast Maths</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" si="1"/>
+      <c r="X5" s="3">
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y5" s="3">
+        <f t="shared" si="4"/>
         <v>49.152000000000001</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z5" s="3">
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>1.9944017946161515E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
-        <v>50.140347983013271</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="6"/>
-        <v>212.43600365389926</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="7"/>
-        <v>10.006884736698849</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="8"/>
-        <v>162.29565567088599</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
-        <v>40.13346324631442</v>
+      <c r="AA5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.1023</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>3341</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>44.485987779335652</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>99.852218716299873</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>24.336170119563604</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="11"/>
+        <v>55.366230936964222</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="12"/>
+        <v>75.516048596736269</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="13"/>
+        <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -14712,56 +14999,618 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>40.008600000000001</v>
+        <v>25.029800000000002</v>
       </c>
       <c r="O6">
-        <v>1970</v>
+        <v>1001</v>
       </c>
       <c r="P6">
-        <v>0.102577</v>
+        <v>5.5033899999999997E-2</v>
       </c>
       <c r="Q6">
-        <v>4.6550999999999997E-3</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
+        <v>1.0470500000000001E-2</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>All</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
         <v>2073600</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" si="1"/>
+      <c r="X6" s="3">
+        <f t="shared" si="3"/>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y6" s="3">
+        <f t="shared" si="4"/>
         <v>49.152000000000001</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="3">
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>2.0308934010152286E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
-        <v>49.239413526091887</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="6"/>
-        <v>214.81815643058152</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>9.7487740916579746</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>165.57874290448964</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
-        <v>39.490639434433916</v>
+      <c r="AA6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.080399999999997</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>4241</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>56.486113552937923</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>146.67488045997243</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>22.51851584965738</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="11"/>
+        <v>90.188766907034505</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="12"/>
+        <v>124.15636461031505</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="13"/>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>25.0395</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+      <c r="P7">
+        <v>5.5006199999999998E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.02649E-2</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>25.0242</v>
+      </c>
+      <c r="O8">
+        <v>1145</v>
+      </c>
+      <c r="P8">
+        <v>4.81368E-2</v>
+      </c>
+      <c r="Q8">
+        <v>8.4527000000000005E-3</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>25.043900000000001</v>
+      </c>
+      <c r="O9">
+        <v>1144</v>
+      </c>
+      <c r="P9">
+        <v>4.8477600000000003E-2</v>
+      </c>
+      <c r="Q9">
+        <v>8.3280000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>25.0383</v>
+      </c>
+      <c r="O10">
+        <v>1144</v>
+      </c>
+      <c r="P10">
+        <v>4.8450500000000001E-2</v>
+      </c>
+      <c r="Q10">
+        <v>8.5044000000000005E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>25.029699999999998</v>
+      </c>
+      <c r="O11">
+        <v>1114</v>
+      </c>
+      <c r="P11">
+        <v>4.11008E-2</v>
+      </c>
+      <c r="Q11">
+        <v>9.8025000000000004E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>25.0322</v>
+      </c>
+      <c r="O12">
+        <v>1113</v>
+      </c>
+      <c r="P12">
+        <v>4.1091099999999998E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.0014800000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>25.040400000000002</v>
+      </c>
+      <c r="O13">
+        <v>1114</v>
+      </c>
+      <c r="P13">
+        <v>4.1141700000000003E-2</v>
+      </c>
+      <c r="Q13">
+        <v>9.9526000000000007E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>1920</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>25.023199999999999</v>
+      </c>
+      <c r="O14">
+        <v>1410</v>
+      </c>
+      <c r="P14">
+        <v>4.78161E-2</v>
+      </c>
+      <c r="Q14">
+        <v>6.8177999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>1920</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>25.033799999999999</v>
+      </c>
+      <c r="O15">
+        <v>1405</v>
+      </c>
+      <c r="P15">
+        <v>4.44079E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.3718000000000004E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>25.023399999999999</v>
+      </c>
+      <c r="O16">
+        <v>1426</v>
+      </c>
+      <c r="P16">
+        <v>4.7047800000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>6.7350999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -14771,10 +15620,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBE981F-7A17-4204-9BDB-78294BCDCCDC}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB2" sqref="S2:AB5"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14806,7 +15655,7 @@
     <col min="27" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -14858,46 +15707,61 @@
       <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -14942,55 +15806,73 @@
         <v>4.6328999999999997E-3</v>
       </c>
       <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>None</v>
+      </c>
+      <c r="W2">
         <f>D2*E2</f>
         <v>2073600</v>
       </c>
-      <c r="T2" s="3">
+      <c r="X2" s="3">
         <f>K2/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
-      <c r="U2" s="3">
-        <f>L2/1000</f>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Z2" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="V2" s="3">
-        <f>M2/1000</f>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
         <v>65.536000000000001</v>
       </c>
-      <c r="W2">
-        <f>N2/O2</f>
-        <v>9.8291891891891907E-3</v>
-      </c>
-      <c r="X2">
-        <f>1/W2</f>
-        <v>101.73779146502419</v>
-      </c>
-      <c r="Y2">
-        <f>1/Q2</f>
-        <v>215.84752530812236</v>
-      </c>
-      <c r="Z2">
-        <f>1/P2</f>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>120.01750000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>9357</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>77.963630303914002</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>215.27598381124599</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>41.935402705672182</v>
       </c>
-      <c r="AA2">
-        <f>Y2-X2</f>
-        <v>114.10973384309817</v>
-      </c>
-      <c r="AB2">
-        <f>X2-Z2</f>
-        <v>59.802388759352006</v>
+      <c r="AF2">
+        <f ca="1">AD2-AC2</f>
+        <v>137.31235350733198</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AD2-AE2</f>
+        <v>173.34058110557382</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -15034,56 +15916,19 @@
       <c r="Q3">
         <v>4.6327E-3</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S5" si="0">D3*E3</f>
-        <v>2073600</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T5" si="1">K3/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U5" si="2">L3/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V5" si="3">M3/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W5" si="4">N3/O3</f>
-        <v>1.8226378132118453E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X5" si="5">1/W3</f>
-        <v>54.865535695092589</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y5" si="6">1/Q3</f>
-        <v>215.85684374123082</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z5" si="7">1/P3</f>
-        <v>11.229621045208209</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA5" si="8">Y3-X3</f>
-        <v>160.99130804613822</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB5" si="9">X3-Z3</f>
-        <v>43.635914649884384</v>
-      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -15127,56 +15972,19 @@
       <c r="Q4">
         <v>4.6452000000000004E-3</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="4"/>
-        <v>1.2938486416558861E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
-        <v>77.288793124996872</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="6"/>
-        <v>215.27598381124599</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
-        <v>24.458010487594894</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="8"/>
-        <v>137.98719068624911</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="9"/>
-        <v>52.830782637401981</v>
-      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -15220,46 +16028,9 @@
       <c r="Q5">
         <v>4.6502000000000002E-3</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="1"/>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="2"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="3"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>2.0454601226993864E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
-        <v>48.888755586215176</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="6"/>
-        <v>215.04451421444239</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="7"/>
-        <v>9.7594300492851218</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="8"/>
-        <v>166.1557586282272</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
-        <v>39.129325536930054</v>
-      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15268,10 +16039,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF8CC2-18C8-49A6-8CDC-434ADB535DDB}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15361,13 +16132,13 @@
         <v>19</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>24</v>
@@ -15382,28 +16153,28 @@
         <v>28</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -15412,130 +16183,1163 @@
       <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>20.023599999999998</v>
+      </c>
+      <c r="O2">
+        <v>863</v>
+      </c>
+      <c r="P2">
+        <v>2.9412199999999999E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.8715200000000001E-2</v>
+      </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+        <v>None</v>
       </c>
       <c r="W2">
         <f>D2*E2</f>
-        <v>0</v>
+        <v>2073600</v>
       </c>
       <c r="X2" s="3">
         <f>K2/1000000000</f>
-        <v>0</v>
+        <v>8.5894103039999994</v>
       </c>
       <c r="Y2" s="3">
         <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
-        <v>0</v>
+        <v>49.152000000000001</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65.536000000000001</v>
       </c>
       <c r="AA2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
+        <v>60.093899999999998</v>
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>2603</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>43.315544506181162</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>53.432504060870308</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>34.476695477691855</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">AD2-AC2</f>
+        <v>10.116959554689146</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AD2-AE2</f>
+        <v>18.955808583178452</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
         <v>0</v>
-      </c>
-      <c r="AC2" s="4" t="e">
-        <f ca="1">AB2/AA2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD2" s="4" t="e">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE2" s="4" t="e">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF2" t="e">
-        <f ca="1">AD2-AC2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG2" t="e">
-        <f ca="1">AD2-AE2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH2" t="e">
-        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V3" s="4"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>20.035</v>
+      </c>
+      <c r="O3">
+        <v>870</v>
+      </c>
+      <c r="P3">
+        <v>2.90446E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.87049E-2</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V16" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Linear Epsilon</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W16" si="2">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X16" si="3">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y16" si="4">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z16" si="5">M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA16" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>60.061400000000006</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB16" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>3426</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC16" ca="1" si="8">AB3/AA3</f>
+        <v>57.041627401292672</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD16" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>70.663887220435996</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE16" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>43.963194013971503</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF16" ca="1" si="11">AD3-AC3</f>
+        <v>13.622259819143324</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG16" ca="1" si="12">AD3-AE3</f>
+        <v>26.700693206464493</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH16" ca="1" si="13">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>31.7</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V4" s="4"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>20.035299999999999</v>
+      </c>
+      <c r="O4">
+        <v>870</v>
+      </c>
+      <c r="P4">
+        <v>2.9005099999999999E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1.86156E-2</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bounding Volume</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.117500000000007</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>2521</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>41.934544849669393</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>51.351309715154287</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>34.366505029538011</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.4167648654848932</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="12"/>
+        <v>16.984804685616275</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.2</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V5" s="4"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>20.021000000000001</v>
+      </c>
+      <c r="O5">
+        <v>1143</v>
+      </c>
+      <c r="P5">
+        <v>2.2746300000000001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.3996400000000001E-2</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Fast Maths</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.063100000000006</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>4258</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>70.892111795761451</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>94.111446775271276</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>53.232546378856036</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="11"/>
+        <v>23.219334979509824</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="12"/>
+        <v>40.87890039641524</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="13"/>
+        <v>63.7</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V6" s="4"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>20.017600000000002</v>
+      </c>
+      <c r="O6">
+        <v>1142</v>
+      </c>
+      <c r="P6">
+        <v>2.3170799999999998E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.40026E-2</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>All</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.053200000000004</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>5163</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>85.97376992400072</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>102.8669005174205</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>57.397702943928181</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="11"/>
+        <v>16.893130593419784</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="12"/>
+        <v>45.469197573492323</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="13"/>
+        <v>98.5</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>20.0228</v>
+      </c>
+      <c r="O7">
+        <v>1141</v>
+      </c>
+      <c r="P7">
+        <v>2.31401E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.4151499999999999E-2</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>20.033300000000001</v>
+      </c>
+      <c r="O8">
+        <v>841</v>
+      </c>
+      <c r="P8">
+        <v>2.9695200000000001E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.94737E-2</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>20.048200000000001</v>
+      </c>
+      <c r="O9">
+        <v>841</v>
+      </c>
+      <c r="P9">
+        <v>2.9098099999999998E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.9415600000000002E-2</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="O10">
+        <v>839</v>
+      </c>
+      <c r="P10">
+        <v>2.9440999999999998E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.9463000000000001E-2</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>20.019500000000001</v>
+      </c>
+      <c r="O11">
+        <v>1419</v>
+      </c>
+      <c r="P11">
+        <v>1.87855E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.06257E-2</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>20.019500000000001</v>
+      </c>
+      <c r="O12">
+        <v>1419</v>
+      </c>
+      <c r="P12">
+        <v>1.8907899999999998E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.06049E-2</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>20.024100000000001</v>
+      </c>
+      <c r="O13">
+        <v>1420</v>
+      </c>
+      <c r="P13">
+        <v>1.8825999999999999E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.0565099999999999E-2</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>1920</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>20.0168</v>
+      </c>
+      <c r="O14">
+        <v>1728</v>
+      </c>
+      <c r="P14">
+        <v>1.7422300000000002E-2</v>
+      </c>
+      <c r="Q14">
+        <v>9.5297999999999997E-3</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>1920</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>20.02</v>
+      </c>
+      <c r="O15">
+        <v>1715</v>
+      </c>
+      <c r="P15">
+        <v>1.7638999999999998E-2</v>
+      </c>
+      <c r="Q15">
+        <v>9.6520000000000009E-3</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+    </row>
+    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>20.016400000000001</v>
+      </c>
+      <c r="O16">
+        <v>1720</v>
+      </c>
+      <c r="P16">
+        <v>1.77054E-2</v>
+      </c>
+      <c r="Q16">
+        <v>9.7213000000000004E-3</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15545,10 +17349,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3975F9DE-D528-434B-B805-D6364E417ED6}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15638,13 +17442,13 @@
         <v>19</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>24</v>
@@ -15659,28 +17463,28 @@
         <v>28</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -15689,130 +17493,1093 @@
       <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>20.049099999999999</v>
+      </c>
+      <c r="O2">
+        <v>1042</v>
+      </c>
+      <c r="P2">
+        <v>3.2215000000000001E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.40696E-2</v>
+      </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+        <v>None</v>
       </c>
       <c r="W2">
         <f>D2*E2</f>
-        <v>0</v>
+        <v>2073600</v>
       </c>
       <c r="X2" s="3">
         <f>K2/1000000000</f>
-        <v>0</v>
+        <v>8.5894103039999994</v>
       </c>
       <c r="Y2" s="3">
         <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
-        <v>0</v>
+        <v>49.152000000000001</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65.536000000000001</v>
       </c>
       <c r="AA2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
+        <v>60.1267</v>
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>3116</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>51.823898534261815</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>71.075226019218746</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>31.390570900312962</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">AD2-AC2</f>
+        <v>19.251327484956931</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AD2-AE2</f>
+        <v>39.684655118905781</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
         <v>0</v>
-      </c>
-      <c r="AC2" s="4" t="e">
-        <f ca="1">AB2/AA2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD2" s="4" t="e">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE2" s="4" t="e">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF2" t="e">
-        <f ca="1">AD2-AC2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG2" t="e">
-        <f ca="1">AD2-AE2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH2" t="e">
-        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V3" s="4"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>20.029499999999999</v>
+      </c>
+      <c r="O3">
+        <v>1046</v>
+      </c>
+      <c r="P3">
+        <v>3.1856700000000002E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.40655E-2</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V8" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Linear Epsilon</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" si="2">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X8" si="3">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y8" si="4">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z8" si="5">M3/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA8" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>60.118800000000007</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB8" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>3458</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC8" ca="1" si="8">AB3/AA3</f>
+        <v>57.519444832564851</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD8" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>76.983479345332498</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE8" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>39.767914451262435</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF8" ca="1" si="11">AD3-AC3</f>
+        <v>19.464034512767647</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG8" ca="1" si="12">AD3-AE3</f>
+        <v>37.215564894070063</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH8" ca="1" si="13">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V4" s="4"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>20.048100000000002</v>
+      </c>
+      <c r="O4">
+        <v>1028</v>
+      </c>
+      <c r="P4">
+        <v>3.29787E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1.3931000000000001E-2</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bounding Volume</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.091800000000006</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>4299</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>71.540542969257032</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>102.8679586882278</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>45.135723119420099</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="11"/>
+        <v>31.327415718970769</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="12"/>
+        <v>57.732235568807702</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="13"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V5" s="4"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>20.043700000000001</v>
+      </c>
+      <c r="O5">
+        <v>1136</v>
+      </c>
+      <c r="P5">
+        <v>2.5145899999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.26502E-2</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Fast Maths</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.177999999999997</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>2475</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>41.12798697198312</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>55.642109948809264</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>27.627285812559915</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="11"/>
+        <v>14.514122976826144</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="12"/>
+        <v>28.014824136249349</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="13"/>
+        <v>-20.6</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V6" s="4"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>20.040400000000002</v>
+      </c>
+      <c r="O6">
+        <v>1161</v>
+      </c>
+      <c r="P6">
+        <v>2.5466200000000001E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.2989799999999999E-2</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>All</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="5"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.102199999999996</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>4180</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>69.548202894403204</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>102.56515451440526</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>38.766601797219657</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="11"/>
+        <v>33.016951620002061</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.798552717185608</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="13"/>
+        <v>34.200000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>20.034700000000001</v>
+      </c>
+      <c r="O7">
+        <v>1161</v>
+      </c>
+      <c r="P7">
+        <v>2.5319700000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.25392E-2</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>20.028300000000002</v>
+      </c>
+      <c r="O8">
+        <v>1439</v>
+      </c>
+      <c r="P8">
+        <v>2.2155399999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>9.7211999999999993E-3</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>20.034800000000001</v>
+      </c>
+      <c r="O9">
+        <v>1429</v>
+      </c>
+      <c r="P9">
+        <v>2.52555E-2</v>
+      </c>
+      <c r="Q9">
+        <v>9.7164E-3</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>20.028700000000001</v>
+      </c>
+      <c r="O10">
+        <v>1431</v>
+      </c>
+      <c r="P10">
+        <v>2.5724199999999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>9.6579999999999999E-3</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>20.060199999999998</v>
+      </c>
+      <c r="O11">
+        <v>825</v>
+      </c>
+      <c r="P11">
+        <v>3.6196100000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.7971999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>20.055</v>
+      </c>
+      <c r="O12">
+        <v>831</v>
+      </c>
+      <c r="P12">
+        <v>4.30812E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.7894899999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>20.062799999999999</v>
+      </c>
+      <c r="O13">
+        <v>819</v>
+      </c>
+      <c r="P13">
+        <v>4.2746399999999997E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.79156E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>1920</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>20.033999999999999</v>
+      </c>
+      <c r="O14">
+        <v>1385</v>
+      </c>
+      <c r="P14">
+        <v>2.6106500000000001E-2</v>
+      </c>
+      <c r="Q14">
+        <v>9.5957999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>1920</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>20.032800000000002</v>
+      </c>
+      <c r="O15">
+        <v>1393</v>
+      </c>
+      <c r="P15">
+        <v>2.57954E-2</v>
+      </c>
+      <c r="Q15">
+        <v>9.7132E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>20.035399999999999</v>
+      </c>
+      <c r="O16">
+        <v>1402</v>
+      </c>
+      <c r="P16">
+        <v>2.6045700000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>9.7499000000000006E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15825,7 +18592,7 @@
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AH2"/>
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15914,19 +18681,19 @@
         <v>19</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>26</v>
@@ -15938,25 +18705,25 @@
         <v>28</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -15966,10 +18733,10 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -16074,10 +18841,10 @@
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -16176,10 +18943,10 @@
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -16278,10 +19045,10 @@
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -16337,10 +19104,10 @@
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -16396,10 +19163,10 @@
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>1920</v>
@@ -16451,10 +19218,10 @@
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>1920</v>
@@ -16504,10 +19271,10 @@
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>1920</v>
@@ -16557,10 +19324,10 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>1920</v>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42586A8-F8E0-46DB-8CE1-F503139C52F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683C94D-6206-4030-B640-3B20B7E433DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,10 @@
     <sheet name="Stationary Optimisations" sheetId="10" r:id="rId6"/>
     <sheet name="Planet Optimisations" sheetId="11" r:id="rId7"/>
     <sheet name="Devices Mandelbulb" sheetId="12" r:id="rId8"/>
-    <sheet name="Devices Sierpinski" sheetId="14" r:id="rId9"/>
-    <sheet name="Devices Planet" sheetId="15" r:id="rId10"/>
+    <sheet name="Devices Planet" sheetId="15" r:id="rId9"/>
+    <sheet name="Devices Sierpinski" sheetId="14" r:id="rId10"/>
     <sheet name="Resolutions 3060TI" sheetId="13" r:id="rId11"/>
+    <sheet name="Resolutions 1660TI" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="79">
   <si>
     <t>NVIDIA GeForce RTX 3060 Ti</t>
   </si>
@@ -279,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">-cl-fast-relaxed-math -I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_features" -I "kernels\benchmarks\mandelbulb_optimisations" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\sierpinski_features" -I "kernels\benchmarks\sierpinski_optimisations" -I "kernels\benchmarks\spheres" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1660 Ti</t>
   </si>
 </sst>
 </file>
@@ -4198,10 +4202,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,13 +4214,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.385627202095193</c:v>
+                  <c:v>25.404208194905866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.459859463530325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,10 +4281,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4298,13 +4293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>55.976586280807439</c:v>
+                  <c:v>57.437657097719942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>31.413528972693783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4368,10 +4360,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4383,13 +4372,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>68.066155643499769</c:v>
+                  <c:v>69.95275485759916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>52.540947365971547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4889,22 +4875,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>56.606746210498983</c:v>
+                  <c:v>60.284955174717609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.816455099307767</c:v>
+                  <c:v>44.58278654063534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.205450478114059</c:v>
+                  <c:v>32.645771745822223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.346558528661479</c:v>
+                  <c:v>25.453215726253269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.017279649101088</c:v>
+                  <c:v>16.765598803751868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.627273187447317</c:v>
+                  <c:v>9.1250026173769587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,6 +4899,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB98-48A5-9FE0-B3D87D69B500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resolutions 1660TI'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA GeForce GTX 1660 Ti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resolutions 1660TI'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resolutions 1660TI'!$AD$2:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27.504297892703327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.430867889993436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.676387314405684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.35431338028169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6618004010271932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5768857536206511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-722F-4C9E-80B3-79319AAA8A21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9730,16 +9827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9880,16 +9977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10184,8 +10281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="AR24:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI46" sqref="AI46"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10301,11 +10398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CB30D-C9E5-483D-9CCD-B595A7C7FA17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CFEF4F-454C-4020-BCA1-EF8461693D0D}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q4"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10446,7 +10543,7 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -10482,16 +10579,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>20.0275</v>
+        <v>25.031199999999998</v>
       </c>
       <c r="O2">
-        <v>1373</v>
+        <v>1436</v>
       </c>
       <c r="P2">
-        <v>2.53332E-2</v>
+        <v>4.3578800000000001E-2</v>
       </c>
       <c r="Q2">
-        <v>9.7693999999999993E-3</v>
+        <v>6.6847E-3</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -10525,36 +10622,36 @@
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>60.0886</v>
+        <v>75.072699999999998</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>4090</v>
+        <v>4312</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">AC2/AB2</f>
-        <v>68.066155643499769</v>
+        <v>57.437657097719942</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>100.59653746718038</v>
+        <v>149.24927614101071</v>
       </c>
       <c r="AF2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>39.934666884976174</v>
+        <v>23.224272151310778</v>
       </c>
       <c r="AG2">
         <f ca="1">AE2-AD2</f>
-        <v>32.530381823680614</v>
+        <v>91.811619043290762</v>
       </c>
       <c r="AH2">
         <f ca="1">AE2-AF2</f>
-        <v>60.661870582204209</v>
+        <v>126.02500398969994</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -10590,16 +10687,16 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>20.0289</v>
+        <v>25.024100000000001</v>
       </c>
       <c r="O3">
-        <v>1347</v>
+        <v>1438</v>
       </c>
       <c r="P3">
-        <v>2.52426E-2</v>
+        <v>4.3058399999999997E-2</v>
       </c>
       <c r="Q3">
-        <v>9.9407000000000002E-3</v>
+        <v>6.5182E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V4" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -10607,11 +10704,11 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
+        <v>2073600</v>
       </c>
       <c r="X3">
         <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="3">
         <f>K3/1000000000</f>
@@ -10627,36 +10724,36 @@
       </c>
       <c r="AB3" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
+        <v>75.158699999999996</v>
       </c>
       <c r="AC3" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4" t="e">
+        <v>2361</v>
+      </c>
+      <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD4" ca="1" si="3">AC3/AB3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE3" s="4" t="e">
+        <v>31.413528972693783</v>
+      </c>
+      <c r="AE3" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" s="4" t="e">
+        <v>98.257887651931256</v>
+      </c>
+      <c r="AF3" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG3" t="e">
+        <v>8.7342347063550303</v>
+      </c>
+      <c r="AG3">
         <f t="shared" ref="AG3:AG4" ca="1" si="4">AE3-AD3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH3" t="e">
+        <v>66.844358679237473</v>
+      </c>
+      <c r="AH3">
         <f t="shared" ref="AH3:AH4" ca="1" si="5">AE3-AF3</f>
-        <v>#DIV/0!</v>
+        <v>89.523652945576231</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -10692,71 +10789,76 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>20.0322</v>
+        <v>25.017399999999999</v>
       </c>
       <c r="O4">
-        <v>1370</v>
+        <v>1438</v>
       </c>
       <c r="P4">
-        <v>2.5040900000000001E-2</v>
+        <v>4.3473999999999999E-2</v>
       </c>
       <c r="Q4">
-        <v>9.8081999999999996E-3</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4" ca="1" si="6">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f>K4/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="0"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="0"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB4" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE4" s="4" t="e">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF4" s="4" t="e">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH4" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>6.7001999999999999E-3</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1770</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>6441992192</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>25.064499999999999</v>
+      </c>
+      <c r="O5">
+        <v>788</v>
+      </c>
+      <c r="P5">
+        <v>0.11497300000000001</v>
+      </c>
+      <c r="Q5">
+        <v>1.01773E-2</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -10768,6 +10870,54 @@
       <c r="AE5" s="4"/>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1770</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>6441992192</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>25.0581</v>
+      </c>
+      <c r="O6">
+        <v>787</v>
+      </c>
+      <c r="P6">
+        <v>0.114492</v>
+      </c>
+      <c r="Q6">
+        <v>1.01262E-2</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -10779,6 +10929,54 @@
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1770</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>6441992192</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>25.036100000000001</v>
+      </c>
+      <c r="O7">
+        <v>786</v>
+      </c>
+      <c r="P7">
+        <v>0.114955</v>
+      </c>
+      <c r="Q7">
+        <v>1.01447E-2</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="AE7" s="3"/>
@@ -10810,8 +11008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D811C00-07CB-4F03-B932-655B80B938E4}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10989,16 +11187,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.032499999999999</v>
+        <v>30.037400000000002</v>
       </c>
       <c r="O2">
-        <v>1608</v>
+        <v>1806</v>
       </c>
       <c r="P2">
-        <v>2.9954999999999999E-2</v>
+        <v>2.7150000000000001E-2</v>
       </c>
       <c r="Q2">
-        <v>1.0609800000000001E-2</v>
+        <v>9.4663000000000004E-3</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -11032,31 +11230,31 @@
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>90.130600000000001</v>
+        <v>90.105400000000003</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>5102</v>
+        <v>5432</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">AC2/AB2</f>
-        <v>56.606746210498983</v>
+        <v>60.284955174717609</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>94.252483552941612</v>
+        <v>105.10163327938116</v>
       </c>
       <c r="AF2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>35.290173451202513</v>
+        <v>37.183429576443551</v>
       </c>
       <c r="AG2">
         <f ca="1">AE2-AD2</f>
-        <v>37.645737342442629</v>
+        <v>44.816678104663552</v>
       </c>
       <c r="AH2">
         <f ca="1">AE2-AF2</f>
-        <v>58.962310101739099</v>
+        <v>67.918203702937603</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11097,68 +11295,68 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.048200000000001</v>
+        <v>30.039200000000001</v>
       </c>
       <c r="O3">
-        <v>1747</v>
+        <v>1814</v>
       </c>
       <c r="P3">
-        <v>2.8336500000000001E-2</v>
+        <v>2.7158700000000001E-2</v>
       </c>
       <c r="Q3">
-        <v>9.1044999999999997E-3</v>
+        <v>9.1927999999999992E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W13" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
         <v>921600</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X13" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
         <v>38</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y13" si="3">K3/1000000000</f>
+        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z13" si="4">L3/1000</f>
+        <f t="shared" ref="Z3:Z7" si="4">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA13" si="5">M3/1000</f>
+        <f t="shared" ref="AA3:AA7" si="5">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB3" s="4">
-        <f t="shared" ref="AB3:AB13" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>90.128900000000002</v>
+        <f t="shared" ref="AB3:AB7" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.146900000000002</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC13" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>3859</v>
+        <f t="shared" ref="AC3:AC7" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>4019</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD13" ca="1" si="8">AC3/AB3</f>
-        <v>42.816455099307767</v>
+        <f t="shared" ref="AD3:AD7" ca="1" si="8">AC3/AB3</f>
+        <v>44.58278654063534</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE13" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>78.141482969063787</v>
+        <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>78.37850547865753</v>
       </c>
       <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF13" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>27.195787916367511</v>
+        <f t="shared" ref="AF3:AF7" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>28.636064259328197</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG13" ca="1" si="11">AE3-AD3</f>
-        <v>35.32502786975602</v>
+        <f t="shared" ref="AG3:AG7" ca="1" si="11">AE3-AD3</f>
+        <v>33.795718938022191</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH13" ca="1" si="12">AE3-AF3</f>
-        <v>50.94569505269628</v>
+        <f t="shared" ref="AH3:AH7" ca="1" si="12">AE3-AF3</f>
+        <v>49.742441219329336</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11199,16 +11397,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.049900000000001</v>
+        <v>30.0288</v>
       </c>
       <c r="O4">
-        <v>1747</v>
+        <v>1812</v>
       </c>
       <c r="P4">
-        <v>2.8594999999999999E-2</v>
+        <v>2.68937E-2</v>
       </c>
       <c r="Q4">
-        <v>9.2058000000000001E-3</v>
+        <v>9.5145999999999998E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -11236,31 +11434,31 @@
       </c>
       <c r="AB4" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>90.208600000000004</v>
+        <v>90.149499999999989</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2815</v>
+        <v>2943</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>31.205450478114059</v>
+        <v>32.645771745822223</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>55.763429227843794</v>
+        <v>57.495055425233431</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>18.877683934713417</v>
+        <v>19.815988728665612</v>
       </c>
       <c r="AG4">
         <f t="shared" ca="1" si="11"/>
-        <v>24.557978749729735</v>
+        <v>24.849283679411208</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="12"/>
-        <v>36.885745293130377</v>
+        <v>37.679066696567816</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11301,16 +11499,16 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>30.0381</v>
+        <v>30.033899999999999</v>
       </c>
       <c r="O5">
-        <v>1286</v>
+        <v>1343</v>
       </c>
       <c r="P5">
-        <v>3.7264699999999998E-2</v>
+        <v>3.5038300000000001E-2</v>
       </c>
       <c r="Q5">
-        <v>1.2709700000000001E-2</v>
+        <v>1.25728E-2</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -11338,31 +11536,31 @@
       </c>
       <c r="AB5" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>90.279700000000005</v>
+        <v>90.244</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2198</v>
+        <v>2297</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>24.346558528661479</v>
+        <v>25.453215726253269</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>44.848881693134985</v>
+        <v>45.128390270319052</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>14.963339817447254</v>
+        <v>15.861535142817264</v>
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="11"/>
-        <v>20.502323164473506</v>
+        <v>19.675174544065783</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="12"/>
-        <v>29.885541875687728</v>
+        <v>29.266855127501788</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11403,16 +11601,16 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>30.0565</v>
+        <v>30.060500000000001</v>
       </c>
       <c r="O6">
-        <v>1286</v>
+        <v>1346</v>
       </c>
       <c r="P6">
-        <v>3.6770400000000002E-2</v>
+        <v>3.4921000000000001E-2</v>
       </c>
       <c r="Q6">
-        <v>1.27107E-2</v>
+        <v>1.25732E-2</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -11440,31 +11638,31 @@
       </c>
       <c r="AB6" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>90.464799999999997</v>
+        <v>90.482900000000001</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1449</v>
+        <v>1517</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>16.017279649101088</v>
+        <v>16.765598803751868</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>29.584748470468501</v>
+        <v>30.171919597868651</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6767014060247138</v>
+        <v>10.137135164505429</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="11"/>
-        <v>13.567468821367413</v>
+        <v>13.406320794116784</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="12"/>
-        <v>19.908047064443785</v>
+        <v>20.034784433363221</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11505,16 +11703,16 @@
         <v>65536</v>
       </c>
       <c r="N7">
-        <v>30.034300000000002</v>
+        <v>30.052499999999998</v>
       </c>
       <c r="O7">
-        <v>1287</v>
+        <v>1330</v>
       </c>
       <c r="P7">
-        <v>3.7239300000000003E-2</v>
+        <v>3.5366099999999998E-2</v>
       </c>
       <c r="Q7">
-        <v>1.2797299999999999E-2</v>
+        <v>1.27586E-2</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -11544,31 +11742,31 @@
       </c>
       <c r="AB7" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>90.874600000000001</v>
+        <v>90.739699999999999</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>784</v>
+        <v>828</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.627273187447317</v>
+        <v>9.1250026173769587</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15.751280972925123</v>
+        <v>16.152009794578738</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060266432470245</v>
+        <v>5.4994308089112778</v>
       </c>
       <c r="AG7">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1240077854778061</v>
+        <v>7.0270071772017797</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.645254329678099</v>
+        <v>10.652578985667461</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11609,16 +11807,16 @@
         <v>65536</v>
       </c>
       <c r="N8">
-        <v>30.0871</v>
+        <v>30.045999999999999</v>
       </c>
       <c r="O8">
-        <v>940</v>
+        <v>982</v>
       </c>
       <c r="P8">
-        <v>5.2972600000000002E-2</v>
+        <v>5.0842999999999999E-2</v>
       </c>
       <c r="Q8">
-        <v>1.7605300000000001E-2</v>
+        <v>1.73385E-2</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -11670,16 +11868,16 @@
         <v>65536</v>
       </c>
       <c r="N9">
-        <v>30.0486</v>
+        <v>30.051500000000001</v>
       </c>
       <c r="O9">
-        <v>937</v>
+        <v>983</v>
       </c>
       <c r="P9">
-        <v>5.4320500000000001E-2</v>
+        <v>5.0942899999999999E-2</v>
       </c>
       <c r="Q9">
-        <v>1.7932900000000002E-2</v>
+        <v>1.7318699999999999E-2</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
@@ -11731,16 +11929,16 @@
         <v>65536</v>
       </c>
       <c r="N10">
-        <v>30.072900000000001</v>
+        <v>30.052</v>
       </c>
       <c r="O10">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="P10">
-        <v>5.3250800000000001E-2</v>
+        <v>5.0464299999999997E-2</v>
       </c>
       <c r="Q10">
-        <v>1.7856799999999999E-2</v>
+        <v>1.73928E-2</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
@@ -11792,16 +11990,16 @@
         <v>65536</v>
       </c>
       <c r="N11">
-        <v>30.084099999999999</v>
+        <v>30.061900000000001</v>
       </c>
       <c r="O11">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="P11">
-        <v>6.6872500000000001E-2</v>
+        <v>6.3821900000000001E-2</v>
       </c>
       <c r="Q11">
-        <v>2.19905E-2</v>
+        <v>2.2008699999999999E-2</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -11850,16 +12048,16 @@
         <v>65536</v>
       </c>
       <c r="N12">
-        <v>30.071300000000001</v>
+        <v>30.075600000000001</v>
       </c>
       <c r="O12">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="P12">
-        <v>6.6830000000000001E-2</v>
+        <v>6.3396800000000003E-2</v>
       </c>
       <c r="Q12">
-        <v>2.21867E-2</v>
+        <v>2.16323E-2</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -11908,16 +12106,16 @@
         <v>65536</v>
       </c>
       <c r="N13">
-        <v>30.124300000000002</v>
+        <v>30.1065</v>
       </c>
       <c r="O13">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="P13">
-        <v>6.7218E-2</v>
+        <v>6.3045599999999993E-2</v>
       </c>
       <c r="Q13">
-        <v>2.22971E-2</v>
+        <v>2.2159000000000002E-2</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -11966,16 +12164,16 @@
         <v>65536</v>
       </c>
       <c r="N14">
-        <v>30.174800000000001</v>
+        <v>30.126799999999999</v>
       </c>
       <c r="O14">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="P14">
-        <v>0.10442800000000001</v>
+        <v>9.8647200000000004E-2</v>
       </c>
       <c r="Q14">
-        <v>3.3728099999999997E-2</v>
+        <v>3.30294E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -12016,16 +12214,16 @@
         <v>65536</v>
       </c>
       <c r="N15">
-        <v>30.099</v>
+        <v>30.174099999999999</v>
       </c>
       <c r="O15">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="P15">
-        <v>0.10451299999999999</v>
+        <v>9.9184800000000004E-2</v>
       </c>
       <c r="Q15">
-        <v>3.3558699999999997E-2</v>
+        <v>3.3078799999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -12066,16 +12264,16 @@
         <v>65536</v>
       </c>
       <c r="N16">
-        <v>30.190999999999999</v>
+        <v>30.181999999999999</v>
       </c>
       <c r="O16">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="P16">
-        <v>0.103341</v>
+        <v>9.9364999999999995E-2</v>
       </c>
       <c r="Q16">
-        <v>3.3801200000000003E-2</v>
+        <v>3.3143400000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -12116,16 +12314,16 @@
         <v>65536</v>
       </c>
       <c r="N17">
-        <v>30.332999999999998</v>
+        <v>30.2486</v>
       </c>
       <c r="O17">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P17">
-        <v>0.19584699999999999</v>
+        <v>0.182282</v>
       </c>
       <c r="Q17">
-        <v>6.2673199999999998E-2</v>
+        <v>6.1911800000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -12166,16 +12364,16 @@
         <v>65536</v>
       </c>
       <c r="N18">
-        <v>30.236899999999999</v>
+        <v>30.247</v>
       </c>
       <c r="O18">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P18">
-        <v>0.20938200000000001</v>
+        <v>0.181837</v>
       </c>
       <c r="Q18">
-        <v>6.3486899999999999E-2</v>
+        <v>6.1569199999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -12216,16 +12414,1444 @@
         <v>65536</v>
       </c>
       <c r="N19">
-        <v>30.3047</v>
+        <v>30.2441</v>
       </c>
       <c r="O19">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19">
-        <v>0.195877</v>
+        <v>0.18193899999999999</v>
       </c>
       <c r="Q19">
-        <v>6.2712599999999993E-2</v>
+        <v>6.1497599999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FDBFBA-A177-4A15-AAD1-5E104CD34D5D}">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>1024</v>
+      </c>
+      <c r="E2">
+        <v>576</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1770</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>6441992192</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>30.084299999999999</v>
+      </c>
+      <c r="O2">
+        <v>827</v>
+      </c>
+      <c r="P2">
+        <v>7.0460900000000007E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.8603399999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>589824</v>
+      </c>
+      <c r="X2">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>K2/1000000000</f>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.276800000000009</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>2483</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">AC2/AB2</f>
+        <v>27.504297892703327</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>53.753614930604087</v>
+      </c>
+      <c r="AF2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>14.291778082986639</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AE2-AD2</f>
+        <v>26.249317037900759</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">AE2-AF2</f>
+        <v>39.461836847617448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>1024</v>
+      </c>
+      <c r="E3">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1770</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>6441992192</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>30.103200000000001</v>
+      </c>
+      <c r="O3">
+        <v>828</v>
+      </c>
+      <c r="P3">
+        <v>6.9970299999999999E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.8602199999999999E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>921600</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:AA7" si="4">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.474599999999995</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>1758</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD7" ca="1" si="7">AC3/AB3</f>
+        <v>19.430867889993436</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>37.858997948042308</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" ref="AF3:AF7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>10.208946508182981</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" ca="1" si="10">AE3-AD3</f>
+        <v>18.428130058048872</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH7" ca="1" si="11">AE3-AF3</f>
+        <v>27.650051439859325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>1024</v>
+      </c>
+      <c r="E4">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1770</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>6441992192</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>30.089300000000001</v>
+      </c>
+      <c r="O4">
+        <v>828</v>
+      </c>
+      <c r="P4">
+        <v>7.0221099999999995E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1.8528200000000002E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>90.594099999999997</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1239</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.676387314405684</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.620595289751872</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.0163129275565685</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="10"/>
+        <v>12.944207975346188</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="11"/>
+        <v>19.604282362195303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>1280</v>
+      </c>
+      <c r="E5">
+        <v>720</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1770</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>6441992192</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>30.151599999999998</v>
+      </c>
+      <c r="O5">
+        <v>586</v>
+      </c>
+      <c r="P5">
+        <v>9.8173399999999994E-2</v>
+      </c>
+      <c r="Q5">
+        <v>2.63871E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>90.88</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>941</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>10.35431338028169</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.207613016127699</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3266288831124564</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.8532996358460085</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="11"/>
+        <v>14.880984133015243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>1280</v>
+      </c>
+      <c r="E6">
+        <v>720</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1770</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>6441992192</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>30.179500000000001</v>
+      </c>
+      <c r="O6">
+        <v>586</v>
+      </c>
+      <c r="P6">
+        <v>9.8651799999999998E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.6413800000000001E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3686400</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>90.966399999999993</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>606</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.6618004010271932</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.114650901107662</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.3799427437699205</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.4528505000804692</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.7347081573377423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>1280</v>
+      </c>
+      <c r="E7">
+        <v>720</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1770</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>6441992192</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.1435</v>
+      </c>
+      <c r="O7">
+        <v>586</v>
+      </c>
+      <c r="P7">
+        <v>9.7953299999999993E-2</v>
+      </c>
+      <c r="Q7">
+        <v>2.6212300000000001E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8294400</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>92.538600000000002</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>331</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5768857536206511</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.0675873377105258</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.8161048546298868</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.4907015840898747</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.2514824830806388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1770</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>6441992192</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.1873</v>
+      </c>
+      <c r="O8">
+        <v>413</v>
+      </c>
+      <c r="P8">
+        <v>0.14318900000000001</v>
+      </c>
+      <c r="Q8">
+        <v>3.75476E-2</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>1600</v>
+      </c>
+      <c r="E9">
+        <v>900</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1770</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>6441992192</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.202100000000002</v>
+      </c>
+      <c r="O9">
+        <v>413</v>
+      </c>
+      <c r="P9">
+        <v>0.14338999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>3.7564899999999998E-2</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1770</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>6441992192</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>30.204699999999999</v>
+      </c>
+      <c r="O10">
+        <v>413</v>
+      </c>
+      <c r="P10">
+        <v>0.14252500000000001</v>
+      </c>
+      <c r="Q10">
+        <v>3.7485299999999999E-2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1770</v>
+      </c>
+      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>6441992192</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>30.344100000000001</v>
+      </c>
+      <c r="O11">
+        <v>314</v>
+      </c>
+      <c r="P11">
+        <v>0.18809200000000001</v>
+      </c>
+      <c r="Q11">
+        <v>4.9283100000000003E-2</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1770</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>6441992192</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>30.183299999999999</v>
+      </c>
+      <c r="O12">
+        <v>313</v>
+      </c>
+      <c r="P12">
+        <v>0.188083</v>
+      </c>
+      <c r="Q12">
+        <v>4.9404900000000002E-2</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1770</v>
+      </c>
+      <c r="J13">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>6441992192</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>30.352599999999999</v>
+      </c>
+      <c r="O13">
+        <v>314</v>
+      </c>
+      <c r="P13">
+        <v>0.18773599999999999</v>
+      </c>
+      <c r="Q13">
+        <v>4.9486299999999997E-2</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>2560</v>
+      </c>
+      <c r="E14">
+        <v>1440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1770</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>6441992192</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>30.315200000000001</v>
+      </c>
+      <c r="O14">
+        <v>202</v>
+      </c>
+      <c r="P14">
+        <v>0.29586299999999999</v>
+      </c>
+      <c r="Q14">
+        <v>7.5943899999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>2560</v>
+      </c>
+      <c r="E15">
+        <v>1440</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1770</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>6441992192</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>30.325199999999999</v>
+      </c>
+      <c r="O15">
+        <v>202</v>
+      </c>
+      <c r="P15">
+        <v>0.29595900000000003</v>
+      </c>
+      <c r="Q15">
+        <v>7.5974799999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>2560</v>
+      </c>
+      <c r="E16">
+        <v>1440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1770</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>6441992192</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>30.326000000000001</v>
+      </c>
+      <c r="O16">
+        <v>202</v>
+      </c>
+      <c r="P16">
+        <v>0.29650799999999999</v>
+      </c>
+      <c r="Q16">
+        <v>7.6250600000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>3840</v>
+      </c>
+      <c r="E17">
+        <v>2160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>256</v>
+      </c>
+      <c r="I17">
+        <v>1770</v>
+      </c>
+      <c r="J17">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>6441992192</v>
+      </c>
+      <c r="L17">
+        <v>49152</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17">
+        <v>31.028500000000001</v>
+      </c>
+      <c r="O17">
+        <v>111</v>
+      </c>
+      <c r="P17">
+        <v>0.55062900000000004</v>
+      </c>
+      <c r="Q17">
+        <v>0.14074400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>3840</v>
+      </c>
+      <c r="E18">
+        <v>2160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>256</v>
+      </c>
+      <c r="I18">
+        <v>1770</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>6441992192</v>
+      </c>
+      <c r="L18">
+        <v>49152</v>
+      </c>
+      <c r="M18">
+        <v>65536</v>
+      </c>
+      <c r="N18">
+        <v>30.701699999999999</v>
+      </c>
+      <c r="O18">
+        <v>110</v>
+      </c>
+      <c r="P18">
+        <v>0.55572299999999997</v>
+      </c>
+      <c r="Q18">
+        <v>0.14138200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>3840</v>
+      </c>
+      <c r="E19">
+        <v>2160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>256</v>
+      </c>
+      <c r="I19">
+        <v>1770</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>6441992192</v>
+      </c>
+      <c r="L19">
+        <v>49152</v>
+      </c>
+      <c r="M19">
+        <v>65536</v>
+      </c>
+      <c r="N19">
+        <v>30.808399999999999</v>
+      </c>
+      <c r="O19">
+        <v>110</v>
+      </c>
+      <c r="P19">
+        <v>0.55515300000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.14149100000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19110,8 +20736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD0FD4-FA27-4F55-875C-776A875C0DAC}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19288,16 +20914,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.111499999999999</v>
+        <v>30.102399999999999</v>
       </c>
       <c r="O2">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="P2">
-        <v>6.6920300000000002E-2</v>
+        <v>6.44174E-2</v>
       </c>
       <c r="Q2">
-        <v>2.2504699999999999E-2</v>
+        <v>2.2689299999999999E-2</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -19331,31 +20957,31 @@
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>90.340100000000007</v>
+        <v>90.300000000000011</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>2203</v>
+        <v>2294</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">AC2/AB2</f>
-        <v>24.385627202095193</v>
+        <v>25.404208194905866</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>44.435162432736277</v>
+        <v>44.07363823476264</v>
       </c>
       <c r="AF2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>15.034858319012629</v>
+        <v>15.86885974308316</v>
       </c>
       <c r="AG2">
         <f ca="1">AE2-AD2</f>
-        <v>20.049535230641084</v>
+        <v>18.669430039856774</v>
       </c>
       <c r="AH2">
         <f ca="1">AE2-AF2</f>
-        <v>29.400304113723649</v>
+        <v>28.20477849167948</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -19396,16 +21022,16 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.1129</v>
+        <v>30.0839</v>
       </c>
       <c r="O3">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="P3">
-        <v>6.7741499999999996E-2</v>
+        <v>6.3299099999999997E-2</v>
       </c>
       <c r="Q3">
-        <v>2.1651199999999999E-2</v>
+        <v>2.2150300000000001E-2</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V4" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -19413,11 +21039,11 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
+        <v>2073600</v>
       </c>
       <c r="X3">
         <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="3">
         <f>K3/1000000000</f>
@@ -19433,31 +21059,31 @@
       </c>
       <c r="AB3" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
+        <v>90.823399999999992</v>
       </c>
       <c r="AC3" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4" t="e">
+        <v>950</v>
+      </c>
+      <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD4" ca="1" si="3">AC3/AB3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE3" s="4" t="e">
+        <v>10.459859463530325</v>
+      </c>
+      <c r="AE3" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" s="4" t="e">
+        <v>20.410079313568211</v>
+      </c>
+      <c r="AF3" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG3" t="e">
+        <v>5.4021932904759336</v>
+      </c>
+      <c r="AG3">
         <f t="shared" ref="AG3:AG4" ca="1" si="4">AE3-AD3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH3" t="e">
+        <v>9.950219850037886</v>
+      </c>
+      <c r="AH3">
         <f t="shared" ref="AH3:AH4" ca="1" si="5">AE3-AF3</f>
-        <v>#DIV/0!</v>
+        <v>15.007886023092277</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -19498,71 +21124,76 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.1157</v>
+        <v>30.113700000000001</v>
       </c>
       <c r="O4">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="P4">
-        <v>6.6512100000000005E-2</v>
+        <v>6.3016500000000003E-2</v>
       </c>
       <c r="Q4">
-        <v>2.22189E-2</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4" ca="1" si="6">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f>K4/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="0"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="0"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB4" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE4" s="4" t="e">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF4" s="4" t="e">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH4" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2.1803599999999999E-2</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1770</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>6441992192</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>30.2026</v>
+      </c>
+      <c r="O5">
+        <v>317</v>
+      </c>
+      <c r="P5">
+        <v>0.18511</v>
+      </c>
+      <c r="Q5">
+        <v>4.8054100000000002E-2</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -19574,6 +21205,54 @@
       <c r="AE5" s="4"/>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1770</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>6441992192</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>30.331499999999998</v>
+      </c>
+      <c r="O6">
+        <v>318</v>
+      </c>
+      <c r="P6">
+        <v>0.18954199999999999</v>
+      </c>
+      <c r="Q6">
+        <v>4.8645500000000001E-2</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -19585,6 +21264,54 @@
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1770</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>6441992192</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.289300000000001</v>
+      </c>
+      <c r="O7">
+        <v>315</v>
+      </c>
+      <c r="P7">
+        <v>0.186718</v>
+      </c>
+      <c r="Q7">
+        <v>4.8995400000000001E-2</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="AE7" s="3"/>
@@ -19614,11 +21341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CFEF4F-454C-4020-BCA1-EF8461693D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CB30D-C9E5-483D-9CCD-B595A7C7FA17}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q4"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH4" sqref="V4:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19759,7 +21486,7 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -19795,16 +21522,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>25.021799999999999</v>
+        <v>20.036899999999999</v>
       </c>
       <c r="O2">
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="P2">
-        <v>4.5684299999999997E-2</v>
+        <v>2.3266200000000001E-2</v>
       </c>
       <c r="Q2">
-        <v>6.6442000000000003E-3</v>
+        <v>9.6030999999999998E-3</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -19838,36 +21565,36 @@
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>75.067099999999996</v>
+        <v>60.111999999999995</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>4202</v>
+        <v>4205</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">AC2/AB2</f>
-        <v>55.976586280807439</v>
+        <v>69.95275485759916</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>150.31490973589669</v>
+        <v>101.92017611806433</v>
       </c>
       <c r="AF2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>22.183179825728939</v>
+        <v>42.980804772588563</v>
       </c>
       <c r="AG2">
         <f ca="1">AE2-AD2</f>
-        <v>94.338323455089252</v>
+        <v>31.967421260465173</v>
       </c>
       <c r="AH2">
         <f ca="1">AE2-AF2</f>
-        <v>128.13172991016776</v>
+        <v>58.93937134547577</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -19903,16 +21630,16 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>25.022099999999998</v>
+        <v>20.032399999999999</v>
       </c>
       <c r="O3">
-        <v>1396</v>
+        <v>1379</v>
       </c>
       <c r="P3">
-        <v>4.5963299999999999E-2</v>
+        <v>2.3909900000000001E-2</v>
       </c>
       <c r="Q3">
-        <v>6.6527000000000001E-3</v>
+        <v>9.8116000000000002E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V4" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -19920,11 +21647,11 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
+        <v>2073600</v>
       </c>
       <c r="X3">
         <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="3">
         <f>K3/1000000000</f>
@@ -19940,36 +21667,36 @@
       </c>
       <c r="AB3" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
+        <v>60.162600000000005</v>
       </c>
       <c r="AC3" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4" t="e">
+        <v>3161</v>
+      </c>
+      <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD4" ca="1" si="3">AC3/AB3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE3" s="4" t="e">
+        <v>52.540947365971547</v>
+      </c>
+      <c r="AE3" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" s="4" t="e">
+        <v>77.814350522523355</v>
+      </c>
+      <c r="AF3" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG3" t="e">
+        <v>29.974940949366328</v>
+      </c>
+      <c r="AG3">
         <f t="shared" ref="AG3:AG4" ca="1" si="4">AE3-AD3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH3" t="e">
+        <v>25.273403156551808</v>
+      </c>
+      <c r="AH3">
         <f t="shared" ref="AH3:AH4" ca="1" si="5">AE3-AF3</f>
-        <v>#DIV/0!</v>
+        <v>47.839409573157027</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -20005,71 +21732,76 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>25.023199999999999</v>
+        <v>20.0427</v>
       </c>
       <c r="O4">
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="P4">
-        <v>4.50792E-2</v>
+        <v>2.3310000000000001E-2</v>
       </c>
       <c r="Q4">
-        <v>6.4618999999999996E-3</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4" ca="1" si="6">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f>K4/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="0"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="0"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB4" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE4" s="4" t="e">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF4" s="4" t="e">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH4" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>9.5221000000000004E-3</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1770</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>6441992192</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>20.0655</v>
+      </c>
+      <c r="O5">
+        <v>1054</v>
+      </c>
+      <c r="P5">
+        <v>3.4180099999999998E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.2808999999999999E-2</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -20081,6 +21813,54 @@
       <c r="AE5" s="4"/>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1770</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>6441992192</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>20.042100000000001</v>
+      </c>
+      <c r="O6">
+        <v>1054</v>
+      </c>
+      <c r="P6">
+        <v>3.3617099999999997E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.28097E-2</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -20092,6 +21872,54 @@
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1770</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>6441992192</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>20.055</v>
+      </c>
+      <c r="O7">
+        <v>1053</v>
+      </c>
+      <c r="P7">
+        <v>3.3361200000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.2851100000000001E-2</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="AE7" s="3"/>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683C94D-6206-4030-B640-3B20B7E433DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746750AF-03A7-488D-A916-DEEF3C4443E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Devices Sierpinski" sheetId="14" r:id="rId10"/>
     <sheet name="Resolutions 3060TI" sheetId="13" r:id="rId11"/>
     <sheet name="Resolutions 1660TI" sheetId="16" r:id="rId12"/>
+    <sheet name="Resolutions 970 ME" sheetId="17" r:id="rId13"/>
+    <sheet name="Resolutions 970 ME NO GUI" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="81">
   <si>
     <t>NVIDIA GeForce RTX 3060 Ti</t>
   </si>
@@ -284,6 +286,12 @@
   <si>
     <t>NVIDIA GeForce GTX 1660 Ti</t>
   </si>
+  <si>
+    <t>NVIDIA GeForce GTX 970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-cl-fast-relaxed-math -I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\spheres" -I "kernels\include" -I "kernels/include" </t>
+  </si>
 </sst>
 </file>
 
@@ -409,13 +417,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Mandelbulb</a:t>
+              <a:t>Mandelbulb Scene Optimisations</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Scene Optimisations</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -901,7 +904,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1010,13 +1013,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Mandelbulb</a:t>
+              <a:t>Mandelbulb Features</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Features</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1520,7 +1518,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1629,13 +1627,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Sierpinski</a:t>
+              <a:t>Sierpinski Scene Optimisations</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Scene Optimisations</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2121,7 +2114,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2794,7 +2787,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4105,13 +4098,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Scen</a:t>
+              <a:t>Scene Performance on Devices of Varying Spec </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>e Performance on Devices of Varying Spec </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4204,6 +4192,9 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4218,6 +4209,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.459859463530325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9984292193274031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,6 +4277,9 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4297,6 +4294,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31.413528972693783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.948716321452466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,6 +4362,9 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4376,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52.540947365971547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.549809031975968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,7 +4647,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4749,10 +4755,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Performance</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>Performance over Varying Resolutions</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4837,9 +4842,39 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4948,9 +4983,39 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -5010,6 +5075,147 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-722F-4C9E-80B3-79319AAA8A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resolutions 970 ME'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA GeForce GTX 970</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resolutions 970 ME'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resolutions 970 ME'!$AD$2:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.088270421939859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2590050139214579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5360116843443485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9587381356005134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2029341388817367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8725640797775778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-89E5-4AA9-9B65-FFCF79566B08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5066,7 +5272,621 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of Compute Cores</a:t>
+                  <a:t>Number of Pixels to</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Render</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1960638016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Performance over Varying Resolutions FOR GTX 970</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GUI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resolutions 970 ME'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resolutions 970 ME'!$AD$2:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.088270421939859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2590050139214579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5360116843443485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9587381356005134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2029341388817367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8725640797775778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-08BB-49CE-90BD-0ADA6AFEF5E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>No GUI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resolutions 970 ME NO GUI'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resolutions 970 ME NO GUI'!$AD$2:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.451068487220009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.822618060670518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5654742455906439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.705042733174496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6607368540324758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.857677287585892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08BB-49CE-90BD-0ADA6AFEF5E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1960638432"/>
+        <c:axId val="1960638016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1960638432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Pixels</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5267,7 +6087,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5661,6 +6481,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9196,6 +10056,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9942,13 +11318,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
+      <xdr:colOff>595312</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -9977,16 +11353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10008,6 +11384,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D75C46-F431-4510-9BC6-B9A15B47D3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10281,8 +11695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="AR24:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+    <sheetView tabSelected="1" topLeftCell="S32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN56" sqref="AN56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10401,8 +11815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CFEF4F-454C-4020-BCA1-EF8461693D0D}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10613,7 +12027,7 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" ref="Z2:AA4" si="0">L2/1000</f>
+        <f t="shared" ref="Z2:AA3" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA2" s="3">
@@ -10731,7 +12145,7 @@
         <v>2361</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD4" ca="1" si="3">AC3/AB3</f>
+        <f t="shared" ref="AD3" ca="1" si="3">AC3/AB3</f>
         <v>31.413528972693783</v>
       </c>
       <c r="AE3" s="4">
@@ -10743,11 +12157,11 @@
         <v>8.7342347063550303</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG4" ca="1" si="4">AE3-AD3</f>
+        <f t="shared" ref="AG3" ca="1" si="4">AE3-AD3</f>
         <v>66.844358679237473</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH4" ca="1" si="5">AE3-AF3</f>
+        <f t="shared" ref="AH3" ca="1" si="5">AE3-AF3</f>
         <v>89.523652945576231</v>
       </c>
     </row>
@@ -10800,15 +12214,58 @@
       <c r="Q4">
         <v>6.7001999999999999E-3</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>K4/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="6">L4/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="7">M4/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>75.634199999999993</v>
+      </c>
+      <c r="AC4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>1055</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ref="AD4" ca="1" si="8">AC4/AB4</f>
+        <v>13.948716321452466</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>50.663181039811128</v>
+      </c>
+      <c r="AF4" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>3.9469529523208089</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4" ca="1" si="9">AE4-AD4</f>
+        <v>36.714464718358663</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4" ca="1" si="10">AE4-AF4</f>
+        <v>46.716228087490322</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -10984,16 +12441,160 @@
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1215</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>4294705152</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>25.181899999999999</v>
+      </c>
+      <c r="O8">
+        <v>351</v>
+      </c>
+      <c r="P8">
+        <v>0.25335999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>1.9738200000000001E-2</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1215</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>4294705152</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>25.2547</v>
+      </c>
+      <c r="O9">
+        <v>352</v>
+      </c>
+      <c r="P9">
+        <v>0.254054</v>
+      </c>
+      <c r="Q9">
+        <v>1.9688299999999999E-2</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1215</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4294705152</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>25.197600000000001</v>
+      </c>
+      <c r="O10">
+        <v>352</v>
+      </c>
+      <c r="P10">
+        <v>0.25697300000000001</v>
+      </c>
+      <c r="Q10">
+        <v>1.96595E-2</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -11008,7 +12609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D811C00-07CB-4F03-B932-655B80B938E4}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q19"/>
     </sheetView>
   </sheetViews>
@@ -12436,7 +14037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FDBFBA-A177-4A15-AAD1-5E104CD34D5D}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -13860,12 +15461,2868 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34151026-92BE-4E45-B64A-8BFC36898D47}">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>1024</v>
+      </c>
+      <c r="E2">
+        <v>576</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1215</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>4294705152</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>30.2303</v>
+      </c>
+      <c r="O2">
+        <v>396</v>
+      </c>
+      <c r="P2">
+        <v>0.22409699999999999</v>
+      </c>
+      <c r="Q2">
+        <v>3.4354700000000002E-2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>589824</v>
+      </c>
+      <c r="X2">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>K2/1000000000</f>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.844700000000003</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>1189</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">AC2/AB2</f>
+        <v>13.088270421939859</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>28.794130604417596</v>
+      </c>
+      <c r="AF2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>4.4720319124197268</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AE2-AD2</f>
+        <v>15.705860182477737</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">AE2-AF2</f>
+        <v>24.322098691997869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>1024</v>
+      </c>
+      <c r="E3">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1215</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>4294705152</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>30.3657</v>
+      </c>
+      <c r="O3">
+        <v>397</v>
+      </c>
+      <c r="P3">
+        <v>0.223968</v>
+      </c>
+      <c r="Q3">
+        <v>3.4477899999999999E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>921600</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:AA7" si="4">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>91.046499999999995</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>843</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD7" ca="1" si="7">AC3/AB3</f>
+        <v>9.2590050139214579</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>20.31719200152785</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" ref="AF3:AF7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>3.1257032832387286</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" ca="1" si="10">AE3-AD3</f>
+        <v>11.058186987606392</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH7" ca="1" si="11">AE3-AF3</f>
+        <v>17.191488718289122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1024</v>
+      </c>
+      <c r="E4">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1215</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>4294705152</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>30.248699999999999</v>
+      </c>
+      <c r="O4">
+        <v>396</v>
+      </c>
+      <c r="P4">
+        <v>0.22361200000000001</v>
+      </c>
+      <c r="Q4">
+        <v>3.4729299999999998E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>91.952100000000002</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>601</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5360116843443485</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>14.12048444558036</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.1462359314234694</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.584472761236011</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.974248514156891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1280</v>
+      </c>
+      <c r="E5">
+        <v>720</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1215</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>4294705152</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>30.369299999999999</v>
+      </c>
+      <c r="O5">
+        <v>281</v>
+      </c>
+      <c r="P5">
+        <v>0.31992799999999999</v>
+      </c>
+      <c r="Q5">
+        <v>4.9219400000000003E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>92.967199999999991</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.9587381356005134</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>10.639452366107811</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.6118217454095318</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6807142305072977</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.0276306206982788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>1280</v>
+      </c>
+      <c r="E6">
+        <v>720</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1215</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>4294705152</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>30.355599999999999</v>
+      </c>
+      <c r="O6">
+        <v>281</v>
+      </c>
+      <c r="P6">
+        <v>0.32247900000000002</v>
+      </c>
+      <c r="Q6">
+        <v>4.9014599999999998E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3686400</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>95.537399999999991</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.2029341388817367</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.8243547572577015</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0508396208570647</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6214206183759647</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.7735151364006363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>1280</v>
+      </c>
+      <c r="E7">
+        <v>720</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1215</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>4294705152</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.3216</v>
+      </c>
+      <c r="O7">
+        <v>281</v>
+      </c>
+      <c r="P7">
+        <v>0.32113700000000001</v>
+      </c>
+      <c r="Q7">
+        <v>4.90938E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8294400</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>94.522799999999989</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.8725640797775778</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.6806925591119226</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.9867966606801003</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8081284793343448</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.6938958984318222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1215</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>4294705152</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.866599999999998</v>
+      </c>
+      <c r="O8">
+        <v>201</v>
+      </c>
+      <c r="P8">
+        <v>0.46593200000000001</v>
+      </c>
+      <c r="Q8">
+        <v>6.9669200000000001E-2</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>1600</v>
+      </c>
+      <c r="E9">
+        <v>900</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1215</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>4294705152</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.531199999999998</v>
+      </c>
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>0.467893</v>
+      </c>
+      <c r="Q9">
+        <v>7.0819099999999996E-2</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1215</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4294705152</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>30.554300000000001</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>0.46745300000000001</v>
+      </c>
+      <c r="Q10">
+        <v>7.0367700000000005E-2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1215</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>4294705152</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>31.068300000000001</v>
+      </c>
+      <c r="O11">
+        <v>154</v>
+      </c>
+      <c r="P11">
+        <v>0.62205699999999997</v>
+      </c>
+      <c r="Q11">
+        <v>9.3989799999999998E-2</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1215</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>4294705152</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>31.104099999999999</v>
+      </c>
+      <c r="O12">
+        <v>154</v>
+      </c>
+      <c r="P12">
+        <v>0.62041599999999997</v>
+      </c>
+      <c r="Q12">
+        <v>9.3679299999999993E-2</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1215</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>4294705152</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>30.794799999999999</v>
+      </c>
+      <c r="O13">
+        <v>153</v>
+      </c>
+      <c r="P13">
+        <v>0.62309400000000004</v>
+      </c>
+      <c r="Q13">
+        <v>9.36004E-2</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>2560</v>
+      </c>
+      <c r="E14">
+        <v>1440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1215</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>4294705152</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>31.4986</v>
+      </c>
+      <c r="O14">
+        <v>102</v>
+      </c>
+      <c r="P14">
+        <v>0.95162000000000002</v>
+      </c>
+      <c r="Q14">
+        <v>0.14605099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>2560</v>
+      </c>
+      <c r="E15">
+        <v>1440</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1215</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>4294705152</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>32.4893</v>
+      </c>
+      <c r="O15">
+        <v>102</v>
+      </c>
+      <c r="P15">
+        <v>1.94401</v>
+      </c>
+      <c r="Q15">
+        <v>0.146314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>2560</v>
+      </c>
+      <c r="E16">
+        <v>1440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1215</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>4294705152</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>31.549499999999998</v>
+      </c>
+      <c r="O16">
+        <v>102</v>
+      </c>
+      <c r="P16">
+        <v>0.953183</v>
+      </c>
+      <c r="Q16">
+        <v>0.146534</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>3840</v>
+      </c>
+      <c r="E17">
+        <v>2160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>256</v>
+      </c>
+      <c r="I17">
+        <v>1215</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>4294705152</v>
+      </c>
+      <c r="L17">
+        <v>49152</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17">
+        <v>31.535699999999999</v>
+      </c>
+      <c r="O17">
+        <v>59</v>
+      </c>
+      <c r="P17">
+        <v>1.0133799999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.27085799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>3840</v>
+      </c>
+      <c r="E18">
+        <v>2160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>256</v>
+      </c>
+      <c r="I18">
+        <v>1215</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>4294705152</v>
+      </c>
+      <c r="L18">
+        <v>49152</v>
+      </c>
+      <c r="M18">
+        <v>65536</v>
+      </c>
+      <c r="N18">
+        <v>31.491</v>
+      </c>
+      <c r="O18">
+        <v>59</v>
+      </c>
+      <c r="P18">
+        <v>1.0147200000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.27144699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>3840</v>
+      </c>
+      <c r="E19">
+        <v>2160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>256</v>
+      </c>
+      <c r="I19">
+        <v>1215</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>4294705152</v>
+      </c>
+      <c r="L19">
+        <v>49152</v>
+      </c>
+      <c r="M19">
+        <v>65536</v>
+      </c>
+      <c r="N19">
+        <v>31.496099999999998</v>
+      </c>
+      <c r="O19">
+        <v>59</v>
+      </c>
+      <c r="P19">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.27168799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A257A558-688E-43F1-9D27-FDF623F82362}">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>1024</v>
+      </c>
+      <c r="E2">
+        <v>576</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1215</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>4294705152</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>30.1357</v>
+      </c>
+      <c r="O2">
+        <v>466</v>
+      </c>
+      <c r="P2">
+        <v>0.12228899999999999</v>
+      </c>
+      <c r="Q2">
+        <v>3.2056500000000002E-2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>589824</v>
+      </c>
+      <c r="X2">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>K2/1000000000</f>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>M2/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.543900000000008</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>1399</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">AC2/AB2</f>
+        <v>15.451068487220009</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>30.538920327010761</v>
+      </c>
+      <c r="AF2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>8.1773503749315157</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">AE2-AD2</f>
+        <v>15.087851839790751</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">AE2-AF2</f>
+        <v>22.361569952079243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>1024</v>
+      </c>
+      <c r="E3">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1215</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>4294705152</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>30.221900000000002</v>
+      </c>
+      <c r="O3">
+        <v>467</v>
+      </c>
+      <c r="P3">
+        <v>0.123334</v>
+      </c>
+      <c r="Q3">
+        <v>3.2557799999999998E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>921600</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:AA7" si="4">L3/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>90.828299999999999</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>983</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD7" ca="1" si="7">AC3/AB3</f>
+        <v>10.822618060670518</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>21.540907259931974</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" ref="AF3:AF7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>5.737596750225201</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" ca="1" si="10">AE3-AD3</f>
+        <v>10.718289199261456</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH7" ca="1" si="11">AE3-AF3</f>
+        <v>15.803310509706773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1024</v>
+      </c>
+      <c r="E4">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1215</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>4294705152</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>30.186299999999999</v>
+      </c>
+      <c r="O4">
+        <v>466</v>
+      </c>
+      <c r="P4">
+        <v>0.12288399999999999</v>
+      </c>
+      <c r="Q4">
+        <v>3.2745099999999999E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>91.203800000000001</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>690</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>7.5654742455906439</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>15.094954813252768</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.9262955793838072</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.5294805676621239</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.168659233868961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1280</v>
+      </c>
+      <c r="E5">
+        <v>720</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1215</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>4294705152</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>30.314699999999998</v>
+      </c>
+      <c r="O5">
+        <v>328</v>
+      </c>
+      <c r="P5">
+        <v>0.17482</v>
+      </c>
+      <c r="Q5">
+        <v>4.60531E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>91.49799999999999</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.705042733174496</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.481398985503585</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.9662412088026171</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.776356252329089</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.515157776700967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>1280</v>
+      </c>
+      <c r="E6">
+        <v>720</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1215</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>4294705152</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>30.3264</v>
+      </c>
+      <c r="O6">
+        <v>328</v>
+      </c>
+      <c r="P6">
+        <v>0.174289</v>
+      </c>
+      <c r="Q6">
+        <v>4.6423300000000001E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3686400</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>91.784800000000004</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6607368540324758</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.3815991496397775</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.8786857465991094</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.7208622956073016</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5029134030406679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>1280</v>
+      </c>
+      <c r="E7">
+        <v>720</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1215</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>4294705152</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>30.187200000000001</v>
+      </c>
+      <c r="O7">
+        <v>327</v>
+      </c>
+      <c r="P7">
+        <v>0.17492099999999999</v>
+      </c>
+      <c r="Q7">
+        <v>4.6382E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8294400</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2947051519999997</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="4"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="4"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>97.433499999999995</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.857677287585892</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.995189791491045</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.50941137515600721</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1375125039051532</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.4857784163350378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1215</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>4294705152</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.407</v>
+      </c>
+      <c r="O8">
+        <v>230</v>
+      </c>
+      <c r="P8">
+        <v>0.25601600000000002</v>
+      </c>
+      <c r="Q8">
+        <v>6.5621499999999999E-2</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>1600</v>
+      </c>
+      <c r="E9">
+        <v>900</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1215</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>4294705152</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.392099999999999</v>
+      </c>
+      <c r="O9">
+        <v>230</v>
+      </c>
+      <c r="P9">
+        <v>0.254693</v>
+      </c>
+      <c r="Q9">
+        <v>6.5855200000000003E-2</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1215</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4294705152</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>30.404699999999998</v>
+      </c>
+      <c r="O10">
+        <v>230</v>
+      </c>
+      <c r="P10">
+        <v>0.25503300000000001</v>
+      </c>
+      <c r="Q10">
+        <v>6.6247299999999995E-2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1215</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>4294705152</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>30.4834</v>
+      </c>
+      <c r="O11">
+        <v>174</v>
+      </c>
+      <c r="P11">
+        <v>0.33773900000000001</v>
+      </c>
+      <c r="Q11">
+        <v>8.6323399999999995E-2</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1215</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>4294705152</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>30.5002</v>
+      </c>
+      <c r="O12">
+        <v>174</v>
+      </c>
+      <c r="P12">
+        <v>0.33712700000000001</v>
+      </c>
+      <c r="Q12">
+        <v>8.7097400000000005E-2</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1215</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>4294705152</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>30.514399999999998</v>
+      </c>
+      <c r="O13">
+        <v>174</v>
+      </c>
+      <c r="P13">
+        <v>0.33893400000000001</v>
+      </c>
+      <c r="Q13">
+        <v>8.6934999999999998E-2</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>2560</v>
+      </c>
+      <c r="E14">
+        <v>1440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1215</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>4294705152</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>30.5867</v>
+      </c>
+      <c r="O14">
+        <v>112</v>
+      </c>
+      <c r="P14">
+        <v>0.53243300000000005</v>
+      </c>
+      <c r="Q14">
+        <v>0.13469500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>2560</v>
+      </c>
+      <c r="E15">
+        <v>1440</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1215</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>4294705152</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>30.603200000000001</v>
+      </c>
+      <c r="O15">
+        <v>112</v>
+      </c>
+      <c r="P15">
+        <v>0.53381299999999998</v>
+      </c>
+      <c r="Q15">
+        <v>0.13525699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>2560</v>
+      </c>
+      <c r="E16">
+        <v>1440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1215</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>4294705152</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>30.594899999999999</v>
+      </c>
+      <c r="O16">
+        <v>112</v>
+      </c>
+      <c r="P16">
+        <v>0.53228699999999995</v>
+      </c>
+      <c r="Q16">
+        <v>0.13547200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>3840</v>
+      </c>
+      <c r="E17">
+        <v>2160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>256</v>
+      </c>
+      <c r="I17">
+        <v>1215</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>4294705152</v>
+      </c>
+      <c r="L17">
+        <v>49152</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17">
+        <v>31.8764</v>
+      </c>
+      <c r="O17">
+        <v>60</v>
+      </c>
+      <c r="P17">
+        <v>1.9703999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.249779</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>3840</v>
+      </c>
+      <c r="E18">
+        <v>2160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>256</v>
+      </c>
+      <c r="I18">
+        <v>1215</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>4294705152</v>
+      </c>
+      <c r="L18">
+        <v>49152</v>
+      </c>
+      <c r="M18">
+        <v>65536</v>
+      </c>
+      <c r="N18">
+        <v>32.8508</v>
+      </c>
+      <c r="O18">
+        <v>60</v>
+      </c>
+      <c r="P18">
+        <v>1.96305</v>
+      </c>
+      <c r="Q18">
+        <v>0.25001000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>3840</v>
+      </c>
+      <c r="E19">
+        <v>2160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>256</v>
+      </c>
+      <c r="I19">
+        <v>1215</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>4294705152</v>
+      </c>
+      <c r="L19">
+        <v>49152</v>
+      </c>
+      <c r="M19">
+        <v>65536</v>
+      </c>
+      <c r="N19">
+        <v>32.706299999999999</v>
+      </c>
+      <c r="O19">
+        <v>61</v>
+      </c>
+      <c r="P19">
+        <v>1.97346</v>
+      </c>
+      <c r="Q19">
+        <v>0.250301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF3B349-2272-4985-8475-8A40B0359212}">
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20736,8 +25193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD0FD4-FA27-4F55-875C-776A875C0DAC}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:AH4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20948,7 +25405,7 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" ref="Z2:AA4" si="0">L2/1000</f>
+        <f t="shared" ref="Z2:AA3" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA2" s="3">
@@ -21066,7 +25523,7 @@
         <v>950</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD4" ca="1" si="3">AC3/AB3</f>
+        <f t="shared" ref="AD3" ca="1" si="3">AC3/AB3</f>
         <v>10.459859463530325</v>
       </c>
       <c r="AE3" s="4">
@@ -21078,11 +25535,11 @@
         <v>5.4021932904759336</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG4" ca="1" si="4">AE3-AD3</f>
+        <f t="shared" ref="AG3" ca="1" si="4">AE3-AD3</f>
         <v>9.950219850037886</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH4" ca="1" si="5">AE3-AF3</f>
+        <f t="shared" ref="AH3" ca="1" si="5">AE3-AF3</f>
         <v>15.007886023092277</v>
       </c>
     </row>
@@ -21135,15 +25592,58 @@
       <c r="Q4">
         <v>2.1803599999999999E-2</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>K4/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="6">L4/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="7">M4/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>92.629100000000008</v>
+      </c>
+      <c r="AC4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>463</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ref="AD4" ca="1" si="8">AC4/AB4</f>
+        <v>4.9984292193274031</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>10.644877312466535</v>
+      </c>
+      <c r="AF4" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>1.6720842195379697</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4" ca="1" si="9">AE4-AD4</f>
+        <v>5.6464480931391323</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4" ca="1" si="10">AE4-AF4</f>
+        <v>8.9727930929285655</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -21319,16 +25819,160 @@
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1215</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>4294705152</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>30.743200000000002</v>
+      </c>
+      <c r="O8">
+        <v>154</v>
+      </c>
+      <c r="P8">
+        <v>0.60818499999999998</v>
+      </c>
+      <c r="Q8">
+        <v>9.3274599999999999E-2</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1215</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>4294705152</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>30.757000000000001</v>
+      </c>
+      <c r="O9">
+        <v>154</v>
+      </c>
+      <c r="P9">
+        <v>0.60875299999999999</v>
+      </c>
+      <c r="Q9">
+        <v>9.3289899999999995E-2</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1215</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4294705152</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>31.128900000000002</v>
+      </c>
+      <c r="O10">
+        <v>155</v>
+      </c>
+      <c r="P10">
+        <v>0.59805600000000003</v>
+      </c>
+      <c r="Q10">
+        <v>9.3941899999999995E-2</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -21344,8 +25988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CB30D-C9E5-483D-9CCD-B595A7C7FA17}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH4" sqref="V4:AH5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21556,7 +26200,7 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" ref="Z2:AA4" si="0">L2/1000</f>
+        <f t="shared" ref="Z2:AA3" si="0">L2/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA2" s="3">
@@ -21674,7 +26318,7 @@
         <v>3161</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD4" ca="1" si="3">AC3/AB3</f>
+        <f t="shared" ref="AD3" ca="1" si="3">AC3/AB3</f>
         <v>52.540947365971547</v>
       </c>
       <c r="AE3" s="4">
@@ -21686,11 +26330,11 @@
         <v>29.974940949366328</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG4" ca="1" si="4">AE3-AD3</f>
+        <f t="shared" ref="AG3" ca="1" si="4">AE3-AD3</f>
         <v>25.273403156551808</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH4" ca="1" si="5">AE3-AF3</f>
+        <f t="shared" ref="AH3" ca="1" si="5">AE3-AF3</f>
         <v>47.839409573157027</v>
       </c>
     </row>
@@ -21743,15 +26387,58 @@
       <c r="Q4">
         <v>9.5221000000000004E-3</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>K4/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="6">L4/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="7">M4/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>60.376599999999996</v>
+      </c>
+      <c r="AC4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>2086</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ref="AD4" ca="1" si="8">AC4/AB4</f>
+        <v>34.549809031975968</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>51.491980124095669</v>
+      </c>
+      <c r="AF4" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>13.377389536205905</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4" ca="1" si="9">AE4-AD4</f>
+        <v>16.9421710921197</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4" ca="1" si="10">AE4-AF4</f>
+        <v>38.114590587889765</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -21927,16 +26614,160 @@
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1215</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>4294705152</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>20.095400000000001</v>
+      </c>
+      <c r="O8">
+        <v>694</v>
+      </c>
+      <c r="P8">
+        <v>7.6577999999999993E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.94205E-2</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1215</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>4294705152</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>20.134399999999999</v>
+      </c>
+      <c r="O9">
+        <v>695</v>
+      </c>
+      <c r="P9">
+        <v>7.5791800000000006E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.9307000000000001E-2</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1215</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4294705152</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>20.146799999999999</v>
+      </c>
+      <c r="O10">
+        <v>697</v>
+      </c>
+      <c r="P10">
+        <v>7.4753E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.92956E-2</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746750AF-03A7-488D-A916-DEEF3C4443E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF16117-1C59-4ACF-9793-27E48FC4E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="82">
   <si>
     <t>NVIDIA GeForce RTX 3060 Ti</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve">-cl-fast-relaxed-math -I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\spheres" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -4756,7 +4759,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Performance over Varying Resolutions</a:t>
+              <a:t>Mandelbulb Scene Performance for Varying Resolutions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4832,6 +4835,256 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{568476AC-89E1-4B7C-9C19-69D3E68752B3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A057C39E-84E0-4AD7-B85D-AACE3D934C4B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A2353463-13F2-408E-A2BD-759EF67D814C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BCDDF354-BE7A-40C1-AD20-0BFB48E0096C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8546CFBA-576D-4E33-830D-51BE9C049FE2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F73E1C7E-A068-439D-A7BE-EC329CF80CF2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -4846,6 +5099,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2144126394138621E-2"/>
+                  <c:y val="-1.7912909849999319E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4932,6 +5191,32 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Resolutions 3060TI'!$V$2:$V$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1024x576</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1280x720</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1600x900</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1920x1080</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2560x1440</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3840x2160</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB98-48A5-9FE0-B3D87D69B500}"/>
             </c:ext>
@@ -4973,6 +5258,256 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C152B0F0-C041-4AD7-BCE8-C1E3CF2BB174}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{68EF4B1B-0170-4A57-B34F-EB563A0AEF5A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD72FCD1-F675-4EFF-9EE7-AF3AA36CDAA5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D377ABB6-401B-4D0F-9459-6E9BC2BEDF6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2AB8D6DC-8693-4E5C-BEDB-FCBD28DC5A56}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE26569A-25B2-417E-86AB-E8D04723E88D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -4987,6 +5522,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4510290250985708E-2"/>
+                  <c:y val="-1.030013735329716E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5073,6 +5614,32 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Resolutions 1660TI'!$V$2:$V$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1024x576</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1280x720</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1600x900</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1920x1080</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2560x1440</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3840x2160</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-722F-4C9E-80B3-79319AAA8A21}"/>
             </c:ext>
@@ -5114,6 +5681,256 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{162524D2-9AD1-4C83-959B-EB9802170EEE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14E7288F-DA85-4B89-995B-FDCD81B13A53}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5E91968D-0071-4627-A7EC-0231ADCF8768}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CCC3E30D-8FC7-4010-911F-3FC87BB7B498}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F90A12BB-8E67-496E-B658-4DE25938F6FD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B6C7CD42-118F-4F17-83E8-9817BF3B2C7B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-4F8A-451F-B6A4-D0AD52F7F864}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -5128,6 +5945,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8547557331731048E-2"/>
+                  <c:y val="1.1285817252118097E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5214,6 +6037,32 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Resolutions 970 ME'!$V$2:$V$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1024x576</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1280x720</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1600x900</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1920x1080</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2560x1440</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3840x2160</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-89E5-4AA9-9B65-FFCF79566B08}"/>
             </c:ext>
@@ -5221,7 +6070,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -11353,16 +12202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>62193</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>429185</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11392,15 +12241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>290232</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>366432</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>156603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11695,8 +12544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="AR24:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN56" sqref="AN56"/>
+    <sheetView tabSelected="1" topLeftCell="P28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM42" sqref="AM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12609,8 +13458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D811C00-07CB-4F03-B932-655B80B938E4}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q19"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12649,7 +13498,7 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -12751,6 +13600,10 @@
       <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(D2,"x",E2)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -12805,9 +13658,9 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+        <v>1024x576</v>
       </c>
       <c r="W2">
         <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
@@ -12859,6 +13712,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">_xlfn.CONCAT(D3,"x",E3)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -12907,60 +13764,64 @@
       <c r="Q3">
         <v>9.1927999999999992E-3</v>
       </c>
-      <c r="V3" s="4">
-        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V7" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>1280x720</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="W3:W7" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
         <v>921600</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="X3:X7" ca="1" si="3">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
         <v>38</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <f t="shared" ref="Y3:Y7" si="4">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z7" si="4">L3/1000</f>
+        <f t="shared" ref="Z3:Z7" si="5">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA7" si="5">M3/1000</f>
+        <f t="shared" ref="AA3:AA7" si="6">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB3" s="4">
-        <f t="shared" ref="AB3:AB7" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB3:AB7" ca="1" si="7">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
         <v>90.146900000000002</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC7" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC3:AC7" ca="1" si="8">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
         <v>4019</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD7" ca="1" si="8">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD7" ca="1" si="9">AC3/AB3</f>
         <v>44.58278654063534</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE3:AE7" ca="1" si="10">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>78.37850547865753</v>
       </c>
       <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF7" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF3:AF7" ca="1" si="11">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
         <v>28.636064259328197</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG7" ca="1" si="11">AE3-AD3</f>
+        <f t="shared" ref="AG3:AG7" ca="1" si="12">AE3-AD3</f>
         <v>33.795718938022191</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" ca="1" si="12">AE3-AF3</f>
+        <f t="shared" ref="AH3:AH7" ca="1" si="13">AE3-AF3</f>
         <v>49.742441219329336</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>1024x576</v>
+      </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -13009,60 +13870,64 @@
       <c r="Q4">
         <v>9.5145999999999998E-3</v>
       </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1600x900</v>
       </c>
       <c r="W4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1440000</v>
       </c>
       <c r="X4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>90.149499999999989</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2943</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>32.645771745822223</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>57.495055425233431</v>
       </c>
       <c r="AF4" s="4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>19.815988728665612</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>24.849283679411208</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>37.679066696567816</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -13111,60 +13976,64 @@
       <c r="Q5">
         <v>1.25728E-2</v>
       </c>
-      <c r="V5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1920x1080</v>
       </c>
       <c r="W5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>90.244</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2297</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>25.453215726253269</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>45.128390270319052</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>15.861535142817264</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>19.675174544065783</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>29.266855127501788</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -13213,60 +14082,64 @@
       <c r="Q6">
         <v>1.25732E-2</v>
       </c>
-      <c r="V6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2560x1440</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3686400</v>
       </c>
       <c r="X6">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>90.482900000000001</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1517</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>16.765598803751868</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>30.171919597868651</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10.137135164505429</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>13.406320794116784</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>20.034784433363221</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -13317,60 +14190,64 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3840x2160</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8294400</v>
       </c>
       <c r="X7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>90.739699999999999</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>828</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.1250026173769587</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16.152009794578738</v>
       </c>
       <c r="AF7" s="4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5.4994308089112778</v>
       </c>
       <c r="AG7">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>7.0270071772017797</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>10.652578985667461</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -13432,6 +14309,10 @@
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -13493,6 +14374,10 @@
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -13554,6 +14439,10 @@
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -13612,6 +14501,10 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -13670,6 +14563,10 @@
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -13728,6 +14625,10 @@
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -13778,6 +14679,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -13828,6 +14733,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -13877,7 +14786,11 @@
         <v>3.3143400000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -13927,7 +14840,11 @@
         <v>6.1911800000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -13977,7 +14894,11 @@
         <v>6.1569199999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -14037,8 +14958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FDBFBA-A177-4A15-AAD1-5E104CD34D5D}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14077,7 +14998,7 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -14179,6 +15100,10 @@
       <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(D2,"x",E2)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -14233,9 +15158,9 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+        <v>1024x576</v>
       </c>
       <c r="W2">
         <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
@@ -14287,6 +15212,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">_xlfn.CONCAT(D3,"x",E3)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -14335,60 +15264,64 @@
       <c r="Q3">
         <v>1.8602199999999999E-2</v>
       </c>
-      <c r="V3" s="4">
-        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V7" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>1280x720</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="W3:W7" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
         <v>921600</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="X3:X7" ca="1" si="3">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
         <v>24</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <f t="shared" ref="Y3:Y7" si="4">K3/1000000000</f>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:AA7" si="4">L3/1000</f>
+        <f t="shared" ref="Z3:AA7" si="5">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB3" s="4">
-        <f t="shared" ref="AB3:AB7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB3:AB7" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
         <v>90.474599999999995</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC3:AC7" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
         <v>1758</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD7" ca="1" si="7">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD7" ca="1" si="8">AC3/AB3</f>
         <v>19.430867889993436</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>37.858997948042308</v>
       </c>
       <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF3:AF7" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
         <v>10.208946508182981</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG7" ca="1" si="10">AE3-AD3</f>
+        <f t="shared" ref="AG3:AG7" ca="1" si="11">AE3-AD3</f>
         <v>18.428130058048872</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" ca="1" si="11">AE3-AF3</f>
+        <f t="shared" ref="AH3:AH7" ca="1" si="12">AE3-AF3</f>
         <v>27.650051439859325</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>1024x576</v>
+      </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -14437,60 +15370,64 @@
       <c r="Q4">
         <v>1.8528200000000002E-2</v>
       </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1600x900</v>
       </c>
       <c r="W4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1440000</v>
       </c>
       <c r="X4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>90.594099999999997</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1239</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>13.676387314405684</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>26.620595289751872</v>
       </c>
       <c r="AF4" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>7.0163129275565685</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>12.944207975346188</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>19.604282362195303</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -14539,60 +15476,64 @@
       <c r="Q5">
         <v>2.63871E-2</v>
       </c>
-      <c r="V5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1920x1080</v>
       </c>
       <c r="W5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>90.88</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>941</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.35431338028169</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>20.207613016127699</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>5.3266288831124564</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9.8532996358460085</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>14.880984133015243</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -14641,60 +15582,64 @@
       <c r="Q6">
         <v>2.6413800000000001E-2</v>
       </c>
-      <c r="V6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2560x1440</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3686400</v>
       </c>
       <c r="X6">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>90.966399999999993</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>606</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>6.6618004010271932</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>13.114650901107662</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>3.3799427437699205</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6.4528505000804692</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>9.7347081573377423</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -14745,60 +15690,64 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3840x2160</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8294400</v>
       </c>
       <c r="X7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>92.538600000000002</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>331</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.5768857536206511</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>7.0675873377105258</v>
       </c>
       <c r="AF7" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1.8161048546298868</v>
       </c>
       <c r="AG7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3.4907015840898747</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5.2514824830806388</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -14860,6 +15809,10 @@
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -14921,6 +15874,10 @@
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -14982,6 +15939,10 @@
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -15040,6 +16001,10 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -15098,6 +16063,10 @@
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -15156,6 +16125,10 @@
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -15206,6 +16179,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -15256,6 +16233,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -15305,7 +16286,11 @@
         <v>7.6250600000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -15355,7 +16340,11 @@
         <v>0.14074400000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -15405,7 +16394,11 @@
         <v>0.14138200000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -15465,8 +16458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34151026-92BE-4E45-B64A-8BFC36898D47}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q19"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15505,7 +16498,7 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -15607,6 +16600,10 @@
       <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(D2,"x",E2)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -15661,9 +16658,9 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+        <v>1024x576</v>
       </c>
       <c r="W2">
         <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
@@ -15715,6 +16712,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">_xlfn.CONCAT(D3,"x",E3)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -15763,60 +16764,64 @@
       <c r="Q3">
         <v>3.4477899999999999E-2</v>
       </c>
-      <c r="V3" s="4">
-        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V7" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>1280x720</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="W3:W7" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
         <v>921600</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="X3:X7" ca="1" si="3">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
         <v>13</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <f t="shared" ref="Y3:Y7" si="4">K3/1000000000</f>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:AA7" si="4">L3/1000</f>
+        <f t="shared" ref="Z3:AA7" si="5">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB3" s="4">
-        <f t="shared" ref="AB3:AB7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB3:AB7" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
         <v>91.046499999999995</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC3:AC7" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
         <v>843</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD7" ca="1" si="7">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD7" ca="1" si="8">AC3/AB3</f>
         <v>9.2590050139214579</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>20.31719200152785</v>
       </c>
       <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF3:AF7" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
         <v>3.1257032832387286</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG7" ca="1" si="10">AE3-AD3</f>
+        <f t="shared" ref="AG3:AG7" ca="1" si="11">AE3-AD3</f>
         <v>11.058186987606392</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" ca="1" si="11">AE3-AF3</f>
+        <f t="shared" ref="AH3:AH7" ca="1" si="12">AE3-AF3</f>
         <v>17.191488718289122</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>1024x576</v>
+      </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -15865,60 +16870,64 @@
       <c r="Q4">
         <v>3.4729299999999998E-2</v>
       </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1600x900</v>
       </c>
       <c r="W4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1440000</v>
       </c>
       <c r="X4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>91.952100000000002</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>601</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>6.5360116843443485</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>14.12048444558036</v>
       </c>
       <c r="AF4" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>2.1462359314234694</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7.584472761236011</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>11.974248514156891</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -15967,60 +16976,64 @@
       <c r="Q5">
         <v>4.9219400000000003E-2</v>
       </c>
-      <c r="V5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1920x1080</v>
       </c>
       <c r="W5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>92.967199999999991</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>461</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4.9587381356005134</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>10.639452366107811</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1.6118217454095318</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5.6807142305072977</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>9.0276306206982788</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -16069,60 +17082,64 @@
       <c r="Q6">
         <v>4.9014599999999998E-2</v>
       </c>
-      <c r="V6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2560x1440</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3686400</v>
       </c>
       <c r="X6">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>95.537399999999991</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>306</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.2029341388817367</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6.8243547572577015</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1.0508396208570647</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3.6214206183759647</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5.7735151364006363</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -16173,60 +17190,64 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3840x2160</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8294400</v>
       </c>
       <c r="X7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>94.522799999999989</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>177</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.8725640797775778</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3.6806925591119226</v>
       </c>
       <c r="AF7" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.9867966606801003</v>
       </c>
       <c r="AG7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1.8081284793343448</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2.6938958984318222</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -16288,6 +17309,10 @@
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -16349,6 +17374,10 @@
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -16410,6 +17439,10 @@
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -16468,6 +17501,10 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -16526,6 +17563,10 @@
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -16584,6 +17625,10 @@
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -16634,6 +17679,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16684,6 +17733,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -16733,7 +17786,11 @@
         <v>0.146534</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -16783,7 +17840,11 @@
         <v>0.27085799999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -16833,7 +17894,11 @@
         <v>0.27144699999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -16893,8 +17958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A257A558-688E-43F1-9D27-FDF623F82362}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16933,7 +17998,7 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -17035,6 +18100,10 @@
       <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(D2,"x",E2)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -17089,9 +18158,9 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="4" t="str">
         <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+        <v>1024x576</v>
       </c>
       <c r="W2">
         <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
@@ -17143,6 +18212,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">_xlfn.CONCAT(D3,"x",E3)</f>
+        <v>1024x576</v>
+      </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -17191,60 +18264,64 @@
       <c r="Q3">
         <v>3.2557799999999998E-2</v>
       </c>
-      <c r="V3" s="4">
-        <f t="shared" ref="V3:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V7" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>1280x720</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W7" ca="1" si="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="W3:W7" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
         <v>921600</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X7" ca="1" si="2">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <f t="shared" ref="X3:X7" ca="1" si="3">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
         <v>13</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y7" si="3">K3/1000000000</f>
+        <f t="shared" ref="Y3:Y7" si="4">K3/1000000000</f>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:AA7" si="4">L3/1000</f>
+        <f t="shared" ref="Z3:AA7" si="5">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB3" s="4">
-        <f t="shared" ref="AB3:AB7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB3:AB7" ca="1" si="6">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
         <v>90.828299999999999</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC3:AC7" ca="1" si="7">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
         <v>983</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD7" ca="1" si="7">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD7" ca="1" si="8">AC3/AB3</f>
         <v>10.822618060670518</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>21.540907259931974</v>
       </c>
       <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF3:AF7" ca="1" si="10">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
         <v>5.737596750225201</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG7" ca="1" si="10">AE3-AD3</f>
+        <f t="shared" ref="AG3:AG7" ca="1" si="11">AE3-AD3</f>
         <v>10.718289199261456</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" ca="1" si="11">AE3-AF3</f>
+        <f t="shared" ref="AH3:AH7" ca="1" si="12">AE3-AF3</f>
         <v>15.803310509706773</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>1024x576</v>
+      </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -17293,60 +18370,64 @@
       <c r="Q4">
         <v>3.2745099999999999E-2</v>
       </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1600x900</v>
       </c>
       <c r="W4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1440000</v>
       </c>
       <c r="X4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>91.203800000000001</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>690</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>7.5654742455906439</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>15.094954813252768</v>
       </c>
       <c r="AF4" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>3.9262955793838072</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7.5294805676621239</v>
       </c>
       <c r="AH4">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>11.168659233868961</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -17395,60 +18476,64 @@
       <c r="Q5">
         <v>4.60531E-2</v>
       </c>
-      <c r="V5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1920x1080</v>
       </c>
       <c r="W5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2073600</v>
       </c>
       <c r="X5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>91.49799999999999</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>522</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.705042733174496</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>11.481398985503585</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>2.9662412088026171</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5.776356252329089</v>
       </c>
       <c r="AH5">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>8.515157776700967</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -17497,60 +18582,64 @@
       <c r="Q6">
         <v>4.6423300000000001E-2</v>
       </c>
-      <c r="V6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2560x1440</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3686400</v>
       </c>
       <c r="X6">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>91.784800000000004</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>336</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.6607368540324758</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>7.3815991496397775</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1.8786857465991094</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3.7208622956073016</v>
       </c>
       <c r="AH6">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5.5029134030406679</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>1280x720</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -17601,60 +18690,64 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="V7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3840x2160</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8294400</v>
       </c>
       <c r="X7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>97.433499999999995</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>181</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.857677287585892</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3.995189791491045</v>
       </c>
       <c r="AF7" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.50941137515600721</v>
       </c>
       <c r="AG7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2.1375125039051532</v>
       </c>
       <c r="AH7">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>3.4857784163350378</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -17716,6 +18809,10 @@
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -17777,6 +18874,10 @@
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>1600x900</v>
+      </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -17838,6 +18939,10 @@
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -17896,6 +19001,10 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -17954,6 +19063,10 @@
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>1920x1080</v>
+      </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -18012,6 +19125,10 @@
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -18062,6 +19179,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -18112,6 +19233,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>2560x1440</v>
+      </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -18161,7 +19286,11 @@
         <v>0.13547200000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -18211,7 +19340,11 @@
         <v>0.249779</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -18261,7 +19394,11 @@
         <v>0.25001000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>3840x2160</v>
+      </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC5D140-B68D-45EB-ACF9-32333FFD89B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EFB985-7607-4715-AF42-DBA193EB7DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="83">
   <si>
     <t>NVIDIA GeForce RTX 3060 Ti</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t xml:space="preserve">-I "kernels" -I "kernels\benchmarks" -I "kernels\benchmarks\mandelbulb" -I "kernels\benchmarks\mandelbulb_stationary" -I "kernels\benchmarks\planet" -I "kernels\benchmarks\sierpinski" -I "kernels\benchmarks\spheres" -I "kernels\benchmarks\trivial" -I "kernels\include" -I "kernels/include" </t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>PIXELS</t>
+  </si>
+  <si>
+    <t>MEAN FRAME TIME</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{613A96B8-3358-4A4C-AC1C-8531E8A00FE5}" type="CELLRANGE">
+                    <a:fld id="{3D6F9BB8-9A41-445A-BF30-052AAA83D940}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1766,7 +1775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBCF8273-8374-42A4-8FC3-B4BA3D98E94A}" type="CELLRANGE">
+                    <a:fld id="{DB9701D6-CAD2-40BD-99A2-4DEA1A412BB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2385,7 +2394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2F57546-E420-4337-8684-07329C67513E}" type="CELLRANGE">
+                    <a:fld id="{4D24686B-579D-4DFA-8E35-F59B3A214204}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2417,7 +2426,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C553A20-42ED-4C44-A2DD-B45D4DF80453}" type="CELLRANGE">
+                    <a:fld id="{7988DA27-8451-4433-AD18-43790807624D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2450,7 +2459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D12D41E-906A-458D-A139-71D993A6E642}" type="CELLRANGE">
+                    <a:fld id="{C81D0D0A-D0B1-4690-966E-7850142402C4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2483,7 +2492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{402CDCAE-079D-43F5-86F8-66C0B58F6CC1}" type="CELLRANGE">
+                    <a:fld id="{D4D7EC2D-5DEB-4E65-BD0C-312890E6D46F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2516,7 +2525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9C265C1-EB48-49CF-949C-88F6CCF46510}" type="CELLRANGE">
+                    <a:fld id="{3F8C61A3-0853-4545-B7F2-8359E80B9BF9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2549,7 +2558,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AACF1E7E-C8F5-4D92-B90D-6ADF8DD226EC}" type="CELLRANGE">
+                    <a:fld id="{A17ED804-A2BE-418E-9161-8A8598824EA8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2813,7 +2822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D816D9C8-A99B-42E0-831C-F3E4EB0BA762}" type="CELLRANGE">
+                    <a:fld id="{AA5BF822-A22A-4A8C-B7D3-0C8107F9F92A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2845,7 +2854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED101CF0-9188-4B4B-BE4C-9252FAE131E2}" type="CELLRANGE">
+                    <a:fld id="{9D0D517C-6271-4C06-B6E7-1BE2DDE08EA3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2878,7 +2887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1692728-C273-4B2C-865A-E06BEBBD35F5}" type="CELLRANGE">
+                    <a:fld id="{47586ACC-776C-42BF-9176-F6F872C10D0E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2911,7 +2920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41D8E36B-0F8A-4302-885D-3C7D174B90E1}" type="CELLRANGE">
+                    <a:fld id="{681EB429-75ED-4E8E-A281-0FB2FF32F88B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2944,7 +2953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEECC7A1-B253-4298-894C-B267950483BB}" type="CELLRANGE">
+                    <a:fld id="{A1321781-473A-4534-88EA-8C2BC6F81A9D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2977,7 +2986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE6771D5-3330-44CF-9FBB-744A0A750735}" type="CELLRANGE">
+                    <a:fld id="{B1A5C08C-8AC4-4D28-8E91-1E9A6712B698}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3649,7 +3658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{533BFC15-010F-41B9-B4E1-EE749C3EBBE9}" type="CELLRANGE">
+                    <a:fld id="{8DC325E9-42C1-4E20-A311-C9BBB46CBFE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3681,7 +3690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5535CDC-5D39-4637-9BD5-4588D0B4A2B8}" type="CELLRANGE">
+                    <a:fld id="{36479873-F4B1-49F1-BB94-E553C266CB64}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3714,7 +3723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56F81234-8E3A-4695-9F91-9D928FB3DE7A}" type="CELLRANGE">
+                    <a:fld id="{4998DECF-469E-45F9-A63C-3C373DFEFB4D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3747,7 +3756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7325CF2-45A7-4B7B-B949-770CB60001FB}" type="CELLRANGE">
+                    <a:fld id="{4EB5D302-85AB-43E5-828E-A7AA92929383}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3780,7 +3789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6031D4E1-2FA8-483B-96C6-82CD52DD255C}" type="CELLRANGE">
+                    <a:fld id="{8B70F612-B948-4102-999A-9941F4F96132}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3813,7 +3822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08A91DB4-51C1-4A92-9481-E638DD40C155}" type="CELLRANGE">
+                    <a:fld id="{D9089EC6-D4EE-4645-9A36-75CA0893C0B9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4777,7 +4786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2700210B-1744-4057-B9D7-3514598884AB}" type="CELLRANGE">
+                    <a:fld id="{DACA2E9E-818A-48BE-96FA-CF3F53AB434F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4786,7 +4795,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A22BD917-0FFA-4771-9B0C-8BDDE6F8A8F5}" type="YVALUE">
+                    <a:fld id="{486EF803-C502-4E91-A616-0C8CAE3FA1FA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -4819,7 +4828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A16C4F5F-E379-497A-BBC6-4749F9A5D692}" type="CELLRANGE">
+                    <a:fld id="{B8BCF3F4-BD95-4876-B3B6-20A6EE52BC08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4828,7 +4837,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EAED343B-C6E1-4C48-A515-182A5AC514C9}" type="YVALUE">
+                    <a:fld id="{81C59E2E-2DC9-4E05-8E57-5E952C4AD1E4}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -4861,7 +4870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED2E9451-740A-427E-A720-32A04B55B80C}" type="CELLRANGE">
+                    <a:fld id="{EF58C59A-CDED-4EBB-BD77-1524304FFF56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4870,7 +4879,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{98D6B2EC-9652-4E64-AF16-3590F6EAAF16}" type="YVALUE">
+                    <a:fld id="{7D16B6E0-44CA-4E10-8918-5E748E6F3C91}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -4903,7 +4912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{656CBAD2-9BC3-40CA-9D11-A4468E218ACA}" type="CELLRANGE">
+                    <a:fld id="{18496B13-2B28-4649-888F-AA0495753289}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4912,7 +4921,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7A0146E4-7712-45BC-9788-6CD0CEE63E38}" type="YVALUE">
+                    <a:fld id="{42C46649-58A4-4C84-8E3B-DC7278014F3E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -4945,7 +4954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E96543A-1B60-41DA-A96A-8581C0C47840}" type="CELLRANGE">
+                    <a:fld id="{8A0FF780-A894-4555-B5F8-53E89C5D9C58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4954,7 +4963,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{08AB2F37-A3A6-4C73-BB5D-31DE97100639}" type="YVALUE">
+                    <a:fld id="{A87DAF9D-C24F-410F-A951-174BA5E08ACE}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -4987,7 +4996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{656049AC-0663-4C70-8CA2-08EEA06E37F5}" type="CELLRANGE">
+                    <a:fld id="{22A926B0-85CA-48FD-8F0E-98BDD6693DA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4996,7 +5005,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A642C1D6-9F2B-436C-8F34-23496A181207}" type="YVALUE">
+                    <a:fld id="{A6DD0D7F-CF63-4BA9-AC8C-FCFD5E9F0E11}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -5260,7 +5269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82DB1AFE-4753-4A22-8CA7-026C804C9894}" type="CELLRANGE">
+                    <a:fld id="{9DB8BC60-3C40-4ADD-A8FD-E31EFF17F80D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5269,7 +5278,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A8B9511A-E397-4E99-A003-C10ECE2952BE}" type="YVALUE">
+                    <a:fld id="{C15A7937-059C-498B-A701-DF6B45B3759C}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -5302,7 +5311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF709534-8B09-4D9E-A093-605E3EB8D053}" type="CELLRANGE">
+                    <a:fld id="{648E5D45-339D-422D-8D75-7DAD15B5E2F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5311,7 +5320,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C10B2B4E-641D-4A14-9A05-502DCCF6F242}" type="YVALUE">
+                    <a:fld id="{C16EFF4D-630C-494F-A17F-C58E22DD7CA4}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -5344,7 +5353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{659F887A-8D0E-477D-A59C-F0F5FA098C13}" type="CELLRANGE">
+                    <a:fld id="{A6ADD70D-0269-432A-BFF2-4BF4DE741477}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5353,7 +5362,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9F17D01F-3F7A-421E-A310-2DAC64EBF6AD}" type="YVALUE">
+                    <a:fld id="{46E4F083-7508-484E-BD46-DD6D6F0A136F}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -5386,7 +5395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FF35F33-E730-401E-A331-61BC2CC7342E}" type="CELLRANGE">
+                    <a:fld id="{ACBA00ED-ACC8-4F7E-877D-AE21FB446BB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5395,7 +5404,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{00767E0F-3624-4C61-BE03-1D6CF8921762}" type="YVALUE">
+                    <a:fld id="{F644D492-DA9C-4F14-9669-DDC668E12920}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -5428,7 +5437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BFB04E9-EE07-4F06-9D02-3D0D1A88BC3D}" type="CELLRANGE">
+                    <a:fld id="{71272D61-EC20-4AD4-8642-9FC0F2E2D7F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5437,7 +5446,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B121A907-7A59-404E-99AF-AC5D4A1CD35B}" type="YVALUE">
+                    <a:fld id="{2810206B-9A6D-45FD-8B68-C61672E29A74}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -5470,7 +5479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D38C64A-17F0-4E68-BA03-290C995803D9}" type="CELLRANGE">
+                    <a:fld id="{4E6BD8D4-B4DF-4BE1-8682-912C27B33C28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5479,7 +5488,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{380F62D1-51B8-408C-A011-7900A3DA2813}" type="YVALUE">
+                    <a:fld id="{C35A069B-558B-47CC-87B0-8ED488D20B60}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6151,7 +6160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B4E5D0D-2A95-4B09-8224-64F48BCD8A3E}" type="CELLRANGE">
+                    <a:fld id="{8033CC30-2F82-45DA-A735-0FF739821C97}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6160,7 +6169,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BF7146D8-5127-4F76-A17E-35347CBEED5D}" type="YVALUE">
+                    <a:fld id="{7189F908-A807-4160-B3DD-54521129403E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6193,7 +6202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE1A070C-764D-4106-B49E-C67A26F44DF9}" type="CELLRANGE">
+                    <a:fld id="{C7EC7CDC-BC2C-4818-8222-E23B3198F2B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6202,7 +6211,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3C3E81C6-6263-4174-AFC3-82661BD6A73B}" type="YVALUE">
+                    <a:fld id="{C452EE1C-DBE6-4147-91E6-D6B6C6A29A28}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6235,7 +6244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9CD4112-D32A-4A45-B028-82DCA43AC62A}" type="CELLRANGE">
+                    <a:fld id="{F3A93F32-42ED-45D7-9980-EB60F6ABC309}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6244,7 +6253,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BC5D8E18-17DA-4297-9064-659518B6009E}" type="YVALUE">
+                    <a:fld id="{89CB92BC-D28E-4F62-A804-8296A06AF8A0}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6277,7 +6286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA28F2FE-DD23-423C-B541-9448383EE01F}" type="CELLRANGE">
+                    <a:fld id="{EB786E02-653B-42AB-AC5E-E30CCE966BF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6286,7 +6295,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{395ED065-431B-4CF9-9EEA-09B2B8829190}" type="YVALUE">
+                    <a:fld id="{CBE2177D-C35C-4561-AE89-2116D5012405}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6319,7 +6328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E79C209-C04C-40C2-9AA4-EBCF112EF611}" type="CELLRANGE">
+                    <a:fld id="{4D8314AB-E803-4F03-96F9-5276DB7C3B92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6328,7 +6337,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EDAC8F37-C7DC-4954-9B4A-A8BAA6701B62}" type="YVALUE">
+                    <a:fld id="{CEA61EFE-E156-4848-A2CB-E2B194C1022F}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6361,7 +6370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10B576A4-628F-4DDB-B751-8D5E8F18528F}" type="CELLRANGE">
+                    <a:fld id="{26D7E95C-A1CA-4E30-A7B8-A8DE5556E099}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6370,7 +6379,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A6F4E0F3-2D3D-430A-8EAE-C5C33E0F2F03}" type="YVALUE">
+                    <a:fld id="{17921781-0CBE-4FD8-8FF2-FC5F0A74E56E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6634,7 +6643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A88A5F9-6A4F-4884-BBC6-9034A59F1387}" type="CELLRANGE">
+                    <a:fld id="{EE040024-87C5-4505-84C9-0703A7E8A3B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6643,7 +6652,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4BC32143-72F3-4E6E-A44D-27531B4C0AEA}" type="YVALUE">
+                    <a:fld id="{6EE5987C-418F-439E-AECB-D3E08D9D81FB}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6676,7 +6685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{212A351F-4F1F-4AC6-B975-F353B19CA548}" type="CELLRANGE">
+                    <a:fld id="{80DA68E4-858B-47BB-9A94-71B75E689925}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6685,7 +6694,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{669D6EAA-CBED-4E0F-BC76-1694C9328BC9}" type="YVALUE">
+                    <a:fld id="{8EE1B519-B269-4C75-87E1-307F4A6983A2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6718,7 +6727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A50C7923-2759-4EA2-9829-5769027ECD9E}" type="CELLRANGE">
+                    <a:fld id="{8D257492-AFCB-49A9-A4BB-4D73AED91CA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6727,7 +6736,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CAC4ABE4-6197-4C1C-8E14-6491D11B834D}" type="YVALUE">
+                    <a:fld id="{225179DE-8369-4BF8-9ACB-CD95B7AD8CEA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6760,7 +6769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{231BF9B3-D84F-47CF-8DF4-5CA7A11CEE4D}" type="CELLRANGE">
+                    <a:fld id="{3DC80038-BCAF-483C-A8D6-B71C2AA49E2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6769,7 +6778,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{83F0FDAF-D4F6-4400-9DE4-6A74ED3ADB54}" type="YVALUE">
+                    <a:fld id="{B984EFAD-4EF4-42CC-9A7D-BDE22BB5CDD2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6802,7 +6811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A08C2BCA-68FB-4FA7-B595-EBE76F0FA86D}" type="CELLRANGE">
+                    <a:fld id="{DD88CEAB-23A0-4409-8E06-C33B8152F414}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6811,7 +6820,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6E88264E-2004-4BC6-958C-5CBFEED389AA}" type="YVALUE">
+                    <a:fld id="{91CE70DF-8E26-4A57-B1BA-8F35B48A3168}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -6844,7 +6853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDB11D34-EC67-4F3C-A583-98ED7AFD86B0}" type="CELLRANGE">
+                    <a:fld id="{9FE452B8-3C64-4BD3-9A86-86F61F6D0787}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6853,7 +6862,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{21006613-60AD-43B7-A692-DE0CF128A4E7}" type="YVALUE">
+                    <a:fld id="{20203BF8-2F3D-421B-BC3C-346EEAEA6167}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -7070,6 +7079,2760 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-47B8-431D-AAE8-6D833D67944E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1960638432"/>
+        <c:axId val="1960638016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1960638432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Pixels to</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Render</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1960638016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>SMALLPT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>smallpt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2144126394138621E-2"/>
+                  <c:y val="-1.7912909849999319E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$AK$256:$AK$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$AM$256:$AM$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14117197301525969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8600570818037544E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7937219460741214E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.021898109072429E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2625807806387885E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BCF1-493F-AE1F-A0ACAAB6F9EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1960638432"/>
+        <c:axId val="1960638016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1960638432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Pixels to</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Render</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1960638016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>SMALLPT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>smallpt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FD098E9C-D3A4-45B9-BBD6-9FAF03A53620}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{E2330D0A-B075-4734-9D6B-69B83C8C7B3A}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-27C5-4322-98B7-331A021FC0D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A40B21BB-4392-4DFE-A9DC-B0E3BA73E9DA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{47BC73F1-5A93-4BF7-95C8-7CF1E12DCE9B}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-27C5-4322-98B7-331A021FC0D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F730B320-FEC3-4C08-B722-6FC4917AA324}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{A831B398-D263-4BC4-A757-09C5C6D1C1EA}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-27C5-4322-98B7-331A021FC0D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C6A9A81-1AA6-4FA1-A69F-0F54B0C0DDEE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{D67FF74F-B993-48B8-93D0-20FA36DBF1D6}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-27C5-4322-98B7-331A021FC0D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7474F436-AF2D-46D9-A09A-56A12BCD2B60}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{CC186B02-D9EC-4A20-A45A-0D659AB41375}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-27C5-4322-98B7-331A021FC0D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2144126394138621E-2"/>
+                  <c:y val="-1.7912909849999319E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$AK$256:$AK$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$AL$256:$AL$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0835590000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.286609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.260062000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.863882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.197316999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Resolutions 970 ME'!$V$2:$V$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1024x576</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1280x720</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1600x900</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1920x1080</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2560x1440</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3840x2160</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-27C5-4322-98B7-331A021FC0D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1960638432"/>
+        <c:axId val="1960638016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1960638432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Pixels to</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Render</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1960638016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TOTAL FRAMES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960638432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mandelbulb Scene Performance for Varying Resolutions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resolutions Mandelbulb'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA GeForce RTX 3060 Ti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F7E7A7F2-77B9-4039-8628-BA8CFEE6CD9C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{5E856E46-0626-4C33-87B4-4B8361C42032}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6EA251F2-4CF1-4004-8746-584D9BF0CE03}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{15BADE91-5E06-4D7D-A4C9-4364CE394342}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{818F6261-F00D-47AF-BC33-844879FEA2D3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{04D1EEFF-F085-4558-A9E9-377612C455C4}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B82B209-13DB-4C5E-AA83-CF5C479EAB80}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{91F7D2C3-7589-4065-A2FF-F66370E65EF5}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5C20AE57-3512-41A0-8C0D-9C0FE5F17D01}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{1BBFB311-4198-47E0-8D9E-723CEFB99CAD}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E44B183-6178-4F9F-8194-C522F9CE3B0F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{C18BDC63-A06A-4CCD-9973-33195FEEB455}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2144126394138621E-2"/>
+                  <c:y val="-1.7912909849999319E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resolutions Mandelbulb'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resolutions Mandelbulb'!$AI$2:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6562591911764707E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2362276785714286E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0631409168081495E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.929621245102307E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9794907407407415E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11008070388349515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Resolutions 970 ME'!$V$2:$V$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1024x576</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1280x720</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1600x900</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1920x1080</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2560x1440</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3840x2160</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AB49-4F9B-948A-E2008547446D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resolutions Mandelbulb'!$F$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA GeForce GTX 970</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{891822FD-2AE2-4F9D-BFD7-8B3A426DB18F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{1DB9BE1A-C2D9-4054-ADAE-49F0F2E1159A}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3DCF38FF-0483-4ADF-B32A-1EC6B5186BCA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{7BD022D7-E4F8-4F60-85C4-DE224333A8FE}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2B7E31B1-A13A-451F-9DE9-A317E4B82041}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{5CEEFE26-C264-443D-852B-0B74FACDA022}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6F2F9B08-5839-430F-B436-E6565B51558E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{C660230C-E26F-4417-A65A-914B0100B9D9}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50130478-8B56-468C-B3F1-CDD29EECB34B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{A0BACFC0-C4F2-4CD7-8E7C-A5D7D6A8915E}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1F09D67F-C769-4D85-A912-A2AE64DE7921}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{98EE83A0-FFA7-411B-916C-178E203DAD86}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-AB49-4F9B-948A-E2008547446D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8547557331731048E-2"/>
+                  <c:y val="1.1285817252118097E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resolutions Mandelbulb'!$W$42:$W$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resolutions Mandelbulb'!$AI$42:$AI$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.7073851851851857E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5956388595564948E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13703298192771085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18232894211576847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28662839506172838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53562881355932213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Resolutions 970 ME'!$V$2:$V$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1024x576</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1280x720</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1600x900</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1920x1080</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2560x1440</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3840x2160</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-AB49-4F9B-948A-E2008547446D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11268,7 +14031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AA34382-6B1E-4D76-8D37-61F541B0E0BD}" type="CELLRANGE">
+                    <a:fld id="{391C3478-2D19-48BB-9D48-BBD6CBBDEAFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11300,7 +14063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D765FFE2-14D3-43A0-941D-E52FA84A8CC2}" type="CELLRANGE">
+                    <a:fld id="{DCCFF093-F732-468D-AFBD-DA0644963194}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11333,7 +14096,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7AA156F-07A3-43B8-AAF3-9982BFD528A6}" type="CELLRANGE">
+                    <a:fld id="{821EC160-4808-453B-AB85-3F0712053321}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11366,7 +14129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E1A3836-1E10-42B6-858D-EECB3F064651}" type="CELLRANGE">
+                    <a:fld id="{7E04F33A-610F-40DC-9BBD-F3D5F678C15D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11399,7 +14162,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{280BB726-B2C1-45EC-911A-EAAC6D23722B}" type="CELLRANGE">
+                    <a:fld id="{486021C7-8048-4E42-B864-4E0707984E24}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11432,7 +14195,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA81A900-DD7A-45D9-8716-516324DDF9EC}" type="CELLRANGE">
+                    <a:fld id="{7B8CE322-4B6D-44FB-BEC4-CDD1FC772DFB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11696,7 +14459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9454E59-50E9-441C-A531-3187B44994D2}" type="CELLRANGE">
+                    <a:fld id="{924FDD2F-7C43-4677-A2FA-46CCBE352FEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11728,7 +14491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17702E36-0F01-493B-9F3A-4DFAA9D7510A}" type="CELLRANGE">
+                    <a:fld id="{FD05EC3F-C775-4053-BD92-46F5BFEB409B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11761,7 +14524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76DB5352-BB46-4E21-A0E7-7F626973565C}" type="CELLRANGE">
+                    <a:fld id="{D82BFF6A-8085-4B94-A4C5-2DBB4D2EACB2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11794,7 +14557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{162C5D34-5BD6-4AAE-803B-0695DB4A717C}" type="CELLRANGE">
+                    <a:fld id="{36739E8F-5D06-4967-908C-04F8F0BD9E68}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11827,7 +14590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F68B45DC-63B1-4896-8979-5B8D40BBD1F5}" type="CELLRANGE">
+                    <a:fld id="{4A0F0BF1-72CE-4471-B5BE-87E190E6DD64}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11860,7 +14623,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7560FCDE-CAAE-4EDB-B6D7-9504A272BB34}" type="CELLRANGE">
+                    <a:fld id="{3E3170B0-CC63-45DB-AF5C-0BA180FBB2BD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13263,6 +16026,126 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16706,6 +19589,1554 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21550,16 +25981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>252693</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158004</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>14568</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>574862</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>81804</xdr:rowOff>
+      <xdr:rowOff>137834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21779,15 +26210,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>109257</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>58271</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>602316</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>147918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21817,15 +26248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>288550</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>24653</xdr:rowOff>
+      <xdr:colOff>176491</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21847,6 +26278,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>400609</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96508EAB-2FA1-4662-9608-846284D3CF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>198904</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123D4B4C-7651-46B7-BF8D-6A0407CF4666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>310963</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C713E747-28D2-4D47-913C-1CC905D485FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22118,10 +26663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
-  <dimension ref="AR24:AV28"/>
+  <dimension ref="AI24:AV260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM162" sqref="AM162"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22228,6 +26773,109 @@
       <c r="AV28">
         <f ca="1">'Planet Optimisations'!$AH$6</f>
         <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="35:39" x14ac:dyDescent="0.25">
+      <c r="AK255" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="35:39" x14ac:dyDescent="0.25">
+      <c r="AI256">
+        <v>1024</v>
+      </c>
+      <c r="AJ256">
+        <v>576</v>
+      </c>
+      <c r="AK256">
+        <f>AI256*AJ256</f>
+        <v>589824</v>
+      </c>
+      <c r="AL256">
+        <v>7.0835590000000002</v>
+      </c>
+      <c r="AM256">
+        <f>1/AL256</f>
+        <v>0.14117197301525969</v>
+      </c>
+    </row>
+    <row r="257" spans="35:39" x14ac:dyDescent="0.25">
+      <c r="AI257">
+        <v>1280</v>
+      </c>
+      <c r="AJ257">
+        <v>720</v>
+      </c>
+      <c r="AK257">
+        <f t="shared" ref="AK257:AK260" si="0">AI257*AJ257</f>
+        <v>921600</v>
+      </c>
+      <c r="AL257">
+        <v>11.286609</v>
+      </c>
+      <c r="AM257">
+        <f t="shared" ref="AM257:AM260" si="1">1/AL257</f>
+        <v>8.8600570818037544E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="35:39" x14ac:dyDescent="0.25">
+      <c r="AI258">
+        <v>1600</v>
+      </c>
+      <c r="AJ258">
+        <v>900</v>
+      </c>
+      <c r="AK258">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+      <c r="AL258">
+        <v>17.260062000000001</v>
+      </c>
+      <c r="AM258">
+        <f t="shared" si="1"/>
+        <v>5.7937219460741214E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="35:39" x14ac:dyDescent="0.25">
+      <c r="AI259">
+        <v>1920</v>
+      </c>
+      <c r="AJ259">
+        <v>1080</v>
+      </c>
+      <c r="AK259">
+        <f t="shared" si="0"/>
+        <v>2073600</v>
+      </c>
+      <c r="AL259">
+        <v>24.863882</v>
+      </c>
+      <c r="AM259">
+        <f t="shared" si="1"/>
+        <v>4.021898109072429E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="35:39" x14ac:dyDescent="0.25">
+      <c r="AI260">
+        <v>2560</v>
+      </c>
+      <c r="AJ260">
+        <v>1440</v>
+      </c>
+      <c r="AK260">
+        <f t="shared" si="0"/>
+        <v>3686400</v>
+      </c>
+      <c r="AL260">
+        <v>44.197316999999998</v>
+      </c>
+      <c r="AM260">
+        <f t="shared" si="1"/>
+        <v>2.2625807806387885E-2</v>
       </c>
     </row>
   </sheetData>
@@ -22890,8 +27538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D811C00-07CB-4F03-B932-655B80B938E4}">
   <dimension ref="A1:AM59"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:Q59"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23027,7 +27675,9 @@
       <c r="AH1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="6"/>
+      <c r="AI1" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
@@ -23144,6 +27794,10 @@
         <f ca="1">AE2-AF2</f>
         <v>67.752908765207778</v>
       </c>
+      <c r="AI2">
+        <f ca="1">AB2/AC2</f>
+        <v>1.6562591911764707E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
@@ -23250,6 +27904,10 @@
         <f t="shared" ref="AH3:AH7" ca="1" si="13">AE3-AF3</f>
         <v>51.121608624074796</v>
       </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI47" ca="1" si="14">AB3/AC3</f>
+        <v>2.2362276785714286E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
@@ -23356,6 +28014,10 @@
         <f t="shared" ca="1" si="13"/>
         <v>37.258817284115963</v>
       </c>
+      <c r="AI4">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.0631409168081495E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -23462,6 +28124,10 @@
         <f t="shared" ca="1" si="13"/>
         <v>29.095369638048361</v>
       </c>
+      <c r="AI5">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.929621245102307E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
@@ -23568,6 +28234,10 @@
         <f t="shared" ca="1" si="13"/>
         <v>19.990159368450389</v>
       </c>
+      <c r="AI6">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.9794907407407415E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
@@ -23657,7 +28327,7 @@
         <v>824</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">AC7/AB7</f>
         <v>9.0842442382850184</v>
       </c>
       <c r="AE7" s="4">
@@ -23675,6 +28345,10 @@
       <c r="AH7">
         <f t="shared" ca="1" si="13"/>
         <v>10.585990301176635</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11008070388349515</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -24220,7 +28894,7 @@
         <v>3.30031E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>3840x2160</v>
@@ -24274,7 +28948,7 @@
         <v>6.2118199999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>3840x2160</v>
@@ -24328,7 +29002,7 @@
         <v>6.1844099999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>3840x2160</v>
@@ -24382,7 +29056,7 @@
         <v>6.2214899999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -24480,7 +29154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>_xlfn.CONCAT(D22,"x",E22)</f>
         <v>x</v>
@@ -24543,302 +29217,326 @@
         <f ca="1">AE22-AF22</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AI22" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:A39" si="14">_xlfn.CONCAT(D23,"x",E23)</f>
+        <f t="shared" ref="A23:A39" si="15">_xlfn.CONCAT(D23,"x",E23)</f>
         <v>x</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" ref="V23:V27" ca="1" si="15">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V23:V27" ca="1" si="16">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W27" ca="1" si="16">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="W23:W27" ca="1" si="17">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X27" ca="1" si="17">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="X23:X27" ca="1" si="18">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" ref="Y23:Y27" si="18">K23/1000000000</f>
+        <f t="shared" ref="Y23:Y27" si="19">K23/1000000000</f>
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23:Z27" si="19">L23/1000</f>
+        <f t="shared" ref="Z23:Z27" si="20">L23/1000</f>
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23:AA27" si="20">M23/1000</f>
+        <f t="shared" ref="AA23:AA27" si="21">M23/1000</f>
         <v>0</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" ref="AB23:AB27" ca="1" si="21">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB23:AB27" ca="1" si="22">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
         <v>0</v>
       </c>
       <c r="AC23" s="4">
-        <f t="shared" ref="AC23:AC27" ca="1" si="22">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC23:AC27" ca="1" si="23">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
         <v>0</v>
       </c>
       <c r="AD23" s="4" t="e">
-        <f t="shared" ref="AD23:AD27" ca="1" si="23">AC23/AB23</f>
+        <f t="shared" ref="AD23:AD27" ca="1" si="24">AC23/AB23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE23" s="4" t="e">
-        <f t="shared" ref="AE23:AE27" ca="1" si="24">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE23:AE27" ca="1" si="25">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF23" s="4" t="e">
-        <f t="shared" ref="AF23:AF27" ca="1" si="25">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF23:AF27" ca="1" si="26">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG23" t="e">
-        <f t="shared" ref="AG23:AG27" ca="1" si="26">AE23-AD23</f>
+        <f t="shared" ref="AG23:AG27" ca="1" si="27">AE23-AD23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH23" t="e">
-        <f t="shared" ref="AH23:AH27" ca="1" si="27">AE23-AF23</f>
+        <f t="shared" ref="AH23:AH27" ca="1" si="28">AE23-AF23</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AI23" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W24">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="W24">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
+      <c r="X24">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
       <c r="Y24" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="Z24" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AA24" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AB24" s="4">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
+      <c r="AC24" s="4">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
       <c r="AD24" s="4" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE24" s="4" t="e">
         <f t="shared" ca="1" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF24" s="4" t="e">
+      <c r="AE24" s="4" t="e">
         <f t="shared" ca="1" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG24" t="e">
+      <c r="AF24" s="4" t="e">
         <f t="shared" ca="1" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH24" t="e">
+      <c r="AG24" t="e">
         <f t="shared" ca="1" si="27"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH24" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W25">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="W25">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
+      <c r="X25">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
       <c r="Y25" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="Z25" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AA25" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AB25" s="4">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
+      <c r="AC25" s="4">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
       <c r="AD25" s="4" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE25" s="4" t="e">
         <f t="shared" ca="1" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF25" s="4" t="e">
+      <c r="AE25" s="4" t="e">
         <f t="shared" ca="1" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG25" t="e">
+      <c r="AF25" s="4" t="e">
         <f t="shared" ca="1" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH25" t="e">
+      <c r="AG25" t="e">
         <f t="shared" ca="1" si="27"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH25" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="W26">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
+      <c r="X26">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
       <c r="Y26" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="Z26" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AA26" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AB26" s="4">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
+      <c r="AC26" s="4">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
       <c r="AD26" s="4" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE26" s="4" t="e">
         <f t="shared" ca="1" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF26" s="4" t="e">
+      <c r="AE26" s="4" t="e">
         <f t="shared" ca="1" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" t="e">
+      <c r="AF26" s="4" t="e">
         <f t="shared" ca="1" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH26" t="e">
+      <c r="AG26" t="e">
         <f t="shared" ca="1" si="27"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH26" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="W27">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
+      <c r="X27">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
       <c r="Y27" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="Z27" s="3">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AA27" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AB27" s="4">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="4">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
+      <c r="AC27" s="4">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
       <c r="AD27" s="4" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE27" s="4" t="e">
         <f t="shared" ca="1" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF27" s="4" t="e">
+      <c r="AE27" s="4" t="e">
         <f t="shared" ca="1" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG27" t="e">
+      <c r="AF27" s="4" t="e">
         <f t="shared" ca="1" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH27" t="e">
+      <c r="AG27" t="e">
         <f t="shared" ca="1" si="27"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH27" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="T28" s="4"/>
@@ -24853,9 +29551,9 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="T29" s="4"/>
@@ -24870,9 +29568,9 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="T30" s="4"/>
@@ -24887,9 +29585,9 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="Y31" s="3"/>
@@ -24901,9 +29599,9 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="Y32" s="3"/>
@@ -24915,9 +29613,9 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="Y33" s="3"/>
@@ -24929,43 +29627,43 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -25063,7 +29761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>_xlfn.CONCAT(D42,"x",E42)</f>
         <v>1024x576</v>
@@ -25174,10 +29872,14 @@
         <f ca="1">AE42-AF42</f>
         <v>20.948805725897515</v>
       </c>
+      <c r="AI42">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.7073851851851857E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" ref="A43:A59" si="28">_xlfn.CONCAT(D43,"x",E43)</f>
+        <f t="shared" ref="A43:A59" si="29">_xlfn.CONCAT(D43,"x",E43)</f>
         <v>1024x576</v>
       </c>
       <c r="B43" t="s">
@@ -25229,61 +29931,65 @@
         <v>3.4258900000000002E-2</v>
       </c>
       <c r="V43" s="4" t="str">
-        <f t="shared" ref="V43:V47" ca="1" si="29">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V43:V47" ca="1" si="30">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
         <v>1280x720</v>
       </c>
       <c r="W43">
-        <f t="shared" ref="W43:W47" ca="1" si="30">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="W43:W47" ca="1" si="31">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
         <v>921600</v>
       </c>
       <c r="X43">
-        <f t="shared" ref="X43:X47" ca="1" si="31">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="X43:X47" ca="1" si="32">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
         <v>13</v>
       </c>
       <c r="Y43" s="3">
-        <f t="shared" ref="Y43:Y47" si="32">K43/1000000000</f>
+        <f t="shared" ref="Y43:Y47" si="33">K43/1000000000</f>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" ref="Z43:Z47" si="33">L43/1000</f>
+        <f t="shared" ref="Z43:Z47" si="34">L43/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" ref="AA43:AA47" si="34">M43/1000</f>
+        <f t="shared" ref="AA43:AA47" si="35">M43/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" ref="AB43:AB47" ca="1" si="35">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB43:AB47" ca="1" si="36">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
         <v>90.870699999999999</v>
       </c>
       <c r="AC43" s="4">
-        <f t="shared" ref="AC43:AC47" ca="1" si="36">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC43:AC47" ca="1" si="37">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
         <v>947</v>
       </c>
       <c r="AD43" s="4">
-        <f t="shared" ref="AD43:AD47" ca="1" si="37">AC43/AB43</f>
+        <f t="shared" ref="AD43:AD47" ca="1" si="38">AC43/AB43</f>
         <v>10.421400957624405</v>
       </c>
       <c r="AE43" s="4">
-        <f t="shared" ref="AE43:AE47" ca="1" si="38">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE43:AE47" ca="1" si="39">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
         <v>20.34881946323884</v>
       </c>
       <c r="AF43" s="4">
-        <f t="shared" ref="AF43:AF47" ca="1" si="39">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF43:AF47" ca="1" si="40">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
         <v>5.6285389438609528</v>
       </c>
       <c r="AG43">
-        <f t="shared" ref="AG43:AG47" ca="1" si="40">AE43-AD43</f>
+        <f t="shared" ref="AG43:AG47" ca="1" si="41">AE43-AD43</f>
         <v>9.9274185056144351</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH47" ca="1" si="41">AE43-AF43</f>
+        <f t="shared" ref="AH43:AH47" ca="1" si="42">AE43-AF43</f>
         <v>14.720280519377887</v>
       </c>
+      <c r="AI43">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.5956388595564948E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1024x576</v>
       </c>
       <c r="B44" t="s">
@@ -25335,61 +30041,65 @@
         <v>3.45122E-2</v>
       </c>
       <c r="V44" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>1600x900</v>
       </c>
       <c r="W44">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1440000</v>
       </c>
       <c r="X44">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="36"/>
         <v>90.989900000000006</v>
       </c>
       <c r="AC44" s="4">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>664</v>
       </c>
       <c r="AD44" s="4">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>7.2975132404805363</v>
       </c>
       <c r="AE44" s="4">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>14.149615201214605</v>
       </c>
       <c r="AF44" s="4">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>3.8900969801177148</v>
       </c>
       <c r="AG44">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>6.8521019607340685</v>
       </c>
       <c r="AH44">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>10.25951822109689</v>
       </c>
+      <c r="AI44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.13703298192771085</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1280x720</v>
       </c>
       <c r="B45" t="s">
@@ -25441,61 +30151,65 @@
         <v>4.8749599999999997E-2</v>
       </c>
       <c r="V45" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>1920x1080</v>
       </c>
       <c r="W45">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>2073600</v>
       </c>
       <c r="X45">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="36"/>
         <v>91.346800000000002</v>
       </c>
       <c r="AC45" s="4">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>501</v>
       </c>
       <c r="AD45" s="4">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>5.4845927826700001</v>
       </c>
       <c r="AE45" s="4">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>10.584754777693687</v>
       </c>
       <c r="AF45" s="4">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>2.9078474077994283</v>
       </c>
       <c r="AG45">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>5.1001619950236874</v>
       </c>
       <c r="AH45">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>7.6769073698942591</v>
       </c>
+      <c r="AI45">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.18232894211576847</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1280x720</v>
       </c>
       <c r="B46" t="s">
@@ -25547,61 +30261,65 @@
         <v>4.8888099999999997E-2</v>
       </c>
       <c r="V46" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>2560x1440</v>
       </c>
       <c r="W46">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>3686400</v>
       </c>
       <c r="X46">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y46" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z46" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="36"/>
         <v>92.867599999999996</v>
       </c>
       <c r="AC46" s="4">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>324</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>3.4888378724119069</v>
       </c>
       <c r="AE46" s="4">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>6.8131029596119257</v>
       </c>
       <c r="AF46" s="4">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>1.8506455051521968</v>
       </c>
       <c r="AG46">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>3.3242650872000188</v>
       </c>
       <c r="AH46">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>4.9624574544597291</v>
       </c>
+      <c r="AI46">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.28662839506172838</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1280x720</v>
       </c>
       <c r="B47" t="s">
@@ -25655,61 +30373,65 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>3840x2160</v>
       </c>
       <c r="W47">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>8294400</v>
       </c>
       <c r="X47">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="36"/>
         <v>94.806300000000007</v>
       </c>
       <c r="AC47" s="4">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>177</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>1.8669645371668337</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>3.6581930721139599</v>
       </c>
       <c r="AF47" s="4">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0.98254025958713653</v>
       </c>
       <c r="AG47">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>1.7912285349471262</v>
       </c>
       <c r="AH47">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>2.6756528125268235</v>
       </c>
+      <c r="AI47">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53562881355932213</v>
+      </c>
     </row>
-    <row r="48" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1600x900</v>
       </c>
       <c r="B48" t="s">
@@ -25774,7 +30496,7 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1600x900</v>
       </c>
       <c r="B49" t="s">
@@ -25839,7 +30561,7 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1600x900</v>
       </c>
       <c r="B50" t="s">
@@ -25904,7 +30626,7 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1920x1080</v>
       </c>
       <c r="B51" t="s">
@@ -25966,7 +30688,7 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1920x1080</v>
       </c>
       <c r="B52" t="s">
@@ -26028,7 +30750,7 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1920x1080</v>
       </c>
       <c r="B53" t="s">
@@ -26090,7 +30812,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2560x1440</v>
       </c>
       <c r="B54" t="s">
@@ -26144,7 +30866,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2560x1440</v>
       </c>
       <c r="B55" t="s">
@@ -26198,7 +30920,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2560x1440</v>
       </c>
       <c r="B56" t="s">
@@ -26252,7 +30974,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3840x2160</v>
       </c>
       <c r="B57" t="s">
@@ -26306,7 +31028,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3840x2160</v>
       </c>
       <c r="B58" t="s">
@@ -26360,7 +31082,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3840x2160</v>
       </c>
       <c r="B59" t="s">

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408BD973-08FA-4770-9181-E3AF5E1EC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA3C837-1F96-4BDE-8DB8-8A5703C32C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="96">
   <si>
     <t>NVIDIA GeForce RTX 3060 Ti</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Predicted frame time</t>
+  </si>
+  <si>
+    <t>Mean FPS % Decrease</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08564AA0-1A59-4083-BE51-17AA1D793A1D}" type="CELLRANGE">
+                    <a:fld id="{3AC84AE5-40AE-4DA8-AE46-6013BF07BC73}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1173,7 +1176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{203F96C9-2427-470E-B05F-8BC117E703D6}" type="CELLRANGE">
+                    <a:fld id="{ADE986C8-8732-4CBA-93DC-2EEB5CB5E99B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1207,7 +1210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31972B49-83DD-462D-A16B-9C5F4209B1E6}" type="CELLRANGE">
+                    <a:fld id="{D0731AF2-D77C-4AB7-BD1B-023D52AA064A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1241,7 +1244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A85C5B7A-328B-4B93-8074-E28FBD988243}" type="CELLRANGE">
+                    <a:fld id="{52263530-CAC7-48D7-9F83-CA13BE5FC449}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1275,7 +1278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F69F58EA-F183-4130-AD18-B288C30ED476}" type="CELLRANGE">
+                    <a:fld id="{616FF9D3-22C5-4FDD-A07F-3EE3F4E8BD48}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1309,7 +1312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED0753D2-F0C3-4054-8723-EA2C6AB1EF57}" type="CELLRANGE">
+                    <a:fld id="{8D1216AA-A90B-43BB-AD85-88BFFABD7889}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2652,7 +2655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08E1C0FD-465E-4433-AFE8-6301035E07B1}" type="CELLRANGE">
+                    <a:fld id="{5A9CBC01-6B0B-45E4-AD24-30941AC36279}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2685,7 +2688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78E364A9-35D0-4C30-9C8D-0D152B7842C7}" type="CELLRANGE">
+                    <a:fld id="{57554F1A-B303-4D11-9022-FAC8F21D4AD2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2719,7 +2722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A48EED8-2CF2-48DD-BFF3-4301E283FD69}" type="CELLRANGE">
+                    <a:fld id="{0344E90E-8138-4ECC-8C30-9DC5DFCDDAB9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2753,7 +2756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{336F2915-334C-4823-BC89-CC111FE7BF61}" type="CELLRANGE">
+                    <a:fld id="{DDB66066-E28F-4957-9B20-E91F6AAA6DF1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2787,7 +2790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6556AEEC-1E0D-4E00-A3C3-0329D1FC9CA1}" type="CELLRANGE">
+                    <a:fld id="{5EF29CE5-2DA5-4FC6-B2D2-3D1C0F14CBB5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2821,7 +2824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC70BE34-2DEE-486F-B5DA-2F28C6EAB9B4}" type="CELLRANGE">
+                    <a:fld id="{BDB55CBD-B4C0-44AB-B74D-5B43F4C200D8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4258,7 +4261,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6AE47A3-E4FA-48E3-8930-9D11DBC3A935}" type="CELLRANGE">
+                    <a:fld id="{857139BA-D13A-4C5A-AFD0-1056059B44D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4291,7 +4294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5174737-3CD6-4119-9EAF-916453A9D291}" type="CELLRANGE">
+                    <a:fld id="{95DE841A-A843-4D46-A7C0-B285DC4557AA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4325,7 +4328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4154409A-3FBA-4062-A14E-E8C6D93971FC}" type="CELLRANGE">
+                    <a:fld id="{4F76CE95-05F9-41CE-BCF2-31364ABB04A0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4359,7 +4362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A44E2CC4-B1AA-4202-BED1-BC817BF64C8D}" type="CELLRANGE">
+                    <a:fld id="{8DB9E547-C1BE-4BDA-9D0A-68A74A7D22D6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4393,7 +4396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{688C9FCD-81E1-4A86-B116-174AAF4C2C44}" type="CELLRANGE">
+                    <a:fld id="{656DDAB8-A922-4F7C-9255-92AD26B1C691}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4427,7 +4430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C39ABFD2-C28E-4DD1-B11D-3527D7F98881}" type="CELLRANGE">
+                    <a:fld id="{990420CD-41F2-4068-AADB-2A177C57CAF4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5770,7 +5773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE1BE820-477E-4825-9F63-01BF1271B87D}" type="CELLRANGE">
+                    <a:fld id="{E3409793-9DDF-4A7A-9E9D-B9E02FC9AF3D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5803,7 +5806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{174F969B-D7D2-4B6E-B213-11745C524FC2}" type="CELLRANGE">
+                    <a:fld id="{15A50B9D-9A2C-4ED7-963E-A1D07AC8BB29}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5837,7 +5840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B0DA650-6741-4005-9B12-65525DD67818}" type="CELLRANGE">
+                    <a:fld id="{141A0C66-1A9E-45BB-866F-F8832A2487F3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5871,7 +5874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24239F89-1785-4214-A24C-72880AA1D443}" type="CELLRANGE">
+                    <a:fld id="{BDA72275-9F2B-4C81-B73F-46578129235A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5905,7 +5908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06A0953B-294E-4687-8CE8-C758A3BD2399}" type="CELLRANGE">
+                    <a:fld id="{7BBA7F3A-AD8C-431D-B0B3-7CB3571148A0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5939,7 +5942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A08B274A-0143-46CF-8506-F37F368C1879}" type="CELLRANGE">
+                    <a:fld id="{ECAE6CF0-0134-4186-8DDC-8B99CE2BA976}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6626,7 +6629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F378C111-FAAD-42B1-9434-2DBD9A471439}" type="CELLRANGE">
+                    <a:fld id="{0545E9C5-ACCA-4695-9CA9-D859AF332F6F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6660,7 +6663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7153F57C-0350-42CC-9E17-6A5F2BB84B30}" type="CELLRANGE">
+                    <a:fld id="{F85E1610-C7A6-4E74-9542-5213EE7A3D18}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6694,7 +6697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D4A8DC1-F1E5-47B4-94F9-3F01DEE7D62D}" type="CELLRANGE">
+                    <a:fld id="{90CD37F9-85CA-4BF1-BF52-087C32F9C6E1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6728,7 +6731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{177AB494-B677-497B-9BA0-71FA70A3232A}" type="CELLRANGE">
+                    <a:fld id="{E1DB9E9A-5381-45F2-958A-48618F81388D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6762,7 +6765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{947A7570-BE67-4016-9A67-CF47B71D0B8E}" type="CELLRANGE">
+                    <a:fld id="{747B4CFA-D597-4EDA-BF9A-554BAE574149}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8138,7 +8141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09E86753-6545-4F2E-88CA-1C17F8A08819}" type="CELLRANGE">
+                    <a:fld id="{B89DBBE5-8CAD-4E2C-AF74-DE0034A4785D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8172,7 +8175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F15983D1-9F38-469F-8637-107633413050}" type="CELLRANGE">
+                    <a:fld id="{2CE298C4-40E7-4657-9380-300090E67C50}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8206,7 +8209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B764915-0A63-48C9-B399-07538A6177DE}" type="CELLRANGE">
+                    <a:fld id="{CC664FAA-862B-47F0-9EF5-F18816C3284B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8240,7 +8243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3D1B66D-A9FC-49CF-9F02-66079613997F}" type="CELLRANGE">
+                    <a:fld id="{7D774806-DBB7-4663-84C6-23282E1204FA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8274,7 +8277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BE3070C-7E2C-4170-B43A-093E23FCCCD6}" type="CELLRANGE">
+                    <a:fld id="{43F0F2C3-553B-4F73-A0CA-443785FDBA21}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9309,7 +9312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C40B2001-6E60-4320-B842-7C1E291AE507}" type="CELLRANGE">
+                    <a:fld id="{7AEE6B78-394C-4E0F-B18C-FE540FE3A8E7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9343,7 +9346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CF07B38-19CE-4E09-82A0-FEB444A184EF}" type="CELLRANGE">
+                    <a:fld id="{9E2FAFDC-B6E0-43CF-B373-D1631347BEE4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9377,7 +9380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE5805DD-8666-459C-8960-124FAD2CDA3F}" type="CELLRANGE">
+                    <a:fld id="{BCBB091F-8342-4F69-A44E-F88EDDD046CE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9411,7 +9414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC54622D-FE94-45AF-8788-18C26A54E737}" type="CELLRANGE">
+                    <a:fld id="{60C72BD9-B701-42B6-B380-04628D8AF892}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9445,7 +9448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA63C74F-08EA-478B-86DC-FE465682C60A}" type="CELLRANGE">
+                    <a:fld id="{16B0E074-AFAC-4E7D-B0CF-9BF35ED7AA2C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10132,7 +10135,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF0E3D2A-F6F3-4788-A465-D19C892CEC49}" type="CELLRANGE">
+                    <a:fld id="{74958B0E-E4DB-4404-A708-EC535BA99547}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10166,7 +10169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B8D92E5-EACA-4B04-B414-DCD0FC14C348}" type="CELLRANGE">
+                    <a:fld id="{DE606454-B0DC-4CE2-9AE4-8AB0EB1BA25B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10200,7 +10203,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CFD4EF0-4D2E-4F07-88BA-409614CFE3F5}" type="CELLRANGE">
+                    <a:fld id="{57024A37-B978-40BA-8A0B-AAC9E271111B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10234,7 +10237,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA672F86-DC3B-4821-8403-C778E21D38F9}" type="CELLRANGE">
+                    <a:fld id="{73056C7C-8372-482E-BDFE-50C20A35A924}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10268,7 +10271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0187910B-97BC-4600-9715-4B73E1E160FE}" type="CELLRANGE">
+                    <a:fld id="{D5B55229-3019-4F4B-BEFD-3A6E946DAAB9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11262,7 +11265,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.1</c:v>
+                  <c:v>14.149794029518468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11304,7 +11307,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>-1.0878897157093461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11346,7 +11349,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.6</c:v>
+                  <c:v>55.561839785422116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11388,7 +11391,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.6</c:v>
+                  <c:v>55.576378033930155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11430,7 +11433,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59.2</c:v>
+                  <c:v>59.168841873981791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11459,7 +11462,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -11520,39 +11523,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="228701984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -12990,7 +12960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1533C9F-9199-469C-B147-80292B3C941D}" type="CELLRANGE">
+                    <a:fld id="{0A17BA68-DA5B-422F-9E59-AEE9AB92BA55}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13009,7 +12979,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13024,8 +12993,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72824E1E-A5C4-46A5-A00B-D0B46EEA3738}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DBA14255-DC40-44B6-9F1E-60C3BD9A359E}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13058,8 +13027,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F09A50B-BA66-4920-8AA9-B56825075E67}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F7B9ACE5-4DD5-45EF-91FE-78778C3AC2A2}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13092,8 +13061,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10DF5081-96F1-4ABE-9230-84AB6AB5F29B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BCFEC40D-F937-49E2-8EAF-9DAABD5F6AAD}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13126,8 +13095,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65A83A1B-3B67-4090-B240-C0E7A4270441}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{34622313-D055-428F-9EAA-9294B2B0A77A}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13160,8 +13129,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC485571-16A3-4776-94A3-C8DD7A192A8B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{77B3D797-AE56-4772-BCDB-CD439980E4F7}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13959,7 +13928,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13992,7 +13960,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14025,7 +13992,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14058,7 +14024,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17470,7 +17435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61D491C9-2C03-4907-97C9-C47382D61349}" type="CELLRANGE">
+                    <a:fld id="{2D82FC8F-ED90-41F9-9C17-CCBDD38F6907}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17489,7 +17454,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17504,8 +17468,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59ACD863-8561-4814-9999-4E7E97646893}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{80082CEF-9A37-4962-B1B6-9A1DC4395A14}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -17538,8 +17502,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64B830D3-923B-4E58-B83A-4BF0161E641D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B553A5BE-18EE-47E8-AF03-5F8D08F1648A}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -17572,8 +17536,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD183517-C27B-4F1A-BFFD-E1B2BC4ED451}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C2C4A95A-D328-4EF0-9977-D419BB809DFE}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18785,7 +18749,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -18818,7 +18781,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -18851,7 +18813,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -18884,7 +18845,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -32635,8 +32595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="C3:BH218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34208,15 +34168,15 @@
         <v>1</v>
       </c>
       <c r="V2" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V2:V7" ca="1" si="0">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>1024x576</v>
       </c>
       <c r="W2">
-        <f ca="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="W2:W7" ca="1" si="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
         <v>589824</v>
       </c>
       <c r="X2">
-        <f ca="1">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="X2:X7" ca="1" si="2">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
         <v>38</v>
       </c>
       <c r="Y2" s="3">
@@ -34232,41 +34192,41 @@
         <v>65.536000000000001</v>
       </c>
       <c r="AB2" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB2:AB7" ca="1" si="3">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
         <v>90.100499999999997</v>
       </c>
       <c r="AC2" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC2:AC7" ca="1" si="4">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
         <v>5440</v>
       </c>
       <c r="AD2" s="4">
-        <f ca="1">AC2/AB2</f>
+        <f t="shared" ref="AD2:AD7" ca="1" si="5">AC2/AB2</f>
         <v>60.377023434942096</v>
       </c>
       <c r="AE2" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE2:AE7" ca="1" si="6">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
         <v>105.18786552783271</v>
       </c>
       <c r="AF2" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF2:AF7" ca="1" si="7">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
         <v>37.434956762624935</v>
       </c>
       <c r="AG2">
-        <f ca="1">(AE2-AD2)/(AD2+AE2)/2*100</f>
+        <f t="shared" ref="AG2:AG7" ca="1" si="8">(AE2-AD2)/(AD2+AE2)/2*100</f>
         <v>13.53271287578545</v>
       </c>
       <c r="AH2">
-        <f ca="1">(AD2-AF2)/(AF2+AD2)/2*100</f>
+        <f t="shared" ref="AH2:AH7" ca="1" si="9">(AD2-AF2)/(AF2+AD2)/2*100</f>
         <v>11.727636341671682</v>
       </c>
       <c r="AI2">
-        <f ca="1">AB2/AC2</f>
+        <f t="shared" ref="AI2:AI7" ca="1" si="10">AB2/AC2</f>
         <v>1.6562591911764707E-2</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">_xlfn.CONCAT(D3,"x",E3)</f>
+        <f t="shared" ref="A3:A19" si="11">_xlfn.CONCAT(D3,"x",E3)</f>
         <v>1024x576</v>
       </c>
       <c r="B3" t="s">
@@ -34318,65 +34278,65 @@
         <v>9.3255999999999999E-3</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1280x720</v>
       </c>
       <c r="W3">
-        <f ca="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>921600</v>
       </c>
       <c r="X3">
-        <f ca="1">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y7" si="1">K3/1000000000</f>
+        <f t="shared" ref="Y3:Y7" si="12">K3/1000000000</f>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z7" si="2">L3/1000</f>
+        <f t="shared" ref="Z3:Z7" si="13">L3/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA7" si="3">M3/1000</f>
+        <f t="shared" ref="AA3:AA7" si="14">M3/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB3" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>90.164699999999996</v>
       </c>
       <c r="AC3" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4032</v>
       </c>
       <c r="AD3" s="4">
-        <f ca="1">AC3/AB3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44.718165756665307</v>
       </c>
       <c r="AE3" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>79.888156580786898</v>
       </c>
       <c r="AF3" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>28.766547956712099</v>
       </c>
       <c r="AG3">
-        <f ca="1">(AE3-AD3)/(AD3+AE3)/2*100</f>
+        <f t="shared" ca="1" si="8"/>
         <v>14.112442356205687</v>
       </c>
       <c r="AH3">
-        <f ca="1">(AD3-AF3)/(AF3+AD3)/2*100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>10.853697996410187</v>
       </c>
       <c r="AI3">
-        <f ca="1">AB3/AC3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>2.2362276785714286E-2</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1024x576</v>
       </c>
       <c r="B4" t="s">
@@ -34428,65 +34388,65 @@
         <v>9.2297000000000004E-3</v>
       </c>
       <c r="V4" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1600x900</v>
       </c>
       <c r="W4">
-        <f ca="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1440000</v>
       </c>
       <c r="X4">
-        <f ca="1">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB4" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>90.209500000000006</v>
       </c>
       <c r="AC4" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2945</v>
       </c>
       <c r="AD4" s="4">
-        <f ca="1">AC4/AB4</f>
+        <f t="shared" ca="1" si="5"/>
         <v>32.646229055698122</v>
       </c>
       <c r="AE4" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>57.127840681877913</v>
       </c>
       <c r="AF4" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>19.869023397761953</v>
       </c>
       <c r="AG4">
-        <f ca="1">(AE4-AD4)/(AD4+AE4)/2*100</f>
+        <f t="shared" ca="1" si="8"/>
         <v>13.635124094152943</v>
       </c>
       <c r="AH4">
-        <f ca="1">(AD4-AF4)/(AF4+AD4)/2*100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>12.165233014217677</v>
       </c>
       <c r="AI4">
-        <f ca="1">AB4/AC4</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3.0631409168081495E-2</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1280x720</v>
       </c>
       <c r="B5" t="s">
@@ -34538,65 +34498,65 @@
         <v>1.2517500000000001E-2</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1920x1080</v>
       </c>
       <c r="W5">
-        <f ca="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2073600</v>
       </c>
       <c r="X5">
-        <f ca="1">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB5" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>90.26339999999999</v>
       </c>
       <c r="AC5" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2297</v>
       </c>
       <c r="AD5" s="4">
-        <f ca="1">AC5/AB5</f>
+        <f t="shared" ca="1" si="5"/>
         <v>25.44774515473603</v>
       </c>
       <c r="AE5" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>44.85491677170193</v>
       </c>
       <c r="AF5" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>15.759547133653568</v>
       </c>
       <c r="AG5">
-        <f ca="1">(AE5-AD5)/(AD5+AE5)/2*100</f>
+        <f t="shared" ca="1" si="8"/>
         <v>13.802586619887045</v>
       </c>
       <c r="AH5">
-        <f ca="1">(AD5-AF5)/(AF5+AD5)/2*100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>11.75544118900063</v>
       </c>
       <c r="AI5">
-        <f ca="1">AB5/AC5</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3.929621245102307E-2</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1280x720</v>
       </c>
       <c r="B6" t="s">
@@ -34648,65 +34608,65 @@
         <v>1.2396300000000001E-2</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2560x1440</v>
       </c>
       <c r="W6">
-        <f ca="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3686400</v>
       </c>
       <c r="X6">
-        <f ca="1">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB6" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>90.409900000000007</v>
       </c>
       <c r="AC6" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1512</v>
       </c>
       <c r="AD6" s="4">
-        <f ca="1">AC6/AB6</f>
+        <f t="shared" ca="1" si="5"/>
         <v>16.723832235186631</v>
       </c>
       <c r="AE6" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>30.090934804980652</v>
       </c>
       <c r="AF6" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>10.100775436530263</v>
       </c>
       <c r="AG6">
-        <f ca="1">(AE6-AD6)/(AD6+AE6)/2*100</f>
+        <f t="shared" ca="1" si="8"/>
         <v>14.276587725327126</v>
       </c>
       <c r="AH6">
-        <f ca="1">(AD6-AF6)/(AF6+AD6)/2*100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>12.345114008208833</v>
       </c>
       <c r="AI6">
-        <f ca="1">AB6/AC6</f>
+        <f t="shared" ca="1" si="10"/>
         <v>5.9794907407407415E-2</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1280x720</v>
       </c>
       <c r="B7" t="s">
@@ -34760,65 +34720,65 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3840x2160</v>
       </c>
       <c r="W7">
-        <f ca="1">INDEX(OFFSET($D$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$2,(ROW()-ROW($W$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8294400</v>
       </c>
       <c r="X7">
-        <f ca="1">INDEX(OFFSET($J$2,(ROW()-ROW($X$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>8.5894103039999994</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>90.706500000000005</v>
       </c>
       <c r="AC7" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>824</v>
       </c>
       <c r="AD7" s="4">
-        <f ca="1">AC7/AB7</f>
+        <f t="shared" ca="1" si="5"/>
         <v>9.0842442382850184</v>
       </c>
       <c r="AE7" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>16.073320056770967</v>
       </c>
       <c r="AF7" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.4873297555943328</v>
       </c>
       <c r="AG7">
-        <f ca="1">(AE7-AD7)/(AD7+AE7)/2*100</f>
+        <f t="shared" ca="1" si="8"/>
         <v>13.89060510094663</v>
       </c>
       <c r="AH7">
-        <f ca="1">(AD7-AF7)/(AF7+AD7)/2*100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>12.342230441960266</v>
       </c>
       <c r="AI7">
-        <f ca="1">AB7/AC7</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.11008070388349515</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1600x900</v>
       </c>
       <c r="B8" t="s">
@@ -34883,7 +34843,7 @@
     </row>
     <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1600x900</v>
       </c>
       <c r="B9" t="s">
@@ -34948,7 +34908,7 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1600x900</v>
       </c>
       <c r="B10" t="s">
@@ -35012,7 +34972,7 @@
     </row>
     <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1920x1080</v>
       </c>
       <c r="B11" t="s">
@@ -35074,7 +35034,7 @@
     </row>
     <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1920x1080</v>
       </c>
       <c r="B12" t="s">
@@ -35136,7 +35096,7 @@
     </row>
     <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1920x1080</v>
       </c>
       <c r="B13" t="s">
@@ -35198,7 +35158,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2560x1440</v>
       </c>
       <c r="B14" t="s">
@@ -35252,7 +35212,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2560x1440</v>
       </c>
       <c r="B15" t="s">
@@ -35306,7 +35266,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2560x1440</v>
       </c>
       <c r="B16" t="s">
@@ -35360,7 +35320,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3840x2160</v>
       </c>
       <c r="B17" t="s">
@@ -35414,7 +35374,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3840x2160</v>
       </c>
       <c r="B18" t="s">
@@ -35468,7 +35428,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3840x2160</v>
       </c>
       <c r="B19" t="s">
@@ -35678,15 +35638,15 @@
         <v>1</v>
       </c>
       <c r="V22" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V22:V27" ca="1" si="15">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
         <v>1024x576</v>
       </c>
       <c r="W22">
-        <f ca="1">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="W22:W27" ca="1" si="16">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
         <v>589824</v>
       </c>
       <c r="X22">
-        <f ca="1">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="X22:X27" ca="1" si="17">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
         <v>24</v>
       </c>
       <c r="Y22" s="3">
@@ -35702,41 +35662,41 @@
         <v>65.536000000000001</v>
       </c>
       <c r="AB22" s="4">
-        <f ca="1">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB22:AB27" ca="1" si="18">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
         <v>90.293000000000006</v>
       </c>
       <c r="AC22" s="4">
-        <f ca="1">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC22:AC27" ca="1" si="19">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
         <v>2486</v>
       </c>
       <c r="AD22" s="4">
-        <f ca="1">AC22/AB22</f>
+        <f t="shared" ref="AD22:AD27" ca="1" si="20">AC22/AB22</f>
         <v>27.532588351256464</v>
       </c>
       <c r="AE22" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE22:AE27" ca="1" si="21">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
         <v>54.00151204233719</v>
       </c>
       <c r="AF22" s="4">
-        <f ca="1">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF22:AF27" ca="1" si="22">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
         <v>14.367465162488847</v>
       </c>
       <c r="AG22">
-        <f ca="1">(AE22-AD22)/(AD22+AE22)/2*100</f>
+        <f t="shared" ref="AG22:AG27" ca="1" si="23">(AE22-AD22)/(AD22+AE22)/2*100</f>
         <v>16.231811943288736</v>
       </c>
       <c r="AH22">
-        <f ca="1">(AD22-AF22)/(AF22+AD22)/2*100</f>
+        <f t="shared" ref="AH22:AH27" ca="1" si="24">(AD22-AF22)/(AF22+AD22)/2*100</f>
         <v>15.710150804996942</v>
       </c>
       <c r="AI22">
-        <f ca="1">AB22/AC22</f>
+        <f t="shared" ref="AI22:AI27" ca="1" si="25">AB22/AC22</f>
         <v>3.6320595333869672E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:A39" si="4">_xlfn.CONCAT(D23,"x",E23)</f>
+        <f t="shared" ref="A23:A39" si="26">_xlfn.CONCAT(D23,"x",E23)</f>
         <v>1024x576</v>
       </c>
       <c r="B23" t="s">
@@ -35788,65 +35748,65 @@
         <v>1.8518E-2</v>
       </c>
       <c r="V23" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>1280x720</v>
       </c>
       <c r="W23">
-        <f ca="1">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>921600</v>
       </c>
       <c r="X23">
-        <f ca="1">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>24</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" ref="Y23:Y27" si="5">K23/1000000000</f>
+        <f t="shared" ref="Y23:Y27" si="27">K23/1000000000</f>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23:Z27" si="6">L23/1000</f>
+        <f t="shared" ref="Z23:Z27" si="28">L23/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23:AA27" si="7">M23/1000</f>
+        <f t="shared" ref="AA23:AA27" si="29">M23/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB23" s="4">
-        <f ca="1">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>90.433899999999994</v>
       </c>
       <c r="AC23" s="4">
-        <f ca="1">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>1749</v>
       </c>
       <c r="AD23" s="4">
-        <f ca="1">AC23/AB23</f>
+        <f t="shared" ca="1" si="20"/>
         <v>19.340092598019108</v>
       </c>
       <c r="AE23" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="21"/>
         <v>37.66223005596607</v>
       </c>
       <c r="AF23" s="4">
-        <f ca="1">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>10.129464688179624</v>
       </c>
       <c r="AG23">
-        <f ca="1">(AE23-AD23)/(AD23+AE23)/2*100</f>
+        <f t="shared" ca="1" si="23"/>
         <v>16.071395519412238</v>
       </c>
       <c r="AH23">
-        <f ca="1">(AD23-AF23)/(AF23+AD23)/2*100</f>
+        <f t="shared" ca="1" si="24"/>
         <v>15.627360500174586</v>
       </c>
       <c r="AI23">
-        <f ca="1">AB23/AC23</f>
+        <f t="shared" ca="1" si="25"/>
         <v>5.1706060606060603E-2</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1024x576</v>
       </c>
       <c r="B24" t="s">
@@ -35898,65 +35858,65 @@
         <v>1.8511799999999998E-2</v>
       </c>
       <c r="V24" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>1600x900</v>
       </c>
       <c r="W24">
-        <f ca="1">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1440000</v>
       </c>
       <c r="X24">
-        <f ca="1">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>24</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB24" s="4">
-        <f ca="1">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>90.6233</v>
       </c>
       <c r="AC24" s="4">
-        <f ca="1">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>1230</v>
       </c>
       <c r="AD24" s="4">
-        <f ca="1">AC24/AB24</f>
+        <f t="shared" ca="1" si="20"/>
         <v>13.572668397641666</v>
       </c>
       <c r="AE24" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="21"/>
         <v>26.467209773811227</v>
       </c>
       <c r="AF24" s="4">
-        <f ca="1">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>6.915198915696811</v>
       </c>
       <c r="AG24">
-        <f ca="1">(AE24-AD24)/(AD24+AE24)/2*100</f>
+        <f t="shared" ca="1" si="23"/>
         <v>16.102123639031131</v>
       </c>
       <c r="AH24">
-        <f ca="1">(AD24-AF24)/(AF24+AD24)/2*100</f>
+        <f t="shared" ca="1" si="24"/>
         <v>16.247346246748087</v>
       </c>
       <c r="AI24">
-        <f ca="1">AB24/AC24</f>
+        <f t="shared" ca="1" si="25"/>
         <v>7.367747967479675E-2</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1280x720</v>
       </c>
       <c r="B25" t="s">
@@ -36008,65 +35968,65 @@
         <v>2.6192799999999999E-2</v>
       </c>
       <c r="V25" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>1920x1080</v>
       </c>
       <c r="W25">
-        <f ca="1">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2073600</v>
       </c>
       <c r="X25">
-        <f ca="1">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>24</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB25" s="4">
-        <f ca="1">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>90.8245</v>
       </c>
       <c r="AC25" s="4">
-        <f ca="1">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>933</v>
       </c>
       <c r="AD25" s="4">
-        <f ca="1">AC25/AB25</f>
+        <f t="shared" ca="1" si="20"/>
         <v>10.272558615791995</v>
       </c>
       <c r="AE25" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="21"/>
         <v>20.157185734356514</v>
       </c>
       <c r="AF25" s="4">
-        <f ca="1">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>5.2770448548812663</v>
       </c>
       <c r="AG25">
-        <f ca="1">(AE25-AD25)/(AD25+AE25)/2*100</f>
+        <f t="shared" ca="1" si="23"/>
         <v>16.241718965536229</v>
       </c>
       <c r="AH25">
-        <f ca="1">(AD25-AF25)/(AF25+AD25)/2*100</f>
+        <f t="shared" ca="1" si="24"/>
         <v>16.06315482684921</v>
       </c>
       <c r="AI25">
-        <f ca="1">AB25/AC25</f>
+        <f t="shared" ca="1" si="25"/>
         <v>9.7346730975348336E-2</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1280x720</v>
       </c>
       <c r="B26" t="s">
@@ -36118,65 +36078,65 @@
         <v>2.6459E-2</v>
       </c>
       <c r="V26" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>2560x1440</v>
       </c>
       <c r="W26">
-        <f ca="1">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>3686400</v>
       </c>
       <c r="X26">
-        <f ca="1">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>24</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB26" s="4">
-        <f ca="1">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>91.364800000000002</v>
       </c>
       <c r="AC26" s="4">
-        <f ca="1">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>603</v>
       </c>
       <c r="AD26" s="4">
-        <f ca="1">AC26/AB26</f>
+        <f t="shared" ca="1" si="20"/>
         <v>6.5999159413691046</v>
       </c>
       <c r="AE26" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="21"/>
         <v>13.030657227258573</v>
       </c>
       <c r="AF26" s="4">
-        <f ca="1">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>3.357496113698248</v>
       </c>
       <c r="AG26">
-        <f ca="1">(AE26-AD26)/(AD26+AE26)/2*100</f>
+        <f t="shared" ca="1" si="23"/>
         <v>16.37940275775204</v>
       </c>
       <c r="AH26">
-        <f ca="1">(AD26-AF26)/(AF26+AD26)/2*100</f>
+        <f t="shared" ca="1" si="24"/>
         <v>16.28143843871953</v>
       </c>
       <c r="AI26">
-        <f ca="1">AB26/AC26</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0.15151708126036484</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1280x720</v>
       </c>
       <c r="B27" t="s">
@@ -36230,65 +36190,65 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>3840x2160</v>
       </c>
       <c r="W27">
-        <f ca="1">INDEX(OFFSET($D$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$22,(ROW()-ROW($W$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>8294400</v>
       </c>
       <c r="X27">
-        <f ca="1">INDEX(OFFSET($J$22,(ROW()-ROW($X$22))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>24</v>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>6.4419921919999998</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB27" s="4">
-        <f ca="1">SUM(OFFSET($N$22,(ROW()-ROW($AB$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>92.640900000000002</v>
       </c>
       <c r="AC27" s="4">
-        <f ca="1">SUM(OFFSET($O$22,(ROW()-ROW($AC$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>330</v>
       </c>
       <c r="AD27" s="4">
-        <f ca="1">AC27/AB27</f>
+        <f t="shared" ca="1" si="20"/>
         <v>3.5621415595055748</v>
       </c>
       <c r="AE27" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$22,(ROW()-ROW($AE$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="21"/>
         <v>7.0240503483928975</v>
       </c>
       <c r="AF27" s="4">
-        <f ca="1">1/MIN(OFFSET($P$22,(ROW()-ROW($AF$22))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>1.8032866702852619</v>
       </c>
       <c r="AG27">
-        <f ca="1">(AE27-AD27)/(AD27+AE27)/2*100</f>
+        <f t="shared" ca="1" si="23"/>
         <v>16.351058147285027</v>
       </c>
       <c r="AH27">
-        <f ca="1">(AD27-AF27)/(AF27+AD27)/2*100</f>
+        <f t="shared" ca="1" si="24"/>
         <v>16.390629171540322</v>
       </c>
       <c r="AI27">
-        <f ca="1">AB27/AC27</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0.28072999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1600x900</v>
       </c>
       <c r="B28" t="s">
@@ -36353,7 +36313,7 @@
     </row>
     <row r="29" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1600x900</v>
       </c>
       <c r="B29" t="s">
@@ -36418,7 +36378,7 @@
     </row>
     <row r="30" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1600x900</v>
       </c>
       <c r="B30" t="s">
@@ -36483,7 +36443,7 @@
     </row>
     <row r="31" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1920x1080</v>
       </c>
       <c r="B31" t="s">
@@ -36545,7 +36505,7 @@
     </row>
     <row r="32" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1920x1080</v>
       </c>
       <c r="B32" t="s">
@@ -36607,7 +36567,7 @@
     </row>
     <row r="33" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1920x1080</v>
       </c>
       <c r="B33" t="s">
@@ -36669,7 +36629,7 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>2560x1440</v>
       </c>
       <c r="B34" t="s">
@@ -36723,7 +36683,7 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>2560x1440</v>
       </c>
       <c r="B35" t="s">
@@ -36777,7 +36737,7 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>2560x1440</v>
       </c>
       <c r="B36" t="s">
@@ -36831,7 +36791,7 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>3840x2160</v>
       </c>
       <c r="B37" t="s">
@@ -36885,7 +36845,7 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>3840x2160</v>
       </c>
       <c r="B38" t="s">
@@ -36939,7 +36899,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>3840x2160</v>
       </c>
       <c r="B39" t="s">
@@ -37149,15 +37109,15 @@
         <v>1</v>
       </c>
       <c r="V42" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V42:V47" ca="1" si="30">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
         <v>1024x576</v>
       </c>
       <c r="W42">
-        <f ca="1">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="W42:W47" ca="1" si="31">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
         <v>589824</v>
       </c>
       <c r="X42">
-        <f ca="1">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="X42:X47" ca="1" si="32">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
         <v>13</v>
       </c>
       <c r="Y42" s="3">
@@ -37173,41 +37133,41 @@
         <v>65.536000000000001</v>
       </c>
       <c r="AB42" s="4">
-        <f ca="1">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB42:AB47" ca="1" si="33">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
         <v>90.549700000000001</v>
       </c>
       <c r="AC42" s="4">
-        <f ca="1">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC42:AC47" ca="1" si="34">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
         <v>1350</v>
       </c>
       <c r="AD42" s="4">
-        <f ca="1">AC42/AB42</f>
+        <f t="shared" ref="AD42:AD47" ca="1" si="35">AC42/AB42</f>
         <v>14.908939510567125</v>
       </c>
       <c r="AE42" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE42:AE47" ca="1" si="36">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
         <v>28.975260922224606</v>
       </c>
       <c r="AF42" s="4">
-        <f ca="1">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF42:AF47" ca="1" si="37">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
         <v>8.0264551963270936</v>
       </c>
       <c r="AG42">
-        <f ca="1">(AE42-AD42)/(AD42+AE42)/2*100</f>
+        <f t="shared" ref="AG42:AG47" ca="1" si="38">(AE42-AD42)/(AD42+AE42)/2*100</f>
         <v>16.026635181834894</v>
       </c>
       <c r="AH42">
-        <f ca="1">(AD42-AF42)/(AF42+AD42)/2*100</f>
+        <f t="shared" ref="AH42:AH47" ca="1" si="39">(AD42-AF42)/(AF42+AD42)/2*100</f>
         <v>15.004067735034891</v>
       </c>
       <c r="AI42">
-        <f ca="1">AB42/AC42</f>
+        <f t="shared" ref="AI42:AI47" ca="1" si="40">AB42/AC42</f>
         <v>6.7073851851851857E-2</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" ref="A43:A59" si="8">_xlfn.CONCAT(D43,"x",E43)</f>
+        <f t="shared" ref="A43:A59" si="41">_xlfn.CONCAT(D43,"x",E43)</f>
         <v>1024x576</v>
       </c>
       <c r="B43" t="s">
@@ -37259,65 +37219,65 @@
         <v>3.4258900000000002E-2</v>
       </c>
       <c r="V43" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>1280x720</v>
       </c>
       <c r="W43">
-        <f ca="1">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="31"/>
         <v>921600</v>
       </c>
       <c r="X43">
-        <f ca="1">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y43" s="3">
-        <f t="shared" ref="Y43:Y47" si="9">K43/1000000000</f>
+        <f t="shared" ref="Y43:Y47" si="42">K43/1000000000</f>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" ref="Z43:Z47" si="10">L43/1000</f>
+        <f t="shared" ref="Z43:Z47" si="43">L43/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" ref="AA43:AA47" si="11">M43/1000</f>
+        <f t="shared" ref="AA43:AA47" si="44">M43/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB43" s="4">
-        <f ca="1">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>90.870699999999999</v>
       </c>
       <c r="AC43" s="4">
-        <f ca="1">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>947</v>
       </c>
       <c r="AD43" s="4">
-        <f ca="1">AC43/AB43</f>
+        <f t="shared" ca="1" si="35"/>
         <v>10.421400957624405</v>
       </c>
       <c r="AE43" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>20.34881946323884</v>
       </c>
       <c r="AF43" s="4">
-        <f ca="1">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="37"/>
         <v>5.6285389438609528</v>
       </c>
       <c r="AG43">
-        <f ca="1">(AE43-AD43)/(AD43+AE43)/2*100</f>
+        <f t="shared" ca="1" si="38"/>
         <v>16.131536222085867</v>
       </c>
       <c r="AH43">
-        <f ca="1">(AD43-AF43)/(AF43+AD43)/2*100</f>
+        <f t="shared" ca="1" si="39"/>
         <v>14.93109021959606</v>
       </c>
       <c r="AI43">
-        <f ca="1">AB43/AC43</f>
+        <f t="shared" ca="1" si="40"/>
         <v>9.5956388595564948E-2</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1024x576</v>
       </c>
       <c r="B44" t="s">
@@ -37369,65 +37329,65 @@
         <v>3.45122E-2</v>
       </c>
       <c r="V44" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>1600x900</v>
       </c>
       <c r="W44">
-        <f ca="1">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="31"/>
         <v>1440000</v>
       </c>
       <c r="X44">
-        <f ca="1">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="44"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB44" s="4">
-        <f ca="1">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>90.989900000000006</v>
       </c>
       <c r="AC44" s="4">
-        <f ca="1">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>664</v>
       </c>
       <c r="AD44" s="4">
-        <f ca="1">AC44/AB44</f>
+        <f t="shared" ca="1" si="35"/>
         <v>7.2975132404805363</v>
       </c>
       <c r="AE44" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>14.149615201214605</v>
       </c>
       <c r="AF44" s="4">
-        <f ca="1">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="37"/>
         <v>3.8900969801177148</v>
       </c>
       <c r="AG44">
-        <f ca="1">(AE44-AD44)/(AD44+AE44)/2*100</f>
+        <f t="shared" ca="1" si="38"/>
         <v>15.974404171080003</v>
       </c>
       <c r="AH44">
-        <f ca="1">(AD44-AF44)/(AF44+AD44)/2*100</f>
+        <f t="shared" ca="1" si="39"/>
         <v>15.228525990694605</v>
       </c>
       <c r="AI44">
-        <f ca="1">AB44/AC44</f>
+        <f t="shared" ca="1" si="40"/>
         <v>0.13703298192771085</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1280x720</v>
       </c>
       <c r="B45" t="s">
@@ -37479,65 +37439,65 @@
         <v>4.8749599999999997E-2</v>
       </c>
       <c r="V45" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>1920x1080</v>
       </c>
       <c r="W45">
-        <f ca="1">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="31"/>
         <v>2073600</v>
       </c>
       <c r="X45">
-        <f ca="1">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="44"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB45" s="4">
-        <f ca="1">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>91.346800000000002</v>
       </c>
       <c r="AC45" s="4">
-        <f ca="1">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>501</v>
       </c>
       <c r="AD45" s="4">
-        <f ca="1">AC45/AB45</f>
+        <f t="shared" ca="1" si="35"/>
         <v>5.4845927826700001</v>
       </c>
       <c r="AE45" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>10.584754777693687</v>
       </c>
       <c r="AF45" s="4">
-        <f ca="1">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="37"/>
         <v>2.9078474077994283</v>
       </c>
       <c r="AG45">
-        <f ca="1">(AE45-AD45)/(AD45+AE45)/2*100</f>
+        <f t="shared" ca="1" si="38"/>
         <v>15.869225479955512</v>
       </c>
       <c r="AH45">
-        <f ca="1">(AD45-AF45)/(AF45+AD45)/2*100</f>
+        <f t="shared" ca="1" si="39"/>
         <v>15.351586167970307</v>
       </c>
       <c r="AI45">
-        <f ca="1">AB45/AC45</f>
+        <f t="shared" ca="1" si="40"/>
         <v>0.18232894211576847</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1280x720</v>
       </c>
       <c r="B46" t="s">
@@ -37589,65 +37549,65 @@
         <v>4.8888099999999997E-2</v>
       </c>
       <c r="V46" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>2560x1440</v>
       </c>
       <c r="W46">
-        <f ca="1">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="31"/>
         <v>3686400</v>
       </c>
       <c r="X46">
-        <f ca="1">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="44"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB46" s="4">
-        <f ca="1">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>92.867599999999996</v>
       </c>
       <c r="AC46" s="4">
-        <f ca="1">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>324</v>
       </c>
       <c r="AD46" s="4">
-        <f ca="1">AC46/AB46</f>
+        <f t="shared" ca="1" si="35"/>
         <v>3.4888378724119069</v>
       </c>
       <c r="AE46" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>6.8131029596119257</v>
       </c>
       <c r="AF46" s="4">
-        <f ca="1">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="37"/>
         <v>1.8506455051521968</v>
       </c>
       <c r="AG46">
-        <f ca="1">(AE46-AD46)/(AD46+AE46)/2*100</f>
+        <f t="shared" ca="1" si="38"/>
         <v>16.134168994964813</v>
       </c>
       <c r="AH46">
-        <f ca="1">(AD46-AF46)/(AF46+AD46)/2*100</f>
+        <f t="shared" ca="1" si="39"/>
         <v>15.340363958648192</v>
       </c>
       <c r="AI46">
-        <f ca="1">AB46/AC46</f>
+        <f t="shared" ca="1" si="40"/>
         <v>0.28662839506172838</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1280x720</v>
       </c>
       <c r="B47" t="s">
@@ -37701,65 +37661,65 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$42,(ROW()-ROW($V$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>3840x2160</v>
       </c>
       <c r="W47">
-        <f ca="1">INDEX(OFFSET($D$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$42,(ROW()-ROW($W$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="31"/>
         <v>8294400</v>
       </c>
       <c r="X47">
-        <f ca="1">INDEX(OFFSET($J$42,(ROW()-ROW($X$42))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>13</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>4.2947051519999997</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="44"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB47" s="4">
-        <f ca="1">SUM(OFFSET($N$42,(ROW()-ROW($AB$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>94.806300000000007</v>
       </c>
       <c r="AC47" s="4">
-        <f ca="1">SUM(OFFSET($O$42,(ROW()-ROW($AC$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>177</v>
       </c>
       <c r="AD47" s="4">
-        <f ca="1">AC47/AB47</f>
+        <f t="shared" ca="1" si="35"/>
         <v>1.8669645371668337</v>
       </c>
       <c r="AE47" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$42,(ROW()-ROW($AE$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="36"/>
         <v>3.6581930721139599</v>
       </c>
       <c r="AF47" s="4">
-        <f ca="1">1/MIN(OFFSET($P$42,(ROW()-ROW($AF$42))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="37"/>
         <v>0.98254025958713653</v>
       </c>
       <c r="AG47">
-        <f ca="1">(AE47-AD47)/(AD47+AE47)/2*100</f>
+        <f t="shared" ca="1" si="38"/>
         <v>16.209750577416461</v>
       </c>
       <c r="AH47">
-        <f ca="1">(AD47-AF47)/(AF47+AD47)/2*100</f>
+        <f t="shared" ca="1" si="39"/>
         <v>15.518911892817203</v>
       </c>
       <c r="AI47">
-        <f ca="1">AB47/AC47</f>
+        <f t="shared" ca="1" si="40"/>
         <v>0.53562881355932213</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1600x900</v>
       </c>
       <c r="B48" t="s">
@@ -37824,7 +37784,7 @@
     </row>
     <row r="49" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1600x900</v>
       </c>
       <c r="B49" t="s">
@@ -37889,7 +37849,7 @@
     </row>
     <row r="50" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1600x900</v>
       </c>
       <c r="B50" t="s">
@@ -37954,7 +37914,7 @@
     </row>
     <row r="51" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1920x1080</v>
       </c>
       <c r="B51" t="s">
@@ -38016,7 +37976,7 @@
     </row>
     <row r="52" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1920x1080</v>
       </c>
       <c r="B52" t="s">
@@ -38078,7 +38038,7 @@
     </row>
     <row r="53" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1920x1080</v>
       </c>
       <c r="B53" t="s">
@@ -38140,7 +38100,7 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>2560x1440</v>
       </c>
       <c r="B54" t="s">
@@ -38194,7 +38154,7 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>2560x1440</v>
       </c>
       <c r="B55" t="s">
@@ -38248,7 +38208,7 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>2560x1440</v>
       </c>
       <c r="B56" t="s">
@@ -38302,7 +38262,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>3840x2160</v>
       </c>
       <c r="B57" t="s">
@@ -38356,7 +38316,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>3840x2160</v>
       </c>
       <c r="B58" t="s">
@@ -38410,7 +38370,7 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>3840x2160</v>
       </c>
       <c r="B59" t="s">
@@ -38620,15 +38580,15 @@
         <v>1</v>
       </c>
       <c r="V62" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="V62:V67" ca="1" si="45">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
         <v>1024x576</v>
       </c>
       <c r="W62">
-        <f ca="1">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="W62:W67" ca="1" si="46">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
         <v>589824</v>
       </c>
       <c r="X62">
-        <f ca="1">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ref="X62:X67" ca="1" si="47">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
         <v>68</v>
       </c>
       <c r="Y62" s="3">
@@ -38644,41 +38604,41 @@
         <v>65.536000000000001</v>
       </c>
       <c r="AB62" s="4">
-        <f ca="1">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AB62:AB67" ca="1" si="48">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
         <v>90.080000000000013</v>
       </c>
       <c r="AC62" s="4">
-        <f ca="1">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AC62:AC67" ca="1" si="49">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
         <v>7360</v>
       </c>
       <c r="AD62" s="4">
-        <f ca="1">AC62/AB62</f>
+        <f t="shared" ref="AD62:AD67" ca="1" si="50">AC62/AB62</f>
         <v>81.705150976909408</v>
       </c>
       <c r="AE62" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AE62:AE67" ca="1" si="51">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
         <v>146.3978801586953</v>
       </c>
       <c r="AF62" s="4">
-        <f ca="1">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ref="AF62:AF67" ca="1" si="52">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
         <v>49.339833034005011</v>
       </c>
       <c r="AG62">
-        <f ca="1">(AE62-AD62)/(AD62+AE62)/2*100</f>
+        <f t="shared" ref="AG62:AG67" ca="1" si="53">(AE62-AD62)/(AD62+AE62)/2*100</f>
         <v>14.180593931548149</v>
       </c>
       <c r="AH62">
-        <f ca="1">(AD62-AF62)/(AF62+AD62)/2*100</f>
+        <f t="shared" ref="AH62:AH67" ca="1" si="54">(AD62-AF62)/(AF62+AD62)/2*100</f>
         <v>12.348934294275914</v>
       </c>
       <c r="AI62">
-        <f ca="1">AB62/AC62</f>
+        <f t="shared" ref="AI62:AI67" ca="1" si="55">AB62/AC62</f>
         <v>1.223913043478261E-2</v>
       </c>
     </row>
     <row r="63" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" ref="A63:A82" si="12">_xlfn.CONCAT(D63,"x",E63)</f>
+        <f t="shared" ref="A63:A82" si="56">_xlfn.CONCAT(D63,"x",E63)</f>
         <v>1024x576</v>
       </c>
       <c r="B63" t="s">
@@ -38730,65 +38690,65 @@
         <v>6.7859000000000001E-3</v>
       </c>
       <c r="V63" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="45"/>
         <v>1280x720</v>
       </c>
       <c r="W63">
-        <f ca="1">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>921600</v>
       </c>
       <c r="X63">
-        <f ca="1">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="47"/>
         <v>68</v>
       </c>
       <c r="Y63" s="3">
-        <f t="shared" ref="Y63:Y67" si="13">K63/1000000000</f>
+        <f t="shared" ref="Y63:Y67" si="57">K63/1000000000</f>
         <v>10.736762880000001</v>
       </c>
       <c r="Z63" s="3">
-        <f t="shared" ref="Z63:Z67" si="14">L63/1000</f>
+        <f t="shared" ref="Z63:Z67" si="58">L63/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="AA63" s="3">
-        <f t="shared" ref="AA63:AA67" si="15">M63/1000</f>
+        <f t="shared" ref="AA63:AA67" si="59">M63/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AB63" s="4">
-        <f ca="1">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="48"/>
         <v>90.0869</v>
       </c>
       <c r="AC63" s="4">
-        <f ca="1">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="49"/>
         <v>5411</v>
       </c>
       <c r="AD63" s="4">
-        <f ca="1">AC63/AB63</f>
+        <f t="shared" ca="1" si="50"/>
         <v>60.064226874273615</v>
       </c>
       <c r="AE63" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="51"/>
         <v>101.70353419781338</v>
       </c>
       <c r="AF63" s="4">
-        <f ca="1">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="52"/>
         <v>35.683317692145749</v>
       </c>
       <c r="AG63">
-        <f ca="1">(AE63-AD63)/(AD63+AE63)/2*100</f>
+        <f t="shared" ca="1" si="53"/>
         <v>12.870088281986064</v>
       </c>
       <c r="AH63">
-        <f ca="1">(AD63-AF63)/(AF63+AD63)/2*100</f>
+        <f t="shared" ca="1" si="54"/>
         <v>12.731871763674842</v>
       </c>
       <c r="AI63">
-        <f ca="1">AB63/AC63</f>
+        <f t="shared" ca="1" si="55"/>
         <v>1.6648844945481425E-2</v>
       </c>
     </row>
     <row r="64" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1024x576</v>
       </c>
       <c r="B64" t="s">
@@ -38840,65 +38800,65 @@
         <v>6.8307000000000003E-3</v>
       </c>
       <c r="V64" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="45"/>
         <v>1600x900</v>
       </c>
       <c r="W64">
-        <f ca="1">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>1440000</v>
       </c>
       <c r="X64">
-        <f ca="1">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="47"/>
         <v>68</v>
       </c>
       <c r="Y64" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="57"/>
         <v>10.736762880000001</v>
       </c>
       <c r="Z64" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="58"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA64" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="59"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB64" s="4">
-        <f ca="1">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="48"/>
         <v>90.153199999999998</v>
       </c>
       <c r="AC64" s="4">
-        <f ca="1">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="49"/>
         <v>4095</v>
       </c>
       <c r="AD64" s="4">
-        <f ca="1">AC64/AB64</f>
+        <f t="shared" ca="1" si="50"/>
         <v>45.422680503853442</v>
       </c>
       <c r="AE64" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="51"/>
         <v>73.53049309548669</v>
       </c>
       <c r="AF64" s="4">
-        <f ca="1">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="52"/>
         <v>27.548740609323044</v>
       </c>
       <c r="AG64">
-        <f ca="1">(AE64-AD64)/(AD64+AE64)/2*100</f>
+        <f t="shared" ca="1" si="53"/>
         <v>11.814654347225071</v>
       </c>
       <c r="AH64">
-        <f ca="1">(AD64-AF64)/(AF64+AD64)/2*100</f>
+        <f t="shared" ca="1" si="54"/>
         <v>12.247219268765818</v>
       </c>
       <c r="AI64">
-        <f ca="1">AB64/AC64</f>
+        <f t="shared" ca="1" si="55"/>
         <v>2.2015433455433456E-2</v>
       </c>
     </row>
     <row r="65" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1280x720</v>
       </c>
       <c r="B65" t="s">
@@ -38950,65 +38910,65 @@
         <v>9.8324999999999992E-3</v>
       </c>
       <c r="V65" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="45"/>
         <v>1920x1080</v>
       </c>
       <c r="W65">
-        <f ca="1">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>2073600</v>
       </c>
       <c r="X65">
-        <f ca="1">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="47"/>
         <v>68</v>
       </c>
       <c r="Y65" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="57"/>
         <v>10.736762880000001</v>
       </c>
       <c r="Z65" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="58"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA65" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="59"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB65" s="4">
-        <f ca="1">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="48"/>
         <v>90.203800000000001</v>
       </c>
       <c r="AC65" s="4">
-        <f ca="1">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="49"/>
         <v>3177</v>
       </c>
       <c r="AD65" s="4">
-        <f ca="1">AC65/AB65</f>
+        <f t="shared" ca="1" si="50"/>
         <v>35.22024571026941</v>
       </c>
       <c r="AE65" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="51"/>
         <v>56.268920424492734</v>
       </c>
       <c r="AF65" s="4">
-        <f ca="1">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="52"/>
         <v>21.71906390834555</v>
       </c>
       <c r="AG65">
-        <f ca="1">(AE65-AD65)/(AD65+AE65)/2*100</f>
+        <f t="shared" ca="1" si="53"/>
         <v>11.503370072921502</v>
       </c>
       <c r="AH65">
-        <f ca="1">(AD65-AF65)/(AF65+AD65)/2*100</f>
+        <f t="shared" ca="1" si="54"/>
         <v>11.855765280924629</v>
       </c>
       <c r="AI65">
-        <f ca="1">AB65/AC65</f>
+        <f t="shared" ca="1" si="55"/>
         <v>2.8392760465848287E-2</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1280x720</v>
       </c>
       <c r="B66" t="s">
@@ -39060,65 +39020,65 @@
         <v>9.5378000000000008E-3</v>
       </c>
       <c r="V66" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="45"/>
         <v>2560x1440</v>
       </c>
       <c r="W66">
-        <f ca="1">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>3686400</v>
       </c>
       <c r="X66">
-        <f ca="1">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="47"/>
         <v>68</v>
       </c>
       <c r="Y66" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="57"/>
         <v>10.736762880000001</v>
       </c>
       <c r="Z66" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="58"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA66" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="59"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB66" s="4">
-        <f ca="1">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="48"/>
         <v>90.234899999999996</v>
       </c>
       <c r="AC66" s="4">
-        <f ca="1">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="49"/>
         <v>2008</v>
       </c>
       <c r="AD66" s="4">
-        <f ca="1">AC66/AB66</f>
+        <f t="shared" ca="1" si="50"/>
         <v>22.253030700981551</v>
       </c>
       <c r="AE66" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="51"/>
         <v>37.927921777454124</v>
       </c>
       <c r="AF66" s="4">
-        <f ca="1">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="52"/>
         <v>12.752450702213698</v>
       </c>
       <c r="AG66">
-        <f ca="1">(AE66-AD66)/(AD66+AE66)/2*100</f>
+        <f t="shared" ca="1" si="53"/>
         <v>13.023133093555868</v>
       </c>
       <c r="AH66">
-        <f ca="1">(AD66-AF66)/(AF66+AD66)/2*100</f>
+        <f t="shared" ca="1" si="54"/>
         <v>13.570131902114985</v>
       </c>
       <c r="AI66">
-        <f ca="1">AB66/AC66</f>
+        <f t="shared" ca="1" si="55"/>
         <v>4.4937699203187249E-2</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1280x720</v>
       </c>
       <c r="B67" t="s">
@@ -39172,65 +39132,65 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4" t="str">
-        <f ca="1">INDEX(OFFSET($A$62,(ROW()-ROW($V$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="45"/>
         <v>3840x2160</v>
       </c>
       <c r="W67">
-        <f ca="1">INDEX(OFFSET($D$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1) * INDEX(OFFSET($E$62,(ROW()-ROW($W$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>8294400</v>
       </c>
       <c r="X67">
-        <f ca="1">INDEX(OFFSET($J$62,(ROW()-ROW($X$62))*$S$2,,$S$2,),1)</f>
+        <f t="shared" ca="1" si="47"/>
         <v>68</v>
       </c>
       <c r="Y67" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="57"/>
         <v>10.736762880000001</v>
       </c>
       <c r="Z67" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="58"/>
         <v>49.152000000000001</v>
       </c>
       <c r="AA67" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="59"/>
         <v>65.536000000000001</v>
       </c>
       <c r="AB67" s="4">
-        <f ca="1">SUM(OFFSET($N$62,(ROW()-ROW($AB$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="48"/>
         <v>90.523300000000006</v>
       </c>
       <c r="AC67" s="4">
-        <f ca="1">SUM(OFFSET($O$62,(ROW()-ROW($AC$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="49"/>
         <v>1184</v>
       </c>
       <c r="AD67" s="4">
-        <f ca="1">AC67/AB67</f>
+        <f t="shared" ca="1" si="50"/>
         <v>13.079505497479653</v>
       </c>
       <c r="AE67" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$62,(ROW()-ROW($AE$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="51"/>
         <v>23.114599874718866</v>
       </c>
       <c r="AF67" s="4">
-        <f ca="1">1/MIN(OFFSET($P$62,(ROW()-ROW($AF$62))*$S$2,,$S$2,))</f>
+        <f t="shared" ca="1" si="52"/>
         <v>8.2124731041505843</v>
       </c>
       <c r="AG67">
-        <f ca="1">(AE67-AD67)/(AD67+AE67)/2*100</f>
+        <f t="shared" ca="1" si="53"/>
         <v>13.862884956050589</v>
       </c>
       <c r="AH67">
-        <f ca="1">(AD67-AF67)/(AF67+AD67)/2*100</f>
+        <f t="shared" ca="1" si="54"/>
         <v>11.429262832709263</v>
       </c>
       <c r="AI67">
-        <f ca="1">AB67/AC67</f>
+        <f t="shared" ca="1" si="55"/>
         <v>7.6455489864864876E-2</v>
       </c>
     </row>
     <row r="68" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1600x900</v>
       </c>
       <c r="B68" t="s">
@@ -39295,7 +39255,7 @@
     </row>
     <row r="69" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1600x900</v>
       </c>
       <c r="B69" t="s">
@@ -39360,7 +39320,7 @@
     </row>
     <row r="70" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1600x900</v>
       </c>
       <c r="B70" t="s">
@@ -39425,7 +39385,7 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1920x1080</v>
       </c>
       <c r="B71" t="s">
@@ -39487,7 +39447,7 @@
     </row>
     <row r="72" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1920x1080</v>
       </c>
       <c r="B72" t="s">
@@ -39549,7 +39509,7 @@
     </row>
     <row r="73" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1920x1080</v>
       </c>
       <c r="B73" t="s">
@@ -39611,7 +39571,7 @@
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>2560x1440</v>
       </c>
       <c r="B74" t="s">
@@ -39665,7 +39625,7 @@
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>2560x1440</v>
       </c>
       <c r="B75" t="s">
@@ -39719,7 +39679,7 @@
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>2560x1440</v>
       </c>
       <c r="B76" t="s">
@@ -39773,7 +39733,7 @@
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>3840x2160</v>
       </c>
       <c r="B77" t="s">
@@ -39827,7 +39787,7 @@
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>3840x2160</v>
       </c>
       <c r="B78" t="s">
@@ -39881,7 +39841,7 @@
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>3840x2160</v>
       </c>
       <c r="B79" t="s">
@@ -39935,19 +39895,19 @@
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>x</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>x</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>x</v>
       </c>
     </row>
@@ -60522,7 +60482,7 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AG4"/>
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60655,7 +60615,7 @@
         <v>85</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -60875,8 +60835,8 @@
         <v>14.745790169121193</v>
       </c>
       <c r="AH3">
-        <f ca="1">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2) * -1</f>
-        <v>14.1</v>
+        <f ca="1">(AC3-$AC$2)/ABS($AC$2)*100*-1</f>
+        <v>14.149794029518468</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -60980,8 +60940,8 @@
         <v>13.331554194897773</v>
       </c>
       <c r="AH4">
-        <f ca="1">ROUND((AC4-$AC$2)/ABS($AC$2)*100, $T$2) * -1</f>
-        <v>-1.1000000000000001</v>
+        <f t="shared" ref="AH4:AH7" ca="1" si="12">(AC4-$AC$2)/ABS($AC$2)*100*-1</f>
+        <v>-1.0878897157093461</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -61085,8 +61045,8 @@
         <v>11.088947925794535</v>
       </c>
       <c r="AH5">
-        <f ca="1">ROUND((AC5-$AC$2)/ABS($AC$2)*100, $T$2) * -1</f>
-        <v>55.6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>55.561839785422116</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -61190,8 +61150,8 @@
         <v>10.996560618408688</v>
       </c>
       <c r="AH6">
-        <f ca="1">ROUND((AC6-$AC$2)/ABS($AC$2)*100, $T$2) * -1</f>
-        <v>55.6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>55.576378033930155</v>
       </c>
       <c r="AI6" t="s">
         <v>82</v>
@@ -61267,11 +61227,11 @@
         <v>8.5894103039999994</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" ref="Y7" si="12">L7/1000</f>
+        <f t="shared" ref="Y7" si="13">L7/1000</f>
         <v>49.152000000000001</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" ref="Z7" si="13">M7/1000</f>
+        <f t="shared" ref="Z7" si="14">M7/1000</f>
         <v>65.536000000000001</v>
       </c>
       <c r="AA7" s="4">
@@ -61283,7 +61243,7 @@
         <v>2299</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" ref="AC7" ca="1" si="14">AB7/AA7</f>
+        <f t="shared" ref="AC7" ca="1" si="15">AB7/AA7</f>
         <v>25.475349635045394</v>
       </c>
       <c r="AD7" s="4">
@@ -61303,16 +61263,16 @@
         <v>11.621787304045586</v>
       </c>
       <c r="AH7">
-        <f ca="1">ROUND((AC7-$AC$2)/ABS($AC$2)*100, $T$2) * -1</f>
-        <v>59.2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>59.168841873981791</v>
       </c>
       <c r="AI7">
         <f ca="1">AH3+AH4+AH6</f>
-        <v>68.599999999999994</v>
+        <v>68.638282347739278</v>
       </c>
       <c r="AJ7">
         <f ca="1">AI7-AH7</f>
-        <v>9.3999999999999915</v>
+        <v>9.4694404737574871</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA3C837-1F96-4BDE-8DB8-8A5703C32C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79197FD-04EC-491B-ABAB-B20AEBDB1431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="801" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Stationary Optimisations" sheetId="10" r:id="rId4"/>
     <sheet name="Sierpinski Optimisations" sheetId="7" r:id="rId5"/>
     <sheet name="Planet Optimisations" sheetId="11" r:id="rId6"/>
-    <sheet name="Devices Mandelbulb" sheetId="12" r:id="rId7"/>
-    <sheet name="Devices Sierpinski" sheetId="14" r:id="rId8"/>
-    <sheet name="Devices Planet" sheetId="15" r:id="rId9"/>
-    <sheet name="Devices Trivial" sheetId="20" r:id="rId10"/>
-    <sheet name="Resolutions Mandelbulb" sheetId="13" r:id="rId11"/>
-    <sheet name="Resolutions Sierpinski" sheetId="21" r:id="rId12"/>
-    <sheet name="Resolutions Planet" sheetId="22" r:id="rId13"/>
-    <sheet name="Resolutions Trivial" sheetId="19" r:id="rId14"/>
-    <sheet name="Resolutions 970 ME NO GUI" sheetId="18" r:id="rId15"/>
+    <sheet name="Planet Optimisations OpenCL C" sheetId="23" r:id="rId7"/>
+    <sheet name="Devices Mandelbulb" sheetId="12" r:id="rId8"/>
+    <sheet name="Devices Sierpinski" sheetId="14" r:id="rId9"/>
+    <sheet name="Devices Planet" sheetId="15" r:id="rId10"/>
+    <sheet name="Devices Trivial" sheetId="20" r:id="rId11"/>
+    <sheet name="Resolutions Mandelbulb" sheetId="13" r:id="rId12"/>
+    <sheet name="Resolutions Sierpinski" sheetId="21" r:id="rId13"/>
+    <sheet name="Resolutions Planet" sheetId="22" r:id="rId14"/>
+    <sheet name="Resolutions Trivial" sheetId="19" r:id="rId15"/>
+    <sheet name="Resolutions 970 ME NO GUI" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="99">
   <si>
     <t>NVIDIA GeForce RTX 3060 Ti</t>
   </si>
@@ -337,6 +338,15 @@
   </si>
   <si>
     <t>Mean FPS % Decrease</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>OpenCL C</t>
+  </si>
+  <si>
+    <t>PLANET</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AC84AE5-40AE-4DA8-AE46-6013BF07BC73}" type="CELLRANGE">
+                    <a:fld id="{D67140DC-AEAA-41B2-9CA2-57D60483E4C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1176,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADE986C8-8732-4CBA-93DC-2EEB5CB5E99B}" type="CELLRANGE">
+                    <a:fld id="{46E3C727-8DB6-4031-973C-B970CB4BEF3B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1210,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0731AF2-D77C-4AB7-BD1B-023D52AA064A}" type="CELLRANGE">
+                    <a:fld id="{38F4FE83-F47E-4D56-8CBC-B7363DBF74C2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1244,7 +1254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52263530-CAC7-48D7-9F83-CA13BE5FC449}" type="CELLRANGE">
+                    <a:fld id="{5A3D0F21-4514-4B2A-A7F4-460354291A73}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1278,7 +1288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{616FF9D3-22C5-4FDD-A07F-3EE3F4E8BD48}" type="CELLRANGE">
+                    <a:fld id="{5C286C13-FE2F-44B3-9165-574CEFEBCBA6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1312,7 +1322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D1216AA-A90B-43BB-AD85-88BFFABD7889}" type="CELLRANGE">
+                    <a:fld id="{3B7DE170-1835-475B-9D6A-E46031340343}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2688,7 +2698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57554F1A-B303-4D11-9022-FAC8F21D4AD2}" type="CELLRANGE">
+                    <a:fld id="{F3297124-74F4-4911-A9AA-1E8100BFA1C1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2722,7 +2732,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0344E90E-8138-4ECC-8C30-9DC5DFCDDAB9}" type="CELLRANGE">
+                    <a:fld id="{D3317872-102B-44FF-9460-ECD585F94010}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2756,7 +2766,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDB66066-E28F-4957-9B20-E91F6AAA6DF1}" type="CELLRANGE">
+                    <a:fld id="{257C4019-C1E3-47E3-A7FD-A85F8472A2A7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2790,7 +2800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EF29CE5-2DA5-4FC6-B2D2-3D1C0F14CBB5}" type="CELLRANGE">
+                    <a:fld id="{004A0D5F-97B9-4A8F-A6B1-DC57BF6C4738}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2824,7 +2834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDB55CBD-B4C0-44AB-B74D-5B43F4C200D8}" type="CELLRANGE">
+                    <a:fld id="{DD611D06-BFEA-4880-94D9-E5CB7C74DF7B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4294,7 +4304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95DE841A-A843-4D46-A7C0-B285DC4557AA}" type="CELLRANGE">
+                    <a:fld id="{7BC0168C-3A87-4A4A-BA2E-4A78335394C1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4328,7 +4338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F76CE95-05F9-41CE-BCF2-31364ABB04A0}" type="CELLRANGE">
+                    <a:fld id="{5C3336E4-E703-4593-9306-0149AD95A62A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4362,7 +4372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DB9E547-C1BE-4BDA-9D0A-68A74A7D22D6}" type="CELLRANGE">
+                    <a:fld id="{FA668BF6-A6C4-442E-BFE5-57EF4A190D26}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4396,7 +4406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{656DDAB8-A922-4F7C-9255-92AD26B1C691}" type="CELLRANGE">
+                    <a:fld id="{79762663-F2C0-4FEA-890E-5F2F588877D7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4430,7 +4440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{990420CD-41F2-4068-AADB-2A177C57CAF4}" type="CELLRANGE">
+                    <a:fld id="{D68B8F59-1FEB-4D9B-A530-E3DD0F20E820}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5806,7 +5816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15A50B9D-9A2C-4ED7-963E-A1D07AC8BB29}" type="CELLRANGE">
+                    <a:fld id="{32B1B37B-1917-4690-B300-862EDF4B5676}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5840,7 +5850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{141A0C66-1A9E-45BB-866F-F8832A2487F3}" type="CELLRANGE">
+                    <a:fld id="{0F23BD6F-5D9E-4444-B2E1-403EFF04B383}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5874,7 +5884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDA72275-9F2B-4C81-B73F-46578129235A}" type="CELLRANGE">
+                    <a:fld id="{0D4BCCD8-C3CF-45A9-B847-DAB55C5531E8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5908,7 +5918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BBA7F3A-AD8C-431D-B0B3-7CB3571148A0}" type="CELLRANGE">
+                    <a:fld id="{D3E739D9-ECA1-4939-9EC8-E470FB5DD049}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5942,7 +5952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECAE6CF0-0134-4186-8DDC-8B99CE2BA976}" type="CELLRANGE">
+                    <a:fld id="{7E54020B-41AB-4348-8383-F3830FA6A279}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6629,7 +6639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0545E9C5-ACCA-4695-9CA9-D859AF332F6F}" type="CELLRANGE">
+                    <a:fld id="{00A60F10-7DFB-48C9-963D-8E1F36C7808B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6663,7 +6673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F85E1610-C7A6-4E74-9542-5213EE7A3D18}" type="CELLRANGE">
+                    <a:fld id="{FF54EF38-0657-43AA-8F1F-3221D482C292}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6697,7 +6707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90CD37F9-85CA-4BF1-BF52-087C32F9C6E1}" type="CELLRANGE">
+                    <a:fld id="{FAADC8BD-2E7A-4AFF-AF25-8DB9DC38438A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6731,7 +6741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1DB9E9A-5381-45F2-958A-48618F81388D}" type="CELLRANGE">
+                    <a:fld id="{46E4E3F7-AC55-44C4-A056-263C903587AA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6765,7 +6775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{747B4CFA-D597-4EDA-BF9A-554BAE574149}" type="CELLRANGE">
+                    <a:fld id="{DCED2DC4-C354-4655-A92D-7B2D2E987493}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8141,7 +8151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B89DBBE5-8CAD-4E2C-AF74-DE0034A4785D}" type="CELLRANGE">
+                    <a:fld id="{CC41548F-B39C-4978-903F-EFA8CF212B4B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8175,7 +8185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CE298C4-40E7-4657-9380-300090E67C50}" type="CELLRANGE">
+                    <a:fld id="{1089E29F-5C68-4F9B-A7AA-12821B7C0886}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8209,7 +8219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC664FAA-862B-47F0-9EF5-F18816C3284B}" type="CELLRANGE">
+                    <a:fld id="{E84A3DC6-9A2B-45CE-9A70-1314499F53EE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8243,7 +8253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D774806-DBB7-4663-84C6-23282E1204FA}" type="CELLRANGE">
+                    <a:fld id="{0E57FE33-F4D0-4851-ACDE-19A723B2CC83}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8277,7 +8287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43F0F2C3-553B-4F73-A0CA-443785FDBA21}" type="CELLRANGE">
+                    <a:fld id="{7913B0D6-AECF-44FD-B1A0-4B7F8EE5E64D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9312,7 +9322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AEE6B78-394C-4E0F-B18C-FE540FE3A8E7}" type="CELLRANGE">
+                    <a:fld id="{7B09497F-2E6F-439E-BD85-D83DF097090D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9346,7 +9356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E2FAFDC-B6E0-43CF-B373-D1631347BEE4}" type="CELLRANGE">
+                    <a:fld id="{82AFA958-A121-426F-8123-472103503D0C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9380,7 +9390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCBB091F-8342-4F69-A44E-F88EDDD046CE}" type="CELLRANGE">
+                    <a:fld id="{4D5E1AE7-056E-4507-8B84-B4B368501BAE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9414,7 +9424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60C72BD9-B701-42B6-B380-04628D8AF892}" type="CELLRANGE">
+                    <a:fld id="{349EED72-CB0B-4BBD-B2B6-F795EC9A3583}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9448,7 +9458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16B0E074-AFAC-4E7D-B0CF-9BF35ED7AA2C}" type="CELLRANGE">
+                    <a:fld id="{1249E2D5-4E3B-43CF-92FA-F9EDFE4A1167}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10135,7 +10145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74958B0E-E4DB-4404-A708-EC535BA99547}" type="CELLRANGE">
+                    <a:fld id="{2EFB949F-102A-463D-8E88-33A3DE91518E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10169,7 +10179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE606454-B0DC-4CE2-9AE4-8AB0EB1BA25B}" type="CELLRANGE">
+                    <a:fld id="{62DE5D35-9E3F-4854-98F3-2966690278CE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10203,7 +10213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57024A37-B978-40BA-8A0B-AAC9E271111B}" type="CELLRANGE">
+                    <a:fld id="{EDD4B2FA-3F9F-40F4-A437-1FF151270380}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10237,7 +10247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73056C7C-8372-482E-BDFE-50C20A35A924}" type="CELLRANGE">
+                    <a:fld id="{4F164C78-28CF-4893-98CF-4445173FD381}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10271,7 +10281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5B55229-3019-4F4B-BEFD-3A6E946DAAB9}" type="CELLRANGE">
+                    <a:fld id="{947741C2-2F5F-4B2F-97F8-39CC98933B0B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11265,7 +11275,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.149794029518468</c:v>
+                  <c:v>15.109587038894324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11307,7 +11317,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.0878897157093461</c:v>
+                  <c:v>2.5702405012441542E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11349,7 +11359,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.561839785422116</c:v>
+                  <c:v>55.811130140834322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11391,7 +11401,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.576378033930155</c:v>
+                  <c:v>55.794505069682984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11433,7 +11443,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59.168841873981791</c:v>
+                  <c:v>59.344462943733355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11854,22 +11864,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>104.68244580066367</c:v>
+                  <c:v>106.98848803868702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.408202184605798</c:v>
+                  <c:v>94.048604318711909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.7632656580025</c:v>
+                  <c:v>106.75776662752214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.064213789622933</c:v>
+                  <c:v>47.600687353925395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.89294967887777</c:v>
+                  <c:v>48.0531275378058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.202234798488433</c:v>
+                  <c:v>45.208569736479248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11929,22 +11939,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>62.391934993418992</c:v>
+                  <c:v>62.641206262123212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.563604700819148</c:v>
+                  <c:v>53.176378679734384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.070690437644458</c:v>
+                  <c:v>62.625105965585043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.725828033350815</c:v>
+                  <c:v>27.680441113381171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.716757338792497</c:v>
+                  <c:v>27.690855258492302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.475349635045394</c:v>
+                  <c:v>25.467118824389921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12004,22 +12014,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.425891523695043</c:v>
+                  <c:v>36.326781192898842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.165487894864249</c:v>
+                  <c:v>29.1785082779428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.517407848321291</c:v>
+                  <c:v>36.123122049192467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.660168901855378</c:v>
+                  <c:v>17.664349104064215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.723111823974055</c:v>
+                  <c:v>17.69413563262728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.86611537204454</c:v>
+                  <c:v>15.804779365280062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12960,7 +12970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A17BA68-DA5B-422F-9E59-AEE9AB92BA55}" type="CELLRANGE">
+                    <a:fld id="{A65EBCE1-CE4A-4DF6-AFAB-AF95463D98DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12993,7 +13003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBA14255-DC40-44B6-9F1E-60C3BD9A359E}" type="CELLRANGE">
+                    <a:fld id="{B6E2983A-310A-42C9-AD8A-53917352A8D0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13027,7 +13037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7B9ACE5-4DD5-45EF-91FE-78778C3AC2A2}" type="CELLRANGE">
+                    <a:fld id="{1BAAF229-28BE-4DD0-9484-251C007698C6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13061,7 +13071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCFEC40D-F937-49E2-8EAF-9DAABD5F6AAD}" type="CELLRANGE">
+                    <a:fld id="{079D573F-B020-4CD9-8EBA-794C72E189DD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13095,7 +13105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34622313-D055-428F-9EAA-9294B2B0A77A}" type="CELLRANGE">
+                    <a:fld id="{A1940F36-644C-421C-A077-691E2C3A9749}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13129,7 +13139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77B3D797-AE56-4772-BCDB-CD439980E4F7}" type="CELLRANGE">
+                    <a:fld id="{0DB740F6-4CBA-4987-87F4-7E612A3A6220}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14671,6 +14681,1256 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Optimisation Improvement for Planet Scene</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Epsilon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$107:$D$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D536-4CB9-9044-0B9B91011950}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bounding Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$107:$E$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D536-4CB9-9044-0B9B91011950}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast Maths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$F$107:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D536-4CB9-9044-0B9B91011950}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$G$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$G$107:$G$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D536-4CB9-9044-0B9B91011950}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="229290624"/>
+        <c:axId val="228701984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229290624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Noise Function File Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228701984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228701984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean FPS Percentage Increase (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229290624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Optimisation Performance for Planet Scene</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Epsilon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$110:$D$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>68.418030672447216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.88266905657485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-864F-4004-9EAB-2389FCBB2FF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bounding Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$110:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>71.879721266414194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.66777722989991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-864F-4004-9EAB-2389FCBB2FF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast Maths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$F$110:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>48.738875364169687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.11029896790444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-864F-4004-9EAB-2389FCBB2FF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$G$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$107:$C$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenCL C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$G$110:$G$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70.190207309830114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.33761867714651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-864F-4004-9EAB-2389FCBB2FF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="229290624"/>
+        <c:axId val="228701984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="229290624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Noise Function File Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228701984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228701984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean Frames Per Second (FPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229290624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -17435,7 +18695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D82FC8F-ED90-41F9-9C17-CCBDD38F6907}" type="CELLRANGE">
+                    <a:fld id="{41C8EE97-0A6B-4B7E-BD43-0A6389572EE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17468,7 +18728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80082CEF-9A37-4962-B1B6-9A1DC4395A14}" type="CELLRANGE">
+                    <a:fld id="{2AC6BF0A-1D79-44D0-A9C3-C80D9FBBA16B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17502,7 +18762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B553A5BE-18EE-47E8-AF03-5F8D08F1648A}" type="CELLRANGE">
+                    <a:fld id="{2D7AF064-A05B-42A5-900F-BB451F84457F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17536,7 +18796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2C4A95A-D328-4EF0-9977-D419BB809DFE}" type="CELLRANGE">
+                    <a:fld id="{064B2D41-7FDE-4F76-A073-2E41E82E220E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19913,6 +21173,86 @@
 </file>
 
 <file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -27933,6 +29273,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -31610,15 +33956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>421016</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>67495</xdr:rowOff>
+      <xdr:colOff>62427</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>45084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103379</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>172269</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349907</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>149858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32327,6 +34673,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>354716</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>93569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553E4015-9F31-4685-A0FE-A4E431D307BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1553744</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>172009</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2113144-3958-44A1-B9F6-D265A82614EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32595,8 +35017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="C3:BH218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y58" sqref="Y58"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32815,6 +35237,95 @@
         <v>16.600000000000001</v>
       </c>
     </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>96</v>
+      </c>
+      <c r="D107">
+        <f ca="1">'Planet Optimisations'!$AH$3</f>
+        <v>13.7</v>
+      </c>
+      <c r="E107">
+        <f ca="1">'Planet Optimisations'!$AH$4</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F107">
+        <f ca="1">'Planet Optimisations'!$AH$5</f>
+        <v>-19</v>
+      </c>
+      <c r="G107">
+        <f ca="1">'Planet Optimisations'!$AH$6</f>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108">
+        <f ca="1">'Planet Optimisations OpenCL C'!$AH$3</f>
+        <v>5.2</v>
+      </c>
+      <c r="E108">
+        <f ca="1">'Planet Optimisations OpenCL C'!$AH$4</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F108">
+        <f ca="1">'Planet Optimisations OpenCL C'!$AH$5</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G108">
+        <f ca="1">'Planet Optimisations OpenCL C'!$AH$6</f>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110">
+        <f ca="1">'Planet Optimisations'!AC3</f>
+        <v>68.418030672447216</v>
+      </c>
+      <c r="E110">
+        <f ca="1">'Planet Optimisations'!AC4</f>
+        <v>71.879721266414194</v>
+      </c>
+      <c r="F110">
+        <f ca="1">'Planet Optimisations'!AC5</f>
+        <v>48.738875364169687</v>
+      </c>
+      <c r="G110">
+        <f ca="1">'Planet Optimisations'!AC6</f>
+        <v>70.190207309830114</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111">
+        <f ca="1">'Planet Optimisations OpenCL C'!AC3</f>
+        <v>166.88266905657485</v>
+      </c>
+      <c r="E111">
+        <f ca="1">'Planet Optimisations OpenCL C'!AC4</f>
+        <v>166.66777722989991</v>
+      </c>
+      <c r="F111">
+        <f ca="1">'Planet Optimisations OpenCL C'!AC5</f>
+        <v>162.11029896790444</v>
+      </c>
+      <c r="G111">
+        <f ca="1">'Planet Optimisations OpenCL C'!AC6</f>
+        <v>180.33761867714651</v>
+      </c>
+    </row>
     <row r="213" spans="35:42" x14ac:dyDescent="0.25">
       <c r="AK213" t="s">
         <v>78</v>
@@ -32971,6 +35482,993 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CB30D-C9E5-483D-9CCD-B595A7C7FA17}">
+  <dimension ref="A1:AM13"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>20.029399999999999</v>
+      </c>
+      <c r="O2">
+        <v>1414</v>
+      </c>
+      <c r="P2">
+        <v>2.34129E-2</v>
+      </c>
+      <c r="Q2">
+        <v>9.1561000000000003E-3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>2073600</v>
+      </c>
+      <c r="X2">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" ref="Z2:AA3" si="0">L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>60.0946</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>4229</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">AC2/AB2</f>
+        <v>70.372379548245604</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>103.82814365661956</v>
+      </c>
+      <c r="AF2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>42.759163288692768</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">(AE2-AD2)/(AD2+AE2)/2*100</f>
+        <v>9.6026589050564883</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">(AD2-AF2)/(AF2+AD2)/2*100</f>
+        <v>12.204030620952912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>20.026800000000001</v>
+      </c>
+      <c r="O3">
+        <v>1406</v>
+      </c>
+      <c r="P3">
+        <v>2.3655900000000001E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.6313000000000006E-3</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V5" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W5" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
+        <v>2073600</v>
+      </c>
+      <c r="X3">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" si="0"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>60.16109999999999</v>
+      </c>
+      <c r="AC3" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>3138</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3" ca="1" si="3">AC3/AB3</f>
+        <v>52.159950532819387</v>
+      </c>
+      <c r="AE3" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>77.371234922280593</v>
+      </c>
+      <c r="AF3" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>29.700823603838533</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG5" ca="1" si="4">(AE3-AD3)/(AD3+AE3)/2*100</f>
+        <v>9.7317430937124847</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH5" ca="1" si="5">(AD3-AF3)/(AF3+AD3)/2*100</f>
+        <v>13.717880856762795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>20.038399999999999</v>
+      </c>
+      <c r="O4">
+        <v>1409</v>
+      </c>
+      <c r="P4">
+        <v>2.3386799999999999E-2</v>
+      </c>
+      <c r="Q4">
+        <v>9.5531999999999995E-3</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>K4/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="6">L4/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="7">M4/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB4" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>60.178200000000004</v>
+      </c>
+      <c r="AC4" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>2185</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ref="AD4" ca="1" si="8">AC4/AB4</f>
+        <v>36.308829443220297</v>
+      </c>
+      <c r="AE4" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>51.584947512315907</v>
+      </c>
+      <c r="AF4" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>21.872792215035794</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.6901021882490657</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="5"/>
+        <v>12.406011397360217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1770</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>6441992192</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>20.0611</v>
+      </c>
+      <c r="O5">
+        <v>1046</v>
+      </c>
+      <c r="P5">
+        <v>3.3766299999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.29035E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5">
+        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
+        <v>68</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>K5/1000000000</f>
+        <v>6.4419921919999998</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5" si="9">L5/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" ref="AA5" si="10">M5/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AB5" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>60.082200000000007</v>
+      </c>
+      <c r="AC5" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
+        <v>5647</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ref="AD5" ca="1" si="11">AC5/AB5</f>
+        <v>93.987903239228913</v>
+      </c>
+      <c r="AE5" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>133.41516129893</v>
+      </c>
+      <c r="AF5" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
+        <v>48.659669406206056</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.6690252261497296</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="5"/>
+        <v>15.888189680482959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1770</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>6441992192</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>20.035499999999999</v>
+      </c>
+      <c r="O6">
+        <v>1046</v>
+      </c>
+      <c r="P6">
+        <v>3.3783899999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.2924700000000001E-2</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1770</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>6441992192</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>20.064499999999999</v>
+      </c>
+      <c r="O7">
+        <v>1046</v>
+      </c>
+      <c r="P7">
+        <v>3.36691E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.2833600000000001E-2</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1215</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>4294705152</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>20.0535</v>
+      </c>
+      <c r="O8">
+        <v>728</v>
+      </c>
+      <c r="P8">
+        <v>4.57189E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.91776E-2</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1215</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>4294705152</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>20.0627</v>
+      </c>
+      <c r="O9">
+        <v>728</v>
+      </c>
+      <c r="P9">
+        <v>4.5784400000000003E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.9216500000000001E-2</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1215</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4294705152</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>20.062000000000001</v>
+      </c>
+      <c r="O10">
+        <v>729</v>
+      </c>
+      <c r="P10">
+        <v>4.5799800000000002E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.93855E-2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1845</v>
+      </c>
+      <c r="J11">
+        <v>68</v>
+      </c>
+      <c r="K11">
+        <v>10736762880</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>20.022500000000001</v>
+      </c>
+      <c r="O11">
+        <v>1892</v>
+      </c>
+      <c r="P11">
+        <v>2.05509E-2</v>
+      </c>
+      <c r="Q11">
+        <v>7.3220999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1845</v>
+      </c>
+      <c r="J12">
+        <v>68</v>
+      </c>
+      <c r="K12">
+        <v>10736762880</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>20.025200000000002</v>
+      </c>
+      <c r="O12">
+        <v>1885</v>
+      </c>
+      <c r="P12">
+        <v>2.3583900000000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>7.4954000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1845</v>
+      </c>
+      <c r="J13">
+        <v>68</v>
+      </c>
+      <c r="K13">
+        <v>10736762880</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>20.034500000000001</v>
+      </c>
+      <c r="O13">
+        <v>1870</v>
+      </c>
+      <c r="P13">
+        <v>2.3384700000000001E-2</v>
+      </c>
+      <c r="Q13">
+        <v>7.4507000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9046AF66-8C1B-4DD7-9B92-F691DA4BBA16}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
@@ -33957,12 +37455,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D811C00-07CB-4F03-B932-655B80B938E4}">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI62" sqref="AI62"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI65" sqref="AI65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39917,7 +43415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B78810-1DA9-4249-846E-1F9A89936A02}">
   <dimension ref="A1:AM79"/>
   <sheetViews>
@@ -45859,7 +49357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1756E8F-5C31-4EAD-A2B3-64CE830FA41D}">
   <dimension ref="A1:AM79"/>
   <sheetViews>
@@ -51801,7 +55299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3C386F-967F-4E51-8F8A-EE80E6CEB9E4}">
   <dimension ref="A1:AM79"/>
   <sheetViews>
@@ -57743,7 +61241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A257A558-688E-43F1-9D27-FDF623F82362}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -60481,8 +63979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C353841-ECB5-4572-A470-D93688F263BB}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60631,7 +64129,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>1920</v>
@@ -60664,16 +64162,16 @@
         <v>65536</v>
       </c>
       <c r="N2">
-        <v>30.028199999999998</v>
+        <v>30.037299999999998</v>
       </c>
       <c r="O2">
-        <v>1889</v>
+        <v>1878</v>
       </c>
       <c r="P2">
-        <v>2.7667799999999999E-2</v>
+        <v>2.75994E-2</v>
       </c>
       <c r="Q2">
-        <v>9.2224999999999998E-3</v>
+        <v>9.3329999999999993E-3</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -60703,31 +64201,31 @@
       </c>
       <c r="AA2" s="4">
         <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.107799999999997</v>
+        <v>90.116399999999999</v>
       </c>
       <c r="AB2" s="4">
         <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>5622</v>
+        <v>5645</v>
       </c>
       <c r="AC2" s="4">
         <f ca="1">AB2/AA2</f>
-        <v>62.391934993418992</v>
+        <v>62.641206262123212</v>
       </c>
       <c r="AD2" s="4">
         <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>104.68244580066367</v>
+        <v>106.98848803868702</v>
       </c>
       <c r="AE2" s="4">
         <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>36.425891523695043</v>
+        <v>36.326781192898842</v>
       </c>
       <c r="AF2">
         <f ca="1">(AD2-AC2)/(AC2+AD2)/2*100</f>
-        <v>12.656192591061362</v>
+        <v>13.071792046598055</v>
       </c>
       <c r="AG2">
         <f ca="1">(AC2-AE2)/(AE2+AC2)/2*100</f>
-        <v>13.138339702921389</v>
+        <v>13.294412539804085</v>
       </c>
       <c r="AH2">
         <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
@@ -60742,7 +64240,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>1920</v>
@@ -60775,16 +64273,16 @@
         <v>65536</v>
       </c>
       <c r="N3">
-        <v>30.0428</v>
+        <v>30.031600000000001</v>
       </c>
       <c r="O3">
-        <v>1833</v>
+        <v>1879</v>
       </c>
       <c r="P3">
-        <v>2.79393E-2</v>
+        <v>2.7731700000000001E-2</v>
       </c>
       <c r="Q3">
-        <v>9.5527000000000008E-3</v>
+        <v>8.9000999999999993E-3</v>
       </c>
       <c r="V3" s="4" t="str">
         <f t="shared" ref="V3:V7" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
@@ -60808,35 +64306,35 @@
       </c>
       <c r="AA3" s="4">
         <f t="shared" ref="AA3:AA7" ca="1" si="5">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
-        <v>90.154499999999999</v>
+        <v>90.115200000000002</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" ref="AB3:AB7" ca="1" si="6">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>4829</v>
+        <v>4792</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" ref="AC3:AC6" ca="1" si="7">AB3/AA3</f>
-        <v>53.563604700819148</v>
+        <v>53.176378679734384</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD7" ca="1" si="8">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
-        <v>94.408202184605798</v>
+        <v>94.048604318711909</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" ref="AE3:AE7" ca="1" si="9">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>29.165487894864249</v>
+        <v>29.1785082779428</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF7" ca="1" si="10">(AD3-AC3)/(AC3+AD3)/2*100</f>
-        <v>13.801479600574437</v>
+        <v>13.880872935610682</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG7" ca="1" si="11">(AC3-AE3)/(AE3+AC3)/2*100</f>
-        <v>14.745790169121193</v>
+        <v>14.569791355626702</v>
       </c>
       <c r="AH3">
         <f ca="1">(AC3-$AC$2)/ABS($AC$2)*100*-1</f>
-        <v>14.149794029518468</v>
+        <v>15.109587038894324</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -60847,7 +64345,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>1920</v>
@@ -60880,16 +64378,16 @@
         <v>65536</v>
       </c>
       <c r="N4">
-        <v>30.036799999999999</v>
+        <v>30.047499999999999</v>
       </c>
       <c r="O4">
-        <v>1900</v>
+        <v>1888</v>
       </c>
       <c r="P4">
-        <v>2.7453000000000002E-2</v>
+        <v>2.7527900000000001E-2</v>
       </c>
       <c r="Q4">
-        <v>9.0360000000000006E-3</v>
+        <v>9.3468000000000006E-3</v>
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -60913,35 +64411,35 @@
       </c>
       <c r="AA4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>90.121099999999998</v>
+        <v>90.123599999999996</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5684</v>
+        <v>5644</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>63.070690437644458</v>
+        <v>62.625105965585043</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>107.7632656580025</v>
+        <v>106.75776662752214</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>36.517407848321291</v>
+        <v>36.123122049192467</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="10"/>
-        <v>13.080706038129634</v>
+        <v>13.027486187447332</v>
       </c>
       <c r="AG4">
         <f t="shared" ca="1" si="11"/>
-        <v>13.331554194897773</v>
+        <v>13.41896682562577</v>
       </c>
       <c r="AH4">
         <f t="shared" ref="AH4:AH7" ca="1" si="12">(AC4-$AC$2)/ABS($AC$2)*100*-1</f>
-        <v>-1.0878897157093461</v>
+        <v>2.5702405012441542E-2</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -60952,7 +64450,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>1920</v>
@@ -60985,16 +64483,16 @@
         <v>65536</v>
       </c>
       <c r="N5">
-        <v>30.053799999999999</v>
+        <v>30.041699999999999</v>
       </c>
       <c r="O5">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="P5">
-        <v>3.4287100000000001E-2</v>
+        <v>3.4271799999999998E-2</v>
       </c>
       <c r="Q5">
-        <v>1.0592300000000001E-2</v>
+        <v>1.0585900000000001E-2</v>
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -61018,35 +64516,35 @@
       </c>
       <c r="AA5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>90.204699999999988</v>
+        <v>90.208100000000002</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>27.725828033350815</v>
+        <v>27.680441113381171</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>48.064213789622933</v>
+        <v>47.600687353925395</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>17.660168901855378</v>
+        <v>17.664349104064215</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="10"/>
-        <v>13.417584465632974</v>
+        <v>13.23057095856054</v>
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="11"/>
-        <v>11.088947925794535</v>
+        <v>11.044369111959735</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="12"/>
-        <v>55.561839785422116</v>
+        <v>55.811130140834322</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -61057,7 +64555,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>1920</v>
@@ -61090,16 +64588,16 @@
         <v>65536</v>
       </c>
       <c r="N6">
-        <v>30.041399999999999</v>
+        <v>30.034300000000002</v>
       </c>
       <c r="O6">
-        <v>1611</v>
+        <v>1594</v>
       </c>
       <c r="P6">
-        <v>3.4373399999999998E-2</v>
+        <v>3.4434199999999998E-2</v>
       </c>
       <c r="Q6">
-        <v>1.05833E-2</v>
+        <v>1.06328E-2</v>
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -61123,35 +64621,35 @@
       </c>
       <c r="AA6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>90.270299999999992</v>
+        <v>90.246400000000008</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>27.716757338792497</v>
+        <v>27.690855258492302</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>47.89294967887777</v>
+        <v>48.0531275378058</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>17.723111823974055</v>
+        <v>17.69413563262728</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="10"/>
-        <v>13.342329401812137</v>
+        <v>13.441511475620926</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="11"/>
-        <v>10.996560618408688</v>
+        <v>11.013244058864696</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="12"/>
-        <v>55.576378033930155</v>
+        <v>55.794505069682984</v>
       </c>
       <c r="AI6" t="s">
         <v>82</v>
@@ -61168,7 +64666,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>1920</v>
@@ -61201,16 +64699,16 @@
         <v>65536</v>
       </c>
       <c r="N7">
-        <v>30.0593</v>
+        <v>30.039200000000001</v>
       </c>
       <c r="O7">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="P7">
-        <v>3.4298700000000001E-2</v>
+        <v>3.4652500000000003E-2</v>
       </c>
       <c r="Q7">
-        <v>1.04812E-2</v>
+        <v>1.05253E-2</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -61236,43 +64734,43 @@
       </c>
       <c r="AA7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>90.244100000000003</v>
+        <v>90.233999999999995</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" ref="AC7" ca="1" si="15">AB7/AA7</f>
-        <v>25.475349635045394</v>
+        <v>25.467118824389921</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>45.202234798488433</v>
+        <v>45.208569736479248</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15.86611537204454</v>
+        <v>15.804779365280062</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="10"/>
-        <v>13.955545680819409</v>
+        <v>13.96622467645793</v>
       </c>
       <c r="AG7">
         <f t="shared" ca="1" si="11"/>
-        <v>11.621787304045586</v>
+        <v>11.705712461667517</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="12"/>
-        <v>59.168841873981791</v>
+        <v>59.344462943733355</v>
       </c>
       <c r="AI7">
         <f ca="1">AH3+AH4+AH6</f>
-        <v>68.638282347739278</v>
+        <v>70.929794513589755</v>
       </c>
       <c r="AJ7">
         <f ca="1">AI7-AH7</f>
-        <v>9.4694404737574871</v>
+        <v>11.5853315698564</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -61283,7 +64781,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>1920</v>
@@ -61316,16 +64814,16 @@
         <v>65536</v>
       </c>
       <c r="N8">
-        <v>30.036999999999999</v>
+        <v>30.037099999999999</v>
       </c>
       <c r="O8">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="P8">
-        <v>2.7384200000000001E-2</v>
+        <v>2.7778000000000001E-2</v>
       </c>
       <c r="Q8">
-        <v>9.2391999999999995E-3</v>
+        <v>9.2955999999999993E-3</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -61339,7 +64837,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>1920</v>
@@ -61372,16 +64870,16 @@
         <v>65536</v>
       </c>
       <c r="N9">
-        <v>30.040700000000001</v>
+        <v>30.0458</v>
       </c>
       <c r="O9">
-        <v>1896</v>
+        <v>1886</v>
       </c>
       <c r="P9">
-        <v>2.7543700000000001E-2</v>
+        <v>2.7683099999999999E-2</v>
       </c>
       <c r="Q9">
-        <v>9.2796000000000007E-3</v>
+        <v>9.2884999999999999E-3</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="3"/>
@@ -61395,7 +64893,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>1920</v>
@@ -61428,16 +64926,16 @@
         <v>65536</v>
       </c>
       <c r="N10">
-        <v>30.043399999999998</v>
+        <v>30.040700000000001</v>
       </c>
       <c r="O10">
-        <v>1893</v>
+        <v>1879</v>
       </c>
       <c r="P10">
-        <v>2.7503099999999999E-2</v>
+        <v>2.7890499999999999E-2</v>
       </c>
       <c r="Q10">
-        <v>8.9832999999999996E-3</v>
+        <v>9.3670000000000003E-3</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="3"/>
@@ -61451,7 +64949,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>1920</v>
@@ -61484,16 +64982,16 @@
         <v>65536</v>
       </c>
       <c r="N11">
-        <v>30.067799999999998</v>
+        <v>30.0595</v>
       </c>
       <c r="O11">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="P11">
-        <v>5.6744700000000002E-2</v>
+        <v>5.70581E-2</v>
       </c>
       <c r="Q11">
-        <v>2.0728E-2</v>
+        <v>2.0654599999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -61504,7 +65002,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>1920</v>
@@ -61537,16 +65035,16 @@
         <v>65536</v>
       </c>
       <c r="N12">
-        <v>30.053999999999998</v>
+        <v>30.089200000000002</v>
       </c>
       <c r="O12">
         <v>833</v>
       </c>
       <c r="P12">
-        <v>5.6624599999999997E-2</v>
+        <v>5.66112E-2</v>
       </c>
       <c r="Q12">
-        <v>2.0707400000000001E-2</v>
+        <v>2.07005E-2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -61557,7 +65055,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>1920</v>
@@ -61590,16 +65088,16 @@
         <v>65536</v>
       </c>
       <c r="N13">
-        <v>30.082899999999999</v>
+        <v>30.0594</v>
       </c>
       <c r="O13">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="P13">
-        <v>5.67007E-2</v>
+        <v>5.6871600000000001E-2</v>
       </c>
       <c r="Q13">
-        <v>2.0805500000000001E-2</v>
+        <v>2.1008099999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -61610,7 +65108,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>1920</v>
@@ -61643,16 +65141,16 @@
         <v>65536</v>
       </c>
       <c r="N14">
-        <v>30.086600000000001</v>
+        <v>30.096900000000002</v>
       </c>
       <c r="O14">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P14">
-        <v>5.6797199999999999E-2</v>
+        <v>5.6515900000000001E-2</v>
       </c>
       <c r="Q14">
-        <v>2.0446200000000001E-2</v>
+        <v>2.08103E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -61663,7 +65161,7 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>1920</v>
@@ -61696,16 +65194,16 @@
         <v>65536</v>
       </c>
       <c r="N15">
-        <v>30.106000000000002</v>
+        <v>30.053899999999999</v>
       </c>
       <c r="O15">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="P15">
-        <v>5.6423500000000001E-2</v>
+        <v>5.679E-2</v>
       </c>
       <c r="Q15">
-        <v>2.0346400000000001E-2</v>
+        <v>2.0574700000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -61716,7 +65214,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>1920</v>
@@ -61749,16 +65247,16 @@
         <v>65536</v>
       </c>
       <c r="N16">
-        <v>30.0777</v>
+        <v>30.095600000000001</v>
       </c>
       <c r="O16">
         <v>833</v>
       </c>
       <c r="P16">
-        <v>5.68076E-2</v>
+        <v>5.7310399999999997E-2</v>
       </c>
       <c r="Q16">
-        <v>2.08799E-2</v>
+        <v>2.0785399999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -61769,7 +65267,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>1920</v>
@@ -61802,16 +65300,16 @@
         <v>65536</v>
       </c>
       <c r="N17">
-        <v>30.075900000000001</v>
+        <v>30.067</v>
       </c>
       <c r="O17">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P17">
-        <v>6.3027399999999997E-2</v>
+        <v>6.3416700000000006E-2</v>
       </c>
       <c r="Q17">
-        <v>2.20681E-2</v>
+        <v>2.1978999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -61822,7 +65320,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18">
         <v>1920</v>
@@ -61855,16 +65353,16 @@
         <v>65536</v>
       </c>
       <c r="N18">
-        <v>30.072199999999999</v>
+        <v>30.073699999999999</v>
       </c>
       <c r="O18">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P18">
-        <v>6.3316700000000004E-2</v>
+        <v>6.3271999999999995E-2</v>
       </c>
       <c r="Q18">
-        <v>2.2039799999999998E-2</v>
+        <v>2.2119699999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -61875,7 +65373,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <v>1920</v>
@@ -61908,16 +65406,16 @@
         <v>65536</v>
       </c>
       <c r="N19">
-        <v>30.096</v>
+        <v>30.093299999999999</v>
       </c>
       <c r="O19">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P19">
-        <v>6.3238500000000003E-2</v>
+        <v>6.3356999999999997E-2</v>
       </c>
       <c r="Q19">
-        <v>2.2122800000000001E-2</v>
+        <v>2.2052599999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -64480,7 +67978,7 @@
   <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AG2"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65720,6 +69218,1250 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E664B0-D829-4FE8-A84D-A0266DB19E99}">
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>1920</v>
+      </c>
+      <c r="E2">
+        <v>1080</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>1665</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>8589410304</v>
+      </c>
+      <c r="L2">
+        <v>49152</v>
+      </c>
+      <c r="M2">
+        <v>65536</v>
+      </c>
+      <c r="N2">
+        <v>20.011500000000002</v>
+      </c>
+      <c r="O2">
+        <v>3156</v>
+      </c>
+      <c r="P2">
+        <v>1.40068E-2</v>
+      </c>
+      <c r="Q2">
+        <v>5.3106000000000004E-3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>None</v>
+      </c>
+      <c r="W2">
+        <f>D2*E2</f>
+        <v>2073600</v>
+      </c>
+      <c r="X2" s="3">
+        <f>K2/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Z6" si="0">L2/1000</f>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA2" s="4">
+        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>60.034599999999998</v>
+      </c>
+      <c r="AB2" s="4">
+        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>9522</v>
+      </c>
+      <c r="AC2" s="4">
+        <f ca="1">AB2/AA2</f>
+        <v>158.60853574438741</v>
+      </c>
+      <c r="AD2" s="4">
+        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>188.30264000301284</v>
+      </c>
+      <c r="AE2" s="4">
+        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>78.981455154329765</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">(AD2-AC2)/(AC2+AD2)/2*100</f>
+        <v>4.2797849038231739</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">(AC2-AE2)/(AE2+AC2)/2*100</f>
+        <v>16.757246441413027</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">ROUND((AC2-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>256</v>
+      </c>
+      <c r="I3">
+        <v>1665</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>8589410304</v>
+      </c>
+      <c r="L3">
+        <v>49152</v>
+      </c>
+      <c r="M3">
+        <v>65536</v>
+      </c>
+      <c r="N3">
+        <v>20.0136</v>
+      </c>
+      <c r="O3">
+        <v>3181</v>
+      </c>
+      <c r="P3">
+        <v>1.29455E-2</v>
+      </c>
+      <c r="Q3">
+        <v>5.0055999999999998E-3</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V6" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
+        <v>Linear Epsilon</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W6" si="2">D3*E3</f>
+        <v>2073600</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X6" si="3">K3/1000000000</f>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA6" ca="1" si="4">SUM(OFFSET($N$2,(ROW()-ROW($AA$2))*$S$2,,$S$2,))</f>
+        <v>60.030200000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB6" ca="1" si="5">SUM(OFFSET($O$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
+        <v>10018</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC6" ca="1" si="6">AB3/AA3</f>
+        <v>166.88266905657485</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD6" ca="1" si="7">1/MAX(OFFSET($Q$2,(ROW()-ROW($AD$2))*$S$2,,$S$2,))</f>
+        <v>201.79598425991324</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE6" ca="1" si="8">1/MIN(OFFSET($P$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
+        <v>78.907291822837351</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF6" ca="1" si="9">(AD3-AC3)/(AC3+AD3)/2*100</f>
+        <v>4.7349249663998636</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG6" ca="1" si="10">(AC3-AE3)/(AE3+AC3)/2*100</f>
+        <v>17.896454541709168</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH6" ca="1" si="11">ROUND((AC3-$AC$2)/ABS($AC$2)*100, $T$2)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <v>1665</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>8589410304</v>
+      </c>
+      <c r="L4">
+        <v>49152</v>
+      </c>
+      <c r="M4">
+        <v>65536</v>
+      </c>
+      <c r="N4">
+        <v>20.009499999999999</v>
+      </c>
+      <c r="O4">
+        <v>3185</v>
+      </c>
+      <c r="P4">
+        <v>1.2661199999999999E-2</v>
+      </c>
+      <c r="Q4">
+        <v>5.0600999999999997E-3</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bounding Volume</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>60.029600000000002</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>10005</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>166.66777722989991</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>193.19191685019899</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>79.28327915642592</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.685344601887429</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="10"/>
+        <v>17.764611251804389</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1665</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8589410304</v>
+      </c>
+      <c r="L5">
+        <v>49152</v>
+      </c>
+      <c r="M5">
+        <v>65536</v>
+      </c>
+      <c r="N5">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="O5">
+        <v>3353</v>
+      </c>
+      <c r="P5">
+        <v>1.28107E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4.6537999999999996E-3</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Fast Maths</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>60.033199999999994</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>9732</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>162.11029896790444</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>191.65900030665441</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>77.769568767741177</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.1762670473869106</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="10"/>
+        <v>17.579785039132407</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI5">
+        <f ca="1">SUM(AH3:AH5)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+      <c r="I6">
+        <v>1665</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>8589410304</v>
+      </c>
+      <c r="L6">
+        <v>49152</v>
+      </c>
+      <c r="M6">
+        <v>65536</v>
+      </c>
+      <c r="N6">
+        <v>20.008400000000002</v>
+      </c>
+      <c r="O6">
+        <v>3348</v>
+      </c>
+      <c r="P6">
+        <v>1.26731E-2</v>
+      </c>
+      <c r="Q6">
+        <v>4.9554999999999998E-3</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>All</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>2073600</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5894103039999994</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>49.152000000000001</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="0"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>60.026300000000006</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>10825</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>180.33761867714651</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>208.83366398663463</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>81.807621197990798</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.6611187128762102</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="10"/>
+        <v>18.793016712049901</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="11"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>1665</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>8589410304</v>
+      </c>
+      <c r="L7">
+        <v>49152</v>
+      </c>
+      <c r="M7">
+        <v>65536</v>
+      </c>
+      <c r="N7">
+        <v>20.011800000000001</v>
+      </c>
+      <c r="O7">
+        <v>3317</v>
+      </c>
+      <c r="P7">
+        <v>1.3046E-2</v>
+      </c>
+      <c r="Q7">
+        <v>4.8754000000000002E-3</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>1920</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>1665</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>8589410304</v>
+      </c>
+      <c r="L8">
+        <v>49152</v>
+      </c>
+      <c r="M8">
+        <v>65536</v>
+      </c>
+      <c r="N8">
+        <v>20.009699999999999</v>
+      </c>
+      <c r="O8">
+        <v>3338</v>
+      </c>
+      <c r="P8">
+        <v>1.39334E-2</v>
+      </c>
+      <c r="Q8">
+        <v>5.1761999999999997E-3</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>1920</v>
+      </c>
+      <c r="E9">
+        <v>1080</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>1665</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>8589410304</v>
+      </c>
+      <c r="L9">
+        <v>49152</v>
+      </c>
+      <c r="M9">
+        <v>65536</v>
+      </c>
+      <c r="N9">
+        <v>20.011800000000001</v>
+      </c>
+      <c r="O9">
+        <v>3334</v>
+      </c>
+      <c r="P9">
+        <v>1.2848500000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>5.1460999999999998E-3</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10">
+        <v>1080</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <v>1665</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>8589410304</v>
+      </c>
+      <c r="L10">
+        <v>49152</v>
+      </c>
+      <c r="M10">
+        <v>65536</v>
+      </c>
+      <c r="N10">
+        <v>20.008099999999999</v>
+      </c>
+      <c r="O10">
+        <v>3333</v>
+      </c>
+      <c r="P10">
+        <v>1.2612999999999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>5.0882000000000002E-3</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>1665</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>8589410304</v>
+      </c>
+      <c r="L11">
+        <v>49152</v>
+      </c>
+      <c r="M11">
+        <v>65536</v>
+      </c>
+      <c r="N11">
+        <v>20.009799999999998</v>
+      </c>
+      <c r="O11">
+        <v>3251</v>
+      </c>
+      <c r="P11">
+        <v>1.28802E-2</v>
+      </c>
+      <c r="Q11">
+        <v>5.2176000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>1920</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>1665</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>8589410304</v>
+      </c>
+      <c r="L12">
+        <v>49152</v>
+      </c>
+      <c r="M12">
+        <v>65536</v>
+      </c>
+      <c r="N12">
+        <v>20.0124</v>
+      </c>
+      <c r="O12">
+        <v>3225</v>
+      </c>
+      <c r="P12">
+        <v>1.28585E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.8660999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>1920</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>1665</v>
+      </c>
+      <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>8589410304</v>
+      </c>
+      <c r="L13">
+        <v>49152</v>
+      </c>
+      <c r="M13">
+        <v>65536</v>
+      </c>
+      <c r="N13">
+        <v>20.010999999999999</v>
+      </c>
+      <c r="O13">
+        <v>3256</v>
+      </c>
+      <c r="P13">
+        <v>1.38736E-2</v>
+      </c>
+      <c r="Q13">
+        <v>4.8662000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>1920</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>1665</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>8589410304</v>
+      </c>
+      <c r="L14">
+        <v>49152</v>
+      </c>
+      <c r="M14">
+        <v>65536</v>
+      </c>
+      <c r="N14">
+        <v>20.008400000000002</v>
+      </c>
+      <c r="O14">
+        <v>3615</v>
+      </c>
+      <c r="P14">
+        <v>1.29587E-2</v>
+      </c>
+      <c r="Q14">
+        <v>4.7613999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>1920</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>1665</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>8589410304</v>
+      </c>
+      <c r="L15">
+        <v>49152</v>
+      </c>
+      <c r="M15">
+        <v>65536</v>
+      </c>
+      <c r="N15">
+        <v>20.0077</v>
+      </c>
+      <c r="O15">
+        <v>3586</v>
+      </c>
+      <c r="P15">
+        <v>1.2486199999999999E-2</v>
+      </c>
+      <c r="Q15">
+        <v>4.7885000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>1665</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>8589410304</v>
+      </c>
+      <c r="L16">
+        <v>49152</v>
+      </c>
+      <c r="M16">
+        <v>65536</v>
+      </c>
+      <c r="N16">
+        <v>20.010200000000001</v>
+      </c>
+      <c r="O16">
+        <v>3624</v>
+      </c>
+      <c r="P16">
+        <v>1.22238E-2</v>
+      </c>
+      <c r="Q16">
+        <v>4.7441000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD0FD4-FA27-4F55-875C-776A875C0DAC}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
@@ -66707,7 +71449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CFEF4F-454C-4020-BCA1-EF8461693D0D}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
@@ -67692,991 +72434,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CB30D-C9E5-483D-9CCD-B595A7C7FA17}">
-  <dimension ref="A1:AM13"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AH2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-    </row>
-    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2">
-        <v>1920</v>
-      </c>
-      <c r="E2">
-        <v>1080</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>256</v>
-      </c>
-      <c r="I2">
-        <v>1665</v>
-      </c>
-      <c r="J2">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>8589410304</v>
-      </c>
-      <c r="L2">
-        <v>49152</v>
-      </c>
-      <c r="M2">
-        <v>65536</v>
-      </c>
-      <c r="N2">
-        <v>20.029399999999999</v>
-      </c>
-      <c r="O2">
-        <v>1414</v>
-      </c>
-      <c r="P2">
-        <v>2.34129E-2</v>
-      </c>
-      <c r="Q2">
-        <v>9.1561000000000003E-3</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4">
-        <f ca="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f ca="1">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
-        <v>2073600</v>
-      </c>
-      <c r="X2">
-        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>38</v>
-      </c>
-      <c r="Y2" s="3">
-        <f>K2/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="Z2" s="3">
-        <f t="shared" ref="Z2:AA3" si="0">L2/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA2" s="3">
-        <f t="shared" si="0"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB2" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>60.0946</v>
-      </c>
-      <c r="AC2" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>4229</v>
-      </c>
-      <c r="AD2" s="4">
-        <f ca="1">AC2/AB2</f>
-        <v>70.372379548245604</v>
-      </c>
-      <c r="AE2" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>103.82814365661956</v>
-      </c>
-      <c r="AF2" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>42.759163288692768</v>
-      </c>
-      <c r="AG2">
-        <f ca="1">(AE2-AD2)/(AD2+AE2)/2*100</f>
-        <v>9.6026589050564883</v>
-      </c>
-      <c r="AH2">
-        <f ca="1">(AD2-AF2)/(AF2+AD2)/2*100</f>
-        <v>12.204030620952912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3">
-        <v>1920</v>
-      </c>
-      <c r="E3">
-        <v>1080</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>256</v>
-      </c>
-      <c r="I3">
-        <v>1665</v>
-      </c>
-      <c r="J3">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>8589410304</v>
-      </c>
-      <c r="L3">
-        <v>49152</v>
-      </c>
-      <c r="M3">
-        <v>65536</v>
-      </c>
-      <c r="N3">
-        <v>20.026800000000001</v>
-      </c>
-      <c r="O3">
-        <v>1406</v>
-      </c>
-      <c r="P3">
-        <v>2.3655900000000001E-2</v>
-      </c>
-      <c r="Q3">
-        <v>9.6313000000000006E-3</v>
-      </c>
-      <c r="V3" s="4">
-        <f t="shared" ref="V3:V5" ca="1" si="1">INDEX(OFFSET($A$2,(ROW()-ROW($V$2))*$S$2,,$S$2,),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W5" ca="1" si="2">OFFSET($D$1,(ROW()-1)*$S$2,0) * OFFSET($E$1,(ROW()-1)*$S$2,0)</f>
-        <v>2073600</v>
-      </c>
-      <c r="X3">
-        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>24</v>
-      </c>
-      <c r="Y3" s="3">
-        <f>K3/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="Z3" s="3">
-        <f t="shared" si="0"/>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA3" s="3">
-        <f t="shared" si="0"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB3" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>60.16109999999999</v>
-      </c>
-      <c r="AC3" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>3138</v>
-      </c>
-      <c r="AD3" s="4">
-        <f t="shared" ref="AD3" ca="1" si="3">AC3/AB3</f>
-        <v>52.159950532819387</v>
-      </c>
-      <c r="AE3" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>77.371234922280593</v>
-      </c>
-      <c r="AF3" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>29.700823603838533</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG5" ca="1" si="4">(AE3-AD3)/(AD3+AE3)/2*100</f>
-        <v>9.7317430937124847</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" ref="AH3:AH5" ca="1" si="5">(AD3-AF3)/(AF3+AD3)/2*100</f>
-        <v>13.717880856762795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4">
-        <v>1920</v>
-      </c>
-      <c r="E4">
-        <v>1080</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>256</v>
-      </c>
-      <c r="I4">
-        <v>1665</v>
-      </c>
-      <c r="J4">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>8589410304</v>
-      </c>
-      <c r="L4">
-        <v>49152</v>
-      </c>
-      <c r="M4">
-        <v>65536</v>
-      </c>
-      <c r="N4">
-        <v>20.038399999999999</v>
-      </c>
-      <c r="O4">
-        <v>1409</v>
-      </c>
-      <c r="P4">
-        <v>2.3386799999999999E-2</v>
-      </c>
-      <c r="Q4">
-        <v>9.5531999999999995E-3</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2073600</v>
-      </c>
-      <c r="X4">
-        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>13</v>
-      </c>
-      <c r="Y4" s="3">
-        <f>K4/1000000000</f>
-        <v>8.5894103039999994</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4" si="6">L4/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4" si="7">M4/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB4" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>60.178200000000004</v>
-      </c>
-      <c r="AC4" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>2185</v>
-      </c>
-      <c r="AD4" s="4">
-        <f t="shared" ref="AD4" ca="1" si="8">AC4/AB4</f>
-        <v>36.308829443220297</v>
-      </c>
-      <c r="AE4" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>51.584947512315907</v>
-      </c>
-      <c r="AF4" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>21.872792215035794</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.6901021882490657</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.406011397360217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>1920</v>
-      </c>
-      <c r="E5">
-        <v>1080</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>256</v>
-      </c>
-      <c r="I5">
-        <v>1770</v>
-      </c>
-      <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>6441992192</v>
-      </c>
-      <c r="L5">
-        <v>49152</v>
-      </c>
-      <c r="M5">
-        <v>65536</v>
-      </c>
-      <c r="N5">
-        <v>20.0611</v>
-      </c>
-      <c r="O5">
-        <v>1046</v>
-      </c>
-      <c r="P5">
-        <v>3.3766299999999999E-2</v>
-      </c>
-      <c r="Q5">
-        <v>1.29035E-2</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ca="1" si="2"/>
-        <v>2073600</v>
-      </c>
-      <c r="X5">
-        <f ca="1">OFFSET($J$1,(ROW()-1)*$S$2,0)</f>
-        <v>68</v>
-      </c>
-      <c r="Y5" s="3">
-        <f>K5/1000000000</f>
-        <v>6.4419921919999998</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" ref="Z5" si="9">L5/1000</f>
-        <v>49.152000000000001</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" ref="AA5" si="10">M5/1000</f>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="AB5" s="4">
-        <f ca="1">SUM(OFFSET($N$2,(ROW()-ROW($AB$2))*$S$2,,$S$2,))</f>
-        <v>60.082200000000007</v>
-      </c>
-      <c r="AC5" s="4">
-        <f ca="1">SUM(OFFSET($O$2,(ROW()-ROW($AC$2))*$S$2,,$S$2,))</f>
-        <v>5647</v>
-      </c>
-      <c r="AD5" s="4">
-        <f t="shared" ref="AD5" ca="1" si="11">AC5/AB5</f>
-        <v>93.987903239228913</v>
-      </c>
-      <c r="AE5" s="4">
-        <f ca="1">1/MAX(OFFSET($Q$2,(ROW()-ROW($AE$2))*$S$2,,$S$2,))</f>
-        <v>133.41516129893</v>
-      </c>
-      <c r="AF5" s="4">
-        <f ca="1">1/MIN(OFFSET($P$2,(ROW()-ROW($AF$2))*$S$2,,$S$2,))</f>
-        <v>48.659669406206056</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.6690252261497296</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.888189680482959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>1920</v>
-      </c>
-      <c r="E6">
-        <v>1080</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>256</v>
-      </c>
-      <c r="I6">
-        <v>1770</v>
-      </c>
-      <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>6441992192</v>
-      </c>
-      <c r="L6">
-        <v>49152</v>
-      </c>
-      <c r="M6">
-        <v>65536</v>
-      </c>
-      <c r="N6">
-        <v>20.035499999999999</v>
-      </c>
-      <c r="O6">
-        <v>1046</v>
-      </c>
-      <c r="P6">
-        <v>3.3783899999999999E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.2924700000000001E-2</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7">
-        <v>1920</v>
-      </c>
-      <c r="E7">
-        <v>1080</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>256</v>
-      </c>
-      <c r="I7">
-        <v>1770</v>
-      </c>
-      <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>6441992192</v>
-      </c>
-      <c r="L7">
-        <v>49152</v>
-      </c>
-      <c r="M7">
-        <v>65536</v>
-      </c>
-      <c r="N7">
-        <v>20.064499999999999</v>
-      </c>
-      <c r="O7">
-        <v>1046</v>
-      </c>
-      <c r="P7">
-        <v>3.36691E-2</v>
-      </c>
-      <c r="Q7">
-        <v>1.2833600000000001E-2</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>1920</v>
-      </c>
-      <c r="E8">
-        <v>1080</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>256</v>
-      </c>
-      <c r="I8">
-        <v>1215</v>
-      </c>
-      <c r="J8">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>4294705152</v>
-      </c>
-      <c r="L8">
-        <v>49152</v>
-      </c>
-      <c r="M8">
-        <v>65536</v>
-      </c>
-      <c r="N8">
-        <v>20.0535</v>
-      </c>
-      <c r="O8">
-        <v>728</v>
-      </c>
-      <c r="P8">
-        <v>4.57189E-2</v>
-      </c>
-      <c r="Q8">
-        <v>1.91776E-2</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9">
-        <v>1920</v>
-      </c>
-      <c r="E9">
-        <v>1080</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>256</v>
-      </c>
-      <c r="I9">
-        <v>1215</v>
-      </c>
-      <c r="J9">
-        <v>13</v>
-      </c>
-      <c r="K9">
-        <v>4294705152</v>
-      </c>
-      <c r="L9">
-        <v>49152</v>
-      </c>
-      <c r="M9">
-        <v>65536</v>
-      </c>
-      <c r="N9">
-        <v>20.0627</v>
-      </c>
-      <c r="O9">
-        <v>728</v>
-      </c>
-      <c r="P9">
-        <v>4.5784400000000003E-2</v>
-      </c>
-      <c r="Q9">
-        <v>1.9216500000000001E-2</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10">
-        <v>1920</v>
-      </c>
-      <c r="E10">
-        <v>1080</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>256</v>
-      </c>
-      <c r="I10">
-        <v>1215</v>
-      </c>
-      <c r="J10">
-        <v>13</v>
-      </c>
-      <c r="K10">
-        <v>4294705152</v>
-      </c>
-      <c r="L10">
-        <v>49152</v>
-      </c>
-      <c r="M10">
-        <v>65536</v>
-      </c>
-      <c r="N10">
-        <v>20.062000000000001</v>
-      </c>
-      <c r="O10">
-        <v>729</v>
-      </c>
-      <c r="P10">
-        <v>4.5799800000000002E-2</v>
-      </c>
-      <c r="Q10">
-        <v>1.93855E-2</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>1920</v>
-      </c>
-      <c r="E11">
-        <v>1080</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>256</v>
-      </c>
-      <c r="I11">
-        <v>1845</v>
-      </c>
-      <c r="J11">
-        <v>68</v>
-      </c>
-      <c r="K11">
-        <v>10736762880</v>
-      </c>
-      <c r="L11">
-        <v>49152</v>
-      </c>
-      <c r="M11">
-        <v>65536</v>
-      </c>
-      <c r="N11">
-        <v>20.022500000000001</v>
-      </c>
-      <c r="O11">
-        <v>1892</v>
-      </c>
-      <c r="P11">
-        <v>2.05509E-2</v>
-      </c>
-      <c r="Q11">
-        <v>7.3220999999999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12">
-        <v>1920</v>
-      </c>
-      <c r="E12">
-        <v>1080</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>256</v>
-      </c>
-      <c r="I12">
-        <v>1845</v>
-      </c>
-      <c r="J12">
-        <v>68</v>
-      </c>
-      <c r="K12">
-        <v>10736762880</v>
-      </c>
-      <c r="L12">
-        <v>49152</v>
-      </c>
-      <c r="M12">
-        <v>65536</v>
-      </c>
-      <c r="N12">
-        <v>20.025200000000002</v>
-      </c>
-      <c r="O12">
-        <v>1885</v>
-      </c>
-      <c r="P12">
-        <v>2.3583900000000001E-2</v>
-      </c>
-      <c r="Q12">
-        <v>7.4954000000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>1920</v>
-      </c>
-      <c r="E13">
-        <v>1080</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>256</v>
-      </c>
-      <c r="I13">
-        <v>1845</v>
-      </c>
-      <c r="J13">
-        <v>68</v>
-      </c>
-      <c r="K13">
-        <v>10736762880</v>
-      </c>
-      <c r="L13">
-        <v>49152</v>
-      </c>
-      <c r="M13">
-        <v>65536</v>
-      </c>
-      <c r="N13">
-        <v>20.034500000000001</v>
-      </c>
-      <c r="O13">
-        <v>1870</v>
-      </c>
-      <c r="P13">
-        <v>2.3384700000000001E-2</v>
-      </c>
-      <c r="Q13">
-        <v>7.4507000000000002E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79197FD-04EC-491B-ABAB-B20AEBDB1431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3CF1F-EA97-4194-990C-740279602AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="801" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46E3C727-8DB6-4031-973C-B970CB4BEF3B}" type="CELLRANGE">
+                    <a:fld id="{E1238542-CC76-41F9-AE16-E3B89C1DDB50}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1220,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38F4FE83-F47E-4D56-8CBC-B7363DBF74C2}" type="CELLRANGE">
+                    <a:fld id="{AE585E39-E95D-43E2-B859-88E24D9122CC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1254,7 +1254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A3D0F21-4514-4B2A-A7F4-460354291A73}" type="CELLRANGE">
+                    <a:fld id="{5BE78C99-B719-40D1-9742-56E243C50B4D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1288,7 +1288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C286C13-FE2F-44B3-9165-574CEFEBCBA6}" type="CELLRANGE">
+                    <a:fld id="{329FA1B9-A9E7-4FA9-9176-AE35F6C89040}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B7DE170-1835-475B-9D6A-E46031340343}" type="CELLRANGE">
+                    <a:fld id="{6C36850F-2773-436E-BF61-83025CAA6950}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2698,7 +2698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3297124-74F4-4911-A9AA-1E8100BFA1C1}" type="CELLRANGE">
+                    <a:fld id="{3411C5B5-1990-4E46-9A4C-179C8118706A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2732,7 +2732,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3317872-102B-44FF-9460-ECD585F94010}" type="CELLRANGE">
+                    <a:fld id="{9CCC6CAF-CC90-47FF-9C2A-75CE7F15D21C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2766,7 +2766,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{257C4019-C1E3-47E3-A7FD-A85F8472A2A7}" type="CELLRANGE">
+                    <a:fld id="{0A503035-CD49-4E80-9B01-349ABA62FC26}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2800,7 +2800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{004A0D5F-97B9-4A8F-A6B1-DC57BF6C4738}" type="CELLRANGE">
+                    <a:fld id="{4D10EF15-2569-4CF7-AB62-B7E09F80AA80}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2834,7 +2834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD611D06-BFEA-4880-94D9-E5CB7C74DF7B}" type="CELLRANGE">
+                    <a:fld id="{2AE0D466-5058-4FB6-9D13-BD2B74179784}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4304,7 +4304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BC0168C-3A87-4A4A-BA2E-4A78335394C1}" type="CELLRANGE">
+                    <a:fld id="{F6A9A02D-7DDA-448F-8D6E-C5559619F76E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4338,7 +4338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C3336E4-E703-4593-9306-0149AD95A62A}" type="CELLRANGE">
+                    <a:fld id="{1D921954-F667-43F8-88B3-65386CF7D090}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4372,7 +4372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA668BF6-A6C4-442E-BFE5-57EF4A190D26}" type="CELLRANGE">
+                    <a:fld id="{AD13DD27-7552-4242-AA63-B2A78C2FC595}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4406,7 +4406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79762663-F2C0-4FEA-890E-5F2F588877D7}" type="CELLRANGE">
+                    <a:fld id="{8E03ED03-DA42-48E1-86E1-FA1D7E39E3BE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4440,7 +4440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D68B8F59-1FEB-4D9B-A530-E3DD0F20E820}" type="CELLRANGE">
+                    <a:fld id="{EDEDEB78-B625-4189-B4CB-5BC99B8ADA51}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5816,7 +5816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32B1B37B-1917-4690-B300-862EDF4B5676}" type="CELLRANGE">
+                    <a:fld id="{4B61BDE1-A6BE-4E94-895F-4EBF6549C19A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5850,7 +5850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F23BD6F-5D9E-4444-B2E1-403EFF04B383}" type="CELLRANGE">
+                    <a:fld id="{F9E44FFF-2F12-4725-A753-C1277AA29BD8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5884,7 +5884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D4BCCD8-C3CF-45A9-B847-DAB55C5531E8}" type="CELLRANGE">
+                    <a:fld id="{3E2E1E67-F012-4540-A59B-E4F0EB95C0EC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5918,7 +5918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3E739D9-ECA1-4939-9EC8-E470FB5DD049}" type="CELLRANGE">
+                    <a:fld id="{F617BB5D-AB2E-4924-9712-C6B2A0A867B7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5952,7 +5952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E54020B-41AB-4348-8383-F3830FA6A279}" type="CELLRANGE">
+                    <a:fld id="{E8CBD1B8-241C-4A8C-B193-5D5814FC6907}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6639,7 +6639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00A60F10-7DFB-48C9-963D-8E1F36C7808B}" type="CELLRANGE">
+                    <a:fld id="{65B09EF7-CB08-4CF7-BF8C-665B7D7E6187}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6673,7 +6673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF54EF38-0657-43AA-8F1F-3221D482C292}" type="CELLRANGE">
+                    <a:fld id="{3B0146C9-ED74-4C83-8A86-953B89956EDC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6707,7 +6707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAADC8BD-2E7A-4AFF-AF25-8DB9DC38438A}" type="CELLRANGE">
+                    <a:fld id="{BFCA45AD-A716-4D57-833F-BB22B23CB3F0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6741,7 +6741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46E4E3F7-AC55-44C4-A056-263C903587AA}" type="CELLRANGE">
+                    <a:fld id="{22D9570E-54D4-4961-A491-1E93D223851D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6775,7 +6775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCED2DC4-C354-4655-A92D-7B2D2E987493}" type="CELLRANGE">
+                    <a:fld id="{3CE5B90B-649B-4E2C-8B80-44C2261A7840}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8151,7 +8151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC41548F-B39C-4978-903F-EFA8CF212B4B}" type="CELLRANGE">
+                    <a:fld id="{A202A827-EE50-41E0-9C8B-FC7E62D5DE81}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8185,7 +8185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1089E29F-5C68-4F9B-A7AA-12821B7C0886}" type="CELLRANGE">
+                    <a:fld id="{48EEFD90-A137-4B6E-9B40-72EF360D8011}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8219,7 +8219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E84A3DC6-9A2B-45CE-9A70-1314499F53EE}" type="CELLRANGE">
+                    <a:fld id="{37AC4F23-04D7-47F8-9739-498A07BC483B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8253,7 +8253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E57FE33-F4D0-4851-ACDE-19A723B2CC83}" type="CELLRANGE">
+                    <a:fld id="{2862BBB0-1679-4888-AAB2-AA47E7B56DCC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8287,7 +8287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7913B0D6-AECF-44FD-B1A0-4B7F8EE5E64D}" type="CELLRANGE">
+                    <a:fld id="{6E1B9767-BDAA-42A2-BFFD-2DB8D177D213}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9322,7 +9322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B09497F-2E6F-439E-BD85-D83DF097090D}" type="CELLRANGE">
+                    <a:fld id="{BB2A9CA5-5BC8-4E08-8E0C-A8B7DD77C8C7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9356,7 +9356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82AFA958-A121-426F-8123-472103503D0C}" type="CELLRANGE">
+                    <a:fld id="{FD6B7DE5-A68D-48E2-8944-43B08964053F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9390,7 +9390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D5E1AE7-056E-4507-8B84-B4B368501BAE}" type="CELLRANGE">
+                    <a:fld id="{9E46D2F1-30A9-48E0-AC98-3D2EA096D8FA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9424,7 +9424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{349EED72-CB0B-4BBD-B2B6-F795EC9A3583}" type="CELLRANGE">
+                    <a:fld id="{49497E25-6611-46F7-8F3A-93192793F1C0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9458,7 +9458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1249E2D5-4E3B-43CF-92FA-F9EDFE4A1167}" type="CELLRANGE">
+                    <a:fld id="{ACFA4736-59F0-4039-9B85-EED6B9268D93}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10145,7 +10145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EFB949F-102A-463D-8E88-33A3DE91518E}" type="CELLRANGE">
+                    <a:fld id="{1AD245A7-991C-4C5E-8514-2C86364B3FAD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10179,7 +10179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62DE5D35-9E3F-4854-98F3-2966690278CE}" type="CELLRANGE">
+                    <a:fld id="{FAEA9915-5F56-4BBD-89CA-F490043418BC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10213,7 +10213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDD4B2FA-3F9F-40F4-A437-1FF151270380}" type="CELLRANGE">
+                    <a:fld id="{76E468F9-6ED7-4441-A4B5-8942F14EADD5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10247,7 +10247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F164C78-28CF-4893-98CF-4445173FD381}" type="CELLRANGE">
+                    <a:fld id="{64E4761F-3A30-4C1C-B2E0-8B5CAB374397}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10281,7 +10281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{947741C2-2F5F-4B2F-97F8-39CC98933B0B}" type="CELLRANGE">
+                    <a:fld id="{035016D3-A928-411A-BE0B-01AF304B0A02}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13003,7 +13003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6E2983A-310A-42C9-AD8A-53917352A8D0}" type="CELLRANGE">
+                    <a:fld id="{0F89ECD2-B03A-4EEB-99E5-679EE9DDF77D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13037,7 +13037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BAAF229-28BE-4DD0-9484-251C007698C6}" type="CELLRANGE">
+                    <a:fld id="{E7BC44F7-DE0E-4D8C-9785-060141C21B45}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13071,7 +13071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{079D573F-B020-4CD9-8EBA-794C72E189DD}" type="CELLRANGE">
+                    <a:fld id="{2C66A066-830F-4C51-9B22-4F499CC843A6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13105,7 +13105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1940F36-644C-421C-A077-691E2C3A9749}" type="CELLRANGE">
+                    <a:fld id="{7985404B-8AA8-4799-90CE-22856E88AB7D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13139,7 +13139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DB740F6-4CBA-4987-87F4-7E612A3A6220}" type="CELLRANGE">
+                    <a:fld id="{9D6E8A6E-8344-46B3-BDC5-688E9C77D60A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15034,7 +15034,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Noise Function File Type</a:t>
+                  <a:t>Noise Function Language</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15659,7 +15659,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Noise Function File Type</a:t>
+                  <a:t>Noise Function Language</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -18728,7 +18728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AC6BF0A-1D79-44D0-A9C3-C80D9FBBA16B}" type="CELLRANGE">
+                    <a:fld id="{C329B3C7-8F14-42AB-AC88-77C75CBC36DF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18762,7 +18762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D7AF064-A05B-42A5-900F-BB451F84457F}" type="CELLRANGE">
+                    <a:fld id="{1C0A0F42-5D13-4137-99C3-E354646C1355}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18796,7 +18796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{064B2D41-7FDE-4F76-A073-2E41E82E220E}" type="CELLRANGE">
+                    <a:fld id="{B4095796-0682-437A-A45B-2DE03641BBFC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -35017,8 +35017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="C3:BH218"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH141" sqref="AH141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69221,7 +69221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E664B0-D829-4FE8-A84D-A0266DB19E99}">
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Deliverable 2/Results.xlsx
+++ b/Deliverable 2/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3CF1F-EA97-4194-990C-740279602AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F180CD-09FF-4BA5-8C91-97F37CE9494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D67140DC-AEAA-41B2-9CA2-57D60483E4C3}" type="CELLRANGE">
+                    <a:fld id="{BCC3C24A-9F5E-4D5D-9FEC-C39EA53EE0C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1186,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1238542-CC76-41F9-AE16-E3B89C1DDB50}" type="CELLRANGE">
+                    <a:fld id="{EF5D375D-BBA9-4BFC-9115-438659F7E71A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1220,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE585E39-E95D-43E2-B859-88E24D9122CC}" type="CELLRANGE">
+                    <a:fld id="{6E08225B-DD82-470E-A842-643D7B05D03C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1254,7 +1254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BE78C99-B719-40D1-9742-56E243C50B4D}" type="CELLRANGE">
+                    <a:fld id="{0B8A8B69-0CEE-4A02-948D-FE54ABF23480}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1288,7 +1288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{329FA1B9-A9E7-4FA9-9176-AE35F6C89040}" type="CELLRANGE">
+                    <a:fld id="{EF4D5818-1924-4D08-B2C5-9DE1548DCE5D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C36850F-2773-436E-BF61-83025CAA6950}" type="CELLRANGE">
+                    <a:fld id="{A83CEA69-4ED7-4A65-AD05-CBA56AD7B0E6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2665,7 +2665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A9CBC01-6B0B-45E4-AD24-30941AC36279}" type="CELLRANGE">
+                    <a:fld id="{6E45D1BD-F2C9-4121-871F-E1BC231040AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2698,7 +2698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3411C5B5-1990-4E46-9A4C-179C8118706A}" type="CELLRANGE">
+                    <a:fld id="{9D3B8475-E5A5-4727-BF60-ECBAD51AF193}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2732,7 +2732,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CCC6CAF-CC90-47FF-9C2A-75CE7F15D21C}" type="CELLRANGE">
+                    <a:fld id="{3DC53033-1709-4161-98F1-207A98D48DCD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2766,7 +2766,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A503035-CD49-4E80-9B01-349ABA62FC26}" type="CELLRANGE">
+                    <a:fld id="{A5448CD6-A5FF-451D-8586-26E4BB636BBC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2800,7 +2800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D10EF15-2569-4CF7-AB62-B7E09F80AA80}" type="CELLRANGE">
+                    <a:fld id="{93545158-DF97-46A1-82A4-AA1F23B1C4FB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2834,7 +2834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AE0D466-5058-4FB6-9D13-BD2B74179784}" type="CELLRANGE">
+                    <a:fld id="{DC88095F-1778-4478-B29C-012E104F758C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4271,7 +4271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{857139BA-D13A-4C5A-AFD0-1056059B44D7}" type="CELLRANGE">
+                    <a:fld id="{43264873-E922-4876-ACF3-DE6B7E15178B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4304,7 +4304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6A9A02D-7DDA-448F-8D6E-C5559619F76E}" type="CELLRANGE">
+                    <a:fld id="{03CDDB03-1E3C-449D-A730-C26AA2423A0A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4338,7 +4338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D921954-F667-43F8-88B3-65386CF7D090}" type="CELLRANGE">
+                    <a:fld id="{BE0CF9B6-BD58-444E-BF8D-ED0CB0C543E3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4372,7 +4372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD13DD27-7552-4242-AA63-B2A78C2FC595}" type="CELLRANGE">
+                    <a:fld id="{6312239C-682F-4E08-8956-C70D43C3EDE4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4406,7 +4406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E03ED03-DA42-48E1-86E1-FA1D7E39E3BE}" type="CELLRANGE">
+                    <a:fld id="{DE20981A-41AE-4779-BE62-1DF8C84D4CA4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4440,7 +4440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDEDEB78-B625-4189-B4CB-5BC99B8ADA51}" type="CELLRANGE">
+                    <a:fld id="{1E5D7E34-9CEF-48ED-8854-F323FBFBE014}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5783,7 +5783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3409793-9DDF-4A7A-9E9D-B9E02FC9AF3D}" type="CELLRANGE">
+                    <a:fld id="{BBA4F855-30B3-402E-8744-2FCED5C1B80D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5816,7 +5816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B61BDE1-A6BE-4E94-895F-4EBF6549C19A}" type="CELLRANGE">
+                    <a:fld id="{8BE8DF0C-A404-4879-9E9A-82D27C5AAB1F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5850,7 +5850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9E44FFF-2F12-4725-A753-C1277AA29BD8}" type="CELLRANGE">
+                    <a:fld id="{CFA3B812-E80C-43E0-9446-53E763E703B0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5884,7 +5884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E2E1E67-F012-4540-A59B-E4F0EB95C0EC}" type="CELLRANGE">
+                    <a:fld id="{4D6CF1F5-D9E0-4287-B0CB-FF0AD46E6A1C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5918,7 +5918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F617BB5D-AB2E-4924-9712-C6B2A0A867B7}" type="CELLRANGE">
+                    <a:fld id="{5FBB7CCA-025C-4548-AF6F-3FB1DD25A85F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5952,7 +5952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8CBD1B8-241C-4A8C-B193-5D5814FC6907}" type="CELLRANGE">
+                    <a:fld id="{D1FC048A-C2BA-4707-A9C7-D8D0DD931C6E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6606,7 +6606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADE1D3C1-F6A8-43E6-AB36-141076F2E1C9}" type="CELLRANGE">
+                    <a:fld id="{D0865A42-ED73-47BF-9691-2565EE5C86F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6639,7 +6639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65B09EF7-CB08-4CF7-BF8C-665B7D7E6187}" type="CELLRANGE">
+                    <a:fld id="{AA4B197E-BA7F-4AC9-881F-1373C03B7D8D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6673,7 +6673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B0146C9-ED74-4C83-8A86-953B89956EDC}" type="CELLRANGE">
+                    <a:fld id="{9582A7C3-7EDA-4003-AD10-C140D3D5B38B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6707,7 +6707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFCA45AD-A716-4D57-833F-BB22B23CB3F0}" type="CELLRANGE">
+                    <a:fld id="{15FE9ADC-4D23-435E-A4F6-C8FCA810A1F0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6741,7 +6741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22D9570E-54D4-4961-A491-1E93D223851D}" type="CELLRANGE">
+                    <a:fld id="{E279E16F-758B-479A-BEB2-CC0863DD224F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6775,7 +6775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CE5B90B-649B-4E2C-8B80-44C2261A7840}" type="CELLRANGE">
+                    <a:fld id="{2A15F6AF-1FF8-4391-A186-144EEBA89CF5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8118,7 +8118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EA057E1-3171-4FDF-B527-C786710AA9B5}" type="CELLRANGE">
+                    <a:fld id="{A59BE72E-2B41-48EE-BA71-DAFAA7F784E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8151,7 +8151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A202A827-EE50-41E0-9C8B-FC7E62D5DE81}" type="CELLRANGE">
+                    <a:fld id="{E6E1C0A3-8406-43E8-89F8-D63EA19915F7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8185,7 +8185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48EEFD90-A137-4B6E-9B40-72EF360D8011}" type="CELLRANGE">
+                    <a:fld id="{53F6C7E7-A0E6-469C-BA04-97C3CEEB4ABD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8219,7 +8219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37AC4F23-04D7-47F8-9739-498A07BC483B}" type="CELLRANGE">
+                    <a:fld id="{14DBD7DA-E94E-4411-A7B4-D7D143CC2FC1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8253,7 +8253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2862BBB0-1679-4888-AAB2-AA47E7B56DCC}" type="CELLRANGE">
+                    <a:fld id="{B41FDA56-A774-4487-9922-F5DEDCF3C832}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8287,7 +8287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E1B9767-BDAA-42A2-BFFD-2DB8D177D213}" type="CELLRANGE">
+                    <a:fld id="{A8E88A71-7461-47B8-9A03-F0D85529097B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9289,7 +9289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D32A4DA-2F4B-4FB7-A336-4833C444612D}" type="CELLRANGE">
+                    <a:fld id="{3269AF79-429E-47BF-B32F-4505D6BB9B3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9322,7 +9322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB2A9CA5-5BC8-4E08-8E0C-A8B7DD77C8C7}" type="CELLRANGE">
+                    <a:fld id="{5C09DC7A-7964-4E4A-85C4-A148FC2FBF06}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9356,7 +9356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD6B7DE5-A68D-48E2-8944-43B08964053F}" type="CELLRANGE">
+                    <a:fld id="{12DCC2CC-222F-4FF7-A2D4-D1BC4EBDE672}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9390,7 +9390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E46D2F1-30A9-48E0-AC98-3D2EA096D8FA}" type="CELLRANGE">
+                    <a:fld id="{C95D4651-0144-4A93-B4F2-3906C75CD459}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9424,7 +9424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49497E25-6611-46F7-8F3A-93192793F1C0}" type="CELLRANGE">
+                    <a:fld id="{F5D9050F-78FD-4000-BEA5-E323974E4A28}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9458,7 +9458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACFA4736-59F0-4039-9B85-EED6B9268D93}" type="CELLRANGE">
+                    <a:fld id="{08861510-DBBD-4E71-B8D8-18321FFF7681}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10112,7 +10112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13CCDF17-C97F-4337-8656-B1B6D3D60B43}" type="CELLRANGE">
+                    <a:fld id="{5DD68242-0DDD-4FF2-A8AB-3C0F730C6137}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10145,7 +10145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AD245A7-991C-4C5E-8514-2C86364B3FAD}" type="CELLRANGE">
+                    <a:fld id="{3142A61F-A40C-462C-8D07-F16AE9ACD8AA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10179,7 +10179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAEA9915-5F56-4BBD-89CA-F490043418BC}" type="CELLRANGE">
+                    <a:fld id="{58AA0335-6996-46D9-811C-86A93D621704}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10213,7 +10213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76E468F9-6ED7-4441-A4B5-8942F14EADD5}" type="CELLRANGE">
+                    <a:fld id="{74172D24-81C5-43DC-9E35-EA2F3E1CF437}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10247,7 +10247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64E4761F-3A30-4C1C-B2E0-8B5CAB374397}" type="CELLRANGE">
+                    <a:fld id="{DC5EC981-C860-4272-BA55-A26956020579}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10281,7 +10281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{035016D3-A928-411A-BE0B-01AF304B0A02}" type="CELLRANGE">
+                    <a:fld id="{34C57C0A-6918-4087-A60B-F1AFFE82309E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12970,7 +12970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A65EBCE1-CE4A-4DF6-AFAB-AF95463D98DB}" type="CELLRANGE">
+                    <a:fld id="{685A2560-584A-4641-858D-9A4DD991B4D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13003,7 +13003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F89ECD2-B03A-4EEB-99E5-679EE9DDF77D}" type="CELLRANGE">
+                    <a:fld id="{4443D513-1799-4DFA-9C0C-E74373E4F5A2}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13037,7 +13037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7BC44F7-DE0E-4D8C-9785-060141C21B45}" type="CELLRANGE">
+                    <a:fld id="{E2D478EA-69C7-4276-A08C-B6ACF3581D67}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13071,7 +13071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C66A066-830F-4C51-9B22-4F499CC843A6}" type="CELLRANGE">
+                    <a:fld id="{3E26056D-3B96-41E0-9C19-D9691CD9135C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13105,7 +13105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7985404B-8AA8-4799-90CE-22856E88AB7D}" type="CELLRANGE">
+                    <a:fld id="{803221AE-65FB-4F0F-A96E-29A38D5B8E3F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13139,7 +13139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D6E8A6E-8344-46B3-BDC5-688E9C77D60A}" type="CELLRANGE">
+                    <a:fld id="{85478B72-46E9-4F6A-8AFA-FBAD808C4CD9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18695,7 +18695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41C8EE97-0A6B-4B7E-BD43-0A6389572EE9}" type="CELLRANGE">
+                    <a:fld id="{3889D64D-1816-491A-A7BF-4332FA179241}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18728,7 +18728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C329B3C7-8F14-42AB-AC88-77C75CBC36DF}" type="CELLRANGE">
+                    <a:fld id="{73466816-3617-4596-AD25-28123EC04448}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18762,7 +18762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C0A0F42-5D13-4137-99C3-E354646C1355}" type="CELLRANGE">
+                    <a:fld id="{E6FEAC1F-25B1-4544-89E5-05D7C41D82EC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18796,7 +18796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4095796-0682-437A-A45B-2DE03641BBFC}" type="CELLRANGE">
+                    <a:fld id="{63425197-E0CD-4F16-83BF-07A7A9821706}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -34295,16 +34295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>32017</xdr:rowOff>
+      <xdr:rowOff>43223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>160520</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>373431</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52392</xdr:rowOff>
+      <xdr:rowOff>63598</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34371,16 +34371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>304159</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>229356</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>129232</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>397444</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34485,16 +34485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>416219</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
-      <xdr:colOff>610356</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>74804</xdr:rowOff>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>509502</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34675,16 +34675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>354716</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>93569</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466774</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>127186</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34713,16 +34713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>1553744</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>172009</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52156</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>138391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35017,7 +35017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D4FD2-0EC3-4246-9368-74132FA6B2E6}">
   <dimension ref="C3:BH218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH141" sqref="AH141"/>
     </sheetView>
   </sheetViews>
